--- a/Dat/RawData_prob3060.xlsx
+++ b/Dat/RawData_prob3060.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,62 +437,47 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Initial minimum</t>
+          <t>Minimum Fun</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Initial maximum</t>
+          <t>Maximum Fun</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Initial average</t>
+          <t>Average Fun</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Final minimum</t>
+          <t>Minimum income</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Final maximum</t>
+          <t>Maximum income</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Final average</t>
+          <t>Average income</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Minimum income</t>
+          <t>Minimum time</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Maximum income</t>
+          <t>Maximum time</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Average income</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Iteration time</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Suboptimal teaching time</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Average teaching time</t>
+          <t>Average time</t>
         </is>
       </c>
     </row>
@@ -500,41 +485,300 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>0.02614133983740975</v>
-      </c>
-      <c r="C2" t="n">
-        <v>21.40204397274288</v>
-      </c>
-      <c r="D2" t="n">
-        <v>14.79797877787362</v>
-      </c>
-      <c r="E2" t="n">
-        <v>36.87275108958396</v>
-      </c>
-      <c r="F2" t="n">
-        <v>40.32647324127754</v>
-      </c>
-      <c r="G2" t="n">
-        <v>38.06171765336287</v>
-      </c>
-      <c r="H2" t="n">
-        <v>161</v>
-      </c>
-      <c r="I2" t="n">
-        <v>231</v>
-      </c>
-      <c r="J2" t="n">
-        <v>168.16</v>
-      </c>
-      <c r="K2" t="n">
-        <v>25.43666505813599</v>
-      </c>
-      <c r="L2" t="n">
-        <v>5.728247015748257</v>
-      </c>
-      <c r="M2" t="n">
-        <v>4.418087526460923</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>[0.023501500270270294, 0.03348986782035479, 0.03961097421190246, 0.04974411002364298, 0.05815251094443879, 0.05841224004899959, 0.07203131524108099, 0.07532, 11.915005281014361, 14.865649762885218, 14.984863370194217, 15.05152292616667, 15.088860982259924, 15.134782018580367, 15.276328303959684, 15.87476738488929, 15.969101842600814, 16.100974722013756, 16.188288498486383, 16.224734922823156, 16.254052796969912, 16.261316871108026, 16.43294981165797, 16.509413194086534, 16.512847817311062, 16.529083454450546, 16.56037161703187, 16.681236587058766, 16.900204648859084, 16.996184933860466, 16.996184933860466, 17.097620557425206, 17.116905761060696, 17.117507692903082, 17.173667030607202, 17.21616468692559, 17.241172277675624, 17.243663420384177, 17.298882244061367, 17.34043061433457, 17.446087697796333, 17.556721652356778, 17.556721652356778, 17.57241463234143, 17.616822221375216, 17.67216408280056, 17.808498179113805, 17.835257658541742, 17.85339445260119, 18.099286754429027, 18.099286754429027, 18.161763465165155, 18.298362800633964, 18.316269245724364, 18.334712765571403, 18.33631090702178, 18.38548802453832, 18.38548802453832, 18.40409071363668, 18.58397142490935, 18.61796928948849, 18.702037979203993, 18.81185114821136, 18.922049518217463, 18.961210486674812, 19.082502999385582, 19.140793255248365, 19.162620235557785, 19.182703365415847, 19.196369996111915, 19.196369996111915, 19.224148697789463, 19.306688149068357, 19.31500950794368, 19.379203058127715, 19.379203058127715, 19.398031429455507, 19.50353371345375, 19.62920750007821, 19.62920750007821, 19.645166337503166, 19.645166337503166, 19.6668843946864, 19.6668843946864, 19.694289222057606, 19.732232276730215, 19.760469758760234, 19.915007268394174, 20.00154838359369, 20.00552829166546, 20.00552829166546, 20.054645850634113, 20.067476318901676, 20.06878124887113, 20.075319479105417, 20.134071808671926, 20.15528375318946, 20.224317754667236, 20.237778897041274, 20.279658412235186, 20.280022686157125, 20.380154290529227, 20.380154290529227, 20.382488683550264, 20.440319700047578, 20.455379758379202, 20.455379758379202, 20.474972896977256, 20.474972896977256, 20.513102959623897, 20.53103012354006, 20.53103012354006, 20.573946921820017, 21.17068152006771, 21.17068152006771, 21.17068152006771, 21.17068152006771, 21.17068152006771, 21.17068152006771, 21.17068152006771, 21.17068152006771, 21.17068152006771, 21.188414466685398, 21.189029712622567, 21.194802412986157, 21.296707843546034, 21.296707843546034, 21.500741621809496, 21.536459435551368, 21.715060245493746, 21.728727327145105, 21.728727327145105, 21.728727327145105, 21.728727327145105, 21.87271701577289, 21.955459893121155, 21.955459893121155, 22.018788840183845, 22.097534251618875, 22.097534251618875, 22.10895662923808, 22.10895662923808, 22.10895662923808, 22.10895662923808, 22.10895662923808, 22.142422912683536, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.209830417734022, 22.235439958269037, 22.235439958269037, 22.235439958269037, 22.235439958269037, 22.258815398020204, 22.258815398020204, 22.27032154243646, 22.27032154243646, 22.27032154243646, 22.27032154243646, 22.27032154243646, 22.27032154243646, 22.27032154243646, 22.27032154243646, 22.27032154243646, 22.27032154243646, 22.27032154243646, 22.27032154243646, 22.27032154243646, 22.383180055046125, 22.414326205590566, 22.656962060483234, 22.656962060483234, 22.656962060483234, 22.656962060483234, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.767142162656413, 22.767142162656413, 22.767142162656413, 23.113148853926948, 23.113148853926948, 23.113148853926948, 23.113148853926948, 23.113148853926948, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.21916460353227, 23.21916460353227, 23.21916460353227, 23.21916460353227, 23.21916460353227, 23.21916460353227, 23.21916460353227, 23.21916460353227, 23.21916460353227, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.555267181665638, 23.826200652434, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.772688794518455, 24.913982993410663, 24.913982993410663, 24.913982993410663, 24.913982993410663, 24.913982993410663, 24.913982993410663, 24.913982993410663, 24.913982993410663, 24.913982993410663, 24.913982993410663, 24.913982993410663, 24.913982993410663, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.969454994576203, 24.969454994576203, 24.969454994576203, 25.23384060445947, 25.265267688765835, 25.38515357200358, 25.38515357200358, 25.38515357200358, 25.38515357200358, 25.632886105225307, 25.632886105225307, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.947533282305823, 25.947533282305823, 25.952517014678588, 25.952517014678588, 25.952517014678588, 25.952517014678588, 25.952517014678588, 26.615184806625027, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 0.024962200481788512, 0.0410952923124014, 0.05735369109552784, 0.059310585639836245, 0.062026769886436045, 0.07328278029361412, 0.07430772783039234, 0.07895030244355815, 0.10142854785070055, 12.550991916580308, 13.355681318482919, 13.788612201556363, 14.107327814585503, 14.409653905154036, 14.585851469965387, 14.904191063290153, 15.136939836369315, 15.392256430405057, 15.556200734689194, 15.702780377017083, 16.157256134613142, 16.162400877880025, 16.262660141810475, 16.27117154220034, 16.32958318998733, 16.342491356707225, 16.435274843056213, 16.439580292785234, 16.45545867720279, 16.46187208023315, 16.467945671102292, 16.46854923018223, 16.622619326854874, 16.646365086275463, 16.710023248724852, 16.82335667776486, 16.912630782798487, 16.955715399399672, 17.10586562577529, 17.19983193775848, 17.27837480881585, 17.302481986910607, 17.41421377627372, 17.43084504082062, 17.603725864553677, 17.66636227991215, 17.71638795611083, 17.717826933303286, 17.717826933303286, 17.738305294436522, 17.78587080830782, 17.78587080830782, 17.805675763217213, 18.001506908498378, 18.053755406144845, 18.053755406144845, 18.080784871548857, 18.215083481389343, 18.234699048487403, 18.234699048487403, 18.382181158374983, 18.75641399513511, 18.765787073171673, 18.765787073171673, 18.78025074859572, 18.79311296377226, 18.896617548091612, 18.896617548091612, 18.927952587446537, 19.01480351771421, 19.02355277146652, 19.02355277146652, 19.13357184592741, 19.145268982270046, 19.20716658487324, 19.313857273227455, 19.32180916157945, 19.327177945577862, 19.410572904920265, 19.44548927936243, 19.467586212141338, 19.499589646954103, 19.53673527282301, 19.672813757909143, 19.853760162251092, 19.940605493319413, 19.951339930148077, 19.964588173435352, 20.046870563125808, 20.046870563125808, 20.118308925687238, 20.153016978473282, 20.153016978473282, 20.26736984194413, 20.26736984194413, 20.28377017310277, 20.28377017310277, 20.28377017310277, 20.348812783016324, 20.348812783016324, 20.467991246556846, 20.517432412433656, 20.567374505742553, 20.71723145019455, 20.721885200839093, 20.740380779736984, 20.825132951459253, 20.851838059736846, 20.889354342856837, 20.909464247347866, 20.909464247347866, 20.909464247347866, 21.02329082522837, 21.035835053109732, 21.035835053109732, 21.037621191153598, 21.060405455512182, 21.060405455512182, 21.138384206816305, 21.167790272968873, 21.27313007413327, 21.32026299004388, 21.35475151671405, 21.35475151671405, 21.35475151671405, 21.35475151671405, 21.399456584696125, 21.42343104309407, 21.440157252934533, 21.440157252934533, 21.440157252934533, 21.440157252934533, 21.47858034503543, 21.47858034503543, 21.581315610066916, 21.588039856878606, 21.680057676829477, 21.680057676829477, 21.680057676829477, 21.680057676829477, 21.709600096986144, 21.709600096986144, 21.709600096986144, 21.709600096986144, 21.786691026200934, 21.786691026200934, 21.786691026200934, 21.838778097008262, 21.840721817472105, 21.840721817472105, 21.840721817472105, 21.840721817472105, 21.840721817472105, 21.840721817472105, 21.917947823269866, 21.917947823269866, 21.917947823269866, 21.917947823269866, 22.101910082233086, 22.101910082233086, 22.101910082233086, 22.101910082233086, 22.127916874588678, 22.127916874588678, 22.127916874588678, 22.25428584658498, 22.25428584658498, 22.25428584658498, 22.25428584658498, 22.25428584658498, 22.25428584658498, 22.25428584658498, 22.25428584658498, 22.25428584658498, 22.25428584658498, 22.25428584658498, 22.25428584658498, 22.298295470708613, 22.298295470708613, 22.630023386447682, 22.69902685086493, 22.69902685086493, 22.88812324685349, 22.95700020762808, 23.028369470141573, 23.166723455456907, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.611698600676483, 23.74978385835753, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 24.40661626058381, 25.303015402955047, 25.303015402955047, 25.303015402955047, 25.303015402955047, 25.303015402955047, 25.303015402955047, 25.303015402955047, 25.303015402955047, 25.303015402955047, 25.303015402955047, 25.303015402955047, 25.303015402955047, 25.303015402955047, 25.326026876815206, 25.493252323386198, 26.424388487608404, 26.424388487608404, 27.557191924858166, 27.699117350447544, 27.699117350447544, 27.699117350447544, 27.699117350447544, 27.699117350447544, 27.699117350447544, 27.699117350447544, 29.06226772944584, 29.06226772944584, 29.06226772944584, 29.086640650988183, 29.086640650988183, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.967947991966685, 29.967947991966685, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983]</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[21.500741621809496, 21.500741621809496, 21.500741621809496, 21.500741621809496, 21.500741621809496, 21.500741621809496, 21.500741621809496, 21.500741621809496, 21.500741621809496, 21.500741621809496, 21.500741621809496, 21.500741621809496, 21.500741621809496, 21.500741621809496, 21.500741621809496, 21.500741621809496, 21.500741621809496, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.913982993410663, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 26.818334793801288, 26.818334793801288, 26.818334793801288, 26.818334793801288, 26.818334793801288, 26.818334793801288, 26.818334793801288, 26.818334793801288, 26.818334793801288, 26.818334793801288, 26.818334793801288, 26.818334793801288, 26.818334793801288, 26.818334793801288, 26.818334793801288, 26.818334793801288, 26.818334793801288, 26.818334793801288, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.7483064453565, 28.7483064453565, 28.7483064453565, 28.7483064453565, 28.7483064453565, 28.7483064453565, 28.7483064453565, 28.7483064453565, 28.7483064453565, 28.7483064453565, 28.7483064453565, 28.7483064453565, 28.7483064453565, 28.7483064453565, 28.7483064453565, 28.7483064453565, 30.466375701254584, 30.466375701254584, 30.466375701254584, 30.466375701254584, 30.466375701254584, 30.466375701254584, 30.466375701254584, 30.466375701254584, 30.466375701254584, 30.466375701254584, 22.630023386447682, 22.630023386447682, 22.630023386447682, 22.630023386447682, 22.630023386447682, 22.630023386447682, 22.630023386447682, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 29.086640650988183, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 31.44224968562766, 31.44224968562766, 31.44224968562766, 31.44224968562766, 31.44224968562766, 31.44224968562766, 32.022246678744594, 32.022246678744594, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 33.096522254847116]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>[13.77867094885682, 14.129335351898549, 14.453891891964304, 14.853130640151939, 15.535816425377458, 15.879476820712082, 16.675544604843495, 17.040830196679106, 17.388245550635034, 17.56153808942057, 17.61850547592509, 17.67551336169204, 17.752923893533058, 17.793484789109076, 17.79631571481666, 17.83274155988597, 17.928063004282684, 18.105654151321588, 18.13508294952814, 18.224169342133894, 18.28763527226654, 18.37403315476354, 18.415132202255865, 18.417680638363347, 18.44093565613763, 18.534446989125115, 18.584195564559952, 18.592911830896522, 18.60361039289386, 18.63964705950076, 18.698023506191433, 18.72479406282565, 18.790444737487732, 18.79157996287866, 18.858729266960143, 18.902839987510557, 18.969137296242845, 18.969187119097015, 19.009944576786157, 19.04561699189264, 19.153909414513656, 19.198325348451462, 19.23044332011548, 19.2668929482309, 19.305515329853144, 19.345763035427204, 19.382840972202516, 19.394380769111006, 19.481568593660274, 19.559075251151157, 19.589992842812638, 19.60429278181347, 19.66483810676262, 19.68335382470573, 19.70961258979281, 19.726572401789696, 19.78325981405062, 19.799477453482087, 19.83444912916476, 19.918601022689007, 19.970335224592173, 20.021389469203758, 20.039932859621246, 20.147918865981424, 20.213370853337178, 20.302464954740763, 20.329922489920637, 20.37100267307539, 20.387860834197546, 20.40431733272254, 20.429497527967886, 20.453173213856232, 20.521106000862723, 20.53634786285878, 20.593940650420013, 20.64093113580036, 20.696195532891476, 20.752127882022474, 20.787991364624318, 20.82970841953263, 20.891538772313393, 20.922049075964686, 20.93065213879673, 20.981207428623108, 20.993470194452524, 21.000933936389405, 21.07568732007857, 21.135578959811074, 21.141765169536537, 21.196835236772376, 21.24061764865917, 21.276975980072706, 21.29929669346138, 21.34184014480345, 21.363878150227382, 21.371178154646223, 21.410447403505163, 21.449520861026134, 21.489231114287474, 21.528368514066752, 21.533037405014525, 21.536936409230925, 21.552746953821696, 21.58732300059587, 21.623566204644973, 21.65693894322878, 21.690010480645956, 21.72479586319848, 21.759189382979038, 21.795096355888223, 21.795454899166543, 21.808247927097096, 21.8322018711692, 21.87770915673077, 21.87770915673077, 21.89818850404952, 21.913884071510594, 21.934363418829342, 21.95312892101275, 21.974891598571798, 21.996884399019173, 22.015649901202583, 22.036129248521334, 22.05431164422, 22.065105596510453, 22.094348789460398, 22.110593765174237, 22.148642523147704, 22.162520668431622, 22.1756844574407, 22.1910774605117, 22.200395891688903, 22.211227775994736, 22.22054620717194, 22.28977165941863, 22.29621029682328, 22.326499128184622, 22.331282908042304, 22.334800108958735, 22.33802573188676, 22.39347688752501, 22.39670418578898, 22.398418030924322, 22.400131876059667, 22.40184572119501, 22.403559566330355, 22.415812142984397, 22.44131719448806, 22.452525251675667, 22.47196180942178, 22.483169866609387, 22.50153986596782, 22.527044917471486, 22.53849478300451, 22.547741046494068, 22.567177604240182, 22.578385661427788, 22.625642185487198, 22.62715563861583, 22.64659219636194, 22.64659219636194, 22.669250119082573, 22.669250119082573, 22.6707635722112, 22.690200129957315, 22.690200129957315, 22.69171358308594, 22.711150140832057, 22.722358198019666, 22.74786324952333, 22.773368301026995, 22.773368301026995, 22.79280485877311, 22.804012915960715, 22.80482873740599, 22.82426529515211, 22.837228613813753, 22.84647487730331, 22.846987068114014, 22.850564793060443, 22.869185529361285, 22.869185529361285, 22.877615971405568, 22.8947026405237, 22.913909624633945, 22.931832729251436, 22.948689275481243, 22.965545821711054, 22.983468926328545, 22.983468926328545, 22.983468926328545, 22.983468926328545, 22.983468926328545, 22.993163530387527, 23.00285813444651, 23.01971468067632, 23.0294092847353, 23.047332389352793, 23.05476982315958, 23.070866591118417, 23.10887685168827, 23.10887685168827, 23.119067145944822, 23.122990733340917, 23.132272990503854, 23.140501491062363, 23.148729991620872, 23.156958492179385, 23.156958492179385, 23.17125548649544, 23.207303953367244, 23.215532453925757, 23.223760954484263, 23.231989455042775, 23.240217955601285, 23.248446456159794, 23.256674956718303, 23.25691676506372, 23.279442259938286, 23.287670760496795, 23.2958992610553, 23.303885953268395, 23.348733060612304, 23.384539719138694, 23.413426243839673, 23.41449280222735, 23.415559360615035, 23.444445885316014, 23.477045373425188, 23.483113867182738, 23.489182360940287, 23.517002327253582, 23.517002327253582, 23.54482229356688, 23.55801677114934, 23.55801677114934, 23.585836737462635, 23.585836737462635, 23.613656703775938, 23.641476670089233, 23.673009599810726, 23.673009599810726, 23.70082956612402, 23.706898059881567, 23.73471802619487, 23.790357958821463, 23.790357958821463, 23.796426452579013, 23.824246418892308, 23.852066385205607, 23.852066385205607, 23.852066385205607, 23.879886351518902, 23.879886351518902, 23.911419281240395, 23.939239247553697, 23.97077217727519, 23.998592143588485, 23.998592143588485, 24.00466063734603, 24.039610761748026, 24.075166707440303, 24.106699637161796, 24.106699637161796, 24.106699637161796, 24.13823256688329, 24.169765496604782, 24.19758546291808, 24.204307514480753, 24.204307514480753, 24.204307514480753, 24.204307514480753, 24.204307514480753, 24.231073724189624, 24.231073724189624, 24.2578399338985, 24.291736301696066, 24.31720073766001, 24.342665173623956, 24.371546804268394, 24.393298276824147, 24.418762712788094, 24.44051418534384, 24.46226565789959, 24.484017130455342, 24.484017130455342, 24.505768603011088, 24.52752007556684, 24.52752007556684, 24.549271548122586, 24.549271548122586, 24.59277449323409, 24.612818651380294, 24.627444140111134, 24.627444140111134, 24.631157103519328, 24.63828726160802, 24.63828726160802, 24.642000225016215, 24.642000225016215, 24.64571318842441, 24.652843346513105, 24.659973504601798, 24.667103662690494, 24.67423382077919, 24.677946784187384, 24.681659747595578, 24.68537271100377, 24.689085674411967, 24.69279863782016, 24.69651160122835, 24.700224564636546, 24.707960544015528, 24.711673507423725, 24.715386470831916, 24.723122450210898, 24.726835413619092, 24.73054837702729, 24.73426134043548, 24.73797430384368, 24.741687267251873, 24.74540023066007, 24.749113194068265, 24.752826157476463, 24.756539120884653, 24.764275100263635, 24.76798806367183, 24.76798806367183, 24.771701027080027, 24.798944250185876, 24.80265721359407, 24.809787371682763, 24.809787371682763, 24.809787371682763, 24.809787371682763, 24.813810387653547, 24.813810387653547, 24.81783340362433, 24.81783340362433, 24.81783340362433, 24.821856419595115, 24.8258794355659, 24.845696731855366, 24.845696731855366, 24.849113926535864, 24.85313694250665, 24.85313694250665, 24.872968389840352, 24.872968389840352, 24.89278568612982, 24.896808702100603, 24.900831718071387, 24.904854734042168, 24.90887775001296, 24.912294944693453, 24.916317960664237, 24.930155323536496, 24.949986770870197, 24.95742698152148, 24.961449997492263, 24.965473013463047, 24.96949602943383, 25.030817556411606, 25.03484057238239, 25.03484057238239, 25.0516896840179, 25.075529996278156, 25.079553012248944, 25.08357602821973, 25.08759904419052, 25.10743049152422, 25.11195712622803, 25.115388831496162, 25.115994652786444, 25.132408905439643, 25.13301472672993, 25.13362054802021, 25.13362054802021, 25.134226369310497, 25.134832190600783, 25.199593516092115, 25.2001993373824, 25.22097001780776, 25.258424890802917, 25.310257826034373, 25.347106877739243, 25.347106877739243, 25.36291530910216, 25.37870958942084, 25.379213208153864, 25.395007488472547, 25.431856540177424, 25.447650820496104, 25.476633269912753, 25.492441701275666, 25.529290752980543, 25.545085033299223, 25.581934085004097, 25.597742516367006, 25.63577925170966, 25.708146524901995, 25.72831138403707, 25.744119815399987, 25.80671947692334, 25.870269159834102, 25.90711821153898, 25.915935801820552, 25.931730082139232, 25.995279765049997, 26.032128816754867, 26.04590105770087, 26.046404676433895, 26.062213107796808, 26.078007388115484, 26.09329804970114, 26.108602862331026, 26.123907674960915, 26.133910624348903, 26.14328503205077, 26.15027587313211, 26.157266714213453, 26.185298175636753, 26.213329637060053, 26.23640644781892, 26.28523386839626, 26.285248019440495, 26.31057369499563, 26.31494427381202, 26.314958424856254, 26.31498672694472, 26.315000877988954, 26.336055649375144, 26.357110420761337, 26.378165192147527, 26.42592059473961, 26.446975366125802, 26.464599300781124, 26.485639921123084, 26.489996348895243, 26.58895241650086, 26.60999303684282, 26.60999303684282, 26.631033657184776, 26.631033657184776, 26.63529041030948, 26.65633103065144, 26.6773716509934, 26.698412271335357, 26.719452891677314, 26.775490838511864, 26.796531458853824, 26.84332268901426, 26.891063940562113, 26.92606126705471, 26.92606126705471, 26.94710188739667, 26.989636364432403, 27.023104424219454, 27.065539226607733, 27.107974028996015, 27.12465822156581, 27.12465822156581, 27.14134241413561, 27.144773250866482, 27.144773250866482, 27.158729957017115, 27.158729957017115, 27.185430588223007, 27.185430588223007, 27.185430588223007, 27.185430588223007, 27.212131219428898, 27.212131219428898, 27.212131219428898, 27.21254965947247, 27.25178125551623, 27.25178125551623, 27.26573796166687, 27.26573796166687, 27.26573796166687, 27.26573796166687, 27.26573796166687, 27.291488571485345, 27.291488571485345, 27.291488571485345, 27.291488571485345, 27.291488571485345, 27.318189202691237, 27.318189202691237, 27.318189202691237, 27.318189202691237, 27.391782183852957, 27.405738890003594, 27.431489499822074, 27.445446205972708, 27.4721468371786, 27.498847468384486, 27.524598078202967, 27.524598078202967, 27.538554784353604, 27.548786721136437, 13.626825238842638, 13.95291765863275, 14.587639712412955, 14.911916069435051, 15.602987909439417, 15.93448238884029, 15.93504530419143, 16.392699153787383, 16.79418048730798, 17.449809238401787, 17.509913414763968, 17.608219522575542, 17.69352238666731, 17.714114627102987, 17.75277137613405, 17.89415514587193, 17.925430238028174, 18.09505227588197, 18.110455164831468, 18.155048566303837, 18.252174703761412, 18.280154390886892, 18.39526532979469, 18.44587438623392, 18.49631321466536, 18.552626930511018, 18.603709454338706, 18.61147109103288, 18.63700724429939, 18.690803450400736, 18.729209631963574, 18.754207257207593, 18.843025557550906, 18.914056005203744, 18.942744400909213, 19.07903936791791, 19.145632573932076, 19.201553834051957, 19.248875709295554, 19.266788534950017, 19.287485877164592, 19.348894636648605, 19.408520400372446, 19.474580753850862, 19.595390348709167, 19.59903324758425, 19.610399982955755, 19.63167723880545, 19.70441573047367, 19.766561850836787, 19.78711148641149, 19.83233148150785, 19.864825523440103, 19.898703801114838, 19.913801942847574, 19.913801942847574, 19.967164538741457, 20.019532498482242, 20.097269030499117, 20.155930854988746, 20.190048983885386, 20.258139181241905, 20.317202903278925, 20.34282457307801, 20.372856228453458, 20.377722268910876, 20.451227524770307, 20.451227524770307, 20.552925736130902, 20.59335596100626, 20.623408538900648, 20.629481042382878, 20.684743807477563, 20.699147573804034, 20.842538983736368, 20.86129318926805, 20.86575074925996, 20.9589451283508, 20.993609678549483, 21.038999373987668, 21.129720150722843, 21.16917157153871, 21.205585038400503, 21.213877131547, 21.285829101098738, 21.320380210055056, 21.32724350365072, 21.355311735382042, 21.383115002247614, 21.44274498038793, 21.478622005474854, 21.505058972019796, 21.507674035912387, 21.525821805453166, 21.525821805453166, 21.547395226526014, 21.57348062020153, 21.585592303596613, 21.607906031828477, 21.61911906111511, 21.650501761920182, 21.67533393892877, 21.679792906274834, 21.712846893457744, 21.715539025648592, 21.721818022694002, 21.734105437433545, 21.75120393194095, 21.770981607095656, 21.78679567377511, 21.813692105759852, 21.813692105759852, 21.864304955798005, 21.8858773409381, 21.9035195963413, 21.91961733162855, 21.93567934415492, 21.943274380103368, 21.967151987924822, 21.989470020720194, 22.011199932192522, 22.039717867727155, 22.149071561706435, 22.155577684908746, 22.173568371506164, 22.175276486230572, 22.19504146667011, 22.231017670159055, 22.24763476622887, 22.263917338101884, 22.314744755365613, 22.324300566772322, 22.37512798403605, 22.37512798403605, 22.446330526231154, 22.494334776352243, 22.531376114199787, 22.54033329815497, 22.575534279603495, 22.610735261052017, 22.65676466983785, 22.65938710424757, 22.693997237292965, 22.728607370338356, 22.76321750338375, 22.796285817844847, 22.796285817844847, 22.84018255964325, 22.84849271463478, 22.88048041327046, 22.926932934670422, 22.9697490606434, 22.9697490606434, 23.00173675927908, 23.0069605245743, 23.037403703094018, 23.05302528364592, 23.083468462165637, 23.124740068022664, 23.127787583309704, 23.15455151665016, 23.218573623064593, 23.245337556405048, 23.282409781235696, 23.308653578729036, 23.33489737622238, 23.33489737622238, 23.33489737622238, 23.358613794275794, 23.39315863966652, 23.416875057719935, 23.440591475773353, 23.475136321164076, 23.49885273921749, 23.507747559303088, 23.531463977356506, 23.55518039540992, 23.578896813463338, 23.601733039034283, 23.635397691942536, 23.646131693322722, 23.79953399463031, 23.944912417452347, 24.081770931905563, 24.102261490075424, 24.110496235657706, 24.15322207460767, 24.279040919012836, 24.279040919012836, 24.279040919012836, 24.279040919012836, 24.289869346350148, 24.293301183378563, 24.352986818145613, 24.352986818145613, 24.363815245482918, 24.37464367282023, 24.411901845894214, 24.4491600189682, 24.562090697002844, 24.562090697002844, 24.572919124340157, 24.698737968745323, 24.698737968745323, 24.824556813150494, 24.835385240487803, 24.961204084892973, 24.998462257966956, 25.12428110237213, 25.250099946777297, 25.375918791182468, 25.413176964256454, 25.498357176280287, 25.624176020685454, 25.63500444802276, 25.645832875360064, 25.656661302697373, 25.667489730034678, 25.67488632034357, 25.679521205498844, 25.794511622566706, 25.909502039634567, 25.935931785371245, 26.050922202439107, 26.165912619506962, 26.280903036574824, 26.395893453642685, 26.422323199379363, 26.422323199379363, 26.422323199379363, 26.537313616447218, 26.65230403351508, 26.767294450582934, 26.793724196319612, 26.868075981006136, 26.868075981006136, 26.939589257180877, 26.96601900291755, 26.99244874865423, 27.134329140935964, 27.249319558003823, 27.249319558003823, 27.32367134269035, 27.350101088427028, 27.376530834163706, 27.491521251231564, 27.606511668299426, 27.680863452985953, 27.795853870053815, 27.82608835419912, 27.852518099935796, 27.95900675411441, 28.006928793064255, 28.09548946439544, 28.184050135726622, 28.23197217467647, 28.23197217467647, 28.320532846007655, 28.484278563868653, 28.572839235199837, 28.765050053097717, 28.8536107244289, 28.942171395760084, 28.990093434709934, 29.06527848123975, 29.109901782200613, 29.19465771512317, 29.260790924761285, 29.385490750528035, 29.428967891421152, 29.469606523802486, 29.510245156183817, 29.510245156183817, 29.55088378856515, 29.591522420946486, 29.632161053327817, 29.70006269328912, 29.71343831809049, 29.726813942891855, 29.740189567693218, 29.75307773406374, 29.765965900434256, 29.765965900434256, 29.765965900434256, 29.765965900434256, 29.765965900434256, 29.765965900434256, 29.765965900434256, 29.765965900434256, 29.765965900434256, 29.765965900434256, 29.796144850905286, 29.796144850905286, 29.8112343261408, 29.8112343261408, 29.8112343261408, 29.8112343261408, 29.8112343261408, 29.82632380137631, 29.82632380137631, 29.82632380137631, 29.84141327661182, 29.84141327661182, 29.84141327661182, 29.84141327661182, 29.856502751847334, 29.871592227082846, 29.88668170231836, 29.901771177553872, 29.901771177553872, 29.91686065278939, 29.9319501280249, 29.947039603260414, 29.962129078495927, 29.97721855373144, 29.97721855373144, 29.97721855373144, 29.992308028966953, 29.992308028966953, 30.00739750420247, 30.022486979437975, 30.022486979437975, 30.03757645467349, 30.052665929909004, 30.067755405144517, 30.08284488038003, 30.097934355615543, 30.097934355615543, 30.113023830851056, 30.143202781322085, 30.158292256557598, 30.158292256557598, 30.158292256557598, 30.17338173179311, 30.203560682264136, 30.218650157499653, 30.233739632735166, 30.24882910797068, 30.26391858320619, 30.279008058441704, 30.279008058441704, 30.294097533677217, 30.30918700891273, 30.324276484148246, 30.33936595938376, 30.33936595938376, 30.354455434619272, 30.369544909854785, 30.384634385090298, 30.39972386032581, 30.414813335561327, 30.42990281079684, 30.444992286032353, 30.460081761267865, 30.464819741716916, 30.47517123650338, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.514649959325894, 30.514649959325894, 30.514649959325894, 30.52464264827519, 30.52464264827519, 30.534635337224486, 30.57536250512288, 30.585355194072175, 30.624974356261795, 30.624974356261795, 30.655708835210895, 30.665701524160184, 30.684836063246944, 30.684836063246944, 30.724455225436564, 30.74358976452332, 30.74358976452332, 30.753582453472614, 30.753582453472614, 30.753582453472614, 30.76357514242191, 30.76357514242191, 30.76357514242191, 30.782709681508667, 30.782709681508667, 30.792702370457963, 30.832321532647583, 30.871940694837207, 30.911559857026827, 30.930694396113587, 30.930694396113587, 30.970313558303204, 31.0110407262016, 31.0110407262016, 31.030175265288353, 31.030175265288353, 31.030175265288353, 31.04016795423765, 31.050160643186945, 31.06015333213624, 31.079287871223002, 31.0892805601723, 31.128899722361915, 31.148034261448675, 31.207638801536888, 31.259858792008032]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>[25, 35, 41, 50, 62, 59, 74, 77, 83, 262, 294, 216, 272, 275, 104, 109, 312, 150, 327, 121, 91, 75, 294, 283, 236, 119, 335, 256, 284, 114, 114, 200, 273, 128, 263, 180, 279, 292, 280, 342, 231, 84, 84, 166, 188, 328, 121, 158, 231, 166, 166, 136, 241, 308, 92, 203, 265, 265, 317, 246, 111, 197, 124, 145, 181, 130, 138, 128, 184, 305, 305, 327, 219, 100, 230, 230, 136, 156, 221, 221, 154, 154, 203, 203, 183, 242, 295, 134, 180, 155, 155, 177, 222, 224, 300, 132, 316, 313, 336, 253, 132, 211, 211, 116, 307, 257, 257, 197, 197, 177, 255, 255, 219, 202, 202, 202, 202, 202, 202, 202, 202, 202, 182, 191, 131, 137, 137, 108, 248, 309, 206, 206, 206, 206, 259, 295, 295, 307, 233, 233, 202, 202, 202, 202, 202, 158, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 194, 234, 234, 234, 234, 127, 127, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 228, 279, 188, 188, 188, 188, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 169, 169, 169, 113, 113, 113, 113, 113, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 117, 117, 117, 117, 117, 117, 117, 117, 117, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 212, 229, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 192, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 241, 241, 241, 214, 152, 182, 182, 182, 182, 149, 149, 196, 196, 196, 196, 196, 196, 196, 196, 196, 196, 196, 196, 200, 200, 200, 200, 200, 200, 200, 200, 200, 200, 200, 200, 200, 200, 200, 200, 200, 200, 200, 203, 203, 114, 114, 114, 114, 114, 151, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 26, 42, 58, 60, 66, 75, 76, 80, 111, 76, 195, 94, 107, 158, 150, 177, 246, 146, 134, 164, 223, 129, 215, 208, 222, 211, 269, 145, 213, 231, 153, 211, 259, 145, 273, 185, 190, 218, 220, 148, 279, 195, 112, 162, 209, 222, 199, 194, 194, 170, 173, 173, 163, 188, 228, 228, 197, 279, 200, 200, 257, 276, 208, 208, 134, 236, 278, 278, 77, 219, 187, 187, 154, 229, 146, 94, 263, 277, 185, 163, 116, 169, 300, 107, 181, 167, 266, 174, 254, 254, 189, 135, 135, 208, 208, 212, 212, 212, 166, 166, 158, 214, 179, 230, 311, 103, 179, 264, 278, 210, 210, 210, 123, 101, 101, 139, 218, 218, 104, 150, 182, 129, 151, 151, 151, 151, 335, 306, 321, 321, 321, 321, 181, 181, 123, 140, 267, 267, 267, 267, 189, 189, 189, 189, 197, 197, 197, 162, 306, 306, 306, 306, 306, 306, 236, 236, 236, 236, 91, 91, 91, 91, 300, 300, 300, 208, 208, 208, 208, 208, 208, 208, 208, 208, 208, 208, 208, 249, 249, 105, 195, 195, 277, 319, 141, 146, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 350, 234, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 171, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 185, 192, 129, 129, 188, 202, 202, 202, 202, 202, 202, 202, 148, 148, 148, 133, 133, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 139, 139, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>[108, 108, 108, 108, 108, 108, 108, 108, 108, 108, 108, 108, 108, 108, 108, 108, 108, 259, 259, 259, 259, 259, 259, 259, 259, 259, 259, 259, 259, 259, 259, 259, 259, 259, 259, 259, 259, 259, 259, 259, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 137, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 196, 196, 196, 196, 196, 196, 196, 196, 196, 196, 196, 196, 196, 196, 196, 196, 196, 196, 200, 200, 200, 200, 200, 200, 200, 200, 200, 200, 200, 200, 200, 200, 200, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 199, 199, 199, 199, 199, 199, 199, 199, 199, 199, 199, 199, 199, 199, 199, 199, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 105, 105, 105, 105, 105, 105, 105, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 133, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 162, 162, 162, 162, 162, 162, 160, 160, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 188]</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[186.62, 187.8, 188.6, 191.38, 196.1, 200.44, 206.1, 208.68, 211.76, 208.96, 207.52, 204.8, 203.38, 203.4, 199.98, 201.9, 200.04, 198.38, 198.7, 197.46, 197.76, 200.32, 204.98, 205.8, 206.7, 205.62, 204.84, 200.42, 198.9, 197.16, 197.56, 197.12, 197.34, 197.14, 198.52, 197.86, 199.36, 199.62, 197.14, 194.14, 189.82, 189.26, 190.14, 193.06, 192.86, 193.52, 189.24, 192.12, 194.02, 193.52, 193.28, 193.58, 194.68, 196.4, 194.66, 196.5, 196.48, 197.28, 194.62, 191.36, 190.48, 192.3, 192.78, 193.54, 195.7, 202.26, 204.8, 204.66, 205.2, 204.62, 203.66, 201.78, 200.62, 200.72, 203.78, 203.3, 201.86, 204.2, 203.82, 205.58, 208.12, 209.08, 212.0, 213.0, 211.58, 212.36, 210.52, 207.14, 210.72, 209.64, 211.6, 210.56, 211.06, 211.68, 211.24, 211.38, 213.4, 211.12, 208.74, 207.08, 205.56, 206.86, 206.68, 206.5, 209.24, 207.14, 206.04, 205.96, 207.08, 206.7, 208.26, 207.2, 206.22, 207.4, 207.4, 208.42, 210.28, 211.3, 211.3, 209.8, 209.32, 209.32, 210.34, 211.36, 211.66, 212.8, 214.1, 216.82, 219.72, 219.82, 220.72, 221.66, 221.1, 222.04, 221.9, 221.78, 218.88, 218.04, 216.96, 214.84, 212.02, 211.54, 212.56, 213.58, 214.6, 215.62, 214.98, 212.92, 210.38, 209.02, 206.48, 203.68, 201.62, 199.94, 198.64, 197.28, 194.74, 192.08, 190.58, 189.22, 189.22, 185.0, 185.0, 183.5, 182.14, 182.14, 180.64, 179.28, 176.74, 174.68, 172.62, 172.62, 171.26, 168.72, 168.34, 166.98, 163.8, 162.5, 163.3, 164.2, 163.22, 163.22, 162.3, 162.02, 161.82, 161.96, 160.66, 159.36, 159.5, 159.5, 159.5, 159.5, 159.5, 158.46, 157.42, 156.12, 155.08, 155.22, 153.18, 149.94, 148.58, 148.58, 148.52, 146.04, 145.86, 147.04, 148.22, 149.4, 149.4, 149.88, 149.76, 150.94, 152.12, 153.3, 154.48, 155.66, 156.84, 157.7, 159.36, 160.54, 161.72, 162.04, 160.02, 159.04, 159.18, 160.62, 162.06, 162.2, 162.42, 161.72, 161.02, 159.72, 159.72, 158.42, 159.3, 159.3, 158.0, 158.0, 156.7, 155.4, 154.18, 154.18, 152.88, 152.18, 150.88, 148.28, 148.28, 147.58, 146.28, 144.98, 144.98, 144.98, 143.68, 143.68, 142.46, 141.16, 139.94, 138.64, 138.64, 137.94, 136.98, 136.1, 134.88, 134.88, 134.88, 133.66, 132.44, 131.14, 133.04, 133.04, 133.04, 133.04, 133.04, 133.1, 133.1, 133.16, 133.56, 133.04, 132.52, 132.26, 131.66, 131.14, 130.54, 129.94, 129.34, 129.34, 128.74, 128.14, 128.14, 127.54, 127.54, 126.34, 124.5, 122.32, 122.32, 122.4, 122.74, 122.74, 122.82, 122.82, 122.9, 123.24, 123.58, 123.92, 124.26, 124.34, 124.42, 124.5, 124.58, 124.66, 124.74, 124.82, 125.24, 125.32, 125.4, 125.82, 125.9, 125.98, 126.06, 126.14, 126.22, 126.3, 126.38, 126.46, 126.54, 126.96, 127.04, 127.04, 127.12, 128.72, 128.8, 129.14, 129.14, 129.14, 129.14, 129.48, 129.48, 129.82, 129.82, 129.82, 130.16, 130.5, 131.94, 131.94, 132.2, 132.54, 132.54, 134.06, 134.06, 135.5, 135.84, 136.18, 136.52, 136.86, 137.12, 137.46, 139.6, 141.12, 141.72, 142.06, 142.4, 142.74, 145.22, 145.56, 145.56, 148.34, 150.12, 150.46, 150.8, 151.14, 152.66, 155.0, 153.98, 154.06, 155.32, 155.4, 155.48, 155.48, 155.56, 155.64, 155.68, 155.76, 155.3, 156.16, 157.26, 158.04, 158.04, 159.22, 160.32, 162.32, 163.42, 164.2, 165.3, 165.58, 166.76, 167.54, 168.64, 169.42, 170.6, 173.18, 173.88, 173.34, 174.52, 174.76, 174.64, 175.42, 176.24, 177.34, 177.22, 178.0, 178.16, 180.16, 181.34, 182.44, 181.54, 180.72, 179.9, 179.54, 180.42, 180.78, 181.14, 181.1, 181.06, 181.68, 181.76, 181.84, 181.66, 180.02, 180.1, 180.26, 180.34, 180.02, 179.7, 179.38, 178.16, 177.84, 176.94, 176.54, 174.82, 169.42, 169.02, 169.02, 168.62, 168.62, 168.68, 168.28, 167.88, 167.48, 167.08, 165.24, 164.84, 163.9, 162.6, 161.16, 161.16, 160.76, 159.76, 160.62, 161.4, 162.18, 163.5, 163.5, 164.82, 165.4, 165.4, 164.36, 164.36, 163.46, 163.46, 163.46, 163.46, 162.56, 162.56, 162.56, 161.18, 161.56, 161.56, 160.52, 160.52, 160.52, 160.52, 160.52, 159.98, 159.98, 159.98, 159.98, 159.98, 159.08, 159.08, 159.08, 159.08, 159.06, 158.02, 157.48, 156.44, 155.54, 154.64, 154.1, 154.1, 153.06, 153.02, 146.38, 150.3, 153.88, 156.88, 163.0, 165.4, 166.12, 170.98, 172.08, 176.22, 177.38, 178.5, 181.18, 183.96, 185.02, 187.76, 187.28, 186.88, 186.54, 187.32, 188.92, 186.96, 189.1, 189.52, 190.08, 190.22, 191.56, 189.88, 190.96, 191.28, 191.8, 192.62, 192.6, 190.8, 191.84, 191.84, 190.84, 192.46, 193.36, 192.72, 193.76, 191.5, 191.84, 194.2, 193.62, 192.9, 192.46, 191.16, 190.3, 190.0, 190.76, 192.38, 192.62, 192.74, 194.5, 194.5, 196.16, 196.56, 192.8, 191.8, 191.14, 189.94, 188.2, 189.12, 189.12, 190.18, 189.82, 189.82, 186.96, 185.04, 184.94, 186.74, 186.94, 187.48, 184.64, 183.36, 187.48, 184.92, 183.74, 185.38, 184.82, 188.92, 188.12, 187.44, 188.08, 186.92, 187.82, 185.52, 185.06, 182.8, 183.84, 186.48, 188.02, 189.68, 189.68, 190.5, 189.06, 190.38, 192.84, 193.72, 195.12, 195.74, 193.52, 195.48, 196.16, 191.96, 192.92, 194.68, 195.52, 195.3, 195.26, 195.26, 196.1, 195.46, 198.16, 202.26, 205.6, 207.66, 207.46, 209.54, 210.7, 210.96, 209.76, 212.08, 213.22, 216.62, 222.26, 218.18, 216.22, 213.96, 210.24, 208.54, 204.82, 204.82, 206.86, 207.1, 209.34, 210.0, 209.7, 209.4, 206.76, 209.1, 210.36, 211.62, 212.88, 213.98, 213.98, 212.74, 213.66, 212.58, 209.18, 205.76, 205.76, 204.68, 200.38, 200.7, 199.88, 200.2, 198.18, 200.52, 203.74, 205.12, 208.34, 205.04, 204.08, 203.12, 203.12, 203.12, 204.0, 202.54, 203.42, 204.3, 202.84, 203.72, 203.46, 204.34, 205.22, 206.1, 206.16, 203.88, 204.7, 202.26, 201.14, 199.14, 195.46, 197.68, 197.96, 196.46, 196.46, 196.46, 196.46, 194.12, 196.08, 193.62, 193.62, 191.28, 188.94, 187.1, 185.26, 182.88, 182.88, 180.54, 179.04, 179.04, 177.54, 175.2, 173.7, 171.86, 170.36, 168.86, 167.36, 165.52, 164.52, 163.02, 160.68, 158.34, 156.0, 153.66, 149.36, 147.38, 148.22, 149.06, 149.56, 150.4, 151.24, 152.08, 152.92, 153.42, 153.42, 153.42, 154.26, 155.1, 155.94, 156.44, 157.78, 157.78, 158.84, 159.34, 159.84, 161.68, 162.52, 162.52, 163.86, 164.36, 164.86, 165.7, 166.54, 167.88, 168.72, 169.86, 170.36, 170.48, 171.32, 171.66, 172.0, 172.84, 172.84, 173.18, 173.28, 173.62, 173.48, 173.82, 174.16, 175.0, 174.76, 174.82, 174.52, 175.48, 175.4, 175.18, 174.68, 174.18, 174.18, 173.68, 173.18, 172.68, 171.1, 171.68, 172.26, 172.84, 173.72, 174.6, 174.6, 174.6, 174.6, 174.6, 174.6, 174.6, 174.6, 174.6, 174.6, 172.96, 172.96, 172.14, 172.14, 172.14, 172.14, 172.14, 171.32, 171.32, 171.32, 170.5, 170.5, 170.5, 170.5, 169.68, 168.86, 168.04, 167.22, 167.22, 166.4, 165.58, 164.76, 163.94, 163.12, 163.12, 163.12, 162.3, 162.3, 161.48, 160.66, 160.66, 159.84, 159.02, 158.2, 157.38, 156.56, 156.56, 155.74, 154.1, 153.28, 153.28, 153.28, 152.46, 150.82, 150.0, 149.18, 148.36, 147.54, 146.72, 146.72, 145.9, 145.08, 144.26, 143.44, 143.44, 142.62, 141.8, 140.98, 140.16, 139.34, 138.52, 137.7, 136.88, 136.12, 136.06, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 138.22, 138.22, 138.22, 139.92, 139.92, 141.62, 143.8, 145.5, 146.02, 146.02, 146.5, 148.2, 148.72, 148.72, 149.24, 149.76, 149.76, 151.46, 151.46, 151.46, 153.16, 153.16, 153.16, 153.68, 153.68, 155.38, 155.9, 156.42, 156.94, 157.46, 157.46, 157.98, 160.16, 160.16, 160.68, 160.68, 160.68, 162.38, 164.08, 165.78, 166.3, 168.0, 168.52, 169.04, 172.96, 174.0]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[1063.7618753056938, 1045.0922108067375, 1035.0666908788162, 1005.1441261334337, 1066.16204516495, 1010.062273771856, 1027.3309567141741, 1022.3048327137546, 6.966006144559087, 17.624523931280176, 19.619798508459105, 14.350707304474138, 18.02654291266864, 18.17006678143058, 6.807918626169012, 6.866242342785683, 19.537729991030353, 9.316206167003996, 20.199788262395668, 7.457748960187364, 5.598603692056683, 4.612172593060699, 17.89088406948268, 17.141735849301238, 14.29190183370987, 7.199431252672307, 20.229014646957683, 15.346584089491527, 16.804530235033134, 6.707387595723598, 6.707387595723598, 11.6975341292823, 15.949144302765783, 7.477724111265847, 15.314143422675944, 10.455290320073248, 16.18219431408718, 16.93375664331393, 16.186016879565894, 19.722693605848733, 13.240790944159835, 4.784492325121758, 4.784492325121758, 9.446624352607902, 10.671618163455827, 18.560262255556246, 6.794508935172953, 8.858857159505623, 12.938715974336406, 9.171632134033048, 9.171632134033048, 7.488259620870648, 13.170577205500065, 16.815651477273278, 5.017804269765052, 11.070929208680813, 14.41354179156495, 14.41354179156495, 17.22443150995316, 13.237213638322194, 5.961982119213691, 10.533611375351555, 6.591589473202374, 7.663017680003388, 9.545804057562655, 6.812523493599646, 7.209732541370023, 6.6796710693293235, 9.591974420650757, 15.888420574398989, 15.888420574398989, 17.009855944237515, 11.343219422672854, 5.177320775269254, 11.868393107297418, 11.868393107297418, 7.011020705610716, 7.998550534070116, 11.258732681852768, 11.258732681852768, 7.839078445775729, 7.839078445775729, 10.321919625197298, 10.321919625197298, 9.292033743215265, 12.264197816350725, 14.928794892096139, 6.728594079534321, 8.999303281322229, 7.747858378954923, 7.747858378954923, 8.825885100055427, 11.06267656540832, 11.161614510726706, 14.943722330907004, 6.556050919772046, 15.678270962074388, 15.476418230610914, 16.60261245610913, 12.475555300643489, 6.508868458520091, 10.353209155931312, 10.353209155931312, 5.6911597892174015, 15.019334555676515, 12.563931984431836, 12.563931984431836, 9.621502357596935, 9.621502357596935, 8.628631189946763, 12.420224336801649, 12.420224336801649, 10.644530231957397, 9.541497273412006, 9.541497273412006, 9.541497273412006, 9.541497273412006, 9.541497273412006, 9.541497273412006, 9.541497273412006, 9.541497273412006, 9.541497273412006, 8.589599768598028, 9.014098455212366, 6.180760615146649, 6.432919163208497, 6.432919163208497, 5.023082547554969, 11.515356121657273, 14.229755593891245, 9.480536844081513, 9.480536844081513, 9.480536844081513, 9.480536844081513, 11.841235810495307, 13.436293361016144, 13.436293361016144, 13.942637909299135, 10.544162862104415, 10.544162862104415, 9.136568648963936, 9.136568648963936, 9.136568648963936, 9.136568648963936, 9.136568648963936, 7.135623803368649, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 8.734870836523616, 10.523740498913709, 10.523740498913709, 10.523740498913709, 10.523740498913709, 5.705604621317626, 5.705604621317626, 7.9927000452516195, 7.9927000452516195, 7.9927000452516195, 7.9927000452516195, 7.9927000452516195, 7.9927000452516195, 7.9927000452516195, 7.9927000452516195, 7.9927000452516195, 7.9927000452516195, 7.9927000452516195, 7.9927000452516195, 7.9927000452516195, 10.186220163501703, 12.44739625188519, 8.297670248029284, 8.297670248029284, 8.297670248029284, 8.297670248029284, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 7.42297820220935, 7.42297820220935, 7.42297820220935, 4.8889920068507315, 4.8889920068507315, 4.8889920068507315, 4.8889920068507315, 4.8889920068507315, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 5.038940978186662, 5.038940978186662, 5.038940978186662, 5.038940978186662, 5.038940978186662, 5.038940978186662, 5.038940978186662, 5.038940978186662, 5.038940978186662, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 9.000110181938895, 9.611268004519477, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 7.7504707540057, 5.498920025603061, 5.498920025603061, 5.498920025603061, 5.498920025603061, 5.498920025603061, 5.498920025603061, 5.498920025603061, 5.498920025603061, 5.498920025603061, 5.498920025603061, 5.498920025603061, 5.498920025603061, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 9.651792562246527, 9.651792562246527, 9.651792562246527, 8.480674953704062, 6.016164240665717, 7.169544965870192, 7.169544965870192, 7.169544965870192, 7.169544965870192, 5.812845240615574, 5.812845240615574, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.823479703884995, 7.823479703884995, 4.392637520881781, 4.392637520881781, 4.392637520881781, 4.392637520881781, 4.392637520881781, 5.673452996742417, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 1041.5748410869717, 1022.0148741301344, 1011.2688284245851, 1011.6237995751758, 1064.0566987582697, 1023.4327859765374, 1022.7738381863899, 1013.2956749240104, 1094.366451577206, 6.055298298742531, 14.600528071161717, 6.8172197916618416, 7.584710684143398, 10.964871262000724, 10.283938535153338, 11.87585419754587, 16.25163359696649, 9.485288960726983, 8.613928444699853, 10.444010300241722, 13.801848416716911, 7.981487464312948, 13.220469352811838, 12.78334503821919, 13.594958145418056, 12.911128137963015, 16.36723465647735, 8.820176514094799, 12.944032991015183, 14.032425891425609, 9.290776339424179, 12.812300406722906, 15.581178568023237, 8.710610349375859, 16.337499711188777, 10.996616403224174, 11.234207288037373, 12.857021651101695, 12.861085478685263, 8.604735240179776, 16.147351998502042, 11.270059413875895, 6.4315277990095785, 9.293869552544267, 11.872486631982607, 12.566254245359218, 11.232537946955484, 10.94942403096557, 10.94942403096557, 9.583779125355292, 9.726822029944765, 9.726822029944765, 9.15438437538685, 10.443570138633595, 12.628951421508516, 12.628951421508516, 10.895544712220468, 15.316976190916666, 10.968099855565772, 10.968099855565772, 13.980930651578849, 14.714966308143268, 11.084000856929961, 11.084000856929961, 7.135154998397439, 12.557791806761362, 14.711627585862608, 14.711627585862608, 4.068057527313768, 11.51734225368037, 9.829919902263567, 9.829919902263567, 8.048680154446906, 11.961179558880639, 7.601329397277342, 4.866971867411551, 13.611561826361669, 14.332149307052804, 9.530888186876004, 8.382406719536366, 5.958622642577761, 8.666849049636197, 15.355687417094778, 5.438977937611103, 9.116660950913671, 8.374871066776235, 13.332437867897415, 8.715431467377943, 12.670306779313842, 12.670306779313842, 9.394427767170983, 6.698748884308592, 6.698748884308592, 10.262801815040435, 10.262801815040435, 10.451705880651415, 10.451705880651415, 10.451705880651415, 8.157724078062586, 8.157724078062586, 7.719370117796927, 10.430154987147175, 8.70310403255515, 11.101869501865325, 15.008286986717147, 4.966157617541397, 8.595383300420043, 12.660754377800483, 13.308214099736537, 10.043298934674338, 10.043298934674338, 10.043298934674338, 5.850653973373071, 4.801330669545687, 4.801330669545687, 6.607210897896101, 10.351177733045136, 10.351177733045136, 4.919959774714666, 7.08623800905421, 8.555393558247456, 6.050582024257408, 7.07102585023359, 7.07102585023359, 7.07102585023359, 7.07102585023359, 15.654603128547484, 14.283426374816855, 14.971905113059021, 14.971905113059021, 14.971905113059021, 14.971905113059021, 8.42700015980509, 8.42700015980509, 5.699374506280093, 6.4850723330210895, 12.315465391282412, 12.315465391282412, 12.315465391282412, 12.315465391282412, 8.705825955137612, 8.705825955137612, 8.705825955137612, 8.705825955137612, 9.04221755213242, 9.04221755213242, 9.04221755213242, 7.417997439252002, 14.01052595959565, 14.01052595959565, 14.01052595959565, 14.01052595959565, 14.01052595959565, 14.01052595959565, 10.767431417527298, 10.767431417527298, 10.767431417527298, 10.767431417527298, 4.117291205213596, 4.117291205213596, 4.117291205213596, 4.117291205213596, 13.557534660866105, 13.557534660866105, 13.557534660866105, 9.346514259495706, 9.346514259495706, 9.346514259495706, 9.346514259495706, 9.346514259495706, 9.346514259495706, 9.346514259495706, 9.346514259495706, 9.346514259495706, 9.346514259495706, 9.346514259495706, 9.346514259495706, 11.16677282920976, 11.16677282920976, 4.639853799836582, 8.590676652403259, 8.590676652403259, 12.102346575666932, 13.895543717162301, 6.122882481229062, 6.302142824846031, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 14.823160583202277, 9.852721245614855, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 7.0062969063090295, 6.323357017018382, 6.323357017018382, 6.323357017018382, 6.323357017018382, 6.323357017018382, 6.323357017018382, 6.323357017018382, 6.323357017018382, 6.323357017018382, 6.323357017018382, 6.323357017018382, 6.323357017018382, 6.323357017018382, 7.30473835867871, 7.531404685618283, 4.8818537488764955, 4.8818537488764955, 6.822175514567332, 7.292651150009884, 7.292651150009884, 7.292651150009884, 7.292651150009884, 7.292651150009884, 7.292651150009884, 7.292651150009884, 5.092513818185174, 5.092513818185174, 5.092513818185174, 4.572545918790436, 4.572545918790436, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 4.638288882417336, 4.638288882417336, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[5.023082547554969, 5.023082547554969, 5.023082547554969, 5.023082547554969, 5.023082547554969, 5.023082547554969, 5.023082547554969, 5.023082547554969, 5.023082547554969, 5.023082547554969, 5.023082547554969, 5.023082547554969, 5.023082547554969, 5.023082547554969, 5.023082547554969, 5.023082547554969, 5.023082547554969, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.498920025603061, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 6.562674429759156, 6.562674429759156, 6.562674429759156, 6.562674429759156, 6.562674429759156, 6.562674429759156, 6.562674429759156, 6.562674429759156, 6.562674429759156, 6.562674429759156, 6.562674429759156, 6.562674429759156, 6.562674429759156, 6.562674429759156, 6.562674429759156, 6.562674429759156, 6.562674429759156, 6.562674429759156, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 6.922146888139318, 6.922146888139318, 6.922146888139318, 6.922146888139318, 6.922146888139318, 6.922146888139318, 6.922146888139318, 6.922146888139318, 6.922146888139318, 6.922146888139318, 6.922146888139318, 6.922146888139318, 6.922146888139318, 6.922146888139318, 6.922146888139318, 6.922146888139318, 5.87532963406044, 5.87532963406044, 5.87532963406044, 5.87532963406044, 5.87532963406044, 5.87532963406044, 5.87532963406044, 5.87532963406044, 5.87532963406044, 5.87532963406044, 4.639853799836582, 4.639853799836582, 4.639853799836582, 4.639853799836582, 4.639853799836582, 4.639853799836582, 4.639853799836582, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.572545918790436, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 5.152303083263493, 5.152303083263493, 5.152303083263493, 5.152303083263493, 5.152303083263493, 5.152303083263493, 4.996526371343058, 4.996526371343058, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 5.680355130740864]</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[13.544121976109993, 13.291495694789738, 13.048388725312998, 12.88482574055124, 12.622445749273556, 12.622582107904213, 12.359416431900954, 12.245882248193945, 12.178341936991242, 11.898729993694674, 11.778524590724619, 11.586650741576817, 11.456141040185848, 11.431150357039437, 11.237157353502267, 11.32187102706439, 11.157925981865086, 10.956798265447903, 10.956663421557165, 10.835061740974753, 10.813863960853695, 10.902342360695384, 11.131063179382975, 11.174045420861855, 11.208758809979622, 11.093937689138786, 11.022268856803775, 10.779376669067764, 10.691473095780113, 10.577453498482749, 10.56582263545569, 10.52721858187709, 10.502146317287444, 10.490868803444686, 10.526690170360542, 10.467210225062987, 10.509703044823583, 10.523381879608053, 10.370361639072632, 10.193421409379477, 9.910248393268795, 9.858151508785932, 9.887447566074009, 10.020297539345954, 9.989891318869399, 10.003223943434733, 9.763274654700748, 9.905962056080966, 9.959156988166669, 9.89412830182809, 9.86626189967764, 9.87436793331206, 9.899903520337181, 9.977974371089488, 9.876399097809275, 9.961183118774983, 9.931629157519048, 9.963899323277587, 9.81222108729145, 9.607100407404337, 9.538147349947147, 9.60472799831348, 9.61979270840948, 9.60595490220982, 9.681710260992435, 9.962337107877676, 10.073820994720354, 10.046633603877618, 10.06481266812495, 10.028269834435948, 9.968918703026857, 9.8654618474214, 9.776276190550636, 9.7738897558808, 9.895143598748009, 9.849361865627724, 9.753483420621608, 9.83995478251163, 9.804699089246684, 9.869557262127664, 9.961927757844817, 9.99328503823231, 10.128685842857237, 10.151941956849436, 10.078371895653037, 10.111931242830723, 9.988760831512241, 9.80053588282928, 9.967001256055449, 9.890155660422149, 9.96204552523252, 9.896143145398263, 9.909247382088106, 9.918544912892257, 9.887717881303855, 9.890891296231354, 9.967096715833398, 9.842644102302812, 9.713702593166106, 9.618936050109548, 9.546261223329786, 9.604894404170592, 9.589496895352909, 9.56579933483647, 9.676479726783134, 9.564601929339789, 9.49930384698753, 9.480411291177818, 9.516898647060206, 9.483784637830121, 9.555203181740604, 9.500992500298509, 9.445680340301658, 9.479968789885504, 9.479968789885504, 9.517682248532015, 9.595743014510925, 9.633286180469298, 9.625051661667746, 9.547259837843088, 9.515893078445847, 9.50778200686077, 9.545233540237753, 9.583613554104886, 9.592521507509737, 9.631422135487938, 9.683141134690954, 9.789313262580308, 9.914034747544308, 9.912659084858275, 9.946339937425934, 9.984506631387696, 9.954424952543983, 9.992553645163502, 9.955238814940273, 9.946981888289724, 9.803597005662626, 9.763881497443029, 9.713988884681129, 9.617680746661659, 9.467935732575427, 9.445139706503113, 9.489955929321864, 9.534765294317998, 9.579567803065485, 9.624363457137807, 9.590551465577102, 9.487856624222417, 9.369992802226067, 9.3013686020223, 9.183758394613712, 9.051824951236041, 8.950130864418348, 8.871044935563654, 8.809751699312086, 8.741899561375932, 8.62506305456053, 8.489482792369367, 8.422622933425775, 8.355340987258879, 8.355340987258879, 8.16083456789205, 8.16083456789205, 8.094125255883574, 8.027254010841668, 8.027254010841668, 7.96061519719896, 7.893919897859995, 7.778241961496915, 7.6789629902342735, 7.5799063940934674, 7.5799063940934674, 7.513774678506969, 7.398697791558936, 7.381769972421568, 7.315898139138203, 7.1724990264764825, 7.1126946661445185, 7.1475507695238605, 7.185818008746391, 7.137114690439899, 7.137114690439899, 7.09427067063529, 7.076746203867443, 7.062085984053676, 7.062671436348248, 7.000835562824574, 6.939090463477905, 6.939770515550242, 6.939770515550242, 6.939770515550242, 6.939770515550242, 6.939770515550242, 6.891613665539364, 6.84349740714461, 6.782012816651175, 6.733998170886323, 6.734835831660379, 6.644178240553225, 6.499105675454876, 6.429563883765523, 6.429563883765523, 6.4241346358151405, 6.315792004769768, 6.305476338614789, 6.354227027309316, 6.402943057941022, 6.451624467455676, 6.451624467455676, 6.4683590445650365, 6.453140800022602, 6.5016815918204784, 6.550187986267024, 6.598660019911659, 6.647097729252049, 6.695501150734185, 6.743870320752479, 6.780778449398553, 6.845524829185598, 6.8937766104253875, 6.941994304995724, 6.953346764781679, 6.853476785425359, 6.80107463778029, 6.798663226057399, 6.859853909998884, 6.921039019575372, 6.918482987119388, 6.918247054369589, 6.886650591342616, 6.85507045437891, 6.7916819404700375, 6.7916819404700375, 6.728443223089641, 6.762029314585131, 6.762029314585131, 6.698935541643949, 6.698935541643949, 6.635990434083972, 6.573193467081913, 6.512902356159764, 6.512902356159764, 6.450407129145971, 6.41922868253816, 6.356932483186907, 6.23277717202308, 6.23277717202308, 6.201771526245512, 6.139963356154759, 6.078299366545648, 6.078299366545648, 6.078299366545648, 6.016779053509236, 6.016779053509236, 5.957822842902781, 5.8965950647084515, 5.837942931711901, 5.777005549762607, 5.777005549762607, 5.746384091154172, 5.698095587219881, 5.653128040768208, 5.59512509095501, 5.59512509095501, 5.59512509095501, 5.537273685206608, 5.479573230390024, 5.419548995951157, 5.496542296052301, 5.496542296052301, 5.496542296052301, 5.496542296052301, 5.496542296052301, 5.492946846475387, 5.492946846475387, 5.489359331368947, 5.498166057017289, 5.471024458582568, 5.443939644849965, 5.426820097312666, 5.397384089099955, 5.370460475105155, 5.341131492163142, 5.3118546669874185, 5.282629860567925, 5.282629860567925, 5.25345693438815, 5.224335750422931, 5.224335750422931, 5.195266171136295, 5.195266171136295, 5.137281278887764, 5.058339792911854, 4.966816666158846, 4.966816666158846, 4.9693158744260275, 4.981677447655075, 4.981677447655075, 4.984173317039208, 4.984173317039208, 4.986668434400333, 4.999017690080404, 5.011359804459593, 5.023694783730591, 5.036022634078937, 5.038506691313232, 5.040990001173672, 5.043472563997496, 5.045954380121741, 5.048435449883245, 5.050915773618639, 5.053395351664353, 5.068811720695991, 5.071287461059735, 5.073762457568363, 5.089162999268593, 5.0916341656343365, 5.094104589974454, 5.096574272623116, 5.099043213914283, 5.101511414181721, 5.103978873758996, 5.106445592979472, 5.108911572176311, 5.111376811682481, 5.12674001100272, 5.129201438300695, 5.129201438300695, 5.1316621277252805, 5.190543544975113, 5.192991980286939, 5.20520381998102, 5.20520381998102, 5.20520381998102, 5.20520381998102, 5.218061957321337, 5.218061957321337, 5.230915926006717, 5.230915926006717, 5.230915926006717, 5.24376572806407, 5.256611365518995, 5.3103763369548025, 5.3103763369548025, 5.320109215597675, 5.332928406848918, 5.332928406848918, 5.389786932498106, 5.389786932498106, 5.443344176441457, 5.456120968168055, 5.468893631419127, 5.481662168195358, 5.494426580496137, 5.504109529226966, 5.516866505597262, 5.599644213536206, 5.656115223466231, 5.678469984302858, 5.691175793644679, 5.703877508077193, 5.71657512957968, 5.8016482950554735, 5.814297062493659, 5.814297062493659, 5.921357076949413, 5.98671294374562, 5.999309474395927, 6.0119019644705265, 6.024490415913242, 6.08027173674881, 6.172358419571814, 6.130902493012575, 6.133939831162853, 6.180068157588453, 6.183102253735049, 6.186136203613818, 6.186136203613818, 6.189170007235335, 6.192203664610176, 6.177877428879355, 6.1809034886856224, 6.157574426770557, 6.182491611219229, 6.213291112279419, 6.235031112714347, 6.235031112714347, 6.277669505242548, 6.317106054392524, 6.39578534876919, 6.435123127023316, 6.4564692609285395, 6.4956879975287825, 6.499288907045097, 6.541546782929591, 6.562657835703473, 6.601661328594906, 6.6226423474100224, 6.664650208545524, 6.755402217330708, 6.763614787692784, 6.737325175081154, 6.77902376353932, 6.771879709711742, 6.750606223732072, 6.771112038307227, 6.800449011284379, 6.8387261258031105, 6.817391526528899, 6.837704332710399, 6.840231774101908, 6.9168855447832325, 6.9579662805285745, 6.995933289103341, 6.957342059796817, 6.921856406982973, 6.886412333038119, 6.87000130140198, 6.9011985211044165, 6.913120185693374, 6.925035477868615, 6.916094626277677, 6.907172896647964, 6.924728825242887, 6.914908990729467, 6.917948800236226, 6.904448458854868, 6.840979715816896, 6.844016133040263, 6.850088957689888, 6.853125365116155, 6.835495884300017, 6.8178945692943405, 6.800321352654176, 6.741865410564537, 6.72439844398175, 6.685912678631695, 6.665498758034692, 6.599472408281053, 6.371819293446833, 6.351749125450114, 6.351749125450114, 6.331710671489767, 6.331710671489767, 6.332951411511946, 6.312946812016218, 6.292973768041671, 6.273032204982999, 6.2531220484698915, 6.171315439055599, 6.151542420820861, 6.105801502251312, 6.046618324934938, 5.985279406505205, 5.985279406505205, 5.965762131741093, 5.919309094898944, 5.943802661549291, 5.9633025837272085, 5.98274145557777, 6.0277257196924685, 6.0277257196924685, 6.072654678795818, 6.093254066681891, 6.093254066681891, 6.051829384515591, 6.051829384515591, 6.0127795095808585, 6.0127795095808585, 6.0127795095808585, 6.0127795095808585, 5.9738062663734155, 5.9738062663734155, 5.9738062663734155, 5.9230025123314585, 5.928419815394543, 5.928419815394543, 5.887242084761338, 5.887242084761338, 5.887242084761338, 5.887242084761338, 5.887242084761338, 5.86190084798636, 5.86190084798636, 5.86190084798636, 5.86190084798636, 5.86190084798636, 5.823226379306588, 5.823226379306588, 5.823226379306588, 5.823226379306588, 5.806851081554068, 5.765945615778991, 5.740847575959061, 5.700034855543917, 5.661734444048058, 5.623508409862999, 5.5986285271875955, 5.5986285271875955, 5.558025873128356, 5.5545095887143905, 10.742047207206454, 10.771940584556416, 10.548656467643632, 10.520445479273912, 10.446717061248831, 10.380004568949026, 10.424821318600525, 10.430253028861122, 10.246406493609355, 10.098677732945797, 10.130261400975126, 10.137311144442782, 10.23990565815914, 10.384939008949233, 10.422034739248193, 10.492811673386829, 10.447726917186737, 10.327685001998221, 10.300127650145445, 10.317791181658967, 10.35054743153797, 10.227484735752789, 10.279819106154234, 10.274384181074007, 10.276642582441205, 10.252995476730613, 10.296871194971544, 10.20231012751514, 10.246280290437191, 10.233909981857892, 10.24068840965243, 10.270762040660104, 10.221288476829562, 10.087735805979744, 10.127360425704317, 10.055013583261736, 9.967808546573702, 10.023147171490477, 10.045262015309483, 10.002704895546307, 10.045891996188162, 9.897206202016378, 9.884318641637341, 9.971973335631336, 9.88089527967758, 9.84232219840622, 9.814180239427818, 9.737323901298598, 9.65773370817047, 9.612192622762903, 9.640618850861665, 9.700321930347917, 9.696536210333798, 9.686058043097342, 9.767095231649545, 9.767095231649545, 9.824128990343066, 9.818411095009434, 9.593343240189078, 9.515809583784518, 9.46703993400698, 9.375984551230431, 9.263086109635053, 9.296644097805581, 9.28293990195976, 9.332740798521273, 9.281594455398437, 9.281594455398437, 9.09651513367436, 8.985422305639508, 8.967479825226718, 9.052093924047155, 9.037578697610988, 9.057377813821994, 8.85880554879021, 8.789483870267846, 8.985058925169481, 8.822963124697623, 8.752187109001028, 8.811255549976455, 8.746921335523572, 8.924298211744716, 8.871247817937569, 8.83572572979879, 8.835925493280017, 8.767198246860781, 8.806576432057412, 8.687300016914556, 8.65449210653116, 8.525027936824015, 8.559208312020184, 8.671447971504234, 8.741995981808822, 8.811742553399197, 8.811742553399197, 8.84097581156743, 8.763537202381851, 8.819771879425273, 8.924511228248882, 8.960587129030221, 9.012262262816712, 9.030541377194293, 8.92628452848316, 9.002964970885493, 9.033162831846452, 8.837197687571484, 8.876371772252744, 8.950309169513078, 8.980761801584345, 8.96414520631337, 8.951258643118102, 8.951258643118102, 8.968956497654316, 8.930873410059144, 9.046947871934703, 9.227350867487647, 9.372857652333668, 9.46349192936728, 9.444100906391471, 9.529106422417414, 9.572399535194823, 9.571810368267442, 9.470374386376283, 9.5723073898659, 9.615953392237733, 9.768536601313953, 10.013948400761667, 9.81421558100174, 9.71878594160555, 9.610168630739322, 9.421573148375247, 9.341390086388314, 9.153914120452523, 9.153914120452523, 9.21576022228934, 9.206762594185237, 9.291043695643124, 9.316632421632802, 9.288816707627575, 9.261087602078145, 9.125751315908412, 9.227963626642115, 9.26941154528371, 9.310733233755961, 9.351929267835507, 9.386616824767886, 9.386616824767886, 9.314286321681786, 9.351163889386356, 9.290888834515277, 9.123767256442537, 8.957868867298652, 8.957868867298652, 8.89845850085344, 8.709538132426019, 8.71191921566427, 8.670445528977803, 8.672873417100755, 8.570042275806902, 8.6700900065645, 8.799133935005955, 8.834306677488591, 8.962657543451924, 8.80664853537844, 8.755546488804438, 8.704559386962366, 8.704559386962366, 8.704559386962366, 8.733394960705748, 8.658086884280937, 8.68689778198811, 8.715650379861405, 8.640631399321375, 8.6693594049385, 8.655018924579254, 8.683692616686711, 8.712308568861149, 8.740866955332649, 8.73495177913577, 8.626044827225567, 8.656807069115828, 8.498485728570746, 8.400114249463627, 8.269325398165071, 8.109612456096059, 8.198918764170658, 8.196007944137431, 8.091752909652739, 8.091752909652739, 8.091752909652739, 8.091752909652739, 7.991809146110905, 8.071360846345478, 7.9505648093946375, 7.9505648093946375, 7.850987132873763, 7.7514979310521746, 7.664294293050664, 7.577356434996997, 7.445620255050833, 7.445620255050833, 7.3471124487269455, 7.248953376750006, 7.248953376750006, 7.1517893083170945, 7.054450668008193, 6.958798918884155, 6.874822868163765, 6.780691527285743, 6.687498281429647, 6.595229176811271, 6.513156549958445, 6.4521803841168195, 6.361960668253292, 6.267991890767678, 6.174102466062995, 6.0802922936664086, 5.986561273274634, 5.817357792219481, 5.739203578625952, 5.746183613351592, 5.753101691108471, 5.766517325757194, 5.773308093711872, 5.780039175367765, 5.786711354185663, 5.793325399974166, 5.806453839895641, 5.806453839895641, 5.806453839895641, 5.8129470913888275, 5.819384313077131, 5.825766227060874, 5.838680687080021, 5.872396672971281, 5.872396672971281, 5.896155226556041, 5.908918182649075, 5.921656144960512, 5.958503678503807, 5.964185625041185, 5.964185625041185, 5.996997912355433, 6.009484186862753, 6.021946352467275, 6.027312875331589, 6.032634691446293, 6.064839714452284, 6.0699700318173155, 6.104343443384746, 6.116502622446648, 6.097498437597837, 6.117057720460458, 6.109877538084521, 6.102742479228336, 6.122136949222205, 6.122136949222205, 6.114997939539587, 6.08335575750898, 6.076399988493678, 6.030929884695886, 6.02420271279377, 6.017516710080494, 6.036544876756828, 6.012672478359333, 6.00551665574133, 5.977805998033559, 5.997103784761471, 5.968932133517225, 5.952638252429735, 5.9274629221435875, 5.9023569298779925, 5.9023569298779925, 5.877319989570203, 5.852351816728896, 5.827452128423395, 5.760930600279875, 5.777857081436306, 5.794768330401249, 5.8116643677267, 5.838723696174505, 5.865759592147243, 5.865759592147243, 5.865759592147243, 5.865759592147243, 5.865759592147243, 5.865759592147243, 5.865759592147243, 5.865759592147243, 5.865759592147243, 5.865759592147243, 5.804777794760419, 5.804777794760419, 5.774333196564569, 5.774333196564569, 5.774333196564569, 5.774333196564569, 5.774333196564569, 5.743919402903236, 5.743919402903236, 5.743919402903236, 5.713536367046973, 5.713536367046973, 5.713536367046973, 5.713536367046973, 5.683184042360797, 5.652862382303961, 5.622571340429702, 5.59231087038502, 5.59231087038502, 5.5620809259104265, 5.5318814608397195, 5.501712429099741, 5.4715737847101495, 5.441465481783182, 5.441465481783182, 5.441465481783182, 5.411387474523421, 5.411387474523421, 5.381339717227563, 5.351322164284192, 5.351322164284192, 5.321334770173537, 5.291377489467255, 5.261450276828192, 5.231553087010162, 5.201685874857711, 5.201685874857711, 5.171848595305896, 5.112263654195579, 5.082515902957699, 5.082515902957699, 5.082515902957699, 5.052797904961241, 4.993450990318607, 4.963821984708111, 4.934222554409955, 4.9046526551636545, 4.875112242796995, 4.84560127322582, 4.84560127322582, 4.816119702453803, 4.786667486572231, 4.757244581759788, 4.72785094428234, 4.72785094428234, 4.698486530492714, 4.669151296830481, 4.639845199821746, 4.610568196078931, 4.581320242300556, 4.552101295271036, 4.522911311860454, 4.493750249024365, 4.4681045597523905, 4.464618063803571, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.5296275783677205, 4.5296275783677205, 4.5296275783677205, 4.583837446100494, 4.583837446100494, 4.638011832659825, 4.703133118238792, 4.7571786914607985, 4.768003992471711, 4.768003992471711, 4.778881505807209, 4.832760792484711, 4.846693646772674, 4.846693646772674, 4.857368467722911, 4.871259379502133, 4.871259379502133, 4.924954685495431, 4.924954685495431, 4.924954685495431, 4.978615108645082, 4.978615108645082, 4.978615108645082, 4.99241300035118, 4.99241300035118, 5.046000774166191, 5.056382142191964, 5.066736864591039, 5.0770650438180445, 5.090736017222579, 5.090736017222579, 5.101013901670532, 5.164612223564586, 5.164612223564586, 5.1781853833015035, 5.1781853833015035, 5.1781853833015035, 5.231286127040161, 5.2843526925843, 5.3373851129214005, 5.3508304530356, 5.403791820619375, 5.413618904073925, 5.4269877380100855, 5.5422328199813125, 5.566243953874969]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>[0.023501500270270294, 0.03348986782035479, 0.03961097421190246, 0.04974411002364298, 0.05815251094443879, 0.05841224004899959, 0.07203131524108099, 0.07532, 11.915005281014361, 14.865649762885218, 14.984863370194217, 15.05152292616667, 15.088860982259924, 15.134782018580367, 15.276328303959684, 15.87476738488929, 15.969101842600814, 16.100974722013756, 16.188288498486383, 16.224734922823156, 16.254052796969912, 16.261316871108026, 16.43294981165797, 16.509413194086534, 16.512847817311062, 16.529083454450546, 16.56037161703187, 16.681236587058766, 16.900204648859084, 16.996184933860466, 16.996184933860466, 17.097620557425206, 17.116905761060696, 17.117507692903082, 17.173667030607202, 17.21616468692559, 17.241172277675624, 17.243663420384177, 17.298882244061367, 17.34043061433457, 17.446087697796333, 17.556721652356778, 17.556721652356778, 17.57241463234143, 17.616822221375216, 17.67216408280056, 17.808498179113805, 17.835257658541742, 17.85339445260119, 18.099286754429027, 18.099286754429027, 18.161763465165155, 18.298362800633964, 18.316269245724364, 18.334712765571403, 18.33631090702178, 18.38548802453832, 18.38548802453832, 18.40409071363668, 18.58397142490935, 18.61796928948849, 18.702037979203993, 18.81185114821136, 18.922049518217463, 18.961210486674812, 19.082502999385582, 19.140793255248365, 19.162620235557785, 19.182703365415847, 19.196369996111915, 19.196369996111915, 19.224148697789463, 19.306688149068357, 19.31500950794368, 19.379203058127715, 19.379203058127715, 19.398031429455507, 19.50353371345375, 19.62920750007821, 19.62920750007821, 19.645166337503166, 19.645166337503166, 19.6668843946864, 19.6668843946864, 19.694289222057606, 19.732232276730215, 19.760469758760234, 19.915007268394174, 20.00154838359369, 20.00552829166546, 20.00552829166546, 20.054645850634113, 20.067476318901676, 20.06878124887113, 20.075319479105417, 20.134071808671926, 20.15528375318946, 20.224317754667236, 20.237778897041274, 20.279658412235186, 20.280022686157125, 20.380154290529227, 20.380154290529227, 20.382488683550264, 20.440319700047578, 20.455379758379202, 20.455379758379202, 20.474972896977256, 20.474972896977256, 20.513102959623897, 20.53103012354006, 20.53103012354006, 20.573946921820017, 21.17068152006771, 21.17068152006771, 21.17068152006771, 21.17068152006771, 21.17068152006771, 21.17068152006771, 21.17068152006771, 21.17068152006771, 21.17068152006771, 21.188414466685398, 21.189029712622567, 21.194802412986157, 21.296707843546034, 21.296707843546034, 21.500741621809496, 21.536459435551368, 21.715060245493746, 21.728727327145105, 21.728727327145105, 21.728727327145105, 21.728727327145105, 21.87271701577289, 21.955459893121155, 21.955459893121155, 22.018788840183845, 22.097534251618875, 22.097534251618875, 22.10895662923808, 22.10895662923808, 22.10895662923808, 22.10895662923808, 22.10895662923808, 22.142422912683536, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.209830417734022, 22.235439958269037, 22.235439958269037, 22.235439958269037, 22.235439958269037, 22.258815398020204, 22.258815398020204, 22.27032154243646, 22.27032154243646, 22.27032154243646, 22.27032154243646, 22.27032154243646, 22.27032154243646, 22.27032154243646, 22.27032154243646, 22.27032154243646, 22.27032154243646, 22.27032154243646, 22.27032154243646, 22.27032154243646, 22.383180055046125, 22.414326205590566, 22.656962060483234, 22.656962060483234, 22.656962060483234, 22.656962060483234, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.767142162656413, 22.767142162656413, 22.767142162656413, 23.113148853926948, 23.113148853926948, 23.113148853926948, 23.113148853926948, 23.113148853926948, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.21916460353227, 23.21916460353227, 23.21916460353227, 23.21916460353227, 23.21916460353227, 23.21916460353227, 23.21916460353227, 23.21916460353227, 23.21916460353227, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.555267181665638, 23.826200652434, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.772688794518455, 24.913982993410663, 24.913982993410663, 24.913982993410663, 24.913982993410663, 24.913982993410663, 24.913982993410663, 24.913982993410663, 24.913982993410663, 24.913982993410663, 24.913982993410663, 24.913982993410663, 24.913982993410663, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.969454994576203, 24.969454994576203, 24.969454994576203, 25.23384060445947, 25.265267688765835, 25.38515357200358, 25.38515357200358, 25.38515357200358, 25.38515357200358, 25.632886105225307, 25.632886105225307, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.947533282305823, 25.947533282305823, 25.952517014678588, 25.952517014678588, 25.952517014678588, 25.952517014678588, 25.952517014678588, 26.615184806625027, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 0.024962200481788512, 0.0410952923124014, 0.05735369109552784, 0.059310585639836245, 0.062026769886436045, 0.07328278029361412, 0.07430772783039234, 0.07895030244355815, 0.10142854785070055, 12.550991916580308, 13.355681318482919, 13.788612201556363, 14.107327814585503, 14.409653905154036, 14.585851469965387, 14.904191063290153, 15.136939836369315, 15.392256430405057, 15.556200734689194, 15.702780377017083, 16.157256134613142, 16.162400877880025, 16.262660141810475, 16.27117154220034, 16.32958318998733, 16.342491356707225, 16.435274843056213, 16.439580292785234, 16.45545867720279, 16.46187208023315, 16.467945671102292, 16.46854923018223, 16.622619326854874, 16.646365086275463, 16.710023248724852, 16.82335667776486, 16.912630782798487, 16.955715399399672, 17.10586562577529, 17.19983193775848, 17.27837480881585, 17.302481986910607, 17.41421377627372, 17.43084504082062, 17.603725864553677, 17.66636227991215, 17.71638795611083, 17.717826933303286, 17.717826933303286, 17.738305294436522, 17.78587080830782, 17.78587080830782, 17.805675763217213, 18.001506908498378, 18.053755406144845, 18.053755406144845, 18.080784871548857, 18.215083481389343, 18.234699048487403, 18.234699048487403, 18.382181158374983, 18.75641399513511, 18.765787073171673, 18.765787073171673, 18.78025074859572, 18.79311296377226, 18.896617548091612, 18.896617548091612, 18.927952587446537, 19.01480351771421, 19.02355277146652, 19.02355277146652, 19.13357184592741, 19.145268982270046, 19.20716658487324, 19.313857273227455, 19.32180916157945, 19.327177945577862, 19.410572904920265, 19.44548927936243, 19.467586212141338, 19.499589646954103, 19.53673527282301, 19.672813757909143, 19.853760162251092, 19.940605493319413, 19.951339930148077, 19.964588173435352, 20.046870563125808, 20.046870563125808, 20.118308925687238, 20.153016978473282, 20.153016978473282, 20.26736984194413, 20.26736984194413, 20.28377017310277, 20.28377017310277, 20.28377017310277, 20.348812783016324, 20.348812783016324, 20.467991246556846, 20.517432412433656, 20.567374505742553, 20.71723145019455, 20.721885200839093, 20.740380779736984, 20.825132951459253, 20.851838059736846, 20.889354342856837, 20.909464247347866, 20.909464247347866, 20.909464247347866, 21.02329082522837, 21.035835053109732, 21.035835053109732, 21.037621191153598, 21.060405455512182, 21.060405455512182, 21.138384206816305, 21.167790272968873, 21.27313007413327, 21.32026299004388, 21.35475151671405, 21.35475151671405, 21.35475151671405, 21.35475151671405, 21.399456584696125, 21.42343104309407, 21.440157252934533, 21.440157252934533, 21.440157252934533, 21.440157252934533, 21.47858034503543, 21.47858034503543, 21.581315610066916, 21.588039856878606, 21.680057676829477, 21.680057676829477, 21.680057676829477, 21.680057676829477, 21.709600096986144, 21.709600096986144, 21.709600096986144, 21.709600096986144, 21.786691026200934, 21.786691026200934, 21.786691026200934, 21.838778097008262, 21.840721817472105, 21.840721817472105, 21.840721817472105, 21.840721817472105, 21.840721817472105, 21.840721817472105, 21.917947823269866, 21.917947823269866, 21.917947823269866, 21.917947823269866, 22.101910082233086, 22.101910082233086, 22.101910082233086, 22.101910082233086, 22.127916874588678, 22.127916874588678, 22.127916874588678, 22.25428584658498, 22.25428584658498, 22.25428584658498, 22.25428584658498, 22.25428584658498, 22.25428584658498, 22.25428584658498, 22.25428584658498, 22.25428584658498, 22.25428584658498, 22.25428584658498, 22.25428584658498, 22.298295470708613, 22.298295470708613, 22.630023386447682, 22.69902685086493, 22.69902685086493, 22.88812324685349, 22.95700020762808, 23.028369470141573, 23.166723455456907, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.611698600676483, 23.74978385835753, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 24.40661626058381, 25.303015402955047, 25.303015402955047, 25.303015402955047, 25.303015402955047, 25.303015402955047, 25.303015402955047, 25.303015402955047, 25.303015402955047, 25.303015402955047, 25.303015402955047, 25.303015402955047, 25.303015402955047, 25.303015402955047, 25.326026876815206, 25.493252323386198, 26.424388487608404, 26.424388487608404, 27.557191924858166, 27.699117350447544, 27.699117350447544, 27.699117350447544, 27.699117350447544, 27.699117350447544, 27.699117350447544, 27.699117350447544, 29.06226772944584, 29.06226772944584, 29.06226772944584, 29.086640650988183, 29.086640650988183, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.967947991966685, 29.967947991966685, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[21.500741621809496, 21.500741621809496, 21.500741621809496, 21.500741621809496, 21.500741621809496, 21.500741621809496, 21.500741621809496, 21.500741621809496, 21.500741621809496, 21.500741621809496, 21.500741621809496, 21.500741621809496, 21.500741621809496, 21.500741621809496, 21.500741621809496, 21.500741621809496, 21.500741621809496, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.913982993410663, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 26.818334793801288, 26.818334793801288, 26.818334793801288, 26.818334793801288, 26.818334793801288, 26.818334793801288, 26.818334793801288, 26.818334793801288, 26.818334793801288, 26.818334793801288, 26.818334793801288, 26.818334793801288, 26.818334793801288, 26.818334793801288, 26.818334793801288, 26.818334793801288, 26.818334793801288, 26.818334793801288, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.7483064453565, 28.7483064453565, 28.7483064453565, 28.7483064453565, 28.7483064453565, 28.7483064453565, 28.7483064453565, 28.7483064453565, 28.7483064453565, 28.7483064453565, 28.7483064453565, 28.7483064453565, 28.7483064453565, 28.7483064453565, 28.7483064453565, 28.7483064453565, 30.466375701254584, 30.466375701254584, 30.466375701254584, 30.466375701254584, 30.466375701254584, 30.466375701254584, 30.466375701254584, 30.466375701254584, 30.466375701254584, 30.466375701254584, 22.630023386447682, 22.630023386447682, 22.630023386447682, 22.630023386447682, 22.630023386447682, 22.630023386447682, 22.630023386447682, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 29.086640650988183, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 31.44224968562766, 31.44224968562766, 31.44224968562766, 31.44224968562766, 31.44224968562766, 31.44224968562766, 32.022246678744594, 32.022246678744594, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 33.096522254847116]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>[13.77867094885682, 14.129335351898549, 14.453891891964304, 14.853130640151939, 15.535816425377458, 15.879476820712082, 16.675544604843495, 17.040830196679106, 17.388245550635034, 17.56153808942057, 17.61850547592509, 17.67551336169204, 17.752923893533058, 17.793484789109076, 17.79631571481666, 17.83274155988597, 17.928063004282684, 18.105654151321588, 18.13508294952814, 18.224169342133894, 18.28763527226654, 18.37403315476354, 18.415132202255865, 18.417680638363347, 18.44093565613763, 18.534446989125115, 18.584195564559952, 18.592911830896522, 18.60361039289386, 18.63964705950076, 18.698023506191433, 18.72479406282565, 18.790444737487732, 18.79157996287866, 18.858729266960143, 18.902839987510557, 18.969137296242845, 18.969187119097015, 19.009944576786157, 19.04561699189264, 19.153909414513656, 19.198325348451462, 19.23044332011548, 19.2668929482309, 19.305515329853144, 19.345763035427204, 19.382840972202516, 19.394380769111006, 19.481568593660274, 19.559075251151157, 19.589992842812638, 19.60429278181347, 19.66483810676262, 19.68335382470573, 19.70961258979281, 19.726572401789696, 19.78325981405062, 19.799477453482087, 19.83444912916476, 19.918601022689007, 19.970335224592173, 20.021389469203758, 20.039932859621246, 20.147918865981424, 20.213370853337178, 20.302464954740763, 20.329922489920637, 20.37100267307539, 20.387860834197546, 20.40431733272254, 20.429497527967886, 20.453173213856232, 20.521106000862723, 20.53634786285878, 20.593940650420013, 20.64093113580036, 20.696195532891476, 20.752127882022474, 20.787991364624318, 20.82970841953263, 20.891538772313393, 20.922049075964686, 20.93065213879673, 20.981207428623108, 20.993470194452524, 21.000933936389405, 21.07568732007857, 21.135578959811074, 21.141765169536537, 21.196835236772376, 21.24061764865917, 21.276975980072706, 21.29929669346138, 21.34184014480345, 21.363878150227382, 21.371178154646223, 21.410447403505163, 21.449520861026134, 21.489231114287474, 21.528368514066752, 21.533037405014525, 21.536936409230925, 21.552746953821696, 21.58732300059587, 21.623566204644973, 21.65693894322878, 21.690010480645956, 21.72479586319848, 21.759189382979038, 21.795096355888223, 21.795454899166543, 21.808247927097096, 21.8322018711692, 21.87770915673077, 21.87770915673077, 21.89818850404952, 21.913884071510594, 21.934363418829342, 21.95312892101275, 21.974891598571798, 21.996884399019173, 22.015649901202583, 22.036129248521334, 22.05431164422, 22.065105596510453, 22.094348789460398, 22.110593765174237, 22.148642523147704, 22.162520668431622, 22.1756844574407, 22.1910774605117, 22.200395891688903, 22.211227775994736, 22.22054620717194, 22.28977165941863, 22.29621029682328, 22.326499128184622, 22.331282908042304, 22.334800108958735, 22.33802573188676, 22.39347688752501, 22.39670418578898, 22.398418030924322, 22.400131876059667, 22.40184572119501, 22.403559566330355, 22.415812142984397, 22.44131719448806, 22.452525251675667, 22.47196180942178, 22.483169866609387, 22.50153986596782, 22.527044917471486, 22.53849478300451, 22.547741046494068, 22.567177604240182, 22.578385661427788, 22.625642185487198, 22.62715563861583, 22.64659219636194, 22.64659219636194, 22.669250119082573, 22.669250119082573, 22.6707635722112, 22.690200129957315, 22.690200129957315, 22.69171358308594, 22.711150140832057, 22.722358198019666, 22.74786324952333, 22.773368301026995, 22.773368301026995, 22.79280485877311, 22.804012915960715, 22.80482873740599, 22.82426529515211, 22.837228613813753, 22.84647487730331, 22.846987068114014, 22.850564793060443, 22.869185529361285, 22.869185529361285, 22.877615971405568, 22.8947026405237, 22.913909624633945, 22.931832729251436, 22.948689275481243, 22.965545821711054, 22.983468926328545, 22.983468926328545, 22.983468926328545, 22.983468926328545, 22.983468926328545, 22.993163530387527, 23.00285813444651, 23.01971468067632, 23.0294092847353, 23.047332389352793, 23.05476982315958, 23.070866591118417, 23.10887685168827, 23.10887685168827, 23.119067145944822, 23.122990733340917, 23.132272990503854, 23.140501491062363, 23.148729991620872, 23.156958492179385, 23.156958492179385, 23.17125548649544, 23.207303953367244, 23.215532453925757, 23.223760954484263, 23.231989455042775, 23.240217955601285, 23.248446456159794, 23.256674956718303, 23.25691676506372, 23.279442259938286, 23.287670760496795, 23.2958992610553, 23.303885953268395, 23.348733060612304, 23.384539719138694, 23.413426243839673, 23.41449280222735, 23.415559360615035, 23.444445885316014, 23.477045373425188, 23.483113867182738, 23.489182360940287, 23.517002327253582, 23.517002327253582, 23.54482229356688, 23.55801677114934, 23.55801677114934, 23.585836737462635, 23.585836737462635, 23.613656703775938, 23.641476670089233, 23.673009599810726, 23.673009599810726, 23.70082956612402, 23.706898059881567, 23.73471802619487, 23.790357958821463, 23.790357958821463, 23.796426452579013, 23.824246418892308, 23.852066385205607, 23.852066385205607, 23.852066385205607, 23.879886351518902, 23.879886351518902, 23.911419281240395, 23.939239247553697, 23.97077217727519, 23.998592143588485, 23.998592143588485, 24.00466063734603, 24.039610761748026, 24.075166707440303, 24.106699637161796, 24.106699637161796, 24.106699637161796, 24.13823256688329, 24.169765496604782, 24.19758546291808, 24.204307514480753, 24.204307514480753, 24.204307514480753, 24.204307514480753, 24.204307514480753, 24.231073724189624, 24.231073724189624, 24.2578399338985, 24.291736301696066, 24.31720073766001, 24.342665173623956, 24.371546804268394, 24.393298276824147, 24.418762712788094, 24.44051418534384, 24.46226565789959, 24.484017130455342, 24.484017130455342, 24.505768603011088, 24.52752007556684, 24.52752007556684, 24.549271548122586, 24.549271548122586, 24.59277449323409, 24.612818651380294, 24.627444140111134, 24.627444140111134, 24.631157103519328, 24.63828726160802, 24.63828726160802, 24.642000225016215, 24.642000225016215, 24.64571318842441, 24.652843346513105, 24.659973504601798, 24.667103662690494, 24.67423382077919, 24.677946784187384, 24.681659747595578, 24.68537271100377, 24.689085674411967, 24.69279863782016, 24.69651160122835, 24.700224564636546, 24.707960544015528, 24.711673507423725, 24.715386470831916, 24.723122450210898, 24.726835413619092, 24.73054837702729, 24.73426134043548, 24.73797430384368, 24.741687267251873, 24.74540023066007, 24.749113194068265, 24.752826157476463, 24.756539120884653, 24.764275100263635, 24.76798806367183, 24.76798806367183, 24.771701027080027, 24.798944250185876, 24.80265721359407, 24.809787371682763, 24.809787371682763, 24.809787371682763, 24.809787371682763, 24.813810387653547, 24.813810387653547, 24.81783340362433, 24.81783340362433, 24.81783340362433, 24.821856419595115, 24.8258794355659, 24.845696731855366, 24.845696731855366, 24.849113926535864, 24.85313694250665, 24.85313694250665, 24.872968389840352, 24.872968389840352, 24.89278568612982, 24.896808702100603, 24.900831718071387, 24.904854734042168, 24.90887775001296, 24.912294944693453, 24.916317960664237, 24.930155323536496, 24.949986770870197, 24.95742698152148, 24.961449997492263, 24.965473013463047, 24.96949602943383, 25.030817556411606, 25.03484057238239, 25.03484057238239, 25.0516896840179, 25.075529996278156, 25.079553012248944, 25.08357602821973, 25.08759904419052, 25.10743049152422, 25.11195712622803, 25.115388831496162, 25.115994652786444, 25.132408905439643, 25.13301472672993, 25.13362054802021, 25.13362054802021, 25.134226369310497, 25.134832190600783, 25.199593516092115, 25.2001993373824, 25.22097001780776, 25.258424890802917, 25.310257826034373, 25.347106877739243, 25.347106877739243, 25.36291530910216, 25.37870958942084, 25.379213208153864, 25.395007488472547, 25.431856540177424, 25.447650820496104, 25.476633269912753, 25.492441701275666, 25.529290752980543, 25.545085033299223, 25.581934085004097, 25.597742516367006, 25.63577925170966, 25.708146524901995, 25.72831138403707, 25.744119815399987, 25.80671947692334, 25.870269159834102, 25.90711821153898, 25.915935801820552, 25.931730082139232, 25.995279765049997, 26.032128816754867, 26.04590105770087, 26.046404676433895, 26.062213107796808, 26.078007388115484, 26.09329804970114, 26.108602862331026, 26.123907674960915, 26.133910624348903, 26.14328503205077, 26.15027587313211, 26.157266714213453, 26.185298175636753, 26.213329637060053, 26.23640644781892, 26.28523386839626, 26.285248019440495, 26.31057369499563, 26.31494427381202, 26.314958424856254, 26.31498672694472, 26.315000877988954, 26.336055649375144, 26.357110420761337, 26.378165192147527, 26.42592059473961, 26.446975366125802, 26.464599300781124, 26.485639921123084, 26.489996348895243, 26.58895241650086, 26.60999303684282, 26.60999303684282, 26.631033657184776, 26.631033657184776, 26.63529041030948, 26.65633103065144, 26.6773716509934, 26.698412271335357, 26.719452891677314, 26.775490838511864, 26.796531458853824, 26.84332268901426, 26.891063940562113, 26.92606126705471, 26.92606126705471, 26.94710188739667, 26.989636364432403, 27.023104424219454, 27.065539226607733, 27.107974028996015, 27.12465822156581, 27.12465822156581, 27.14134241413561, 27.144773250866482, 27.144773250866482, 27.158729957017115, 27.158729957017115, 27.185430588223007, 27.185430588223007, 27.185430588223007, 27.185430588223007, 27.212131219428898, 27.212131219428898, 27.212131219428898, 27.21254965947247, 27.25178125551623, 27.25178125551623, 27.26573796166687, 27.26573796166687, 27.26573796166687, 27.26573796166687, 27.26573796166687, 27.291488571485345, 27.291488571485345, 27.291488571485345, 27.291488571485345, 27.291488571485345, 27.318189202691237, 27.318189202691237, 27.318189202691237, 27.318189202691237, 27.391782183852957, 27.405738890003594, 27.431489499822074, 27.445446205972708, 27.4721468371786, 27.498847468384486, 27.524598078202967, 27.524598078202967, 27.538554784353604, 27.548786721136437, 13.626825238842638, 13.95291765863275, 14.587639712412955, 14.911916069435051, 15.602987909439417, 15.93448238884029, 15.93504530419143, 16.392699153787383, 16.79418048730798, 17.449809238401787, 17.509913414763968, 17.608219522575542, 17.69352238666731, 17.714114627102987, 17.75277137613405, 17.89415514587193, 17.925430238028174, 18.09505227588197, 18.110455164831468, 18.155048566303837, 18.252174703761412, 18.280154390886892, 18.39526532979469, 18.44587438623392, 18.49631321466536, 18.552626930511018, 18.603709454338706, 18.61147109103288, 18.63700724429939, 18.690803450400736, 18.729209631963574, 18.754207257207593, 18.843025557550906, 18.914056005203744, 18.942744400909213, 19.07903936791791, 19.145632573932076, 19.201553834051957, 19.248875709295554, 19.266788534950017, 19.287485877164592, 19.348894636648605, 19.408520400372446, 19.474580753850862, 19.595390348709167, 19.59903324758425, 19.610399982955755, 19.63167723880545, 19.70441573047367, 19.766561850836787, 19.78711148641149, 19.83233148150785, 19.864825523440103, 19.898703801114838, 19.913801942847574, 19.913801942847574, 19.967164538741457, 20.019532498482242, 20.097269030499117, 20.155930854988746, 20.190048983885386, 20.258139181241905, 20.317202903278925, 20.34282457307801, 20.372856228453458, 20.377722268910876, 20.451227524770307, 20.451227524770307, 20.552925736130902, 20.59335596100626, 20.623408538900648, 20.629481042382878, 20.684743807477563, 20.699147573804034, 20.842538983736368, 20.86129318926805, 20.86575074925996, 20.9589451283508, 20.993609678549483, 21.038999373987668, 21.129720150722843, 21.16917157153871, 21.205585038400503, 21.213877131547, 21.285829101098738, 21.320380210055056, 21.32724350365072, 21.355311735382042, 21.383115002247614, 21.44274498038793, 21.478622005474854, 21.505058972019796, 21.507674035912387, 21.525821805453166, 21.525821805453166, 21.547395226526014, 21.57348062020153, 21.585592303596613, 21.607906031828477, 21.61911906111511, 21.650501761920182, 21.67533393892877, 21.679792906274834, 21.712846893457744, 21.715539025648592, 21.721818022694002, 21.734105437433545, 21.75120393194095, 21.770981607095656, 21.78679567377511, 21.813692105759852, 21.813692105759852, 21.864304955798005, 21.8858773409381, 21.9035195963413, 21.91961733162855, 21.93567934415492, 21.943274380103368, 21.967151987924822, 21.989470020720194, 22.011199932192522, 22.039717867727155, 22.149071561706435, 22.155577684908746, 22.173568371506164, 22.175276486230572, 22.19504146667011, 22.231017670159055, 22.24763476622887, 22.263917338101884, 22.314744755365613, 22.324300566772322, 22.37512798403605, 22.37512798403605, 22.446330526231154, 22.494334776352243, 22.531376114199787, 22.54033329815497, 22.575534279603495, 22.610735261052017, 22.65676466983785, 22.65938710424757, 22.693997237292965, 22.728607370338356, 22.76321750338375, 22.796285817844847, 22.796285817844847, 22.84018255964325, 22.84849271463478, 22.88048041327046, 22.926932934670422, 22.9697490606434, 22.9697490606434, 23.00173675927908, 23.0069605245743, 23.037403703094018, 23.05302528364592, 23.083468462165637, 23.124740068022664, 23.127787583309704, 23.15455151665016, 23.218573623064593, 23.245337556405048, 23.282409781235696, 23.308653578729036, 23.33489737622238, 23.33489737622238, 23.33489737622238, 23.358613794275794, 23.39315863966652, 23.416875057719935, 23.440591475773353, 23.475136321164076, 23.49885273921749, 23.507747559303088, 23.531463977356506, 23.55518039540992, 23.578896813463338, 23.601733039034283, 23.635397691942536, 23.646131693322722, 23.79953399463031, 23.944912417452347, 24.081770931905563, 24.102261490075424, 24.110496235657706, 24.15322207460767, 24.279040919012836, 24.279040919012836, 24.279040919012836, 24.279040919012836, 24.289869346350148, 24.293301183378563, 24.352986818145613, 24.352986818145613, 24.363815245482918, 24.37464367282023, 24.411901845894214, 24.4491600189682, 24.562090697002844, 24.562090697002844, 24.572919124340157, 24.698737968745323, 24.698737968745323, 24.824556813150494, 24.835385240487803, 24.961204084892973, 24.998462257966956, 25.12428110237213, 25.250099946777297, 25.375918791182468, 25.413176964256454, 25.498357176280287, 25.624176020685454, 25.63500444802276, 25.645832875360064, 25.656661302697373, 25.667489730034678, 25.67488632034357, 25.679521205498844, 25.794511622566706, 25.909502039634567, 25.935931785371245, 26.050922202439107, 26.165912619506962, 26.280903036574824, 26.395893453642685, 26.422323199379363, 26.422323199379363, 26.422323199379363, 26.537313616447218, 26.65230403351508, 26.767294450582934, 26.793724196319612, 26.868075981006136, 26.868075981006136, 26.939589257180877, 26.96601900291755, 26.99244874865423, 27.134329140935964, 27.249319558003823, 27.249319558003823, 27.32367134269035, 27.350101088427028, 27.376530834163706, 27.491521251231564, 27.606511668299426, 27.680863452985953, 27.795853870053815, 27.82608835419912, 27.852518099935796, 27.95900675411441, 28.006928793064255, 28.09548946439544, 28.184050135726622, 28.23197217467647, 28.23197217467647, 28.320532846007655, 28.484278563868653, 28.572839235199837, 28.765050053097717, 28.8536107244289, 28.942171395760084, 28.990093434709934, 29.06527848123975, 29.109901782200613, 29.19465771512317, 29.260790924761285, 29.385490750528035, 29.428967891421152, 29.469606523802486, 29.510245156183817, 29.510245156183817, 29.55088378856515, 29.591522420946486, 29.632161053327817, 29.70006269328912, 29.71343831809049, 29.726813942891855, 29.740189567693218, 29.75307773406374, 29.765965900434256, 29.765965900434256, 29.765965900434256, 29.765965900434256, 29.765965900434256, 29.765965900434256, 29.765965900434256, 29.765965900434256, 29.765965900434256, 29.765965900434256, 29.796144850905286, 29.796144850905286, 29.8112343261408, 29.8112343261408, 29.8112343261408, 29.8112343261408, 29.8112343261408, 29.82632380137631, 29.82632380137631, 29.82632380137631, 29.84141327661182, 29.84141327661182, 29.84141327661182, 29.84141327661182, 29.856502751847334, 29.871592227082846, 29.88668170231836, 29.901771177553872, 29.901771177553872, 29.91686065278939, 29.9319501280249, 29.947039603260414, 29.962129078495927, 29.97721855373144, 29.97721855373144, 29.97721855373144, 29.992308028966953, 29.992308028966953, 30.00739750420247, 30.022486979437975, 30.022486979437975, 30.03757645467349, 30.052665929909004, 30.067755405144517, 30.08284488038003, 30.097934355615543, 30.097934355615543, 30.113023830851056, 30.143202781322085, 30.158292256557598, 30.158292256557598, 30.158292256557598, 30.17338173179311, 30.203560682264136, 30.218650157499653, 30.233739632735166, 30.24882910797068, 30.26391858320619, 30.279008058441704, 30.279008058441704, 30.294097533677217, 30.30918700891273, 30.324276484148246, 30.33936595938376, 30.33936595938376, 30.354455434619272, 30.369544909854785, 30.384634385090298, 30.39972386032581, 30.414813335561327, 30.42990281079684, 30.444992286032353, 30.460081761267865, 30.464819741716916, 30.47517123650338, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.514649959325894, 30.514649959325894, 30.514649959325894, 30.52464264827519, 30.52464264827519, 30.534635337224486, 30.57536250512288, 30.585355194072175, 30.624974356261795, 30.624974356261795, 30.655708835210895, 30.665701524160184, 30.684836063246944, 30.684836063246944, 30.724455225436564, 30.74358976452332, 30.74358976452332, 30.753582453472614, 30.753582453472614, 30.753582453472614, 30.76357514242191, 30.76357514242191, 30.76357514242191, 30.782709681508667, 30.782709681508667, 30.792702370457963, 30.832321532647583, 30.871940694837207, 30.911559857026827, 30.930694396113587, 30.930694396113587, 30.970313558303204, 31.0110407262016, 31.0110407262016, 31.030175265288353, 31.030175265288353, 31.030175265288353, 31.04016795423765, 31.050160643186945, 31.06015333213624, 31.079287871223002, 31.0892805601723, 31.128899722361915, 31.148034261448675, 31.207638801536888, 31.259858792008032]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>[25, 35, 41, 50, 62, 59, 74, 77, 83, 262, 294, 216, 272, 275, 104, 109, 312, 150, 327, 121, 91, 75, 294, 283, 236, 119, 335, 256, 284, 114, 114, 200, 273, 128, 263, 180, 279, 292, 280, 342, 231, 84, 84, 166, 188, 328, 121, 158, 231, 166, 166, 136, 241, 308, 92, 203, 265, 265, 317, 246, 111, 197, 124, 145, 181, 130, 138, 128, 184, 305, 305, 327, 219, 100, 230, 230, 136, 156, 221, 221, 154, 154, 203, 203, 183, 242, 295, 134, 180, 155, 155, 177, 222, 224, 300, 132, 316, 313, 336, 253, 132, 211, 211, 116, 307, 257, 257, 197, 197, 177, 255, 255, 219, 202, 202, 202, 202, 202, 202, 202, 202, 202, 182, 191, 131, 137, 137, 108, 248, 309, 206, 206, 206, 206, 259, 295, 295, 307, 233, 233, 202, 202, 202, 202, 202, 158, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 194, 234, 234, 234, 234, 127, 127, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 228, 279, 188, 188, 188, 188, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 169, 169, 169, 113, 113, 113, 113, 113, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 117, 117, 117, 117, 117, 117, 117, 117, 117, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 212, 229, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 192, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 241, 241, 241, 214, 152, 182, 182, 182, 182, 149, 149, 196, 196, 196, 196, 196, 196, 196, 196, 196, 196, 196, 196, 200, 200, 200, 200, 200, 200, 200, 200, 200, 200, 200, 200, 200, 200, 200, 200, 200, 200, 200, 203, 203, 114, 114, 114, 114, 114, 151, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 26, 42, 58, 60, 66, 75, 76, 80, 111, 76, 195, 94, 107, 158, 150, 177, 246, 146, 134, 164, 223, 129, 215, 208, 222, 211, 269, 145, 213, 231, 153, 211, 259, 145, 273, 185, 190, 218, 220, 148, 279, 195, 112, 162, 209, 222, 199, 194, 194, 170, 173, 173, 163, 188, 228, 228, 197, 279, 200, 200, 257, 276, 208, 208, 134, 236, 278, 278, 77, 219, 187, 187, 154, 229, 146, 94, 263, 277, 185, 163, 116, 169, 300, 107, 181, 167, 266, 174, 254, 254, 189, 135, 135, 208, 208, 212, 212, 212, 166, 166, 158, 214, 179, 230, 311, 103, 179, 264, 278, 210, 210, 210, 123, 101, 101, 139, 218, 218, 104, 150, 182, 129, 151, 151, 151, 151, 335, 306, 321, 321, 321, 321, 181, 181, 123, 140, 267, 267, 267, 267, 189, 189, 189, 189, 197, 197, 197, 162, 306, 306, 306, 306, 306, 306, 236, 236, 236, 236, 91, 91, 91, 91, 300, 300, 300, 208, 208, 208, 208, 208, 208, 208, 208, 208, 208, 208, 208, 249, 249, 105, 195, 195, 277, 319, 141, 146, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 350, 234, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 171, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 185, 192, 129, 129, 188, 202, 202, 202, 202, 202, 202, 202, 148, 148, 148, 133, 133, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 139, 139, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>[108, 108, 108, 108, 108, 108, 108, 108, 108, 108, 108, 108, 108, 108, 108, 108, 108, 259, 259, 259, 259, 259, 259, 259, 259, 259, 259, 259, 259, 259, 259, 259, 259, 259, 259, 259, 259, 259, 259, 259, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 137, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 196, 196, 196, 196, 196, 196, 196, 196, 196, 196, 196, 196, 196, 196, 196, 196, 196, 196, 200, 200, 200, 200, 200, 200, 200, 200, 200, 200, 200, 200, 200, 200, 200, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 199, 199, 199, 199, 199, 199, 199, 199, 199, 199, 199, 199, 199, 199, 199, 199, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 105, 105, 105, 105, 105, 105, 105, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 133, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 162, 162, 162, 162, 162, 162, 160, 160, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 188]</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[186.62, 187.8, 188.6, 191.38, 196.1, 200.44, 206.1, 208.68, 211.76, 208.96, 207.52, 204.8, 203.38, 203.4, 199.98, 201.9, 200.04, 198.38, 198.7, 197.46, 197.76, 200.32, 204.98, 205.8, 206.7, 205.62, 204.84, 200.42, 198.9, 197.16, 197.56, 197.12, 197.34, 197.14, 198.52, 197.86, 199.36, 199.62, 197.14, 194.14, 189.82, 189.26, 190.14, 193.06, 192.86, 193.52, 189.24, 192.12, 194.02, 193.52, 193.28, 193.58, 194.68, 196.4, 194.66, 196.5, 196.48, 197.28, 194.62, 191.36, 190.48, 192.3, 192.78, 193.54, 195.7, 202.26, 204.8, 204.66, 205.2, 204.62, 203.66, 201.78, 200.62, 200.72, 203.78, 203.3, 201.86, 204.2, 203.82, 205.58, 208.12, 209.08, 212.0, 213.0, 211.58, 212.36, 210.52, 207.14, 210.72, 209.64, 211.6, 210.56, 211.06, 211.68, 211.24, 211.38, 213.4, 211.12, 208.74, 207.08, 205.56, 206.86, 206.68, 206.5, 209.24, 207.14, 206.04, 205.96, 207.08, 206.7, 208.26, 207.2, 206.22, 207.4, 207.4, 208.42, 210.28, 211.3, 211.3, 209.8, 209.32, 209.32, 210.34, 211.36, 211.66, 212.8, 214.1, 216.82, 219.72, 219.82, 220.72, 221.66, 221.1, 222.04, 221.9, 221.78, 218.88, 218.04, 216.96, 214.84, 212.02, 211.54, 212.56, 213.58, 214.6, 215.62, 214.98, 212.92, 210.38, 209.02, 206.48, 203.68, 201.62, 199.94, 198.64, 197.28, 194.74, 192.08, 190.58, 189.22, 189.22, 185.0, 185.0, 183.5, 182.14, 182.14, 180.64, 179.28, 176.74, 174.68, 172.62, 172.62, 171.26, 168.72, 168.34, 166.98, 163.8, 162.5, 163.3, 164.2, 163.22, 163.22, 162.3, 162.02, 161.82, 161.96, 160.66, 159.36, 159.5, 159.5, 159.5, 159.5, 159.5, 158.46, 157.42, 156.12, 155.08, 155.22, 153.18, 149.94, 148.58, 148.58, 148.52, 146.04, 145.86, 147.04, 148.22, 149.4, 149.4, 149.88, 149.76, 150.94, 152.12, 153.3, 154.48, 155.66, 156.84, 157.7, 159.36, 160.54, 161.72, 162.04, 160.02, 159.04, 159.18, 160.62, 162.06, 162.2, 162.42, 161.72, 161.02, 159.72, 159.72, 158.42, 159.3, 159.3, 158.0, 158.0, 156.7, 155.4, 154.18, 154.18, 152.88, 152.18, 150.88, 148.28, 148.28, 147.58, 146.28, 144.98, 144.98, 144.98, 143.68, 143.68, 142.46, 141.16, 139.94, 138.64, 138.64, 137.94, 136.98, 136.1, 134.88, 134.88, 134.88, 133.66, 132.44, 131.14, 133.04, 133.04, 133.04, 133.04, 133.04, 133.1, 133.1, 133.16, 133.56, 133.04, 132.52, 132.26, 131.66, 131.14, 130.54, 129.94, 129.34, 129.34, 128.74, 128.14, 128.14, 127.54, 127.54, 126.34, 124.5, 122.32, 122.32, 122.4, 122.74, 122.74, 122.82, 122.82, 122.9, 123.24, 123.58, 123.92, 124.26, 124.34, 124.42, 124.5, 124.58, 124.66, 124.74, 124.82, 125.24, 125.32, 125.4, 125.82, 125.9, 125.98, 126.06, 126.14, 126.22, 126.3, 126.38, 126.46, 126.54, 126.96, 127.04, 127.04, 127.12, 128.72, 128.8, 129.14, 129.14, 129.14, 129.14, 129.48, 129.48, 129.82, 129.82, 129.82, 130.16, 130.5, 131.94, 131.94, 132.2, 132.54, 132.54, 134.06, 134.06, 135.5, 135.84, 136.18, 136.52, 136.86, 137.12, 137.46, 139.6, 141.12, 141.72, 142.06, 142.4, 142.74, 145.22, 145.56, 145.56, 148.34, 150.12, 150.46, 150.8, 151.14, 152.66, 155.0, 153.98, 154.06, 155.32, 155.4, 155.48, 155.48, 155.56, 155.64, 155.68, 155.76, 155.3, 156.16, 157.26, 158.04, 158.04, 159.22, 160.32, 162.32, 163.42, 164.2, 165.3, 165.58, 166.76, 167.54, 168.64, 169.42, 170.6, 173.18, 173.88, 173.34, 174.52, 174.76, 174.64, 175.42, 176.24, 177.34, 177.22, 178.0, 178.16, 180.16, 181.34, 182.44, 181.54, 180.72, 179.9, 179.54, 180.42, 180.78, 181.14, 181.1, 181.06, 181.68, 181.76, 181.84, 181.66, 180.02, 180.1, 180.26, 180.34, 180.02, 179.7, 179.38, 178.16, 177.84, 176.94, 176.54, 174.82, 169.42, 169.02, 169.02, 168.62, 168.62, 168.68, 168.28, 167.88, 167.48, 167.08, 165.24, 164.84, 163.9, 162.6, 161.16, 161.16, 160.76, 159.76, 160.62, 161.4, 162.18, 163.5, 163.5, 164.82, 165.4, 165.4, 164.36, 164.36, 163.46, 163.46, 163.46, 163.46, 162.56, 162.56, 162.56, 161.18, 161.56, 161.56, 160.52, 160.52, 160.52, 160.52, 160.52, 159.98, 159.98, 159.98, 159.98, 159.98, 159.08, 159.08, 159.08, 159.08, 159.06, 158.02, 157.48, 156.44, 155.54, 154.64, 154.1, 154.1, 153.06, 153.02, 146.38, 150.3, 153.88, 156.88, 163.0, 165.4, 166.12, 170.98, 172.08, 176.22, 177.38, 178.5, 181.18, 183.96, 185.02, 187.76, 187.28, 186.88, 186.54, 187.32, 188.92, 186.96, 189.1, 189.52, 190.08, 190.22, 191.56, 189.88, 190.96, 191.28, 191.8, 192.62, 192.6, 190.8, 191.84, 191.84, 190.84, 192.46, 193.36, 192.72, 193.76, 191.5, 191.84, 194.2, 193.62, 192.9, 192.46, 191.16, 190.3, 190.0, 190.76, 192.38, 192.62, 192.74, 194.5, 194.5, 196.16, 196.56, 192.8, 191.8, 191.14, 189.94, 188.2, 189.12, 189.12, 190.18, 189.82, 189.82, 186.96, 185.04, 184.94, 186.74, 186.94, 187.48, 184.64, 183.36, 187.48, 184.92, 183.74, 185.38, 184.82, 188.92, 188.12, 187.44, 188.08, 186.92, 187.82, 185.52, 185.06, 182.8, 183.84, 186.48, 188.02, 189.68, 189.68, 190.5, 189.06, 190.38, 192.84, 193.72, 195.12, 195.74, 193.52, 195.48, 196.16, 191.96, 192.92, 194.68, 195.52, 195.3, 195.26, 195.26, 196.1, 195.46, 198.16, 202.26, 205.6, 207.66, 207.46, 209.54, 210.7, 210.96, 209.76, 212.08, 213.22, 216.62, 222.26, 218.18, 216.22, 213.96, 210.24, 208.54, 204.82, 204.82, 206.86, 207.1, 209.34, 210.0, 209.7, 209.4, 206.76, 209.1, 210.36, 211.62, 212.88, 213.98, 213.98, 212.74, 213.66, 212.58, 209.18, 205.76, 205.76, 204.68, 200.38, 200.7, 199.88, 200.2, 198.18, 200.52, 203.74, 205.12, 208.34, 205.04, 204.08, 203.12, 203.12, 203.12, 204.0, 202.54, 203.42, 204.3, 202.84, 203.72, 203.46, 204.34, 205.22, 206.1, 206.16, 203.88, 204.7, 202.26, 201.14, 199.14, 195.46, 197.68, 197.96, 196.46, 196.46, 196.46, 196.46, 194.12, 196.08, 193.62, 193.62, 191.28, 188.94, 187.1, 185.26, 182.88, 182.88, 180.54, 179.04, 179.04, 177.54, 175.2, 173.7, 171.86, 170.36, 168.86, 167.36, 165.52, 164.52, 163.02, 160.68, 158.34, 156.0, 153.66, 149.36, 147.38, 148.22, 149.06, 149.56, 150.4, 151.24, 152.08, 152.92, 153.42, 153.42, 153.42, 154.26, 155.1, 155.94, 156.44, 157.78, 157.78, 158.84, 159.34, 159.84, 161.68, 162.52, 162.52, 163.86, 164.36, 164.86, 165.7, 166.54, 167.88, 168.72, 169.86, 170.36, 170.48, 171.32, 171.66, 172.0, 172.84, 172.84, 173.18, 173.28, 173.62, 173.48, 173.82, 174.16, 175.0, 174.76, 174.82, 174.52, 175.48, 175.4, 175.18, 174.68, 174.18, 174.18, 173.68, 173.18, 172.68, 171.1, 171.68, 172.26, 172.84, 173.72, 174.6, 174.6, 174.6, 174.6, 174.6, 174.6, 174.6, 174.6, 174.6, 174.6, 172.96, 172.96, 172.14, 172.14, 172.14, 172.14, 172.14, 171.32, 171.32, 171.32, 170.5, 170.5, 170.5, 170.5, 169.68, 168.86, 168.04, 167.22, 167.22, 166.4, 165.58, 164.76, 163.94, 163.12, 163.12, 163.12, 162.3, 162.3, 161.48, 160.66, 160.66, 159.84, 159.02, 158.2, 157.38, 156.56, 156.56, 155.74, 154.1, 153.28, 153.28, 153.28, 152.46, 150.82, 150.0, 149.18, 148.36, 147.54, 146.72, 146.72, 145.9, 145.08, 144.26, 143.44, 143.44, 142.62, 141.8, 140.98, 140.16, 139.34, 138.52, 137.7, 136.88, 136.12, 136.06, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 138.22, 138.22, 138.22, 139.92, 139.92, 141.62, 143.8, 145.5, 146.02, 146.02, 146.5, 148.2, 148.72, 148.72, 149.24, 149.76, 149.76, 151.46, 151.46, 151.46, 153.16, 153.16, 153.16, 153.68, 153.68, 155.38, 155.9, 156.42, 156.94, 157.46, 157.46, 157.98, 160.16, 160.16, 160.68, 160.68, 160.68, 162.38, 164.08, 165.78, 166.3, 168.0, 168.52, 169.04, 172.96, 174.0]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[1063.7618753056938, 1045.0922108067375, 1035.0666908788162, 1005.1441261334337, 1066.16204516495, 1010.062273771856, 1027.3309567141741, 1022.3048327137546, 6.966006144559087, 17.624523931280176, 19.619798508459105, 14.350707304474138, 18.02654291266864, 18.17006678143058, 6.807918626169012, 6.866242342785683, 19.537729991030353, 9.316206167003996, 20.199788262395668, 7.457748960187364, 5.598603692056683, 4.612172593060699, 17.89088406948268, 17.141735849301238, 14.29190183370987, 7.199431252672307, 20.229014646957683, 15.346584089491527, 16.804530235033134, 6.707387595723598, 6.707387595723598, 11.6975341292823, 15.949144302765783, 7.477724111265847, 15.314143422675944, 10.455290320073248, 16.18219431408718, 16.93375664331393, 16.186016879565894, 19.722693605848733, 13.240790944159835, 4.784492325121758, 4.784492325121758, 9.446624352607902, 10.671618163455827, 18.560262255556246, 6.794508935172953, 8.858857159505623, 12.938715974336406, 9.171632134033048, 9.171632134033048, 7.488259620870648, 13.170577205500065, 16.815651477273278, 5.017804269765052, 11.070929208680813, 14.41354179156495, 14.41354179156495, 17.22443150995316, 13.237213638322194, 5.961982119213691, 10.533611375351555, 6.591589473202374, 7.663017680003388, 9.545804057562655, 6.812523493599646, 7.209732541370023, 6.6796710693293235, 9.591974420650757, 15.888420574398989, 15.888420574398989, 17.009855944237515, 11.343219422672854, 5.177320775269254, 11.868393107297418, 11.868393107297418, 7.011020705610716, 7.998550534070116, 11.258732681852768, 11.258732681852768, 7.839078445775729, 7.839078445775729, 10.321919625197298, 10.321919625197298, 9.292033743215265, 12.264197816350725, 14.928794892096139, 6.728594079534321, 8.999303281322229, 7.747858378954923, 7.747858378954923, 8.825885100055427, 11.06267656540832, 11.161614510726706, 14.943722330907004, 6.556050919772046, 15.678270962074388, 15.476418230610914, 16.60261245610913, 12.475555300643489, 6.508868458520091, 10.353209155931312, 10.353209155931312, 5.6911597892174015, 15.019334555676515, 12.563931984431836, 12.563931984431836, 9.621502357596935, 9.621502357596935, 8.628631189946763, 12.420224336801649, 12.420224336801649, 10.644530231957397, 9.541497273412006, 9.541497273412006, 9.541497273412006, 9.541497273412006, 9.541497273412006, 9.541497273412006, 9.541497273412006, 9.541497273412006, 9.541497273412006, 8.589599768598028, 9.014098455212366, 6.180760615146649, 6.432919163208497, 6.432919163208497, 5.023082547554969, 11.515356121657273, 14.229755593891245, 9.480536844081513, 9.480536844081513, 9.480536844081513, 9.480536844081513, 11.841235810495307, 13.436293361016144, 13.436293361016144, 13.942637909299135, 10.544162862104415, 10.544162862104415, 9.136568648963936, 9.136568648963936, 9.136568648963936, 9.136568648963936, 9.136568648963936, 7.135623803368649, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 8.734870836523616, 10.523740498913709, 10.523740498913709, 10.523740498913709, 10.523740498913709, 5.705604621317626, 5.705604621317626, 7.9927000452516195, 7.9927000452516195, 7.9927000452516195, 7.9927000452516195, 7.9927000452516195, 7.9927000452516195, 7.9927000452516195, 7.9927000452516195, 7.9927000452516195, 7.9927000452516195, 7.9927000452516195, 7.9927000452516195, 7.9927000452516195, 10.186220163501703, 12.44739625188519, 8.297670248029284, 8.297670248029284, 8.297670248029284, 8.297670248029284, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 7.42297820220935, 7.42297820220935, 7.42297820220935, 4.8889920068507315, 4.8889920068507315, 4.8889920068507315, 4.8889920068507315, 4.8889920068507315, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 5.038940978186662, 5.038940978186662, 5.038940978186662, 5.038940978186662, 5.038940978186662, 5.038940978186662, 5.038940978186662, 5.038940978186662, 5.038940978186662, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 9.000110181938895, 9.611268004519477, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 7.7504707540057, 5.498920025603061, 5.498920025603061, 5.498920025603061, 5.498920025603061, 5.498920025603061, 5.498920025603061, 5.498920025603061, 5.498920025603061, 5.498920025603061, 5.498920025603061, 5.498920025603061, 5.498920025603061, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 9.651792562246527, 9.651792562246527, 9.651792562246527, 8.480674953704062, 6.016164240665717, 7.169544965870192, 7.169544965870192, 7.169544965870192, 7.169544965870192, 5.812845240615574, 5.812845240615574, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.823479703884995, 7.823479703884995, 4.392637520881781, 4.392637520881781, 4.392637520881781, 4.392637520881781, 4.392637520881781, 5.673452996742417, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 1041.5748410869717, 1022.0148741301344, 1011.2688284245851, 1011.6237995751758, 1064.0566987582697, 1023.4327859765374, 1022.7738381863899, 1013.2956749240104, 1094.366451577206, 6.055298298742531, 14.600528071161717, 6.8172197916618416, 7.584710684143398, 10.964871262000724, 10.283938535153338, 11.87585419754587, 16.25163359696649, 9.485288960726983, 8.613928444699853, 10.444010300241722, 13.801848416716911, 7.981487464312948, 13.220469352811838, 12.78334503821919, 13.594958145418056, 12.911128137963015, 16.36723465647735, 8.820176514094799, 12.944032991015183, 14.032425891425609, 9.290776339424179, 12.812300406722906, 15.581178568023237, 8.710610349375859, 16.337499711188777, 10.996616403224174, 11.234207288037373, 12.857021651101695, 12.861085478685263, 8.604735240179776, 16.147351998502042, 11.270059413875895, 6.4315277990095785, 9.293869552544267, 11.872486631982607, 12.566254245359218, 11.232537946955484, 10.94942403096557, 10.94942403096557, 9.583779125355292, 9.726822029944765, 9.726822029944765, 9.15438437538685, 10.443570138633595, 12.628951421508516, 12.628951421508516, 10.895544712220468, 15.316976190916666, 10.968099855565772, 10.968099855565772, 13.980930651578849, 14.714966308143268, 11.084000856929961, 11.084000856929961, 7.135154998397439, 12.557791806761362, 14.711627585862608, 14.711627585862608, 4.068057527313768, 11.51734225368037, 9.829919902263567, 9.829919902263567, 8.048680154446906, 11.961179558880639, 7.601329397277342, 4.866971867411551, 13.611561826361669, 14.332149307052804, 9.530888186876004, 8.382406719536366, 5.958622642577761, 8.666849049636197, 15.355687417094778, 5.438977937611103, 9.116660950913671, 8.374871066776235, 13.332437867897415, 8.715431467377943, 12.670306779313842, 12.670306779313842, 9.394427767170983, 6.698748884308592, 6.698748884308592, 10.262801815040435, 10.262801815040435, 10.451705880651415, 10.451705880651415, 10.451705880651415, 8.157724078062586, 8.157724078062586, 7.719370117796927, 10.430154987147175, 8.70310403255515, 11.101869501865325, 15.008286986717147, 4.966157617541397, 8.595383300420043, 12.660754377800483, 13.308214099736537, 10.043298934674338, 10.043298934674338, 10.043298934674338, 5.850653973373071, 4.801330669545687, 4.801330669545687, 6.607210897896101, 10.351177733045136, 10.351177733045136, 4.919959774714666, 7.08623800905421, 8.555393558247456, 6.050582024257408, 7.07102585023359, 7.07102585023359, 7.07102585023359, 7.07102585023359, 15.654603128547484, 14.283426374816855, 14.971905113059021, 14.971905113059021, 14.971905113059021, 14.971905113059021, 8.42700015980509, 8.42700015980509, 5.699374506280093, 6.4850723330210895, 12.315465391282412, 12.315465391282412, 12.315465391282412, 12.315465391282412, 8.705825955137612, 8.705825955137612, 8.705825955137612, 8.705825955137612, 9.04221755213242, 9.04221755213242, 9.04221755213242, 7.417997439252002, 14.01052595959565, 14.01052595959565, 14.01052595959565, 14.01052595959565, 14.01052595959565, 14.01052595959565, 10.767431417527298, 10.767431417527298, 10.767431417527298, 10.767431417527298, 4.117291205213596, 4.117291205213596, 4.117291205213596, 4.117291205213596, 13.557534660866105, 13.557534660866105, 13.557534660866105, 9.346514259495706, 9.346514259495706, 9.346514259495706, 9.346514259495706, 9.346514259495706, 9.346514259495706, 9.346514259495706, 9.346514259495706, 9.346514259495706, 9.346514259495706, 9.346514259495706, 9.346514259495706, 11.16677282920976, 11.16677282920976, 4.639853799836582, 8.590676652403259, 8.590676652403259, 12.102346575666932, 13.895543717162301, 6.122882481229062, 6.302142824846031, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 14.823160583202277, 9.852721245614855, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 7.0062969063090295, 6.323357017018382, 6.323357017018382, 6.323357017018382, 6.323357017018382, 6.323357017018382, 6.323357017018382, 6.323357017018382, 6.323357017018382, 6.323357017018382, 6.323357017018382, 6.323357017018382, 6.323357017018382, 6.323357017018382, 7.30473835867871, 7.531404685618283, 4.8818537488764955, 4.8818537488764955, 6.822175514567332, 7.292651150009884, 7.292651150009884, 7.292651150009884, 7.292651150009884, 7.292651150009884, 7.292651150009884, 7.292651150009884, 5.092513818185174, 5.092513818185174, 5.092513818185174, 4.572545918790436, 4.572545918790436, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 4.638288882417336, 4.638288882417336, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[5.023082547554969, 5.023082547554969, 5.023082547554969, 5.023082547554969, 5.023082547554969, 5.023082547554969, 5.023082547554969, 5.023082547554969, 5.023082547554969, 5.023082547554969, 5.023082547554969, 5.023082547554969, 5.023082547554969, 5.023082547554969, 5.023082547554969, 5.023082547554969, 5.023082547554969, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.498920025603061, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 6.562674429759156, 6.562674429759156, 6.562674429759156, 6.562674429759156, 6.562674429759156, 6.562674429759156, 6.562674429759156, 6.562674429759156, 6.562674429759156, 6.562674429759156, 6.562674429759156, 6.562674429759156, 6.562674429759156, 6.562674429759156, 6.562674429759156, 6.562674429759156, 6.562674429759156, 6.562674429759156, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 6.922146888139318, 6.922146888139318, 6.922146888139318, 6.922146888139318, 6.922146888139318, 6.922146888139318, 6.922146888139318, 6.922146888139318, 6.922146888139318, 6.922146888139318, 6.922146888139318, 6.922146888139318, 6.922146888139318, 6.922146888139318, 6.922146888139318, 6.922146888139318, 5.87532963406044, 5.87532963406044, 5.87532963406044, 5.87532963406044, 5.87532963406044, 5.87532963406044, 5.87532963406044, 5.87532963406044, 5.87532963406044, 5.87532963406044, 4.639853799836582, 4.639853799836582, 4.639853799836582, 4.639853799836582, 4.639853799836582, 4.639853799836582, 4.639853799836582, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.572545918790436, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 5.152303083263493, 5.152303083263493, 5.152303083263493, 5.152303083263493, 5.152303083263493, 5.152303083263493, 4.996526371343058, 4.996526371343058, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 5.680355130740864]</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[13.544121976109993, 13.291495694789738, 13.048388725312998, 12.88482574055124, 12.622445749273556, 12.622582107904213, 12.359416431900954, 12.245882248193945, 12.178341936991242, 11.898729993694674, 11.778524590724619, 11.586650741576817, 11.456141040185848, 11.431150357039437, 11.237157353502267, 11.32187102706439, 11.157925981865086, 10.956798265447903, 10.956663421557165, 10.835061740974753, 10.813863960853695, 10.902342360695384, 11.131063179382975, 11.174045420861855, 11.208758809979622, 11.093937689138786, 11.022268856803775, 10.779376669067764, 10.691473095780113, 10.577453498482749, 10.56582263545569, 10.52721858187709, 10.502146317287444, 10.490868803444686, 10.526690170360542, 10.467210225062987, 10.509703044823583, 10.523381879608053, 10.370361639072632, 10.193421409379477, 9.910248393268795, 9.858151508785932, 9.887447566074009, 10.020297539345954, 9.989891318869399, 10.003223943434733, 9.763274654700748, 9.905962056080966, 9.959156988166669, 9.89412830182809, 9.86626189967764, 9.87436793331206, 9.899903520337181, 9.977974371089488, 9.876399097809275, 9.961183118774983, 9.931629157519048, 9.963899323277587, 9.81222108729145, 9.607100407404337, 9.538147349947147, 9.60472799831348, 9.61979270840948, 9.60595490220982, 9.681710260992435, 9.962337107877676, 10.073820994720354, 10.046633603877618, 10.06481266812495, 10.028269834435948, 9.968918703026857, 9.8654618474214, 9.776276190550636, 9.7738897558808, 9.895143598748009, 9.849361865627724, 9.753483420621608, 9.83995478251163, 9.804699089246684, 9.869557262127664, 9.961927757844817, 9.99328503823231, 10.128685842857237, 10.151941956849436, 10.078371895653037, 10.111931242830723, 9.988760831512241, 9.80053588282928, 9.967001256055449, 9.890155660422149, 9.96204552523252, 9.896143145398263, 9.909247382088106, 9.918544912892257, 9.887717881303855, 9.890891296231354, 9.967096715833398, 9.842644102302812, 9.713702593166106, 9.618936050109548, 9.546261223329786, 9.604894404170592, 9.589496895352909, 9.56579933483647, 9.676479726783134, 9.564601929339789, 9.49930384698753, 9.480411291177818, 9.516898647060206, 9.483784637830121, 9.555203181740604, 9.500992500298509, 9.445680340301658, 9.479968789885504, 9.479968789885504, 9.517682248532015, 9.595743014510925, 9.633286180469298, 9.625051661667746, 9.547259837843088, 9.515893078445847, 9.50778200686077, 9.545233540237753, 9.583613554104886, 9.592521507509737, 9.631422135487938, 9.683141134690954, 9.789313262580308, 9.914034747544308, 9.912659084858275, 9.946339937425934, 9.984506631387696, 9.954424952543983, 9.992553645163502, 9.955238814940273, 9.946981888289724, 9.803597005662626, 9.763881497443029, 9.713988884681129, 9.617680746661659, 9.467935732575427, 9.445139706503113, 9.489955929321864, 9.534765294317998, 9.579567803065485, 9.624363457137807, 9.590551465577102, 9.487856624222417, 9.369992802226067, 9.3013686020223, 9.183758394613712, 9.051824951236041, 8.950130864418348, 8.871044935563654, 8.809751699312086, 8.741899561375932, 8.62506305456053, 8.489482792369367, 8.422622933425775, 8.355340987258879, 8.355340987258879, 8.16083456789205, 8.16083456789205, 8.094125255883574, 8.027254010841668, 8.027254010841668, 7.96061519719896, 7.893919897859995, 7.778241961496915, 7.6789629902342735, 7.5799063940934674, 7.5799063940934674, 7.513774678506969, 7.398697791558936, 7.381769972421568, 7.315898139138203, 7.1724990264764825, 7.1126946661445185, 7.1475507695238605, 7.185818008746391, 7.137114690439899, 7.137114690439899, 7.09427067063529, 7.076746203867443, 7.062085984053676, 7.062671436348248, 7.000835562824574, 6.939090463477905, 6.939770515550242, 6.939770515550242, 6.939770515550242, 6.939770515550242, 6.939770515550242, 6.891613665539364, 6.84349740714461, 6.782012816651175, 6.733998170886323, 6.734835831660379, 6.644178240553225, 6.499105675454876, 6.429563883765523, 6.429563883765523, 6.4241346358151405, 6.315792004769768, 6.305476338614789, 6.354227027309316, 6.402943057941022, 6.451624467455676, 6.451624467455676, 6.4683590445650365, 6.453140800022602, 6.5016815918204784, 6.550187986267024, 6.598660019911659, 6.647097729252049, 6.695501150734185, 6.743870320752479, 6.780778449398553, 6.845524829185598, 6.8937766104253875, 6.941994304995724, 6.953346764781679, 6.853476785425359, 6.80107463778029, 6.798663226057399, 6.859853909998884, 6.921039019575372, 6.918482987119388, 6.918247054369589, 6.886650591342616, 6.85507045437891, 6.7916819404700375, 6.7916819404700375, 6.728443223089641, 6.762029314585131, 6.762029314585131, 6.698935541643949, 6.698935541643949, 6.635990434083972, 6.573193467081913, 6.512902356159764, 6.512902356159764, 6.450407129145971, 6.41922868253816, 6.356932483186907, 6.23277717202308, 6.23277717202308, 6.201771526245512, 6.139963356154759, 6.078299366545648, 6.078299366545648, 6.078299366545648, 6.016779053509236, 6.016779053509236, 5.957822842902781, 5.8965950647084515, 5.837942931711901, 5.777005549762607, 5.777005549762607, 5.746384091154172, 5.698095587219881, 5.653128040768208, 5.59512509095501, 5.59512509095501, 5.59512509095501, 5.537273685206608, 5.479573230390024, 5.419548995951157, 5.496542296052301, 5.496542296052301, 5.496542296052301, 5.496542296052301, 5.496542296052301, 5.492946846475387, 5.492946846475387, 5.489359331368947, 5.498166057017289, 5.471024458582568, 5.443939644849965, 5.426820097312666, 5.397384089099955, 5.370460475105155, 5.341131492163142, 5.3118546669874185, 5.282629860567925, 5.282629860567925, 5.25345693438815, 5.224335750422931, 5.224335750422931, 5.195266171136295, 5.195266171136295, 5.137281278887764, 5.058339792911854, 4.966816666158846, 4.966816666158846, 4.9693158744260275, 4.981677447655075, 4.981677447655075, 4.984173317039208, 4.984173317039208, 4.986668434400333, 4.999017690080404, 5.011359804459593, 5.023694783730591, 5.036022634078937, 5.038506691313232, 5.040990001173672, 5.043472563997496, 5.045954380121741, 5.048435449883245, 5.050915773618639, 5.053395351664353, 5.068811720695991, 5.071287461059735, 5.073762457568363, 5.089162999268593, 5.0916341656343365, 5.094104589974454, 5.096574272623116, 5.099043213914283, 5.101511414181721, 5.103978873758996, 5.106445592979472, 5.108911572176311, 5.111376811682481, 5.12674001100272, 5.129201438300695, 5.129201438300695, 5.1316621277252805, 5.190543544975113, 5.192991980286939, 5.20520381998102, 5.20520381998102, 5.20520381998102, 5.20520381998102, 5.218061957321337, 5.218061957321337, 5.230915926006717, 5.230915926006717, 5.230915926006717, 5.24376572806407, 5.256611365518995, 5.3103763369548025, 5.3103763369548025, 5.320109215597675, 5.332928406848918, 5.332928406848918, 5.389786932498106, 5.389786932498106, 5.443344176441457, 5.456120968168055, 5.468893631419127, 5.481662168195358, 5.494426580496137, 5.504109529226966, 5.516866505597262, 5.599644213536206, 5.656115223466231, 5.678469984302858, 5.691175793644679, 5.703877508077193, 5.71657512957968, 5.8016482950554735, 5.814297062493659, 5.814297062493659, 5.921357076949413, 5.98671294374562, 5.999309474395927, 6.0119019644705265, 6.024490415913242, 6.08027173674881, 6.172358419571814, 6.130902493012575, 6.133939831162853, 6.180068157588453, 6.183102253735049, 6.186136203613818, 6.186136203613818, 6.189170007235335, 6.192203664610176, 6.177877428879355, 6.1809034886856224, 6.157574426770557, 6.182491611219229, 6.213291112279419, 6.235031112714347, 6.235031112714347, 6.277669505242548, 6.317106054392524, 6.39578534876919, 6.435123127023316, 6.4564692609285395, 6.4956879975287825, 6.499288907045097, 6.541546782929591, 6.562657835703473, 6.601661328594906, 6.6226423474100224, 6.664650208545524, 6.755402217330708, 6.763614787692784, 6.737325175081154, 6.77902376353932, 6.771879709711742, 6.750606223732072, 6.771112038307227, 6.800449011284379, 6.8387261258031105, 6.817391526528899, 6.837704332710399, 6.840231774101908, 6.9168855447832325, 6.9579662805285745, 6.995933289103341, 6.957342059796817, 6.921856406982973, 6.886412333038119, 6.87000130140198, 6.9011985211044165, 6.913120185693374, 6.925035477868615, 6.916094626277677, 6.907172896647964, 6.924728825242887, 6.914908990729467, 6.917948800236226, 6.904448458854868, 6.840979715816896, 6.844016133040263, 6.850088957689888, 6.853125365116155, 6.835495884300017, 6.8178945692943405, 6.800321352654176, 6.741865410564537, 6.72439844398175, 6.685912678631695, 6.665498758034692, 6.599472408281053, 6.371819293446833, 6.351749125450114, 6.351749125450114, 6.331710671489767, 6.331710671489767, 6.332951411511946, 6.312946812016218, 6.292973768041671, 6.273032204982999, 6.2531220484698915, 6.171315439055599, 6.151542420820861, 6.105801502251312, 6.046618324934938, 5.985279406505205, 5.985279406505205, 5.965762131741093, 5.919309094898944, 5.943802661549291, 5.9633025837272085, 5.98274145557777, 6.0277257196924685, 6.0277257196924685, 6.072654678795818, 6.093254066681891, 6.093254066681891, 6.051829384515591, 6.051829384515591, 6.0127795095808585, 6.0127795095808585, 6.0127795095808585, 6.0127795095808585, 5.9738062663734155, 5.9738062663734155, 5.9738062663734155, 5.9230025123314585, 5.928419815394543, 5.928419815394543, 5.887242084761338, 5.887242084761338, 5.887242084761338, 5.887242084761338, 5.887242084761338, 5.86190084798636, 5.86190084798636, 5.86190084798636, 5.86190084798636, 5.86190084798636, 5.823226379306588, 5.823226379306588, 5.823226379306588, 5.823226379306588, 5.806851081554068, 5.765945615778991, 5.740847575959061, 5.700034855543917, 5.661734444048058, 5.623508409862999, 5.5986285271875955, 5.5986285271875955, 5.558025873128356, 5.5545095887143905, 10.742047207206454, 10.771940584556416, 10.548656467643632, 10.520445479273912, 10.446717061248831, 10.380004568949026, 10.424821318600525, 10.430253028861122, 10.246406493609355, 10.098677732945797, 10.130261400975126, 10.137311144442782, 10.23990565815914, 10.384939008949233, 10.422034739248193, 10.492811673386829, 10.447726917186737, 10.327685001998221, 10.300127650145445, 10.317791181658967, 10.35054743153797, 10.227484735752789, 10.279819106154234, 10.274384181074007, 10.276642582441205, 10.252995476730613, 10.296871194971544, 10.20231012751514, 10.246280290437191, 10.233909981857892, 10.24068840965243, 10.270762040660104, 10.221288476829562, 10.087735805979744, 10.127360425704317, 10.055013583261736, 9.967808546573702, 10.023147171490477, 10.045262015309483, 10.002704895546307, 10.045891996188162, 9.897206202016378, 9.884318641637341, 9.971973335631336, 9.88089527967758, 9.84232219840622, 9.814180239427818, 9.737323901298598, 9.65773370817047, 9.612192622762903, 9.640618850861665, 9.700321930347917, 9.696536210333798, 9.686058043097342, 9.767095231649545, 9.767095231649545, 9.824128990343066, 9.818411095009434, 9.593343240189078, 9.515809583784518, 9.46703993400698, 9.375984551230431, 9.263086109635053, 9.296644097805581, 9.28293990195976, 9.332740798521273, 9.281594455398437, 9.281594455398437, 9.09651513367436, 8.985422305639508, 8.967479825226718, 9.052093924047155, 9.037578697610988, 9.057377813821994, 8.85880554879021, 8.789483870267846, 8.985058925169481, 8.822963124697623, 8.752187109001028, 8.811255549976455, 8.746921335523572, 8.924298211744716, 8.871247817937569, 8.83572572979879, 8.835925493280017, 8.767198246860781, 8.806576432057412, 8.687300016914556, 8.65449210653116, 8.525027936824015, 8.559208312020184, 8.671447971504234, 8.741995981808822, 8.811742553399197, 8.811742553399197, 8.84097581156743, 8.763537202381851, 8.819771879425273, 8.924511228248882, 8.960587129030221, 9.012262262816712, 9.030541377194293, 8.92628452848316, 9.002964970885493, 9.033162831846452, 8.837197687571484, 8.876371772252744, 8.950309169513078, 8.980761801584345, 8.96414520631337, 8.951258643118102, 8.951258643118102, 8.968956497654316, 8.930873410059144, 9.046947871934703, 9.227350867487647, 9.372857652333668, 9.46349192936728, 9.444100906391471, 9.529106422417414, 9.572399535194823, 9.571810368267442, 9.470374386376283, 9.5723073898659, 9.615953392237733, 9.768536601313953, 10.013948400761667, 9.81421558100174, 9.71878594160555, 9.610168630739322, 9.421573148375247, 9.341390086388314, 9.153914120452523, 9.153914120452523, 9.21576022228934, 9.206762594185237, 9.291043695643124, 9.316632421632802, 9.288816707627575, 9.261087602078145, 9.125751315908412, 9.227963626642115, 9.26941154528371, 9.310733233755961, 9.351929267835507, 9.386616824767886, 9.386616824767886, 9.314286321681786, 9.351163889386356, 9.290888834515277, 9.123767256442537, 8.957868867298652, 8.957868867298652, 8.89845850085344, 8.709538132426019, 8.71191921566427, 8.670445528977803, 8.672873417100755, 8.570042275806902, 8.6700900065645, 8.799133935005955, 8.834306677488591, 8.962657543451924, 8.80664853537844, 8.755546488804438, 8.704559386962366, 8.704559386962366, 8.704559386962366, 8.733394960705748, 8.658086884280937, 8.68689778198811, 8.715650379861405, 8.640631399321375, 8.6693594049385, 8.655018924579254, 8.683692616686711, 8.712308568861149, 8.740866955332649, 8.73495177913577, 8.626044827225567, 8.656807069115828, 8.498485728570746, 8.400114249463627, 8.269325398165071, 8.109612456096059, 8.198918764170658, 8.196007944137431, 8.091752909652739, 8.091752909652739, 8.091752909652739, 8.091752909652739, 7.991809146110905, 8.071360846345478, 7.9505648093946375, 7.9505648093946375, 7.850987132873763, 7.7514979310521746, 7.664294293050664, 7.577356434996997, 7.445620255050833, 7.445620255050833, 7.3471124487269455, 7.248953376750006, 7.248953376750006, 7.1517893083170945, 7.054450668008193, 6.958798918884155, 6.874822868163765, 6.780691527285743, 6.687498281429647, 6.595229176811271, 6.513156549958445, 6.4521803841168195, 6.361960668253292, 6.267991890767678, 6.174102466062995, 6.0802922936664086, 5.986561273274634, 5.817357792219481, 5.739203578625952, 5.746183613351592, 5.753101691108471, 5.766517325757194, 5.773308093711872, 5.780039175367765, 5.786711354185663, 5.793325399974166, 5.806453839895641, 5.806453839895641, 5.806453839895641, 5.8129470913888275, 5.819384313077131, 5.825766227060874, 5.838680687080021, 5.872396672971281, 5.872396672971281, 5.896155226556041, 5.908918182649075, 5.921656144960512, 5.958503678503807, 5.964185625041185, 5.964185625041185, 5.996997912355433, 6.009484186862753, 6.021946352467275, 6.027312875331589, 6.032634691446293, 6.064839714452284, 6.0699700318173155, 6.104343443384746, 6.116502622446648, 6.097498437597837, 6.117057720460458, 6.109877538084521, 6.102742479228336, 6.122136949222205, 6.122136949222205, 6.114997939539587, 6.08335575750898, 6.076399988493678, 6.030929884695886, 6.02420271279377, 6.017516710080494, 6.036544876756828, 6.012672478359333, 6.00551665574133, 5.977805998033559, 5.997103784761471, 5.968932133517225, 5.952638252429735, 5.9274629221435875, 5.9023569298779925, 5.9023569298779925, 5.877319989570203, 5.852351816728896, 5.827452128423395, 5.760930600279875, 5.777857081436306, 5.794768330401249, 5.8116643677267, 5.838723696174505, 5.865759592147243, 5.865759592147243, 5.865759592147243, 5.865759592147243, 5.865759592147243, 5.865759592147243, 5.865759592147243, 5.865759592147243, 5.865759592147243, 5.865759592147243, 5.804777794760419, 5.804777794760419, 5.774333196564569, 5.774333196564569, 5.774333196564569, 5.774333196564569, 5.774333196564569, 5.743919402903236, 5.743919402903236, 5.743919402903236, 5.713536367046973, 5.713536367046973, 5.713536367046973, 5.713536367046973, 5.683184042360797, 5.652862382303961, 5.622571340429702, 5.59231087038502, 5.59231087038502, 5.5620809259104265, 5.5318814608397195, 5.501712429099741, 5.4715737847101495, 5.441465481783182, 5.441465481783182, 5.441465481783182, 5.411387474523421, 5.411387474523421, 5.381339717227563, 5.351322164284192, 5.351322164284192, 5.321334770173537, 5.291377489467255, 5.261450276828192, 5.231553087010162, 5.201685874857711, 5.201685874857711, 5.171848595305896, 5.112263654195579, 5.082515902957699, 5.082515902957699, 5.082515902957699, 5.052797904961241, 4.993450990318607, 4.963821984708111, 4.934222554409955, 4.9046526551636545, 4.875112242796995, 4.84560127322582, 4.84560127322582, 4.816119702453803, 4.786667486572231, 4.757244581759788, 4.72785094428234, 4.72785094428234, 4.698486530492714, 4.669151296830481, 4.639845199821746, 4.610568196078931, 4.581320242300556, 4.552101295271036, 4.522911311860454, 4.493750249024365, 4.4681045597523905, 4.464618063803571, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.5296275783677205, 4.5296275783677205, 4.5296275783677205, 4.583837446100494, 4.583837446100494, 4.638011832659825, 4.703133118238792, 4.7571786914607985, 4.768003992471711, 4.768003992471711, 4.778881505807209, 4.832760792484711, 4.846693646772674, 4.846693646772674, 4.857368467722911, 4.871259379502133, 4.871259379502133, 4.924954685495431, 4.924954685495431, 4.924954685495431, 4.978615108645082, 4.978615108645082, 4.978615108645082, 4.99241300035118, 4.99241300035118, 5.046000774166191, 5.056382142191964, 5.066736864591039, 5.0770650438180445, 5.090736017222579, 5.090736017222579, 5.101013901670532, 5.164612223564586, 5.164612223564586, 5.1781853833015035, 5.1781853833015035, 5.1781853833015035, 5.231286127040161, 5.2843526925843, 5.3373851129214005, 5.3508304530356, 5.403791820619375, 5.413618904073925, 5.4269877380100855, 5.5422328199813125, 5.566243953874969]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>[0.02521344416599964, 0.025808265264414938, 0.030252476952941677, 0.04341922706234053, 0.04665726059117936, 0.05969527511403204, 0.06387916801661975, 0.06501751535378414, 0.06569429563039839, 0.0661073106364832, 0.07764720875224593, 13.529091049650257, 14.467760946764827, 14.577164776383293, 14.61485198643793, 14.779841624598935, 15.002640802072406, 15.004678176126513, 15.084439357900505, 15.243166298145875, 15.274864734164003, 15.78164587877377, 15.796466001196107, 15.820817303096685, 15.842453516872817, 16.003287065867045, 16.060766345576376, 16.206355261205303, 16.242726272176547, 16.281970506634742, 16.31153535803769, 16.359730558321733, 16.606780653787204, 16.830440747161408, 16.925342789566145, 17.038102819110705, 17.13797184024668, 17.363845907857677, 17.363845907857677, 17.372219953633355, 17.426106164913854, 17.45230215926678, 17.564397386994248, 17.5878014871479, 17.635194754364072, 17.636348169287636, 17.65801612601152, 17.66707193507677, 17.757189548757523, 17.80947704801522, 17.813349500721202, 17.823178710603027, 17.823178710603027, 17.82564214274196, 17.90145193723701, 17.91238005919598, 17.91415837210692, 17.940780362117373, 17.975163112427712, 18.016353242226295, 18.016353242226295, 18.035316210585645, 18.09484802218109, 18.09777662931712, 18.237595926663626, 18.24328488089472, 18.318835253136903, 18.45961897688999, 18.5144697044518, 18.740515930208694, 18.740515930208694, 18.74892176114296, 18.83746179465283, 18.850458951959, 18.89723655250269, 18.921686886905047, 18.921686886905047, 18.92404972801409, 18.92404972801409, 18.92404972801409, 18.967494995413382, 19.00068132993026, 19.00068132993026, 19.00068132993026, 19.116525109594203, 19.137425816157812, 19.14143281426948, 19.14143281426948, 19.167170915981192, 19.17353860657921, 19.173960681558473, 19.201695870365125, 19.2557511813524, 19.2557511813524, 19.274246540805535, 19.27510497967311, 19.27510497967311, 19.38339651957044, 19.455455193611936, 19.472047595769396, 19.48248052091972, 19.6063205764245, 19.661382482665783, 19.713943356647327, 19.743834495157568, 19.815529615457443, 20.005748128758693, 20.099631868381344, 20.30833327217068, 20.30942613239182, 20.532715172940105, 20.532715172940105, 20.72615766363648, 20.72615766363648, 20.738856851859804, 20.738856851859804, 20.738856851859804, 20.78693431347916, 20.78693431347916, 20.78693431347916, 20.805676022211635, 20.805676022211635, 20.817314559361673, 20.817314559361673, 20.817314559361673, 20.83204662087864, 20.83204662087864, 20.875106716827393, 20.875106716827393, 21.107079867445243, 21.133032239633806, 21.220527663051257, 21.257201147452136, 21.43234092341078, 21.43234092341078, 21.43234092341078, 21.694162783647975, 22.111989179685636, 22.174741054488273, 22.382613425273764, 22.382613425273764, 22.676797447826747, 22.903539129118233, 23.048610996783307, 23.048610996783307, 23.048610996783307, 23.048610996783307, 23.072693149642284, 23.072693149642284, 23.276490499339754, 23.441181588144225, 23.50412328350776, 23.50412328350776, 23.50412328350776, 23.50412328350776, 23.50412328350776, 23.50412328350776, 23.50412328350776, 23.600563250315236, 23.827249927162704, 23.827249927162704, 23.827249927162704, 23.827249927162704, 23.827249927162704, 23.827249927162704, 23.827249927162704, 23.827249927162704, 24.15824822143251, 24.246093290791087, 24.246093290791087, 24.246093290791087, 24.246093290791087, 24.246093290791087, 24.246093290791087, 24.246093290791087, 24.246093290791087, 24.246093290791087, 24.246093290791087, 24.246093290791087, 24.246093290791087, 24.246093290791087, 24.246093290791087, 24.246093290791087, 24.246093290791087, 24.246093290791087, 24.246093290791087, 24.246093290791087, 24.246093290791087, 24.246093290791087, 24.246093290791087, 24.246093290791087, 24.246093290791087, 24.246093290791087, 24.246093290791087, 24.246093290791087, 24.25366513024758, 24.25366513024758, 24.25366513024758, 24.25366513024758, 24.25366513024758, 24.26570926046998, 24.26570926046998, 24.26570926046998, 24.400724079722412, 24.400724079722412, 24.400724079722412, 24.400724079722412, 24.400724079722412, 24.400724079722412, 24.400724079722412, 24.400724079722412, 24.400724079722412, 24.497852591256326, 24.540012922153622, 24.540012922153622, 24.564909094581918, 24.755153130690843, 24.755153130690843, 24.755153130690843, 24.755153130690843, 24.755153130690843, 24.755153130690843, 24.755153130690843, 24.755153130690843, 24.755153130690843, 24.755153130690843, 24.755153130690843, 24.755153130690843, 24.755153130690843, 24.844295553243924, 24.844295553243924, 24.844295553243924, 24.844295553243924, 24.844295553243924, 24.844295553243924, 24.98118523184588, 24.98118523184588, 24.98118523184588, 25.2655810220771, 25.2655810220771, 25.321750069352657, 25.321750069352657, 25.524538165441296, 25.524538165441296, 25.524538165441296, 25.524538165441296, 25.524538165441296, 25.524538165441296, 25.524538165441296, 25.524538165441296, 25.580904784928098, 25.580904784928098, 25.580904784928098, 25.580904784928098, 25.580904784928098, 25.580904784928098, 25.580904784928098, 25.580904784928098, 25.580904784928098, 26.067547048422657, 26.521253993610067, 26.521253993610067, 26.521253993610067, 26.521253993610067, 26.521253993610067, 26.631521709299133, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 27.105293342799055, 27.265352194112502, 27.265352194112502, 27.265352194112502, 27.265352194112502, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.42704940102986, 30.42704940102986, 30.42704940102986, 30.42704940102986, 30.42704940102986, 30.42704940102986, 30.42704940102986, 30.42704940102986, 30.42704940102986, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.508748730871208, 31.508748730871208, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 32.38405299182462, 32.47133103566082, 32.47133103566082, 32.54380626629841, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.66013503339639, 32.66013503339639, 32.66013503339639, 32.9350400015829, 32.9350400015829, 32.97978808656398, 32.97978808656398, 33.07622993128823, 33.41767751517443, 33.494538194211785, 33.69726180089984, 33.69726180089984, 33.69726180089984, 33.758476683437515, 33.97054407746924, 33.97054407746924, 33.97054407746924, 33.97054407746924, 33.97054407746924, 33.97054407746924, 33.97054407746924, 34.086778693056864, 34.086778693056864, 34.086778693056864, 34.086778693056864, 34.086778693056864, 34.086778693056864, 34.086778693056864, 34.127406234205274, 34.127406234205274, 34.127406234205274, 34.127406234205274, 34.127406234205274, 34.127406234205274, 34.127406234205274, 34.127406234205274, 34.127406234205274, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.26706823241814, 34.26706823241814, 34.26706823241814, 34.26706823241814, 34.289673386156245, 34.39957542475708, 34.79830736364096, 35.21340896779218, 35.21340896779218, 35.23866925956025, 35.23866925956025, 35.23866925956025, 35.23866925956025, 35.23866925956025, 35.2667514217223, 35.2667514217223, 35.2667514217223, 35.285944494797945, 35.285944494797945, 35.285944494797945, 35.285944494797945, 35.285944494797945, 35.285944494797945, 35.285944494797945, 35.285944494797945, 35.285944494797945, 35.285944494797945, 35.285944494797945, 35.285944494797945, 35.285944494797945, 35.285944494797945, 35.285944494797945, 35.285944494797945, 35.285944494797945, 35.285944494797945, 35.285944494797945, 35.285944494797945, 35.285944494797945, 35.285944494797945, 35.285944494797945, 35.285944494797945, 35.285944494797945, 35.285944494797945, 35.285944494797945, 35.285944494797945, 35.286609031631684, 35.46547686409174, 35.46547686409174, 35.62353681878306, 35.668117702981164, 35.668117702981164, 35.668117702981164, 35.668117702981164, 35.668117702981164, 35.668117702981164, 35.668117702981164, 35.668117702981164, 35.668117702981164, 36.09477260927101, 36.12088987434894, 36.12088987434894, 36.43837055715297, 36.43837055715297, 36.43837055715297, 36.46938183571634, 36.46938183571634, 36.46938183571634, 36.929520204765055, 0.02757474092105606, 0.03310494808514384, 0.03414133983740975, 0.04530134568201274, 0.058350517171959645, 0.06714955797713087, 0.06720355765922446, 0.07202330311883688, 0.0736494480899095, 0.07491435077488168, 0.08276835319077344, 12.916838750144066, 13.438067388502104, 14.084168344655206, 14.200305058814356, 14.214978059721485, 14.214978059721485, 14.412550899512416, 14.41982095603069, 14.496219102231322, 14.742018571863467, 15.111734887426728, 15.231155062207163, 15.249448126616091, 15.278107715598939, 15.297484864861826, 15.470942528209108, 15.561438774622655, 15.634540977404763, 15.75308847291484, 15.817031984694713, 15.861820563225082, 15.867846335909178, 16.138116449288102, 16.18928064199171, 16.27705829979135, 16.30626694455191, 16.37776221315795, 16.39820250594398, 16.39820250594398, 16.42061026444118, 16.521181869164597, 16.521181869164597, 16.59889299406555, 16.601759446901237, 16.710987824167724, 16.757634934186655, 16.80137529294613, 16.826704829509932, 16.878517035866434, 16.89072478409039, 16.922470675310745, 17.033906010169204, 17.06189905709023, 17.20330007279382, 17.298140030565847, 17.37734047705361, 17.408083706580864, 17.47189106673605, 17.49104387904273, 17.492769563035306, 17.687578262434513, 17.725373974817217, 17.7662640856728, 17.780471015558305, 17.792604576859663, 17.792604576859663, 17.812672034411424, 17.86165582227575, 17.878944000117, 17.983376075158336, 18.00090871764149, 18.022200278800533, 18.029854012168684, 18.08608237795379, 18.155942364844684, 18.217602123743788, 18.23672967787299, 18.326851887947413, 18.326851887947413, 18.32719421974621, 18.357043721864894, 18.372325320881032, 18.54165067329867, 18.572884551717863, 18.572884551717863, 18.57658225252324, 18.60582453181507, 18.60582453181507, 18.60582453181507, 18.617451449021875, 18.619021266440104, 18.619021266440104, 18.619021266440104, 18.665584181457476, 18.696555921529555, 18.709904127527988, 18.806097142163793, 18.806097142163793, 18.89714897704844, 19.00693834316145, 19.00693834316145, 19.03253889306623, 19.09017778863825, 19.135236301750464, 19.18496021769032, 19.347853719076546, 19.371743925761905, 19.371743925761905, 19.457923770551016, 19.520431195865413, 19.641584820389653, 19.708326707718, 19.708326707718, 19.819810182083764, 19.819810182083764, 19.829446031174133, 19.862553812821663, 19.864190011427677, 19.865177820848036, 20.012064650322888, 20.09445109906146, 20.09445109906146, 20.12569273729174, 20.54329218814013, 20.557700982177757, 20.58497991318832, 20.58497991318832, 20.58497991318832, 20.58497991318832, 20.58497991318832, 20.58497991318832, 20.58497991318832, 20.58497991318832, 20.58497991318832, 20.59208628230891, 20.68124107521056, 20.68124107521056, 20.68124107521056, 20.793551954619346, 20.832506038401736, 20.854027456992714, 21.070454338302827, 21.070454338302827, 21.070454338302827, 21.070454338302827, 21.070454338302827, 21.070454338302827, 21.070454338302827, 21.070454338302827, 21.070454338302827, 21.070454338302827, 21.070454338302827, 21.207630022020105, 21.207630022020105, 21.248753923747635, 21.248753923747635, 21.248753923747635, 21.248753923747635, 21.248753923747635, 21.311887648963307, 21.311887648963307, 21.311887648963307, 21.353664090798986, 21.353664090798986, 21.353664090798986, 21.353664090798986, 21.353664090798986, 21.353664090798986, 21.353664090798986, 21.353664090798986, 21.353664090798986, 21.353664090798986, 21.353664090798986, 21.353664090798986, 21.353664090798986, 21.353664090798986, 21.353664090798986, 21.353664090798986, 21.353664090798986, 21.353664090798986, 21.472446116187978, 21.472446116187978, 21.472446116187978, 21.472446116187978, 21.472446116187978, 21.472446116187978, 21.479493387437103, 21.479493387437103, 21.851260957577136, 21.851260957577136, 21.851260957577136, 21.851260957577136, 21.851260957577136, 21.936137089385873, 22.069240506953985, 22.069240506953985, 22.069240506953985, 22.069240506953985, 22.069240506953985, 22.069240506953985, 22.069240506953985, 22.069240506953985, 22.069240506953985, 22.069240506953985, 22.069240506953985, 22.069240506953985, 22.069240506953985, 22.069240506953985, 22.069240506953985, 22.069240506953985, 22.069240506953985, 22.069240506953985, 22.069240506953985, 22.80593437568197, 22.808302651752914, 22.808302651752914, 22.8829367379148, 22.8829367379148, 22.8829367379148, 22.89494155023064, 22.89494155023064, 22.89494155023064, 22.89494155023064, 23.08717988106203, 23.154720250668472, 23.154720250668472, 23.154720250668472, 23.265676707826746, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.867412816452628, 24.02515301280635, 24.321683761819358, 24.948697365795436, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.60649809765015, 25.60649809765015, 25.60649809765015, 25.60649809765015, 25.60649809765015, 25.60649809765015, 25.60649809765015, 25.60649809765015, 25.676611529808213, 25.676611529808213, 25.676611529808213, 25.676611529808213, 25.676611529808213, 26.095292868363927, 26.095292868363927, 26.095292868363927, 26.095292868363927, 26.095292868363927, 26.095292868363927, 26.095292868363927, 26.095292868363927, 26.095292868363927, 26.095292868363927, 26.150186834813237, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.687265608337764, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.156871602748815, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.524800821593416, 28.53560815563195, 28.53560815563195, 28.53560815563195, 28.53560815563195, 28.53560815563195, 28.53560815563195, 28.53560815563195, 28.53560815563195, 28.53560815563195, 28.53560815563195, 28.53560815563195, 28.53560815563195, 28.542184502899982, 28.92640173756293, 29.01317387881941, 29.01317387881941, 29.01317387881941, 29.01317387881941, 29.013173878819</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.50412328350776, 23.50412328350776, 23.50412328350776, 24.26570926046998, 24.26570926046998, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.97978808656398, 32.97978808656398, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.289673386156245, 34.289673386156245, 34.289673386156245, 34.289673386156245, 35.285944494797945, 35.285944494797945, 35.285944494797945, 35.285944494797945, 35.285944494797945, 35.285944494797945, 35.285944494797945, 35.285944494797945, 35.285944494797945, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 37.197344212210375, 37.197344212210375, 37.197344212210375, 37.197344212210375, 37.197344212210375, 37.197344212210375, 37.197344212210375, 37.197344212210375, 37.197344212210375, 37.197344212210375, 37.197344212210375, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 21.207630022020105, 21.207630022020105, 21.207630022020105, 21.207630022020105, 21.207630022020105, 21.207630022020105, 21.207630022020105, 21.207630022020105, 21.207630022020105, 21.207630022020105, 21.207630022020105, 21.207630022020105, 21.207630022020105, 21.207630022020105, 21.207630022020105, 21.207630022020105, 21.207630022020105, 21.207630022020105, 21.207630022020105, 21.207630022020105, 21.207630022020105, 21.207630022020105, 21.207630022020105, 21.207630022020105, 21.207630022020105, 21.207630022020105, 21.207630022020105, 21.207630022020105, 21.207630022020105, 21.207630022020105, 21.207630022020105, 21.207630022020105, 21.207630022020105, 21.248753923747635, 21.248753923747635, 21.248753923747635, 21.248753923747635, 21.248753923747635, 21.248753923747635, 21.248753923747635, 21.248753923747635, 21.248753923747635, 21.248753923747635, 21.248753923747635, 21.248753923747635, 21.248753923747635, 21.248753923747635, 21.248753923747635, 21.248753923747635, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 24.948697365795436, 24.948697365795436, 24.948697365795436, 24.948697365795436, 24.948697365795436, 24.948697365795436, 24.948697365795436, 24.948697365795436, 24.948697365795436, 24.948697365795436, 24.948697365795436, 24.948697365795436, 24.948697365795436, 24.948697365795436, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.60649809765015, 25.60649809765015, 25.60649809765015, 25.60649809765015, 25.60649809765015, 25.60649809765015, 25.60649809765015, 25.60649809765015, 25.60649809765015, 25.60649809765015, 25.60649809765015, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.53560815563195, 28.53560815563195, 28.53560815563195, 28.53560815563195, 28.53560815563195, 28.53560815563195, 28.53560815563195, 28.53560815563195, 28.53560815563195, 28.53560815563195, 28.53560815563195, 28.53560815563195, 28.53560815563195, 29.15478485200937, 29.15478485200937, 29.15478485200937, 29.15478485200937, 29.15478485200937, 29.15478485200937, 29.15478485200937, 29.15478485200937, 29.15478485200937, 29.15478485200937, 29.15478485200937, 29.15478485200937, 29.15478485200937, 29.15478485200937, 29.15478485200937, 29.15478485200937, 29.15478485200937, 29.15478485200937, 29.29269486268136, 29.29269486268136, 29.29269486268136, 29.29269486268136, 29.29269486268136, 29.29269486268136, 29.29269486268136, 29.29269486268136, 29.29269486268136, 29.29269486268136, 29.29269486268136, 29.29269486268136, 29.29269486268136, 29.29269486268136, 29.29269486268136, 29.29269486268136, 29.29269486268136, 29.29269486268136, 29.29269486268136, 29.29269486268136, 29.29269486268136, 29.29269486268136, 29.29269486268136, 29.29269486268136, 29.29269486268136, 29.29269486268136, 29.29269486268136, 29.29269486268136, 29.29269486268136, 29.29269486268136, 29.29269486268136, 29.685025060840474, 29.685025060840474, 29.685025060840474, 29.685025060840474, 29.685025060840474, 29.685025060840474, 29.685025060840474, 29.685025060840474, 29.685025060840474, 29.685025060840474, 29.685025060840474, 29.685025060840474, 29.685025060840474, 29.685025060840474, 29.685025060840474, 29.685025060840474, 29.685025060840474, 29.685025060840474, 29.685025060840474, 29.685025060840474, 29.685025060840474, 29.685025060840474, 29.685025060840474, 29.685025060840474, 29.685025060840474, 29.685025060840474, 29.685025060840474, 29.685025060840474, 30.351875054038274, 30.351875054038274, 30.351875054038274, 30.351875054038274, 30.351875054038274, 30.351875054038274, 30.351875054038274, 30.351875054038274, 30.351875054038274, 30.351875054038274, 30.351875054038274, 30.351875054038274, 30.351875054038274, 30.351875054038274, 30.351875054038274, 30.351875054038274, 30.351875054038274, 30.351875054038274, 30.351875054038274, 30.351875054038274, 30.351875054038274, 30.351875054038274, 30.3518750540382</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>[13.063131057047237, 13.713140634704576, 14.029816982802675, 14.393963851796888, 14.74216148756047, 15.382341737743257, 15.670503051176272, 16.04765920555404, 16.401502646222117, 16.76051582515403, 17.09132929201705, 17.38986991136453, 17.472629529073064, 17.531796433436043, 17.60095946212009, 17.61352574835425, 17.674195905876694, 17.730606664047308, 17.813992314155946, 17.926680313596982, 17.927314282317344, 17.93774630765799, 18.038459681269746, 18.079043204100664, 18.08737412577258, 18.148385841445975, 18.190275632714975, 18.216504704876115, 18.278617394447576, 18.306489832389797, 18.33113639929544, 18.358066014654913, 18.378148321645632, 18.435662318988282, 18.479067130643656, 18.481322331234548, 18.523388931137724, 18.55560792955565, 18.55560792955565, 18.557115680754674, 18.653166102771774, 18.696218851053942, 18.892168194061956, 18.951534549780874, 18.982607176323302, 19.01757121162743, 19.021357091096515, 19.04494600446934, 19.120251384236024, 19.24283452160965, 19.26665860724795, 19.333052262026204, 19.336091950062695, 19.339955440695164, 19.401484048497416, 19.420328122251977, 19.421354171177477, 19.469755169489986, 19.49867789620889, 19.522645406091918, 19.53285982170736, 19.551882656771102, 19.580617284474776, 19.636222458367705, 19.727802874737897, 19.83313342187478, 19.85376982385035, 19.86582685652571, 19.98194866219731, 20.127313773762694, 20.289779035955238, 20.321135382794477, 20.422701946114874, 20.438598445945928, 20.495472522579707, 20.522568463856665, 20.554789029577368, 20.55483628639955, 20.55483628639955, 20.55483628639955, 20.59299622425684, 20.674618544284236, 20.71210705202218, 20.817015291239397, 20.8945361582158, 20.894954172347074, 20.94608891169688, 20.997143511084445, 21.04296167326727, 21.117689037530013, 21.148995402435627, 21.171704711452293, 21.28455670510987, 21.360413901418486, 21.385953181250244, 21.394747117567082, 21.442206069086545, 21.451580659396235, 21.456039140533317, 21.562033099274895, 21.5873692843967, 21.674264672521563, 21.697876947262653, 21.729059850870364, 21.750519670007, 21.840564845919673, 21.8669148984032, 21.961902998441843, 22.055905075007253, 22.187013990360562, 22.197466400130295, 22.234429751339654, 22.308697313696676, 22.308697313696676, 22.35514638035961, 22.410451708992568, 22.49077763456919, 22.613276078328713, 22.682459257874953, 22.743265570148623, 22.788499103814708, 22.797529606319518, 22.866337951691108, 22.920074126174033, 22.920074126174033, 22.98027283353005, 23.025085764105324, 23.168512526434235, 23.178815252607542, 23.25641618088481, 23.298331539793807, 23.360592760816953, 23.41272720609918, 23.510880473466656, 23.570248136592888, 23.62652318394049, 23.710809400110833, 23.874905712379242, 23.93177267537733, 23.984752476094073, 24.025114689183045, 24.062384286493394, 24.07893080320701, 24.117945006317395, 24.16423883347966, 24.186431577972648, 24.19554182370714, 24.271845184568193, 24.310015026212263, 24.318643628889575, 24.363277297471928, 24.40439612846853, 24.419235528614195, 24.43446724815344, 24.449306648299107, 24.596961746918108, 24.611801147063776, 24.636821744007435, 24.654753759931726, 24.65928749346868, 24.667664360741245, 24.676041228013815, 24.709986992779385, 24.71836386005195, 24.738704772573573, 24.75017425562477, 24.758551122897337, 24.84660750403098, 24.848364405418153, 24.851457021196776, 24.863421066445834, 24.90892428050221, 24.90892428050221, 24.930437416073442, 25.09109792409895, 25.116666821591952, 25.116666821591952, 25.153095896744585, 25.153095896744585, 25.16327709354258, 25.28125339187025, 25.333607106851147, 25.333758543640275, 25.338793729649577, 25.341886345428208, 25.3520675422262, 25.3520675422262, 25.3520675422262, 25.49233829562598, 25.49273061501956, 25.495823230798187, 25.52139212829119, 25.52139212829119, 25.531573325089184, 25.531573325089184, 25.557142222582186, 25.567171982591052, 25.567171982591052, 25.684996844129596, 25.684996844129596, 25.711541637223203, 25.71702771045688, 25.83461168939097, 25.83731198577602, 25.84892120881849, 26.08433139779368, 26.093202827264108, 26.116806441368222, 26.123895022387593, 26.123895022387593, 26.123895022387593, 26.123895022387593, 26.247650134407063, 26.36623407060253, 26.40585889203166, 26.426676729287152, 26.538276711539005, 26.538276711539005, 26.64607181306868, 26.64607181306868, 26.64785466151974, 26.66324236221475, 26.679757395299497, 26.684278037322596, 26.699665738017607, 26.710997676790843, 26.753170194973748, 26.860965296503426, 26.87635299719844, 26.91852551538134, 27.024537768459954, 27.130550021538564, 27.23656227461718, 27.270101443424505, 27.376113696503115, 27.482125949581732, 27.494120340643377, 27.53177221680318, 27.562573592038465, 27.660160135740416, 27.692124096095593, 27.72296467550526, 27.72814776981677, 27.84284962572355, 27.843976958113284, 27.936384358947954, 28.028791759782617, 28.05205876304951, 28.144466163884175, 28.236873564718845, 28.351575420625625, 28.442855489070563, 28.4616624732442, 28.487319958342358, 28.506126942515998, 28.506126942515998, 28.536614713673416, 28.65018923719046, 28.74146930563539, 28.832749374080322, 28.914296597255362, 28.993620182451167, 29.06609326672246, 29.07294376764698, 29.079794268571494, 29.152267352842788, 29.244829537872416, 29.252861000957946, 29.260892464043476, 29.326515047390252, 29.392137630737025, 29.4577602140838, 29.52338279743057, 29.611299835849458, 29.67692241919623, 29.742545002543, 29.750576465628534, 29.81619904897531, 29.9041160873942, 29.969738670740977, 29.977770133826507, 30.065687172245397, 30.14877392460502, 30.22865949993838, 30.28625062019962, 30.34384174046086, 30.401432860722107, 30.407075684599214, 30.429370139671327, 30.429370139671327, 30.45166459474344, 30.457307418620548, 30.479601873692662, 30.50189632876478, 30.524190783836893, 30.524190783836893, 30.546485238909007, 30.568779693981124, 30.591074149053238, 30.591074149053238, 30.591074149053238, 30.613368604125352, 30.619011428002455, 30.64130588307457, 30.663600338146683, 30.6858947932188, 30.708189248290914, 30.730483703363028, 30.752778158435145, 30.752778158435145, 30.77507261350726, 30.797367068579373, 30.81966152365149, 30.841955978723604, 30.864250433795725, 30.88654488886784, 30.908839343939952, 30.93113379901207, 30.93677662288917, 30.959071077961283, 31.003659988105515, 31.02595444317763, 31.048248898249746, 31.07054335332186, 31.07618617719896, 31.081829001076063, 31.087471824953163, 31.10976628002528, 31.126417911220287, 31.143069542415297, 31.15972117361031, 31.176372804805318, 31.19302443600033, 31.209676067195343, 31.226327698390357, 31.242979329585367, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.273775321010252, 31.273775321010252, 31.28482137583961, 31.28482137583961, 31.28482137583961, 31.28482137583961, 31.28482137583961, 31.28482137583961, 31.28482137583961, 31.28482137583961, 31.28482137583961, 31.28482137583961, 31.28482137583961, 31.28482137583961, 31.28482137583961, 31.28482137583961, 31.28482137583961, 31.28482137583961, 31.28482137583961, 31.28482137583961, 31.28482137583961, 31.28482137583961, 31.28482137583961, 31.28482137583961, 31.28482137583961, 31.28482137583961, 31.28482137583961, 31.295867430668963, 31.295867430668963, 31.295867430668963, 31.295867430668963, 31.295867430668963, 31.306913485498317, 31.306913485498317, 31.306913485498317, 31.306913485498317, 31.306913485498317, 31.306913485498317, 31.333862537073582, 31.333862537073582, 31.333862537073582, 31.344908591902936, 31.344908591902936, 31.344908591902936, 31.344908591902936, 31.344908591902936, 31.355954646732293, 31.367000701561647, 31.367000701561647, 31.38114506179152, 31.38114506179152, 31.392191116620875, 31.40323717145023, 31.40323717145023, 31.40323717145023, 31.40323717145023, 31.40323717145023, 31.40323717145023, 31.40323717145023, 31.41428322627958, 31.42532928110894, 31.42532928110894, 31.42532928110894, 31.42532928110894, 31.43637533593829, 31.447421390767644, 31.447421390767644, 31.447421390767644, 31.458467445596998, 31.469513500426356, 31.469513500426356, 31.469513500426356, 31.469513500426356, 31.491605610085067, 31.49658796548688, 31.49658796548688, 31.507634020316235, 31.52177838054611, 31.52177838054611, 31.532824435375463, 31.570819541780082, 31.570819541780082, 31.58186559660944, 31.592911651438794, 31.60395770626815, 31.615003761097505, 31.626049815926862, 31.652998867502124, 31.652998867502124, 31.66404492233148, 31.675090977160835, 31.675090977160835, 31.68613703199019, 31.68613703199019, 31.691119387392003, 31.702165442221357, 31.71321149705071, 31.727355857280582, 31.738401912109936, 31.749447966939286, 31.76049402176864, 31.771540076597994, 31.81698927394302, 31.85808268574815, 31.917865339812888, 31.928911394642242, 31.939957449471596, 31.951003504300946, 31.95706720372849, 31.963130903156024, 32.00944035379516, 32.00944035379516, 32.00944035379516, 32.02534335054108, 32.02534335054108, 32.02534335054108, 32.02534335054108, 32.0284416559416, 32.03153996134211, 32.03153996134211, 32.03153996134211, 32.03463826674263, 32.037736572143146, 32.037736572143146, 32.040834877543666, 32.040834877543666, 32.04393318294419, 32.0470314883447, 32.0470314883447, 32.0470314883447, 32.07535720164901, 32.081553812450046, 32.081553812450046, 32.08465211785057, 32.09919280904261, 32.10229111444313, 32.10229111444313, 32.1192551410661, 32.12235344646661, 32.20555690825583, 32.25186635889497, 32.25496466429549, 32.258062969696006, 32.30679956893139, 32.30989787433191, 32.35863447356729, 32.39634103554033, 32.41224403228624, 32.49488514329985, 32.49798344870037, 32.51494747532333, 32.518045780723845, 32.522693872263304, 32.53588181893156, 32.54906976559981, 32.566521281607294, 32.698581865919415, 32.740980460335074, 32.75484618155752, 32.79067873578079, 32.83256630521482, 32.94279081264563, 32.985189407061284, 33.030827700896154, 33.030827700896154, 33.04363239224155, 33.102893571864584, 33.14889795706747, 33.16276367828991, 33.19737193486244, 33.30382774741682, 33.34946604125169, 33.36227073259708, 33.42534181747973, 33.45707163919262, 33.45978668927028, 33.5284568458083, 33.56255599376268, 33.56361702363974, 33.74390065608004, 33.76164974917341, 33.76164974917341, 33.762710779050465, 33.82393146231921, 33.904777892182814, 33.932047102941326, 34.04163207605637, 34.06784025693783, 34.12618710179971, 34.12708206349933, 34.16355469533442, 34.183369815152524, 34.22910908185569, 34.298118023801415, 34.314739746778265, 34.35032963511408, 34.35579528064546, 34.39521239868708, 34.42698605256504, 34.43679179217665, 34.43992903531137, 34.44225372762312, 34.47163824215937, 34.47952732620209, 34.505835334548664, 34.511399726279635, 34.51372441859139, 34.5169641180106, 34.540947434045414, 34.544187133464625, 34.571423439655334, 34.59864645510936, 34.645062268067655, 34.64593555583566, 34.6483627044319, 34.650789853028144, 34.653217001624384, 34.65564415022063, 34.658437390184886, 34.68160815539674, 34.684035303992985, 34.68682854395724, 34.68925569255348, 34.68925569255348, 34.68925569255348, 34.72981071181662, 34.75055432843224, 34.75055432843224, 34.770352440343096, 34.79109605695871, 34.81183967357432, 34.82283054756679, 34.84262865947765, 34.941854062940095, 34.96259767955571, 34.98334129617132, 34.98370738753933, 35.00445100415494, 35.02519462077055, 35.04593823738616, 35.04593823738616, 35.06573634929702, 35.08647996591264, 35.1062780778235, 35.126076189734356, 35.1802237125797, 35.278163373287754, 35.29852312844186, 35.318900653689454, 35.391608899874264, 35.41198642512186, 35.45141210945079, 35.46988682108351, 35.52101810871406, 35.54411424134622, 35.553208416050005, 35.55522076983336, 35.55616627453811, 35.55711177924287, 35.55805728394762, 35.63734978675838, 35.63829529146313, 35.67729100873441, 35.677674870195915, 35.75451472035392, 35.7581053677398, 35.765748831903466, 35.77339229606712, 35.781035760230786, 35.78867922439446, 35.822083130624186, 35.878778882067984, 35.878778882067984, 35.931402187059604, 35.934992834445474, 35.93858348183136, 35.97198738806109, 35.97198738806109, 35.97198738806109, 35.99503590930819, 36.03922744947294, 36.08341898963768, 36.116822895867415, 36.15022680209715, 36.15697864857685, 36.2011701887416, 36.208813652905256, 36.242217559134986, 36.27562146536472, 36.30902537159445, 36.342423186776486, 36.38661472694123, 36.45614164153484, 36.46377181496183, 36.56882331354693, 36.635258064743326, 36.66212202619331, 36.69270655637789, 36.735010391364014, 36.76077083343009, 36.78653127549615, 36.81711580568074, 36.84287624774681, 36.89439713187895, 36.92015757394502, 37.01191116449877, 37.02860611640865, 37.09013204701865, 37.111661133775875, 37.111661133775875, 37.126840606877025, 37.154134009229075, 37.168693256758964, 37.17842841617033, 37.19298766370021, 12.344968462989755, 12.667179297157094, 12.66801548521089, 13.368170510965854, 13.684875558207574, 13.995059373591124, 14.225520282795424, 14.590713249401187, 14.916405832013343, 15.281109746537942, 15.603397072362277, 16.35217005298543, 16.449568586367334, 16.516866292092473, 16.525107307244, 16.558458132785894, 16.638510614066337, 16.725044066337883, 16.794026164793152, 16.846453803763094, 16.95292562536014, 17.014338694611098, 17.067956088399757, 17.101371424657103, 17.17818601789755, 17.18531468313366, 17.258938279486845, 17.321635919558965, 17.39665581380586, 17.443188019838736, 17.45854988776373, 17.50875313246476, 17.51907196546342, 17.664404324778282, 17.679212336509853, 17.735565490533247, 17.78240474986622, 17.84815086287608, 17.917879418841473, 17.9620318593589, 17.978133810695894, 18.01625864316602, 18.041444426093893, 18.04524054519396, 18.051077180994454, 18.095163934899702, 18.141082945279578, 18.161539666907014, 18.237211759311855, 18.377769630855067, 18.407645796555357, 18.458249104488594, 18.50723456949762, 18.605279191081948, 18.661344766357107, 18.738687851667287, 18.747232530552314, 18.82675900282722, 18.85005501972996, 18.86106120397125, 18.898197400771927, 18.911460856808116, 18.969408889823193, 19.02852623183106, 19.05333971698083, 19.092173937632367, 19.13048838024953, 19.1488343712629, 19.233965740713753, 19.278621646249466, 19.280710287750296, 19.337692887015166, 19.368083336579645, 19.43261440947858, 19.51340213937429, 19.545847025969575, 19.593594022435482, 19.60162240528941, 19.71830351739728, 19.725078163267483, 19.74597600402377, 19.750963764679312, 19.81089617205799, 19.864858752406427, 19.89426703194691, 19.98070817191717, 20.038699403206568, 20.063563961797783, 20.116422549636432, 20.116422549636432, 20.181331278151674, 20.23395732764619, 20.29860212146893, 20.29860212146893, 20.322171721117204, 20.360559635751823, 20.38321743794471, 20.430428442160206, 20.434957277178256, 20.470534932598746, 20.546127344437185, 20.582234680890306, 20.597118505382692, 20.643541009337344, 20.68881073538056, 20.70799503132678, 20.753744749296732, 20.78819676168126, 20.81326435406772, 20.828343330298317, 20.85088445315106, 20.872175427497524, 20.905581484068993, 20.93282403668069, 20.97158482545377, 20.9888134433163, 21.004116837938394, 21.084619885448323, 21.108777895957942, 21.169392926734005, 21.183788968580807, 21.194701695217905, 21.219885955052654, 21.25938174321051, 21.287479105951657, 21.303686544004837, 21.30615734586549, 21.315866834367785, 21.345552046243096, 21.360925729795312, 21.37629941334752, 21.391673096899737, 21.45706546676938, 21.472439150321584, 21.48214863882388, 21.495424119035057, 21.54605930263165, 21.559507762943426, 21.56729202820527, 21.63075917483447, 21.63629722250814, 21.64672038355608, 21.656713116232208, 21.712395997599558, 21.71722466381277, 21.71996817748711, 21.728008013044814, 21.7436241454303, 21.74928834048022, 21.804971221847577, 21.824946945220596, 21.84492266859362, 21.94094006081615, 21.946604255866074, 21.999543623559088, 22.004980890867422, 22.05709778052588, 22.059195983866907, 22.061294187207935, 22.062556861712252, 22.165527966524856, 22.216382181678995, 22.21959335102349, 22.24952165107928, 22.33012579033903, 22.33012579033903, 22.33012579033903, 22.380144476656454, 22.394456004979556, 22.394456004979556, 22.408767533302658, 22.420416993274394, 22.434728521597496, 22.487280302261148, 22.489796888193908, 22.50410841651701, 22.514060353852575, 22.530747522683455, 22.545059051006557, 22.595077737323987, 22.645096423641416, 22.69511510995885, 22.7427581557685, 22.79040120157815, 22.79040120157815, 22.817118332289446, 22.829054220104766, 22.84099010792009, 22.852785050310427, 22.864579992700765, 22.864579992700765, 22.868939583688302, 22.90900633267017, 22.949073081652035, 22.989139830633903, 23.051880720205244, 23.087587878199574, 23.087587878199574, 23.104101899065107, 23.139809057059438, 23.175516215053772, 23.2112233730481, 23.24693053104243, 23.26166440841699, 23.29737156641132, 23.33307872440565, 23.385059807019193, 23.406769401893484, 23.442476559887815, 23.442476559887815, 23.478183717882143, 23.513890875876474, 23.513890875876474, 23.5495980338708, 23.621012349859463, 23.627988067359187, 23.64891398245754, 23.66983989755589, 23.677494696954128, 23.677494696954128, 23.69692793032924, 23.71612106745804, 23.73531420458684, 23.754507341715634, 23.77370047884443, 23.7890488493566, 23.803046412476643, 23.81704397559668, 23.864701951876096, 23.876480385852968, 23.876480385852968, 23.876480385852968, 23.876480385852968, 23.876480385852968, 23.876480385852968, 23.876480385852968, 23.876480385852968, 23.876480385852968, 23.876480385852968, 23.876480385852968, 23.876480385852968, 23.876480385852968, 23.908889948262832, 23.908889948262832, 23.908889948262832, 23.908889948262832, 23.908889948262832, 23.908889948262832, 23.908889948262832, 23.908889948262832, 23.908889948262832, 23.908889948262832, 23.908889948262832, 23.908889948262832, 23.908889948262832, 23.908889948262832, 23.941299510672692, 23.941299510672692, 23.941299510672692, 23.941299510672692, 23.973709073082556, 23.973965361278196, 23.973965361278196, 23.973965361278196, 23.973965361278196, 23.973965361278196, 23.973965361278196, 23.973965361278196, 24.006374923688057, 24.006374923688057, 24.006374923688057, 24.006374923688057, 24.006374923688057, 24.006374923688057, 24.006374923688057, 24.006374923688057, 24.006374923688057, 24.006374923688057, 24.006374923688057, 24.006374923688057, 24.006374923688057, 24.006374923688057, 24.006374923688057, 24.006374923688057, 24.006374923688057, 24.006374923688057, 24.03878448609792, 24.03878448609792, 24.03878448609792, 24.03878448609792, 24.03878448609792, 24.03878448609792, 24.03878448609792, 24.03878448609792, 24.07119404850778, 24.103603610917645, 24.103603610917645, 24.103603610917645, 24.103603610917645, 24.136013173327505, 24.136013173327505, 24.168422735737366, 24.177764442840342, 24.210174005250206, 24.242583567660066, 24.242583567660066, 24.242583567660066, 24.27499313006993, 24.27840422219265, 24.27840422219265, 24.31081378460251, 24.343223347012373, 24.375632909422233, 24.375632909422233, 24.408042471832097, 24.440452034241957, 24.440452034241957, 24.472861596651818, 24.50527115906168, 24.537680721471542, 24.570090283881406, 24.602499846291266, 24.634909408701127, 24.66731897111099, 24.69972853352085, 24.732138095930715, 24.764547658340575, 24.764547658340575, 24.764547658340575, 24.796957220750436, 24.8293667831603, 24.86177634557016, 24.894185907980024, 24.894185907980024, 24.926595470389884, 24.959005032799745, 24.959005032799745, 24.99141459520961, 25.02382415761947, 25.056233720029333, 25.088643282439193, 25.121052844849054, 25.153462407258917, 25.185871969668778, 25.21828153207864, 25.250691094488502, 25.283100656898363, 25.315510219308226, 25.347919781718087, 25.38032934412795, 25.412482618342167, 25.441481088629313, 25.464548943936197, 25.47507652716356, 25.47507652716356, 25.47507652716356, 25.47507652716356, 25.47507652716356, 25.47507652716356, 25.47507652716356, 25.47507652716356, 25.47507652716356, 25.47507652716356, 25.47507652716356, 25.47507652716356, 25.47507652716356, 25.47507652716356, 25.47770495857329, 25.47770495857329, 25.47770495857329, 25.47770495857329, 25.47770495857329, 25.47770495857329, 25.47770495857329, 25.47770495857329, 25.47770495857329, 25.47770495857329, 25.47770495857329, 25.515738144814556, 25.515738144814556, 25.515738144814556, 25.515738144814556, 25.515738144814556, 25.515738144814556, 25.515738144814556, 25.515738144814556, 25.515738144814556, 25.515738144814556, 25.515738144814556, 25.515738144814556, 25.515738144814556, 25.515738144814556, 25.53475473793518, 25.53475473793518, 25.53475473793518, 25.53475473793518, 25.53475473793518, 25.53475473793518, 25.53475473793518, 25.53475473793518, 25.55377133105581, 25.55377133105581, 25.572787924176442, 25.572787924176442, 25.572787924176442, 25.572787924176442, 25.572787924176442, 25.572787924176442, 25.572787924176442, 25.572787924176442, 25.572787924176442, 25.572787924176442, 25.591804517297067, 25.591804517297067, 25.591804517297067, 25.591804517297067, 25.591804517297067, 25.591804517297067, 25.591804517297067, 25.591804517297067, 25.594432948706803, 25.597061380116532, 25.597061380116532, 25.597061380116532, 25.616077973237164, 25.635094566357793, 25.635094566357793, 25.635094566357793, 25.654111159478425, 25.654111159478425, 25.654111159478425, 25.654111159478425, 25.654111159478425, 25.673127752599054, 25.673127752599054, 25.673127752599054, 25.673127752599054, 25.68553207942306, 25.68553207942306, 25.704548672543687, 25.704548672543687, 25.716952999367695, 25.719581430777424, 25.719581430777424, 25.738598023898057, 25.738598023898057, 25.738598023898057, 25.738598023898057, 25.757614617018685, 25.770018943842693, 25.789035536963326, 25.808052130083958, 25.808052130083958, 25.808052130083958, 25.82448715696086, 25.843503750081492, 25.86252034320212, 25.865148774611857, 25.865148774611857, 25.865148774611857, 25.88416536773249, 25.90318196085312, 25.907212660906012, 25.926229254026644, 25.945245847147277, 25.95874805330027, 25.961376484710005, 25.965407184762896, 25.984423777883524, 26.003440371004157, 26.035968991995208, 26.05498558511584, 26.074002178236473, 26.093018771357105, 26.105423098181113, 26.11782742500512, 26.12045585641485, 26.15187677635949, 26.18440539735054, 26.26919314652516, 26.288209739645794, 26.304597901356694, 26.31437379677097, 26.31437379677097, 26.32414969218524, 26.33392558759952, 26.335327856242685, 26.336730124885847, 26.35311828659675, 26.36810417966449, 26.383090072732227, 26.39807596579996, 26.446304393930635, 26.461290286998373, 26.467902553294998, 26.48802684746204, 26.494639113758662, 26.514763407925706, 26.52137567422233, 26.527987940518955, 26.53460020681558, 26.541212473112203, 26.547824739408828, 26.567949033575875, 26.57346342054351, 26.58697544841393, 26.58697544841393, 26.58697544841393, 26.58697544841393, 26.62021798347687, 26.63373001134729, 26.64724203921771, 26.64724203921771, 26.64724203921771, 26.660754067088128, 26.660754067088128, 26.69399660215107, 26.69399660215107, 26.69399660215107, 26.727239137214006, 26.727239137214006, 26.727239137214006, 26.727239137214006, 26.727239137214006, 26.727239137214006, 26.727239137214006, 26.727239137214006, 26.727239137214006, 26.727239137214006, 26.727239137214006, 26.727239137214006, 26.727239137214006, 26.727239137214006, 26.740751165084426, 26.75426319295485, 26.75426319295485, 26.75426319295485, 26.787505728017788, 26.787505728017788, 26.787505728017788, 26.787505728017788, 26.787505728017788, 26.801017755888207, 26.801017755888207, 26.834260290951146, 26.847772318821566, 26.847772318821566, 26.847772318821566, 26.847772318821566, 26.847772318821566, 26.847772318821566, 26.847772318821566, 26.86128434669199, 26.874796374562408, 26.874796374562408, 26.888308402432827, 26.901820430303246, 26.943746525726333, 26.957258553596752, 26.97077058146717, 26.997794637208013, 27.011306665078433, 27.024818692948852, 27.06674478837194, 27.099987323434874, 27.113499351305293, 27.127011379175716, 27.160253914238655, 27.19349644930159, 27.20700847717201, 27.220520505042433, 27.234032532912853, 27.267275067975792, 27.300517603038728, 27.31402963090915, 27.347272165972086, 27.360784193842505, 27.374296221712925, 27.412765945278714, 27.426277973149137, 27.434562812516702, 27.434562812516702, 27.45429331970922, 27.47402382690174, 27.47402382690174, 27.502437894454406, 27.522168401646923, 27.541898908839443, 27.561629416031966, 27.581359923224483, 27.60977399077715, 27.63818805832982, 27.63818805832982, 27.666602125882488, 27.666602125882488, 27.686332633075004, 27.706063140267524, 27.763159219398506, 27.78288972659103, 27.802620233783546, 27.822350740976066, 27.842081248168583, 27.861811755361103, 27.881542262553623, 27.901272769746143, 27.92100327693866, 27.94073378413118, 27.969147851683847, 27.988878358876363, 28.00860886606888, 28.078356423153064, 28.09808693034558, 28.126500997898248, 28.146231505090764, 28.16596201228328, 28.185692519475797, 28.205423026668313, 28.22675806498166, 28.22675806498166, 28.23544162534181, 28.24439312972761, 28.24439312972761, 28.24439312972761, 28.253076690087756, 28.261760250447907, 28.27044381080805, 28.2791273711682, 28.2791273711682, 28.30322060969499, 28.311904170055136, 28.320587730415287, 28.341922768728633, 28.341922768728633, 28.341922768728633, 28.350606329088784, 28.35928988944893, 28.35928988944893, 28.367973449809078, 28.367973449809078, 28.385340570529376, 28.40270769124967, 28.411391251609817, 28.420074811969968, 28.428758372330112, 28.438818706018395, 28.45645377076434, 28.465137331124488, 28.47382089148464, 28.504107434183787, 28.512790994543938, 28.52147455490409, 28.53015811526424, 28.584930344654644, 28.593613905014795, 28.614948943328145, 28.622255730360155, 28.622255730360155, 28.634907208313358, 28.647558686266557, 28.670814968396375, 28.68346644634957, 28.69160205935872, 28.70425353731192, 28.714072795801318, 28.742133951921154, 28.75195321041055, 28.75195321041055, 28.762040412925604, 28.76230835695125, 28.7723955594663, 28.7822148179557, 28.794866295908896, 28.81333384369144, 28.825985321644634, 28.826253265670285, 28.836072524159686, 28.84872400211288, 28.864669568330818, 28.87448882682022, 28.887140304773414, 28.887408248799066, 28.905875796581608, 28.91852727453481, 28.93117875248801, 28.940998010977406, 28.953649488930605, 28.972117036713144, 29.00871031870692, 29.018477779851438, 29.03086131377899, 29.049060917535876, 29.06726052129277, 29.085460125049657, 29.100601859190647, 29.1101531736544, 29.128352777411287, 29.14655238116818, 29.16475198492507, 29.17713551885262, 29.195335122609507, 29.210476856750496, 29.225487063946126, 29.227222506771255, 29.25088486005485, 29.277658883559226, 29.277658883559226, 29.280491103023024, 29.301574842395535, 29.328348865899912, 29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>[26, 27, 32, 50, 48, 62, 70, 71, 68, 70, 79, 95, 164, 147, 279, 83, 165, 209, 303, 331, 211, 191, 243, 198, 323, 161, 350, 270, 308, 224, 106, 105, 214, 332, 191, 189, 267, 286, 286, 112, 204, 173, 113, 95, 349, 169, 175, 220, 275, 128, 231, 282, 282, 155, 157, 158, 116, 210, 272, 155, 155, 237, 213, 213, 339, 96, 237, 277, 207, 183, 183, 279, 128, 212, 143, 168, 168, 133, 133, 133, 280, 232, 232, 232, 232, 205, 236, 236, 210, 202, 215, 252, 275, 275, 172, 95, 95, 264, 111, 115, 225, 173, 130, 187, 276, 143, 187, 132, 192, 125, 180, 180, 158, 158, 138, 138, 138, 155, 155, 155, 165, 165, 100, 100, 100, 195, 195, 170, 170, 198, 107, 280, 189, 125, 125, 125, 161, 234, 140, 180, 180, 170, 256, 145, 145, 145, 145, 154, 154, 202, 103, 286, 286, 286, 286, 286, 286, 286, 129, 261, 261, 261, 261, 261, 261, 261, 261, 219, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 147, 147, 147, 147, 147, 128, 128, 128, 271, 271, 271, 271, 271, 271, 271, 271, 271, 174, 155, 155, 160, 112, 112, 112, 112, 112, 112, 112, 112, 112, 112, 112, 112, 112, 231, 231, 231, 231, 231, 231, 139, 139, 139, 232, 232, 134, 134, 189, 189, 189, 189, 189, 189, 189, 189, 216, 216, 216, 216, 216, 216, 216, 216, 216, 135, 176, 176, 176, 176, 176, 161, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 177, 190, 190, 190, 190, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 162, 162, 162, 162, 162, 162, 162, 162, 162, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 159, 159, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 163, 187, 187, 231, 192, 192, 192, 192, 192, 192, 192, 192, 216, 216, 216, 165, 165, 142, 142, 150, 160, 189, 174, 174, 174, 222, 189, 189, 189, 189, 189, 189, 189, 165, 165, 165, 165, 165, 165, 165, 214, 214, 214, 214, 214, 214, 214, 214, 214, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 161, 161, 161, 161, 204, 160, 259, 190, 190, 215, 215, 215, 215, 215, 195, 195, 195, 220, 220, 220, 220, 220, 220, 220, 220, 220, 220, 220, 220, 220, 220, 220, 220, 220, 220, 220, 220, 220, 220, 220, 220, 220, 220, 220, 220, 148, 191, 191, 203, 172, 172, 172, 172, 172, 172, 172, 172, 172, 245, 204, 204, 173, 173, 173, 175, 175, 175, 229, 30, 35, 36, 50, 60, 69, 74, 74, 80, 76, 87, 183, 157, 124, 173, 133, 133, 118, 257, 129, 127, 118, 122, 222, 263, 174, 166, 313, 92, 103, 128, 195, 154, 193, 348, 109, 149, 143, 140, 140, 149, 196, 196, 174, 243, 174, 175, 151, 246, 260, 142, 115, 247, 166, 288, 190, 264, 266, 204, 150, 240, 242, 205, 176, 285, 184, 184, 137, 100, 250, 142, 98, 133, 333, 198, 223, 152, 239, 161, 161, 235, 129, 341, 174, 192, 192, 120, 253, 253, 253, 94, 142, 142, 142, 281, 223, 107, 175, 175, 294, 253, 253, 219, 107, 321, 345, 194, 149, 149, 102, 121, 106, 283, 283, 121, 121, 149, 337, 175, 137, 274, 181, 181, 223, 316, 214, 223, 223, 223, 223, 223, 223, 223, 223, 223, 157, 195, 195, 195, 189, 246, 181, 214, 214, 214, 214, 214, 214, 214, 214, 214, 214, 214, 121, 121, 186, 186, 186, 186, 186, 218, 218, 218, 246, 246, 246, 246, 246, 246, 246, 246, 246, 246, 246, 246, 246, 246, 246, 246, 246, 246, 204, 204, 204, 204, 204, 204, 163, 163, 207, 207, 207, 207, 207, 161, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 204, 109, 109, 117, 117, 117, 123, 123, 123, 123, 177, 107, 107, 107, 165, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 165, 181, 208, 207, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 264, 264, 264, 264, 264, 264, 264, 264, 210, 210, 210, 210, 210, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 231, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 129, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 156, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 156, 125, 125, 125, 125, 125, 125, 125, 125, 125, 125, 125, 125, 240, 126, 146, 146, 146, 146, 146, 146, 146, 146, 146, 146, 146, 146, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 126, 126, 126, 126, 126, 126, 126, 130, 184, 202, 202, 202, 202, 202, 202, 202, 202, 202, 202, 202, 202, 202, 202, 202, 202, 202, 202, 202, 202, 202, 202, 205, 151, 151, 151, 172, 172, 154, 326, 245, 245, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 231, 231, 152, 152, 152, 152, 152, 152, 152, 152, 152, 296, 173, 134, 134, 155, 155, 155, 180, 180, 191, 274, 274, 201, 201, 201, 201, 201, 201, 201, 201, 201, 201, 201, 218, 218, 218, 218, 218, 218, 218, 218, 218, 155, 155, 174, 174, 174, 195, 195, 195, 195, 195, 195, 195, 160, 160, 160, 223, 223, 223, 223, 223, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 244, 244, 244, 244, 244, 244, 244, 244, 173, 198, 198, 198, 224, 224, 224, 224, 224, 224, 224, 224, 224, 224, 224, 224, 224, 224, 224, 224, 203, 203, 203, 203, 203, 191, 191, 148, 177, 177, 177, 161, 164, 164, 164, 164, 164, 164, 164, 229, 164, 164, 164, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 165, 165, 165, 169, 169, 157, 157, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>[154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 286, 286, 286, 128, 128, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 142, 142, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 204, 204, 204, 204, 220, 220, 220, 220, 220, 220, 220, 220, 220, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 153, 153, 153, 153, 153, 153, 153, 153, 153, 153, 153, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 121, 121, 121, 121, 121, 121, 121, 121, 121, 121, 121, 121, 121, 121, 121, 121, 121, 121, 121, 121, 121, 121, 121, 121, 121, 121, 121, 121, 121, 121, 121, 121, 121, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 207, 207, 207, 207, 207, 207, 207, 207, 207, 207, 207, 207, 207, 207, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 264, 264, 264, 264, 264, 264, 264, 264, 264, 264, 264, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 151, 151, 151, 151, 151, 151, 151, 151, 151, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 125, 125, 125, 125, 125, 125, 125, 125, 125, 125, 125, 125, 125, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 231, 152, 152, 152, 152, 152, 152, 152, 152, 152, 152, 152, 152, 274, 274, 274, 274, 274, 201, 201, 201, 201, 201, 201, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 148, 148, 148, 148, 148, 148, 148, 148, 148, 148, 148, 148, 148, 148, 148, 148, 148, 148, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 164, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170]</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>[152.88, 157.28, 160.96, 167.1, 169.02, 175.54, 177.58, 179.54, 183.62, 185.36, 188.24, 190.84, 193.34, 194.14, 195.94, 196.98, 199.94, 202.28, 202.4, 200.48, 198.08, 198.72, 196.9, 195.14, 194.02, 193.14, 194.18, 189.42, 190.48, 187.7, 185.38, 186.76, 190.38, 190.6, 188.6, 188.56, 189.5, 189.74, 189.74, 187.38, 187.94, 188.28, 190.8, 192.14, 194.96, 193.26, 192.98, 192.04, 190.14, 186.66, 188.74, 186.26, 186.06, 183.52, 184.62, 185.8, 186.96, 191.62, 192.86, 191.46, 192.9, 195.4, 192.96, 192.1, 191.24, 190.18, 190.16, 188.78, 185.8, 186.14, 186.58, 186.76, 186.4, 188.0, 186.98, 190.22, 190.46, 189.76, 189.76, 189.76, 191.0, 188.3, 187.06, 187.3, 182.9, 182.36, 181.48, 179.98, 177.76, 178.68, 177.4, 175.6, 175.18, 172.58, 170.68, 170.98, 171.56, 175.18, 173.36, 173.38, 173.84, 174.56, 174.2, 177.2, 176.56, 175.92, 175.2, 173.7, 173.14, 173.4, 174.8, 173.16, 174.44, 174.44, 174.18, 177.14, 176.62, 177.96, 179.74, 181.86, 181.66, 182.14, 183.72, 187.44, 187.44, 190.66, 189.84, 190.7, 190.36, 189.2, 190.72, 193.46, 193.08, 195.8, 198.72, 201.1, 203.9, 206.48, 206.22, 206.62, 208.44, 209.72, 212.04, 210.46, 211.98, 213.46, 216.28, 217.48, 217.18, 219.82, 221.86, 221.2, 220.36, 217.2, 216.36, 212.8, 211.96, 208.48, 208.18, 210.82, 210.48, 210.14, 208.7, 208.36, 207.76, 207.96, 207.62, 205.9, 206.4, 206.94, 206.68, 205.32, 205.32, 203.12, 200.7, 199.6, 199.6, 197.42, 197.42, 194.78, 192.9, 192.12, 190.18, 188.78, 189.32, 186.68, 186.68, 186.68, 184.5, 182.18, 182.72, 181.62, 181.62, 178.98, 178.98, 177.88, 177.18, 177.18, 177.24, 177.24, 178.62, 179.16, 179.6, 182.46, 179.82, 175.22, 174.42, 173.32, 170.14, 170.14, 170.14, 170.14, 166.92, 166.68, 167.1, 168.32, 168.12, 168.12, 168.88, 168.88, 171.26, 172.8, 174.88, 175.42, 176.96, 177.4, 179.26, 180.02, 181.56, 183.42, 181.8, 180.18, 178.56, 177.46, 175.84, 174.22, 175.76, 177.08, 177.82, 176.18, 175.64, 177.06, 178.7, 177.62, 178.16, 177.38, 176.6, 176.58, 175.8, 175.02, 173.94, 172.62, 171.82, 171.6, 170.8, 170.8, 170.02, 168.4, 167.08, 165.76, 166.06, 166.12, 165.6, 166.18, 166.76, 166.24, 165.72, 165.42, 165.12, 164.02, 162.92, 161.82, 160.72, 159.32, 158.22, 157.12, 156.82, 155.72, 154.32, 153.22, 152.92, 151.52, 150.68, 149.58, 148.78, 147.98, 147.18, 147.42, 147.12, 147.12, 146.82, 147.06, 146.76, 146.46, 146.16, 146.16, 145.86, 145.56, 145.26, 145.26, 145.26, 144.96, 145.2, 144.9, 144.6, 144.3, 144.0, 143.7, 143.4, 143.4, 143.1, 142.8, 142.5, 142.2, 141.9, 141.6, 141.3, 141.0, 141.24, 140.94, 140.34, 140.04, 139.74, 139.44, 139.68, 139.92, 140.16, 139.86, 139.32, 138.78, 138.24, 137.7, 137.16, 136.62, 136.08, 135.54, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.98, 135.98, 136.48, 136.48, 136.48, 136.48, 136.48, 136.48, 136.48, 136.48, 136.48, 136.48, 136.48, 136.48, 136.48, 136.48, 136.48, 136.48, 136.48, 136.48, 136.48, 136.48, 136.48, 136.48, 136.48, 136.48, 136.48, 136.98, 136.98, 136.98, 136.98, 136.98, 137.48, 137.48, 137.48, 137.48, 137.48, 137.48, 138.62, 138.62, 138.62, 139.12, 139.12, 139.12, 139.12, 139.12, 139.62, 140.12, 140.12, 141.1, 141.1, 141.6, 142.1, 142.1, 142.1, 142.1, 142.1, 142.1, 142.1, 142.6, 143.1, 143.1, 143.1, 143.1, 143.6, 144.1, 144.1, 144.1, 144.6, 145.1, 145.1, 145.1, 145.1, 146.1, 146.58, 146.58, 147.08, 148.06, 148.06, 148.56, 150.2, 150.2, 150.7, 151.2, 151.7, 152.2, 152.7, 153.84, 153.84, 154.34, 154.84, 154.84, 155.34, 155.34, 155.82, 156.32, 156.82, 157.8, 158.3, 158.8, 159.3, 159.8, 160.44, 162.56, 163.66, 164.16, 164.66, 165.16, 165.18, 165.2, 166.28, 166.28, 166.28, 166.92, 166.92, 166.92, 166.92, 167.4, 167.88, 167.88, 167.88, 168.36, 168.84, 168.84, 169.32, 169.32, 169.8, 170.28, 170.28, 170.28, 170.88, 171.84, 171.84, 172.32, 172.86, 173.34, 173.34, 174.46, 174.94, 175.32, 176.4, 176.88, 177.36, 177.96, 178.44, 179.04, 179.32, 179.96, 180.72, 181.2, 182.32, 182.8, 184.64, 185.18, 185.72, 185.48, 186.8, 186.42, 187.06, 187.82, 187.98, 187.04, 186.66, 186.78, 186.78, 186.94, 187.5, 187.04, 187.68, 187.48, 188.3, 188.42, 188.58, 188.14, 188.66, 188.76, 189.36, 188.54, 189.02, 188.02, 187.96, 187.96, 188.44, 188.04, 188.54, 188.48, 187.52, 186.98, 185.34, 184.88, 184.94, 185.88, 186.94, 186.88, 187.48, 190.26, 190.56, 190.52, 191.44, 190.8, 191.3, 190.82, 191.36, 190.9, 191.52, 191.54, 191.06, 191.56, 192.66, 193.16, 193.32, 194.92, 196.42, 197.98, 197.5, 197.02, 196.54, 196.06, 195.0, 195.12, 194.64, 193.58, 193.1, 193.1, 193.1, 192.76, 193.36, 193.36, 193.86, 194.46, 195.06, 196.44, 196.94, 197.32, 197.92, 198.52, 197.94, 198.54, 199.14, 199.74, 199.74, 200.24, 200.84, 201.34, 201.84, 201.6, 201.02, 201.12, 202.3, 203.22, 204.4, 206.16, 205.88, 206.24, 204.1, 203.74, 203.94, 204.04, 204.14, 204.24, 201.86, 201.96, 201.62, 202.12, 199.94, 199.36, 198.4, 197.44, 196.48, 195.52, 194.68, 193.74, 193.74, 191.1, 190.52, 189.94, 189.1, 189.1, 189.1, 188.16, 187.8, 187.44, 186.6, 185.76, 185.42, 185.06, 184.1, 183.26, 182.42, 181.58, 180.94, 180.58, 178.82, 179.3, 178.5, 177.9, 177.36, 176.98, 177.08, 177.2, 177.32, 176.94, 177.06, 177.3, 177.42, 176.28, 175.96, 174.32, 173.3, 173.3, 172.9, 173.5, 173.06, 173.12, 172.68, 158.64, 161.9, 162.72, 169.04, 170.28, 171.76, 172.62, 174.36, 177.54, 179.44, 184.88, 189.2, 187.96, 183.9, 184.0, 183.62, 184.0, 184.82, 184.46, 182.16, 182.0, 182.2, 183.52, 185.74, 183.44, 180.02, 178.4, 180.14, 180.6, 181.3, 183.16, 185.3, 184.26, 186.18, 187.52, 185.62, 186.28, 187.76, 188.4, 190.66, 193.62, 193.86, 195.64, 195.2, 194.56, 193.2, 194.78, 196.98, 198.42, 196.24, 197.86, 199.1, 199.78, 198.06, 197.48, 196.0, 196.3, 195.94, 194.46, 193.04, 193.92, 193.58, 193.2, 193.0, 194.54, 191.1, 193.08, 191.54, 191.82, 193.44, 191.28, 193.36, 193.82, 194.88, 191.24, 192.94, 194.8, 194.6, 196.64, 199.04, 198.8, 196.5, 198.84, 196.3, 198.3, 196.92, 197.16, 197.18, 195.84, 195.84, 194.92, 196.76, 198.06, 198.06, 201.08, 199.92, 198.44, 200.58, 201.46, 202.42, 203.42, 202.52, 200.56, 201.1, 203.88, 201.08, 198.26, 198.66, 199.12, 200.6, 203.02, 205.06, 207.3, 205.92, 203.5, 204.98, 207.02, 206.78, 204.32, 203.28, 205.0, 203.8, 205.1, 204.5, 202.72, 201.32, 200.94, 200.76, 199.32, 199.78, 200.24, 200.7, 198.98, 199.44, 199.26, 198.52, 198.02, 199.04, 199.42, 198.26, 198.76, 198.76, 200.06, 198.52, 198.6, 196.74, 196.54, 196.4, 197.04, 195.5, 194.24, 192.98, 190.7, 191.34, 191.66, 192.5, 191.52, 192.72, 193.92, 194.56, 191.96, 190.34, 190.06, 187.88, 183.12, 183.12, 183.12, 180.94, 179.04, 179.04, 177.14, 175.44, 173.54, 170.02, 168.36, 166.46, 165.68, 162.94, 161.04, 158.86, 156.68, 154.5, 153.16, 151.82, 151.82, 149.92, 148.86, 147.8, 147.56, 147.32, 147.32, 146.2, 144.8, 143.4, 142.0, 140.44, 140.16, 140.16, 139.6, 139.32, 139.04, 138.76, 138.48, 139.54, 139.26, 138.98, 138.02, 137.14, 136.86, 136.86, 136.58, 136.3, 136.3, 136.02, 135.46, 133.52, 134.08, 134.64, 135.6, 135.6, 136.0, 136.28, 136.56, 136.84, 137.12, 136.32, 136.92, 137.52, 138.96, 138.4, 138.4, 138.4, 138.4, 138.4, 138.4, 138.4, 138.4, 138.4, 138.4, 138.4, 138.4, 138.4, 138.92, 138.92, 138.92, 138.92, 138.92, 138.92, 138.92, 138.92, 138.92, 138.92, 138.92, 138.92, 138.92, 138.92, 139.44, 139.44, 139.44, 139.44, 139.96, 140.52, 140.52, 140.52, 140.52, 140.52, 140.52, 140.52, 141.04, 141.04, 141.04, 141.04, 141.04, 141.04, 141.04, 141.04, 141.04, 141.04, 141.04, 141.04, 141.04, 141.04, 141.04, 141.04, 141.04, 141.04, 141.56, 141.56, 141.56, 141.56, 141.56, 141.56, 141.56, 141.56, 142.08, 142.6, 142.6, 142.6, 142.6, 143.12, 143.12, 143.64, 145.06, 145.58, 146.1, 146.1, 146.1, 146.62, 147.5, 147.5, 148.02, 148.54, 149.06, 149.06, 149.58, 150.1, 150.1, 150.62, 151.14, 151.66, 152.18, 152.7, 153.22, 153.74, 154.26, 154.78, 155.3, 155.3, 155.3, 155.82, 156.34, 156.86, 157.38, 157.38, 157.9, 158.42, 158.42, 158.94, 159.46, 159.98, 160.5, 161.02, 161.54, 162.06, 162.58, 163.1, 163.62, 164.14, 164.66, 165.18, 165.14, 164.78, 163.88, 163.0, 163.0, 163.0, 163.0, 163.0, 163.0, 163.0, 163.0, 163.0, 163.0, 163.0, 163.0, 163.0, 163.0, 165.02, 165.02, 165.02, 165.02, 165.02, 165.02, 165.02, 165.02, 165.02, 165.02, 165.02, 163.7, 163.7, 163.7, 163.7, 163.7, 163.7, 163.7, 163.7, 163.7, 163.7, 163.7, 163.7, 163.7, 163.7, 163.04, 163.04, 163.04, 163.04, 163.04, 163.04, 163.04, 163.04, 162.38, 162.38, 161.72, 161.72, 161.72, 161.72, 161.72, 161.72, 161.72, 161.72, 161.72, 161.72, 161.06, 161.06, 161.06, 161.06, 161.06, 161.06, 161.06, 161.06, 163.08, 165.1, 165.1, 165.1, 164.44, 163.78, 163.78, 163.78, 163.12, 163.12, 163.12, 163.12, 163.12, 162.46, 162.46, 162.46, 162.46, 162.88, 162.88, 162.22, 162.22, 162.64, 164.66, 164.66, 164.0, 164.0, 164.0, 164.0, 163.34, 163.76, 163.1, 162.44, 162.44, 162.44, 163.8, 163.14, 162.48, 164.5, 164.5, 164.5, 163.84, 163.18, 164.12, 163.46, 162.8, 164.16, 166.18, 167.12, 166.46, 165.8, 165.56, 164.9, 164.24, 163.58, 164.0, 164.42, 166.44, 166.2, 165.96, 165.56, 164.9, 162.22, 160.62, 160.62, 159.02, 157.42, 156.34, 155.26, 152.58, 150.98, 149.38, 147.78, 146.68, 145.08, 144.0, 143.34, 142.26, 141.6, 140.52, 139.44, 138.36, 137.28, 136.2, 135.54, 133.52, 133.94, 133.94, 133.94, 133.94, 134.44, 134.86, 135.28, 135.28, 135.28, 135.7, 135.7, 136.2, 136.2, 136.2, 136.7, 136.7, 136.7, 136.7, 136.7, 136.7, 136.7, 136.7, 136.7, 136.7, 136.7, 136.7, 136.7, 136.7, 137.12, 137.54, 137.54, 137.54, 138.04, 138.04, 138.04, 138.04, 138.04, 138.46, 138.46, 138.96, 139.38, 139.38, 139.38, 139.38, 139.38, 139.38, 139.38, 139.8, 140.22, 140.22, 140.64, 141.06, 141.98, 142.4, 142.82, 143.66, 144.08, 144.5, 145.42, 145.92, 146.34, 146.76, 147.26, 147.76, 148.18, 148.6, 149.02, 149.52, 150.02, 150.44, 150.94, 151.36, 151.78, 152.26, 152.68, 153.12, 153.12, 153.2, 153.28, 153.28, 153.78, 153.86, 153.94, 154.02, 154.1, 154.6, 155.1, 155.1, 155.6, 155.6, 155.68, 155.76, 155.74, 155.82, 155.9, 155.98, 156.06, 156.14, 156.22, 156.3, 156.38, 156.46, 156.96, 157.04, 157.12, 157.2, 157.28, 157.78, 157.86, 157.94, 158.02, 158.1, 158.62, 158.62, 159.04, 158.44, 158.44, 158.44, 158.86, 159.28, 159.7, 160.12, 160.12, 159.54, 159.96, 160.38, 160.9, 160.9, 160.9, 161.32, 161.74, 161.74, 162.16, 162.16, 163.0, 163.84, 164.26, 164.68, 165.1, 165.54, 165.36, 165.78, 166.2, 166.12, 166.54, 166.96, 167.38, 169.14, 169.56, 170.08, 170.48, 170.48, 170.58, 170.68, 171.26, 171.36, 169.96, 170.06, 169.46, 168.56, 167.96, 167.96, 166.34, 165.32, 163.7, 163.1, 163.2, 163.72, 163.82, 162.8, 162.2, 162.3, 159.26, 158.66, 158.76, 157.74, 158.26, 158.36, 158.46, 157.86, 157.96, 158.48, 158.46, 158.26, 159.38, 160.92, 162.46, 164.0, 164.02, 164.44, 165.98, 167.52, 169.06, 170.18, 171.72, 171.74, 169.46, 169.86, 170.72, 171.3, 171.3, 172.0, 172.52, 173.1, 174.68, 175.38, 176.08, 176.78, 177.48, 178.6, 179.02, 178.48, 178.9, 178.9, 179.32, 179.74, 180.16, 180.16, 180.16, 181.16, 181.0, 179.9, 179.78, 179.66, 180.08, 179.9, 179.78, 180.2, 179.0, 179.0, 179.42, 179.84, 181.7, 182.12, 182.54, 184.06, 185.16, 186.66, 187.64, 189.16, 190.14, 190.64, 192.08, 192.02, 192.0, 191.0, 189.98, 189.44, 188.44, 187.44, 186.44, 186.44, 185.68, 186.26, 186.58, 186.04, 186.9, 185.88, 184.78, 183.78, 182.4, 181.86, 182.18, 185.1, 185.44, 184.5, 184.3, 184.88, 186.24, 186.9, 187.82, 188.4, 188.42, 187.82, 185.96, 185.42, 185.46, 185.0, 185.0, 185.0, 186.38, 185.56, 186.42, 185.96, 185.56, 185.48, 185.88, 185.48, 187.46, 187.44, 186.72, 186.12, 186.62, 187.62, 188.2, 189.52, 190.5, 191.06, 190.7, 192.54, 193.92, 189.58, 191.5, 193.24, 195.72, 196.16, 197.94, 198.12, 197.4, 198.68, 198.88, 197.36, 195.9, 195.94, 195.4, 195.0, 195.34, 195.78, 195.78, 196.64, 195.72, 196.18, 196.62, 196.66, 195.92, 195.62, 195.74, 195.74, 196.26, 196.38, 195.92, 196.04, 195.22, 196.14, 196.66, 197.38, 197.18, 197.6, 198.16, 198.74, 198.2, 198.26, 198.82, 198.54, 199.12, 199.12, 200.4, 201.26, 201.26, 201.28, 199.56, 199.56, 199.58, 199.58, 199.1, 199.28, 199.28, 200.14, 201.0, 201.94, 203.2, 202.98, 203.84, 202.76, 202.76, 201.68, 201.28, 199.28, 196.2, 195.8, 193.4, 193.76, 193.76, 192.64, 193.16, 192.74, 191.66, 190.58, 189.5, 187.24, 187.24, 186.04, 184.94, 183.86, 182.78, 181.7, 181.28, 180.2, 179.12, 178.04, 174.24, 173.46, 173.46, 172.8, 171.46, 170.8, 170.78, 170.86, 171.7, 171.44, 171.3, 171.22, 171.4, 171.52, 171.64, 171.76, 172.0, 172.52, 173.04, 174.86, 174.08, 174.2, 174.32, 174.44, 174.04, 173.54, 173.14, 173.14, 173.14, 172.74, 172.34, 172.34, 171.84, 171.44, 171.04, 170.64, 170.24, 169.84, 169.44, 169.04, 169.14, 169.24, 169.44, 169.46, 169.48, 169.74, 170.0, 170.0, 170.0, 170.0, 170.0, 170.0, 170.0, 170.0, 170.0, 170.0, 170.0, 170.0, 170.0]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[1031.1958901299581, 1046.1764757675617, 1057.7646270015057, 1151.5635671775296, 1028.7787879486968, 1038.6081625650504, 1095.8189058096025, 1092.0134307449764, 1035.0974821706545, 1058.884400621321, 1017.4222778834268, 7.021905584888193, 11.335548092303284, 10.084265510818478, 19.09016938788721, 5.615757063449067, 10.998063752696629, 13.928989182356043, 20.08692486415169, 21.71464861865751, 13.813542946018636, 12.102666696944075, 15.383187605480876, 12.515156215175084, 20.388256128130198, 10.06043316834529, 21.792235343514644, 16.6601308960766, 18.962333960376935, 13.75754856629437, 6.498468579033385, 6.418198614315776, 12.886302556853302, 19.72616195782006, 11.284852683618587, 11.092784332068302, 15.57943976620263, 16.471005416523315, 16.471005416523315, 6.447074714626526, 11.706573922448525, 9.912732338761446, 6.433468653110302, 5.40147101781995, 19.789971410076724, 9.58248263063329, 9.910513092250067, 12.452544530777903, 15.486684942169909, 7.1871846464051545, 12.967802601675086, 15.822093498520436, 15.822093498520436, 8.69533892573464, 8.770238333205954, 8.820715029373492, 6.475325136156926, 11.705176461745378, 15.131990641684023, 8.603294901918039, 8.603294901918039, 13.140884098327883, 11.771306381733607, 11.769401532725022, 18.587976253184618, 5.262210211963307, 12.93750376184077, 15.005726843375399, 11.1804444472005, 9.764939272830475, 9.764939272830475, 14.880855739567169, 6.794970649195098, 11.24641052720726, 7.567244004312447, 8.878700984966947, 8.878700984966947, 7.028093981549538, 7.028093981549538, 7.028093981549538, 14.762096948896419, 12.210088468488173, 12.210088468488173, 12.210088468488173, 12.136096841342981, 10.71199449546227, 12.329275571474861, 12.329275571474861, 10.95623349530975, 10.53535313146034, 11.213124068142433, 13.12384081600435, 14.281447522354501, 14.281447522354501, 8.923824837243757, 4.928637229223076, 4.928637229223076, 13.619904010809071, 5.705340681848764, 5.905901751441155, 11.548837416180222, 8.823685164467971, 6.6119460375999966, 9.48567197424485, 13.979047487847033, 7.216562099276438, 9.347313521916407, 6.567284458958112, 9.454247053504153, 6.154777549358499, 8.766497683522173, 8.766497683522173, 7.6232171232204315, 7.6232171232204315, 6.654175829735983, 6.654175829735983, 6.654175829735983, 7.456607004309009, 7.456607004309009, 7.456607004309009, 7.930528180091336, 7.930528180091336, 4.803693565509841, 4.803693565509841, 4.803693565509841, 9.360578129878217, 9.360578129878217, 8.143670942911312, 8.143670942911312, 9.380738654681819, 5.063163619242844, 13.19477085800888, 8.891104651500807, 5.832307373547849, 5.832307373547849, 5.832307373547849, 7.421351153562567, 10.582494324616286, 6.313489733926942, 8.041956342629296, 8.041956342629296, 7.49664940083028, 11.177311879915381, 6.291051552748076, 6.291051552748076, 6.291051552748076, 6.291051552748076, 6.674556758554543, 6.674556758554543, 8.678284211519335, 4.393976456037267, 12.168077768749574, 12.168077768749574, 12.168077768749574, 12.168077768749574, 12.168077768749574, 12.168077768749574, 12.168077768749574, 5.465971241100652, 10.953844895984574, 10.953844895984574, 10.953844895984574, 10.953844895984574, 10.953844895984574, 10.953844895984574, 10.953844895984574, 10.953844895984574, 9.065226832370628, 10.063476910429676, 10.063476910429676, 10.063476910429676, 10.063476910429676, 10.063476910429676, 10.063476910429676, 10.063476910429676, 10.063476910429676, 10.063476910429676, 10.063476910429676, 10.063476910429676, 10.063476910429676, 10.063476910429676, 10.063476910429676, 10.063476910429676, 10.063476910429676, 10.063476910429676, 10.063476910429676, 10.063476910429676, 10.063476910429676, 10.063476910429676, 10.063476910429676, 10.063476910429676, 10.063476910429676, 10.063476910429676, 10.063476910429676, 10.063476910429676, 6.060939623375572, 6.060939623375572, 6.060939623375572, 6.060939623375572, 6.060939623375572, 5.274933389584381, 5.274933389584381, 5.274933389584381, 11.106227795313972, 11.106227795313972, 11.106227795313972, 11.106227795313972, 11.106227795313972, 11.106227795313972, 11.106227795313972, 11.106227795313972, 11.106227795313972, 7.102663360057256, 6.316215092946139, 6.316215092946139, 6.513356079762164, 4.524310530769656, 4.524310530769656, 4.524310530769656, 4.524310530769656, 4.524310530769656, 4.524310530769656, 4.524310530769656, 4.524310530769656, 4.524310530769656, 4.524310530769656, 4.524310530769656, 4.524310530769656, 4.524310530769656, 9.297909031268077, 9.297909031268077, 9.297909031268077, 9.297909031268077, 9.297909031268077, 9.297909031268077, 5.564187555953252, 5.564187555953252, 5.564187555953252, 9.182452594194373, 9.182452594194373, 5.291893318313037, 5.291893318313037, 7.4046393621293705, 7.4046393621293705, 7.4046393621293705, 7.4046393621293705, 7.4046393621293705, 7.4046393621293705, 7.4046393621293705, 7.4046393621293705, 8.443798286887182, 8.443798286887182, 8.443798286887182, 8.443798286887182, 8.443798286887182, 8.443798286887182, 8.443798286887182, 8.443798286887182, 8.443798286887182, 5.17885322118058, 6.636186963195812, 6.636186963195812, 6.636186963195812, 6.636186963195812, 6.636186963195812, 6.045467538709303, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 6.530089815354196, 6.968551099113523, 6.968551099113523, 6.968551099113523, 6.968551099113523, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 5.3242099772749185, 5.3242099772749185, 5.3242099772749185, 5.3242099772749185, 5.3242099772749185, 5.3242099772749185, 5.3242099772749185, 5.3242099772749185, 5.3242099772749185, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 5.046217523840202, 5.046217523840202, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.033341566021693, 5.758926229252259, 5.758926229252259, 7.0981248508481345, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 6.613567267224424, 6.613567267224424, 6.613567267224424, 5.009861836878592, 5.009861836878592, 4.305667447810286, 4.305667447810286, 4.534978753975481, 4.7878850924737835, 5.642711026619296, 5.163624303603018, 5.163624303603018, 5.163624303603018, 6.576126111428392, 5.56364359572778, 5.56364359572778, 5.56364359572778, 5.56364359572778, 5.56364359572778, 5.56364359572778, 5.56364359572778, 4.840586477407701, 4.840586477407701, 4.840586477407701, 4.840586477407701, 4.840586477407701, 4.840586477407701, 4.840586477407701, 6.270620114853959, 6.270620114853959, 6.270620114853959, 6.270620114853959, 6.270620114853959, 6.270620114853959, 6.270620114853959, 6.270620114853959, 6.270620114853959, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 4.6983885200802495, 4.6983885200802495, 4.6983885200802495, 4.6983885200802495, 5.949313010440071, 4.651220197469337, 7.442890750215523, 5.395671863913625, 5.395671863913625, 6.101251963187303, 6.101251963187303, 6.101251963187303, 6.101251963187303, 6.101251963187303, 5.529287278779274, 5.529287278779274, 5.529287278779274, 6.234777137180886, 6.234777137180886, 6.234777137180886, 6.234777137180886, 6.234777137180886, 6.234777137180886, 6.234777137180886, 6.234777137180886, 6.234777137180886, 6.234777137180886, 6.234777137180886, 6.234777137180886, 6.234777137180886, 6.234777137180886, 6.234777137180886, 6.234777137180886, 6.234777137180886, 6.234777137180886, 6.234777137180886, 6.234777137180886, 6.234777137180886, 6.234777137180886, 6.234777137180886, 6.234777137180886, 6.234777137180886, 6.234777137180886, 6.234777137180886, 6.234777137180886, 4.194225630106015, 5.385519014221535, 5.385519014221535, 5.698479660586793, 4.822233722348184, 4.822233722348184, 4.822233722348184, 4.822233722348184, 4.822233722348184, 4.822233722348184, 4.822233722348184, 4.822233722348184, 4.822233722348184, 6.787686478929952, 5.647701391345553, 5.647701391345553, 4.747742485593652, 4.747742485593652, 4.747742485593652, 4.798545826422907, 4.798545826422907, 4.798545826422907, 6.201001224230687, 1087.9521982051338, 1057.2437663995788, 1054.440164663768, 1103.719972271219, 1028.2685211371702, 1027.5570246270174, 1101.1321807580323, 1027.44524057584, 1086.2267413373945, 1014.4918725703264, 1051.1263864278294, 14.167553186955976, 11.683227614584858, 8.804211719540877, 12.182836867480965, 9.356328194192505, 9.356328194192505, 8.187308466261305, 17.822690086350683, 8.89887211901645, 8.614831095274258, 7.808501199831027, 8.0098981004216, 14.557903876700003, 17.214173698453322, 11.374418836633486, 10.729792299164846, 20.11382138459044, 5.884406848461977, 6.538400401743037, 8.092542274926085, 12.293670781530508, 9.70516078489465, 11.959264304881986, 21.49570494796159, 6.696541721018302, 9.137591117983163, 8.73135158142138, 8.537521106307421, 8.537521106307421, 9.073962392412382, 11.863558040349256, 11.863558040349256, 10.482626766869851, 14.637002829561935, 10.4123108598259, 10.443001096950066, 8.987359508801381, 14.619618189806008, 15.404196911820298, 8.406980861694684, 6.795697992715728, 14.500490953310505, 9.72928039513967, 16.740974044593802, 10.983839861642329, 15.192198158780746, 15.280257407048353, 11.67589697193033, 8.575817489070833, 13.719954358008232, 13.681918259774879, 11.565341317551184, 9.906415842480424, 16.02882171966191, 10.341375216043575, 10.341375216043575, 7.691153788456693, 5.598585091718502, 13.982928745588332, 7.896181418135067, 5.444169599280104, 7.379787037238042, 18.46936751541372, 10.947644484985542, 12.282480056325497, 8.343578862219843, 13.105419898282737, 8.784923945714924, 8.784923945714924, 12.822475561851398, 7.027275303939565, 18.560524813505076, 9.384277757458385, 10.337651077588879, 10.337651077588879, 6.459745843921343, 13.597892400166524, 13.597892400166524, 13.597892400166524, 5.049026192300804, 7.62660925985128, 7.62660925985128, 7.62660925985128, 15.054444440005655, 11.927330409725883, 5.718896220455256, 9.30549271744668, 9.30549271744668, 15.557902430524209, 13.310928642593689, 13.310928642593689, 11.506609876404045, 5.604976610730275, 16.77533503835724, 17.98283635125174, 10.026951971872744, 7.6916151984566214, 7.6916151984566214, 5.242080357739603, 6.198633564284624, 5.396713196481115, 14.359412861223477, 14.359412861223477, 6.105002968665092, 6.105002968665092, 7.514077789452874, 16.966599722058902, 8.809823098718054, 6.896489990450613, 13.691740696809067, 9.007461766818496, 9.007461766818496, 11.080363936332683, 15.382149905964456, 10.409724325960605, 10.833141491536217, 10.833141491536217, 10.833141491536217, 10.833141491536217, 10.833141491536217, 10.833141491536217, 10.833141491536217, 10.833141491536217, 10.833141491536217, 7.6242881778754965, 9.428834531295877, 9.428834531295877, 9.428834531295877, 9.089356181785629, 11.808468916151245, 8.679378617548888, 10.15640178251786, 10.15640178251786, 10.15640178251786, 10.15640178251786, 10.15640178251786, 10.15640178251786, 10.15640178251786, 10.15640178251786, 10.15640178251786, 10.15640178251786, 10.15640178251786, 5.7054937243984565, 5.7054937243984565, 8.753454469258367, 8.753454469258367, 8.753454469258367, 8.753454469258367, 8.753454469258367, 10.229032903643539, 10.229032903643539, 10.229032903643539, 11.520271132578047, 11.520271132578047, 11.520271132578047, 11.520271132578047, 11.520271132578047, 11.520271132578047, 11.520271132578047, 11.520271132578047, 11.520271132578047, 11.520271132578047, 11.520271132578047, 11.520271132578047, 11.520271132578047, 11.520271132578047, 11.520271132578047, 11.520271132578047, 11.520271132578047, 11.520271132578047, 9.50054776694516, 9.50054776694516, 9.50054776694516, 9.50054776694516, 9.50054776694516, 9.50054776694516, 7.588633356470838, 7.588633356470838, 9.47313751832801, 9.47313751832801, 9.47313751832801, 9.47313751832801, 9.47313751832801, 7.3394873192100105, 6.842102244180996, 6.842102244180996, 6.842102244180996, 6.842102244180996, 6.842102244180996, 6.842102244180996, 6.842102244180996, 6.842102244180996, 6.842102244180996, 6.842102244180996, 6.842102244180996, 6.842102244180996, 6.842102244180996, 6.842102244180996, 6.842102244180996, 6.842102244180996, 6.842102244180996, 6.842102244180996, 6.842102244180996, 8.94504020925035, 4.778961488904256, 4.778961488904256, 5.112980092548278, 5.112980092548278, 5.112980092548278, 5.37236575730681, 5.37236575730681, 5.37236575730681, 5.37236575730681, 7.666592494702642, 4.6210880045899465, 4.6210880045899465, 4.6210880045899465, 7.091992297154752, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 6.913191692325355, 7.533770956776837, 8.552039490231444, 8.297026372358669, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 10.30988302239683, 10.30988302239683, 10.30988302239683, 10.30988302239683, 10.30988302239683, 10.30988302239683, 10.30988302239683, 10.30988302239683, 8.17864926437856, 8.17864926437856, 8.17864926437856, 8.17864926437856, 8.17864926437856, 7.0510800905043105, 7.0510800905043105, 7.0510800905043105, 7.0510800905043105, 7.0510800905043105, 7.0510800905043105, 7.0510800905043105, 7.0510800905043105, 7.0510800905043105, 7.0510800905043105, 8.833588893998806, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.833766107521229, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.540388229236749, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 5.468925128546637, 4.380491886426793, 4.380491886426793, 4.380491886426793, 4.380491886426793, 4.380491886426793, 4.380491886426793, 4.380491886426793, 4.380491886426793, 4.380491886426793, 4.380491886426793, 4.380491886426793, 4.380491886426793, 8.408606565331928, 4.355882253974932, 5.032196774120769, 5.032196774120769, 5.032196774120769, 5.032196774120769, 5.032196774120769, 5.032196774120769, 5.032196774120769, 5.032196774120769, 5.032196774120769, 5.032196774120769, 5.032196774120769, 5.032196774120769, 6.208243378188584, 6.208243378188584, 6.208243378188584, 6.208243378188584, 6.208243378188584, 6.208243378188584, 6.208243378188584, 6.208243378188584, 6.208243378188584, 6.208243378188584, 6.208243378188584, 6.208243378188584, 6.208243378188584, 6.208243378188584, 6.208243378188584, 6.208243378188584, 6.208243378188584, 6.208243378188584, 6.208243378188584, 6.208243378188584, 6.20824337818858</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 12.168077768749574, 12.168077768749574, 12.168077768749574, 5.274933389584381, 5.274933389584381, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 4.305667447810286, 4.305667447810286, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.949313010440071, 5.949313010440071, 5.949313010440071, 5.949313010440071, 6.234777137180886, 6.234777137180886, 6.234777137180886, 6.234777137180886, 6.234777137180886, 6.234777137180886, 6.234777137180886, 6.234777137180886, 6.234777137180886, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.113196875753736, 4.113196875753736, 4.113196875753736, 4.113196875753736, 4.113196875753736, 4.113196875753736, 4.113196875753736, 4.113196875753736, 4.113196875753736, 4.113196875753736, 4.113196875753736, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 5.7054937243984565, 5.7054937243984565, 5.7054937243984565, 5.7054937243984565, 5.7054937243984565, 5.7054937243984565, 5.7054937243984565, 5.7054937243984565, 5.7054937243984565, 5.7054937243984565, 5.7054937243984565, 5.7054937243984565, 5.7054937243984565, 5.7054937243984565, 5.7054937243984565, 5.7054937243984565, 5.7054937243984565, 5.7054937243984565, 5.7054937243984565, 5.7054937243984565, 5.7054937243984565, 5.7054937243984565, 5.7054937243984565, 5.7054937243984565, 5.7054937243984565, 5.7054937243984565, 5.7054937243984565, 5.7054937243984565, 5.7054937243984565, 5.7054937243984565, 5.7054937243984565, 5.7054937243984565, 5.7054937243984565, 8.753454469258367, 8.753454469258367, 8.753454469258367, 8.753454469258367, 8.753454469258367, 8.753454469258367, 8.753454469258367, 8.753454469258367, 8.753454469258367, 8.753454469258367, 8.753454469258367, 8.753454469258367, 8.753454469258367, 8.753454469258367, 8.753454469258367, 8.753454469258367, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 8.297026372358669, 8.297026372358669, 8.297026372358669, 8.297026372358669, 8.297026372358669, 8.297026372358669, 8.297026372358669, 8.297026372358669, 8.297026372358669, 8.297026372358669, 8.297026372358669, 8.297026372358669, 8.297026372358669, 8.297026372358669, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 10.30988302239683, 10.30988302239683, 10.30988302239683, 10.30988302239683, 10.30988302239683, 10.30988302239683, 10.30988302239683, 10.30988302239683, 10.30988302239683, 10.30988302239683, 10.30988302239683, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 4.380491886426793, 4.380491886426793, 4.380491886426793, 4.380491886426793, 4.380491886426793, 4.380491886426793, 4.380491886426793, 4.380491886426793, 4.380491886426793, 4.380491886426793, 4.380491886426793, 4.380491886426793, 4.380491886426793, 6.208243378188584, 6.208243378188584, 6.208243378188584, 6.208243378188584, 6.208243378188584, 6.208243378188584, 6.208243378188584, 6.208243378188584, 6.208243378188584, 6.208243378188584, 6.208243378188584, 6.208243378188584, 6.208243378188584, 6.208243378188584, 6.208243378188584, 6.208243378188584, 6.208243378188584, 6.208243378188584, 4.301413734402529, 4.301413734402529, 4.301413734402529, 4.301413734402529, 4.301413734402529, 4.301413734402529, 4.301413734402529, 4.301413734402529, 4.301413734402529, 4.301413734402529, 4.301413734402529, 4.301413734402529, 4.301413734402529, 4.301413734402529, 4.301413734402529, 4.301413734402529, 4.301413734402529, 4.301413734402529, 4.301413734402529, 4.301413734402529, 4.301413734402529, 4.301413734402529, 4.301413734402529, 4.301413734402529, 4.301413734402529, 4.301413734402529, 4.301413734402529, 4.301413734402529, 4.301413734402529, 4.301413734402529, 4.301413734402529, 6.905838872625019, 6.905838872625019, 6.905838872625019, 6.905838872625019, 6.905838872625019, 6.905838872625019, 6.905838872625019, 6.905838872625019, 6.905838872625019, 6.905838872625019, 6.905838872625019, 6.905838872625019, 6.905838872625019, 6.905838872625019, 6.905838872625019, 6.905838872625019, 6.905838872625019, 6.905838872625019, 6.905838872625019, 6.905838872625019, 6.905838872625019, 6.905838872625019, 6.905838872625019, 6.905838872625019, 6.905838872625019, 6.905838872625019, 6.905838872625019, 6.905838872625019, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 7.594337089901065, 4.990904481238726, 4.990904481238726, 4.990904481238726, 4.990904481238726, 4.990904481238726, 4.990904481238726, 4.990904481238726, 4.990904481238726, 4.990904481238726, 4.990904481238726, 4.990904481238726, 4.990904481238726, 8.814694505244717, 8.814694505244717, 8.814694505244717, 8.814694505244717, 8.814694505244717, 6.453251144756058, 6.45325114</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[11.703166670560579, 11.469290966211133, 11.472708460652045, 11.609032905771807, 11.465075873888654, 11.411786514226375, 11.332118657586449, 11.187924525332754, 11.195315695193, 11.05932549652281, 11.013771766010171, 10.974205153500504, 11.065306437036146, 11.073594239877371, 11.132347666710574, 11.183450878277744, 11.312537275515865, 11.408521086318329, 11.36185513222447, 11.183331017954307, 11.049061609600763, 11.078314777769066, 10.915566155820462, 10.7937127975743, 10.726819639537515, 10.642268777365356, 10.674934449633616, 10.398262623306483, 10.420919475991733, 10.25319445281646, 10.11284821420701, 10.173184901444023, 10.359041437040313, 10.338657581273154, 10.206142911145468, 10.202733149744498, 10.230309405286603, 10.22548012009778, 10.22548012009778, 10.097474371748902, 10.07550133658398, 10.07048545483764, 10.099423106976722, 10.13849298035982, 10.270454326377804, 10.162180956201176, 10.145438050281372, 10.083515067721027, 9.944429922964494, 9.700234120414086, 9.796197869463345, 9.63427799581601, 9.622420108495437, 9.48916353829011, 9.515766914454064, 9.567294580728984, 9.626517201228971, 9.841931669499239, 9.89092701703112, 9.807072556891093, 9.875666019249541, 9.993922499955785, 9.854643354527722, 9.782940705998126, 9.693933035233698, 9.589004216058097, 9.578029849603707, 9.502750696630974, 9.29839242113079, 9.24812928800494, 9.195763032675918, 9.190431365273328, 9.127097897810723, 9.19828238209213, 9.122990445524275, 9.268820339666844, 9.265967153734202, 9.231890605013374, 9.231890605013374, 9.231890605013374, 9.274998058564098, 9.107785935526147, 9.031432655797172, 8.997447394815676, 8.753484576784114, 8.727465898984358, 8.664147314807611, 8.57164213336867, 8.447480100951008, 8.461153096934652, 8.388105279911768, 8.294088850814816, 8.230380478534647, 8.079431456547734, 7.9809395706355835, 7.991681278607377, 8.001042404276669, 8.166297989014042, 8.07977646128077, 8.040985708617178, 8.052857099435972, 8.053791103755671, 8.028435243844287, 8.154977767844024, 8.117507198849523, 8.054736736026584, 8.012104168054988, 7.909150678441831, 7.8500519208433825, 7.815382460899691, 7.874772591117605, 7.787921792308025, 7.819371859642409, 7.819371859642409, 7.791494496901528, 7.904347591928261, 7.852996586855594, 7.86971332166005, 7.92418484947118, 7.996213184033606, 7.971564918445673, 7.989462154246328, 8.034517830889172, 8.177984022571252, 8.177984022571252, 8.296681304923927, 8.244920429175936, 8.230998851670767, 8.212671697212183, 8.135389327763644, 8.185993905797423, 8.28146793965319, 8.246796637586984, 8.328059011697638, 8.430967669427567, 8.511620539102108, 8.599453378383908, 8.648411117826498, 8.616996442230686, 8.614639663508763, 8.675921122401428, 8.715678276226319, 8.806038845037044, 8.72628244010311, 8.772467507079128, 8.825609487362527, 8.938836814478185, 8.960175806422484, 8.933766588207607, 9.039155446106486, 9.106328237006991, 9.063940727546335, 9.02403352233466, 8.889082695936995, 8.849330703414928, 8.651475015066156, 8.612128739927153, 8.462130471464318, 8.443807714613188, 8.549314332615584, 8.532627853287169, 8.515952703200854, 8.445977736086432, 8.429360502162384, 8.39817613371303, 8.402365084469603, 8.385789579099713, 8.286845597194542, 8.3063817252694, 8.327077153806025, 8.31261311336286, 8.242828862774976, 8.242828862774976, 8.147470363638389, 7.998852844427985, 7.946914350450777, 7.946914350450777, 7.848735631209154, 7.848735631209154, 7.740645197997069, 7.630159668508813, 7.583602255678925, 7.506979261383318, 7.450236266736867, 7.470635666952006, 7.363501997975797, 7.363501997975797, 7.363501997975797, 7.237468680213491, 7.146350963778865, 7.166664058891016, 7.116382957756802, 7.116382957756802, 7.010143782409258, 7.010143782409258, 6.960089608251503, 6.929980371729954, 6.929980371729954, 6.900526446453852, 6.900526446453852, 6.947074684211375, 6.96659046360755, 6.951914050783007, 7.061880125163487, 6.956576583886739, 6.71744264124864, 6.684499452008746, 6.636339722052173, 6.512811349693214, 6.512811349693214, 6.512811349693214, 6.512811349693214, 6.359426430375602, 6.321721924855496, 6.328141064573543, 6.369321489957181, 6.335000641805065, 6.335000641805065, 6.337894800582654, 6.337894800582654, 6.4267837758551085, 6.480832212847448, 6.5547822421657695, 6.573908417332658, 6.627798330374862, 6.641459152764731, 6.700514320118909, 6.70191849074887, 6.755380836787105, 6.813894761627755, 6.727219594193275, 6.641221790820961, 6.555893442044522, 6.507493210766548, 6.423117683882972, 6.339393113895963, 6.3926395106440825, 6.4318416775192055, 6.451502048827685, 6.3694497477747145, 6.342597606110109, 6.38676281820761, 6.4447146446082595, 6.379375760299327, 6.398511256779612, 6.34942581405262, 6.300664028386561, 6.294725156949736, 6.246343383325275, 6.1982782760582396, 6.135108805045787, 6.069010900341243, 6.036892615163358, 6.02373267302556, 5.991694359055742, 5.991694359055742, 5.957959684634013, 5.877797127475934, 5.813203153369766, 5.7490181685209905, 5.74317965652199, 5.729536324013332, 5.697360098599632, 5.715967441347608, 5.734566017209717, 5.702472400788719, 5.666642706376201, 5.6548315050135765, 5.643026787474224, 5.592890929418361, 5.542978943784793, 5.493289334422432, 5.443820618482361, 5.380378466436531, 5.331415359217198, 5.282668311893491, 5.2711583649875635, 5.222664355849597, 5.16049361061209, 5.11249035846904, 5.1011132354853554, 5.039632027432022, 4.997881518393259, 4.9482842598529695, 4.912460174280212, 4.8767720734148705, 4.8412191844468255, 4.848213670039513, 4.834802670075545, 4.834802670075545, 4.821411307194813, 4.828397926932063, 4.815023523213092, 4.801668670740352, 4.788333326673949, 4.788333326673949, 4.775017448299054, 4.76172099302545, 4.7484439183870775, 4.7484439183870775, 4.7484439183870775, 4.735186182041583, 4.742151794855404, 4.728910724396993, 4.715688908197519, 4.702486304290156, 4.68930287082995, 4.676138566093381, 4.662993348477916, 4.662993348477916, 4.649867176501576, 4.636760008802503, 4.623671804138513, 4.610602521386679, 4.597552119542887, 4.584520557721418, 4.571507795154513, 4.558513791191951, 4.565440081934744, 4.552462173205527, 4.5265623495368335, 4.513640354125954, 4.500736916209063, 4.487851995838753, 4.494760045635369, 4.501665587155631, 4.508568621765407, 4.495694334090843, 4.475940675132382, 4.456208140016147, 4.436496694876647, 4.41680630592074, 4.397136939427445, 4.377488561747747, 4.357861139304402, 4.338254638591754, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.348051957406189, 4.348051957406189, 4.362498937117143, 4.362498937117143, 4.362498937117143, 4.362498937117143, 4.362498937117143, 4.362498937117143, 4.362498937117143, 4.362498937117143, 4.362498937117143, 4.362498937117143, 4.362498937117143, 4.362498937117143, 4.362498937117143, 4.362498937117143, 4.362498937117143, 4.362498937117143, 4.362498937117143, 4.362498937117143, 4.362498937117143, 4.362498937117143, 4.362498937117143, 4.362498937117143, 4.362498937117143, 4.362498937117143, 4.362498937117143, 4.376935718540395, 4.376935718540395, 4.376935718540395, 4.376935718540395, 4.376935718540395, 4.391362312470762, 4.391362312470762, 4.391362312470762, 4.391362312470762, 4.391362312470762, 4.391362312470762, 4.423967834670484, 4.423967834670484, 4.423967834670484, 4.438360366950877, 4.438360366950877, 4.438360366950877, 4.438360366950877, 4.438360366950877, 4.452742758847888, 4.467115021074487, 4.467115021074487, 4.496330510635125, 4.496330510635125, 4.510675902614158, 4.525011202640854, 4.525011202640854, 4.525011202640854, 4.525011202640854, 4.525011202640854, 4.525011202640854, 4.525011202640854, 4.539336421360973, 4.553651569405298, 4.553651569405298, 4.553651569405298, 4.553651569405298, 4.567956657389678, 4.5822516959150414, 4.5822516959150414, 4.5822516959150414, 4.59653669556743, 4.61081166691802, 4.61081166691802, 4.61081166691802, 4.61081166691802, 4.639331566924362, 4.65383743028351, 4.65383743028351, 4.668075041914042, 4.697070013390371, 4.697070013390371, 4.711281106596219, 4.757557839169453, 4.757557839169453, 4.771725708825093, 4.785883671254279, 4.800031736845182, 4.814169915971454, 4.828298218992255, 4.8602029982677655, 4.8602029982677655, 4.874298289387206, 4.88838374960459, 4.88838374960459, 4.902459389201322, 4.902459389201322, 4.916834842444582, 4.930893452212289, 4.94494226844809, 4.973625936867636, 4.9876487303413946, 5.00166176638279, 5.015665055172499, 5.029658606877043, 5.042588996042898, 5.102629734611177, 5.127535888055082, 5.141421765715022, 5.15529803884332, 5.169164717401371, 5.168809732976002, 5.168454883238244, 5.1947175009039235, 5.1947175009039235, 5.1947175009039235, 5.2121221050758795, 5.2121221050758795, 5.2121221050758795, 5.2121221050758795, 5.226604584708093, 5.24108426265516, 5.24108426265516, 5.24108426265516, 5.255561139729995, 5.2700352167452, 5.2700352167452, 5.2845064945130575, 5.2845064945130575, 5.298974973845543, 5.313440655554314, 5.313440655554314, 5.313440655554314, 5.327454310975373, 5.356349041090186, 5.356349041090186, 5.370792220749319, 5.385182145493201, 5.399614606385918, 5.399614606385918, 5.431632808226118, 5.446051774865923, 5.443781037522039, 5.469450916019605, 5.483806968661684, 5.498160263578636, 5.508437925591971, 5.522765831511924, 5.532989970459103, 5.535192996125007, 5.552222790274552, 5.561490653160928, 5.575730576822803, 5.607267246498512, 5.62149402312364, 5.677266487370181, 5.6915623504708535, 5.705846629026621, 5.695419489116701, 5.712785978485969, 5.693781840951385, 5.710910653133317, 5.727847279814099, 5.725412940691846, 5.677721752954871, 5.658903385288455, 5.654717516961663, 5.654717516961663, 5.657368348035866, 5.664157412491681, 5.642419854869485, 5.659359449672923, 5.647434994789953, 5.654004741680342, 5.6498655710689185, 5.652492946643024, 5.628663456228664, 5.638867681982006, 5.6413987857409325, 5.6477397952084285, 5.617569771355869, 5.631693385932399, 5.571969936620894, 5.567263489681865, 5.567263489681865, 5.581305400303513, 5.5593773955426125, 5.560868164350085, 5.554630978443444, 5.508549049030309, 5.488460630019597, 5.431019863048976, 5.417398406813651, 5.41337110992307, 5.437731885567485, 5.461433411922893, 5.448695461083705, 5.4635413639586785, 5.538811476368184, 5.546662460972141, 5.539143000241292, 5.560753988388607, 5.54058581157801, 5.554599134157899, 5.540287854245728, 5.551230221659835, 5.536618822930587, 5.550365558263773, 5.55005017238251, 5.5357688345301375, 5.5497348881863555, 5.577727720638721, 5.591678833075697, 5.591901656506606, 5.633746402562379, 5.669494789190789, 5.714378810205135, 5.700125044429232, 5.685873275491363, 5.671623502971949, 5.657375726451526, 5.6263355962846475, 5.626036691428271, 5.611803767758019, 5.580792713715057, 5.566565097603162, 5.566565097603162, 5.566565097603162, 5.550274995723329, 5.564227786772212, 5.564227786772212, 5.575439602822936, 5.589361130837535, 5.6032660677818225, 5.641126723793166, 5.652271587334148, 5.647095876611791, 5.660906601220115, 5.674700947497163, 5.658062417664265, 5.671850130614356, 5.685621512061678, 5.699376591005978, 5.699376591005978, 5.710417656865042, 5.724142182262823, 5.735156531081707, 5.746158463864746, 5.730492268811585, 5.698142442194431, 5.697688803244778, 5.727811349045132, 5.742039040240467, 5.772056883400226, 5.815283164560911, 5.804360217964487, 5.806139885089751, 5.742160252303695, 5.7305657935508405, 5.735866508049693, 5.738526432364947, 5.741186215219273, 5.743845856623961, 5.664282030169491, 5.6669377238247955, 5.651213819755541, 5.665167383675138, 5.59202107940177, 5.575239458292394, 5.5472066566386244, 5.519185834151554, 5.491176983154293, 5.463180095976515, 5.43463648638481, 5.3998493270023245, 5.3998493270023245, 5.318467645797109, 5.301795964666984, 5.285127614893993, 5.2568682947654235, 5.2568682947654235, 5.2568682947654235, 5.227387478486789, 5.210988505880042, 5.194629701077617, 5.166567406496635, 5.138556972738651, 5.12819397334512, 5.111989447721025, 5.084397455403196, 5.056533853122589, 5.028721566470506, 5.000960453817497, 4.978754417945269, 4.962813973081582, 4.9050720111386825, 4.917209358095795, 4.881207100089399, 4.855977803830612, 4.837690515384922, 4.823301865946367, 4.820469576936054, 4.820355938751292, 4.820242459720971, 4.805916925537628, 4.805813715774387, 4.805607728627236, 4.805504950639954, 4.762791070596887, 4.752001721232117, 4.699902383173425, 4.669691269687659, 4.669691269687659, 4.657008169124244, 4.669736077199448, 4.6560689880731765, 4.656463636981047, 4.642810670693526, 12.850579608656197, 12.781061687216772, 12.844947986522858, 12.644961392535889, 12.442933753816542, 12.272902559035481, 12.134529814615599, 11.950066937759596, 11.902331030640545, 11.742602662784591, 11.848701865536135, 11.570329771947154, 11.426439484605867, 11.134073301062138, 11.134572174266074, 11.089196743290413, 11.0586821301448, 11.05049405352438, 10.983667536894774, 10.812958152611905, 10.735610125472586, 10.708614849527338, 10.752312640687506, 10.861117239532984, 10.678659540004874, 10.475222788714987, 10.336672923388212, 10.399710560628538, 10.381305575792167, 10.393742233002436, 10.491134783672518, 10.583277895238378, 10.517680409284504, 10.53984026729058, 10.606807386590805, 10.465975843796963, 10.475523565022971, 10.519857291801491, 10.514637117263373, 10.61461206019735, 10.76974963245673, 10.760280690882265, 10.843921106285697, 10.817256744853323, 10.778304144909843, 10.676885862712735, 10.736955483172132, 10.845996738862752, 10.879952627554893, 10.678118397486383, 10.748794397001369, 10.786505202792162, 10.794697568120954, 10.645365649494575, 10.582302747871593, 10.459643788909199, 10.470878817985025, 10.407526859539427, 10.31615026038188, 10.234842987485502, 10.261296137804075, 10.236120914493569, 10.18481920665693, 10.142666733545985, 10.210283493062422, 10.009336842638174, 10.092789904900565, 10.002697620459264, 9.972982305669936, 10.033912358959155, 9.920796337131149, 9.999124566190467, 10.007185359118148, 10.028501358260062, 9.800443748049167, 9.871150620571747, 9.942024917784144, 9.927749651349679, 9.972460350176997, 10.090707796061213, 10.067874080242435, 9.94888160097794, 10.036900818270462, 9.88177174812382, 9.967695702564107, 9.855506536888944, 9.838961902310421, 9.827765414731024, 9.735329406447542, 9.735329406447542, 9.658431216131937, 9.724247057255656, 9.757322145376737, 9.757322145376737, 9.894611794420253, 9.818983543505034, 9.735460096235386, 9.817708941731413, 9.858596583658649, 9.888359081308222, 9.90064923622093, 9.839553534390067, 9.7372843656547, 9.741545789505775, 9.854602210234281, 9.710259235421336, 9.55297477129848, 9.556384436681329, 9.566975973237193, 9.631106844114369, 9.736757232344592, 9.824562883361398, 9.916012150055337, 9.83718200846505, 9.70360617443688, 9.766154744935047, 9.856163036861089, 9.807148581450617, 9.679385562113694, 9.6025427230502, 9.677211206363987, 9.615610680945926, 9.665461936715252, 9.6192825581727, 9.522968830222952, 9.450007611788408, 9.431076507045175, 9.418336188717065, 9.337776768115075, 9.352590918910252, 9.367383761240202, 9.382155341046566, 9.27340228831202, 9.288185594742416, 9.275608476141203, 9.235453969210248, 9.190543719324754, 9.232121725066042, 9.246408855557876, 9.165651487195996, 9.186414752762357, 9.181991381520682, 9.23778224914705, 9.143164117951223, 9.144814914169281, 9.05802432086076, 9.045467945428019, 9.032532878898019, 9.059606774961235, 8.965845357508108, 8.899907087404685, 8.834089409592956, 8.691514560060577, 8.71843305548543, 8.711998906866107, 8.74801941227279, 8.6829192990699, 8.73649248780176, 8.790055486066768, 8.81856084131585, 8.660294502793013, 8.567551568183147, 8.553711897308208, 8.444226484792148, 8.200580763375081, 8.200580763375081, 8.200580763375081, 8.08484503702507, 7.994835862955959, 7.994835862955959, 7.90494165896203, 7.82501057195448, 7.735328726306461, 7.560718669162678, 7.486061383167988, 7.396871580916567, 7.358956909416345, 7.231894984219038, 7.143028529473296, 7.030734828479256, 6.918937198095855, 6.80763235839257, 6.734451421898109, 6.6615764530502, 6.6615764530502, 6.57050543441509, 6.520638067822543, 6.470822819048922, 6.456981049580895, 6.443153560967667, 6.443153560967667, 6.3929505548337655, 6.320658255417348, 6.248618386014441, 6.176829626777928, 6.092344555509637, 6.070794434629782, 6.070794434629782, 6.042217118409126, 6.020792983056037, 5.999434865217193, 5.978142460216995, 5.956915465251761, 5.998710906924996, 5.977498345812378, 5.956350708860009, 5.90205888456066, 5.858988809831487, 5.838120373091458, 5.838120373091458, 5.817315412519494, 5.796573638939263, 5.796573638939263, 5.775894764928294, 5.734724574614007, 5.650925488000005, 5.66960495942684, 5.6882514027440765, 5.726957253524106, 5.726957253524106, 5.739140550194957, 5.746302256273937, 5.75345237998197, 5.760590949393983, 5.7677179924942426, 5.7303678202202235, 5.75220489122904, 5.774016294419458, 5.822825706359841, 5.796499222808537, 5.796499222808537, 5.796499222808537, 5.796499222808537, 5.796499222808537, 5.796499222808537, 5.796499222808537, 5.796499222808537, 5.796499222808537, 5.796499222808537, 5.796499222808537, 5.796499222808537, 5.796499222808537, 5.810391042855321, 5.810391042855321, 5.810391042855321, 5.810391042855321, 5.810391042855321, 5.810391042855321, 5.810391042855321, 5.810391042855321, 5.810391042855321, 5.810391042855321, 5.810391042855321, 5.810391042855321, 5.810391042855321, 5.810391042855321, 5.824245251927098, 5.824245251927098, 5.824245251927098, 5.824245251927098, 5.838062002560368, 5.861358264367995, 5.861358264367995, 5.861358264367995, 5.861358264367995, 5.861358264367995, 5.861358264367995, 5.861358264367995, 5.875106110286986, 5.875106110286986, 5.875106110286986, 5.875106110286986, 5.875106110286986, 5.875106110286986, 5.875106110286986, 5.875106110286986, 5.875106110286986, 5.875106110286986, 5.875106110286986, 5.875106110286986, 5.875106110286986, 5.875106110286986, 5.875106110286986, 5.875106110286986, 5.875106110286986, 5.875106110286986, 5.888816885973032, 5.888816885973032, 5.888816885973032, 5.888816885973032, 5.888816885973032, 5.888816885973032, 5.888816885973032, 5.888816885973032, 5.902490741160712, 5.916127824779271, 5.916127824779271, 5.916127824779271, 5.916127824779271, 5.929728284958041, 5.929728284958041, 5.943292269031788, 5.9997275737772355, 6.013174459978256, 6.026585392280523, 6.026585392280523, 6.026585392280523, 6.039960514690272, 6.075358110446638, 6.075358110446638, 6.088648504796245, 6.101903510581322, 6.115123268958563, 6.115123268958563, 6.12830792033493, 6.141457604372639, 6.141457604372639, 6.154572459994079, 6.167652625386709, 6.180698238007917, 6.193709434589823, 6.206686351144066, 6.219629122966542, 6.232537884642099, 6.245412770049211, 6.2582539123646015, 6.271061444067836, 6.271061444067836, 6.271061444067836, 6.283835496945878, 6.296576202097609, 6.309283689938315, 6.321958090204132, 6.321958090204132, 6.334599531956469, 6.34720814358638, 6.34720814358638, 6.359784052818917, 6.37232738671744, 6.384838271687893, 6.397316833483062, 6.409763197206774, 6.422177487318085, 6.434559827635432, 6.4469103413407405, 6.459229150983516, 6.471516378484897, 6.48377214514167, 6.495996571630278, 6.508189778010758, 6.498381227846098, 6.476824184329659, 6.4356136981183125, 6.398410612278099, 6.398410612278099, 6.398410612278099, 6.398410612278099, 6.398410612278099, 6.398410612278099, 6.398410612278099, 6.398410612278099, 6.398410612278099, 6.398410612278099, 6.398410612278099, 6.398410612278099, 6.398410612278099, 6.398410612278099, 6.477035520598196, 6.477035520598196, 6.477035520598196, 6.477035520598196, 6.477035520598196, 6.477035520598196, 6.477035520598196, 6.477035520598196, 6.477035520598196, 6.477035520598196, 6.477035520598196, 6.415648219578079, 6.415648219578079, 6.415648219578079, 6.415648219578079, 6.415648219578079, 6.415648219578079, 6.415648219578079, 6.415648219578079, 6.415648219578079, 6.415648219578079, 6.415648219578079, 6.415648219578079, 6.415648219578079, 6.415648219578079, 6.385023144858446, 6.385023144858446, 6.385023144858446, 6.385023144858446, 6.385023144858446, 6.385023144858446, 6.385023144858446, 6.385023144858446, 6.354443651245232, 6.354443651245232, 6.323909637052531, 6.323909637052531, 6.323909637052531, 6.323909637052531, 6.323909637052531, 6.323909637052531, 6.323909637052531, 6.323909637052531, 6.323909637052531, 6.323909637052531, 6.293421000896685, 6.293421000896685, 6.293421000896685, 6.293421000896685, 6.293421000896685, 6.293421000896685, 6.293421000896685, 6.293421000896685, 6.371698108210671, 6.449959139772488, 6.449959139772488, 6.449959139772488, 6.41940581894705, 6.388897828172501, 6.388897828172501, 6.388897828172501, 6.35843506664358, 6.35843506664358, 6.35843506664358, 6.35843506664358, 6.35843506664358, 6.328017433853697, 6.328017433853697, 6.328017433853697, 6.328017433853697, 6.3413130588984306, 6.3413130588984306, 6.310945275350245, 6.310945275350245, 6.324232890420526, 6.402125961620785, 6.402125961620785, 6.3717534205914195, 6.3717534205914195, 6.3717534205914195, 6.3717534205914195, 6.341425727057709, 6.354671308424772, 6.324393161823729, 6.2941596359628695, 6.2941596359628695, 6.2941596359628695, 6.342817148872153, 6.312611539736966, 6.282450350694739, 6.359909290816308, 6.359909290816308, 6.359909290816308, 6.329738574620795, 6.299612157556942, 6.334915382373693, 6.304811949258405, 6.274752644824144, 6.3238797057136775, 6.401047344229687, 6.436255700163636, 6.406145520982512, 6.376079381591361, 6.35889526719369, 6.328923094634169, 6.29899464137839, 6.2691098118384625, 6.282219574959758, 6.295316885453682, 6.372017430129362, 6.355184426007995, 6.338123683984537, 6.302439480212964, 6.2727740547242705, 6.166982692848283, 6.103888363085792, 6.103888363085792, 6.040840895506977, 5.977840237922146, 5.936512385697914, 5.89518893438078, 5.789827159755987, 5.725857231572918, 5.661959974672907, 5.598135265291926, 5.546332592075236, 5.482725839385253, 5.440551993496492, 5.411501612613858, 5.369388101086623, 5.340421025883014, 5.298367691257417, 5.256335320743221, 5.214323898668026, 5.172333409375049, 5.130363837223106, 5.101635802925853, 5.024561453919397, 5.037805080908152, 5.037805080908152, 5.037805080908152, 5.037805080908152, 5.050296736241856, 5.063504058295363, 5.076697986264527, 5.076697986264527, 5.076697986264527, 5.089878540514254, 5.089878540514254, 5.102270822534856, 5.102270822534856, 5.102270822534856, 5.11463227826117, 5.11463227826117, 5.11463227826117, 5.11463227826117, 5.11463227826117, 5.11463227826117, 5.11463227826117, 5.11463227826117, 5.11463227826117, 5.11463227826117, 5.11463227826117, 5.11463227826117, 5.11463227826117, 5.11463227826117, 5.127754233734409, 5.14086293492912, 5.14086293492912, 5.14086293492912, 5.153148688107239, 5.153148688107239, 5.153148688107239, 5.153148688107239, 5.153148688107239, 5.166221718187558, 5.166221718187558, 5.178454650634029, 5.191492178376676, 5.191492178376676, 5.191492178376676, 5.191492178376676, 5.191492178376676, 5.191492178376676, 5.191492178376676, 5.2045165895880405, 5.21752790405219, 5.21752790405219, 5.230526141513425, 5.24351132167638, 5.269497315988894, 5.282436258007415, 5.295362235520924, 5.321175374895608, 5.334062575590756, 5.346936889449032, 5.372644591619803, 5.384504363727683, 5.397311431619206, 5.410105741049733, 5.421893346983753, 5.433652133534116, 5.446390775536023, 5.459116770837382, 5.471830138261988, 5.483496228620389, 5.49513390849783, 5.50779222373541, 5.519380473633235, 5.532005184049633, 5.544617431282494, 5.5543464787150985, 5.566923814798228, 5.5812808480454725, 5.5812808480454725, 5.580183697171289, 5.5790881221378585, 5.5790881221378585, 5.591504309187377, 5.590402534954079, 5.589302339302163, 5.58820371884146, 5.587106670191499, 5.599466335785401, 5.611800588108912, 5.611800588108912, 5.624109505461607, 5.624109505461607, 5.622991028216556, 5.621874143989119, 5.609592149411523, 5.608487869095364, 5.607385156114266, 5.606284007133751, 5.605184418828799, 5.604086387883799, 5.602989910992537, 5.601894984858144, 5.60080160619307, 5.599709771719052, 5.611897825144159, 5.610800046590524, 5.609703814684761, 5.598618296275163, 5.597534109346768, 5.609656174857658, 5.608566104895717, 5.607477562141203, 5.6063905433869, 5.60530504543456, 5.619490542797589, 5.619490542797589, 5.632637240469395, 5.609608932727952, 5.609608932727952, 5.609608932727952, 5.622750461571291, 5.635883914820049, 5.649009299915738, 5.662126624290724, 5.662126624290724, 5.636814347034102, 5.649920225753876, 5.663018067515515, 5.677102478648018, 5.677102478648018, 5.677102478648018, 5.690178126260377, 5.703245766396123, 5.703245766396123, 5.716305406408626, 5.716305406408626, 5.742400715432392, 5.768464111978872, 5.781483861361166, 5.794495654551905, 5.8074994988417385, 5.820916885164693, 5.8109840857924455, 5.823966280982317, 5.836940557903968, 5.827932005363523, 5.840887341820316, 5.8538347895933835, 5.866774355885822, 5.917103801221227, 5.9299954375568555, 5.94374640810449, 5.956204207174653, 5.956204207174653, 5.957064877461059, 5.957924787560444, 5.973321657887249, 5.9741733210843595, 5.923684555793632, 5.924557479919949, 5.901635800852992, 5.864561075456726, 5.841690085221229, 5.841690085221229, 5.783317094751287, 5.747800139971922, 5.689481074374485, 5.666693860482569, 5.667676950567645, 5.682091523603605, 5.683066794493651, 5.647629558361007, 5.624899155878603, 5.62589873951143, 5.517471787542436, 5.49481588926443, 5.495871115139975, 5.460510636379355, 5.475011416838501, 5.476074161613662, 5.477135976921536, 5.454545829418987, 5.455616227598195, 5.470086973595195, 5.462497238211018, 5.453766431190458, 5.490019682066859, 5.539593877296679, 5.58910599370011, 5.638556147810641, 5.636309544168369, 5.648888173794405, 5.698228158260828, 5.7475065252738435, 5.796723390186387, 5.832649332215607, 5.881761564950021, 5.879397342337845, 5.798363586865708, 5.8117051649587115, 5.836404635852095, 5.850877649790263, 5.850877649790263, 5.874218413715134, 5.88773814813483, 5.902139284808613, 5.949575493672709, 5.972841222225285, 5.996102462987398, 6.019359217257412, 6.042611486333196, 6.078953887500692, 6.092043320100241, 6.0697150864401115, 6.082795242128811, 6.082795242128811, 6.095870225567564, 6.108940039823642, 6.122004687961879, 6.122004687961879, 6.122004687961879, 6.150707711265519, 6.138641813742624, 6.100764456185348, 6.091749043477717, 6.0827482465140665, 6.095767839</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>[0.02521344416599964, 0.025808265264414938, 0.030252476952941677, 0.04341922706234053, 0.04665726059117936, 0.05969527511403204, 0.06387916801661975, 0.06501751535378414, 0.06569429563039839, 0.0661073106364832, 0.07764720875224593, 13.529091049650257, 14.467760946764827, 14.577164776383293, 14.61485198643793, 14.779841624598935, 15.002640802072406, 15.004678176126513, 15.084439357900505, 15.243166298145875, 15.274864734164003, 15.78164587877377, 15.796466001196107, 15.820817303096685, 15.842453516872817, 16.003287065867045, 16.060766345576376, 16.206355261205303, 16.242726272176547, 16.281970506634742, 16.31153535803769, 16.359730558321733, 16.606780653787204, 16.830440747161408, 16.925342789566145, 17.038102819110705, 17.13797184024668, 17.363845907857677, 17.363845907857677, 17.372219953633355, 17.426106164913854, 17.45230215926678, 17.564397386994248, 17.5878014871479, 17.635194754364072, 17.636348169287636, 17.65801612601152, 17.66707193507677, 17.757189548757523, 17.80947704801522, 17.813349500721202, 17.823178710603027, 17.823178710603027, 17.82564214274196, 17.90145193723701, 17.91238005919598, 17.91415837210692, 17.940780362117373, 17.975163112427712, 18.016353242226295, 18.016353242226295, 18.035316210585645, 18.09484802218109, 18.09777662931712, 18.237595926663626, 18.24328488089472, 18.318835253136903, 18.45961897688999, 18.5144697044518, 18.740515930208694, 18.740515930208694, 18.74892176114296, 18.83746179465283, 18.850458951959, 18.89723655250269, 18.921686886905047, 18.921686886905047, 18.92404972801409, 18.92404972801409, 18.92404972801409, 18.967494995413382, 19.00068132993026, 19.00068132993026, 19.00068132993026, 19.116525109594203, 19.137425816157812, 19.14143281426948, 19.14143281426948, 19.167170915981192, 19.17353860657921, 19.173960681558473, 19.201695870365125, 19.2557511813524, 19.2557511813524, 19.274246540805535, 19.27510497967311, 19.27510497967311, 19.38339651957044, 19.455455193611936, 19.472047595769396, 19.48248052091972, 19.6063205764245, 19.661382482665783, 19.713943356647327, 19.743834495157568, 19.815529615457443, 20.005748128758693, 20.099631868381344, 20.30833327217068, 20.30942613239182, 20.532715172940105, 20.532715172940105, 20.72615766363648, 20.72615766363648, 20.738856851859804, 20.738856851859804, 20.738856851859804, 20.78693431347916, 20.78693431347916, 20.78693431347916, 20.805676022211635, 20.805676022211635, 20.817314559361673, 20.817314559361673, 20.817314559361673, 20.83204662087864, 20.83204662087864, 20.875106716827393, 20.875106716827393, 21.107079867445243, 21.133032239633806, 21.220527663051257, 21.257201147452136, 21.43234092341078, 21.43234092341078, 21.43234092341078, 21.694162783647975, 22.111989179685636, 22.174741054488273, 22.382613425273764, 22.382613425273764, 22.676797447826747, 22.903539129118233, 23.048610996783307, 23.048610996783307, 23.048610996783307, 23.048610996783307, 23.072693149642284, 23.072693149642284, 23.276490499339754, 23.441181588144225, 23.50412328350776, 23.50412328350776, 23.50412328350776, 23.50412328350776, 23.50412328350776, 23.50412328350776, 23.50412328350776, 23.600563250315236, 23.827249927162704, 23.827249927162704, 23.827249927162704, 23.827249927162704, 23.827249927162704, 23.827249927162704, 23.827249927162704, 23.827249927162704, 24.15824822143251, 24.246093290791087, 24.246093290791087, 24.246093290791087, 24.246093290791087, 24.246093290791087, 24.246093290791087, 24.246093290791087, 24.246093290791087, 24.246093290791087, 24.246093290791087, 24.246093290791087, 24.246093290791087, 24.246093290791087, 24.246093290791087, 24.246093290791087, 24.246093290791087, 24.246093290791087, 24.246093290791087, 24.246093290791087, 24.246093290791087, 24.246093290791087, 24.246093290791087, 24.246093290791087, 24.246093290791087, 24.246093290791087, 24.246093290791087, 24.246093290791087, 24.25366513024758, 24.25366513024758, 24.25366513024758, 24.25366513024758, 24.25366513024758, 24.26570926046998, 24.26570926046998, 24.26570926046998, 24.400724079722412, 24.400724079722412, 24.400724079722412, 24.400724079722412, 24.400724079722412, 24.400724079722412, 24.400724079722412, 24.400724079722412, 24.400724079722412, 24.497852591256326, 24.540012922153622, 24.540012922153622, 24.564909094581918, 24.755153130690843, 24.755153130690843, 24.755153130690843, 24.755153130690843, 24.755153130690843, 24.755153130690843, 24.755153130690843, 24.755153130690843, 24.755153130690843, 24.755153130690843, 24.755153130690843, 24.755153130690843, 24.755153130690843, 24.844295553243924, 24.844295553243924, 24.844295553243924, 24.844295553243924, 24.844295553243924, 24.844295553243924, 24.98118523184588, 24.98118523184588, 24.98118523184588, 25.2655810220771, 25.2655810220771, 25.321750069352657, 25.321750069352657, 25.524538165441296, 25.524538165441296, 25.524538165441296, 25.524538165441296, 25.524538165441296, 25.524538165441296, 25.524538165441296, 25.524538165441296, 25.580904784928098, 25.580904784928098, 25.580904784928098, 25.580904784928098, 25.580904784928098, 25.580904784928098, 25.580904784928098, 25.580904784928098, 25.580904784928098, 26.067547048422657, 26.521253993610067, 26.521253993610067, 26.521253993610067, 26.521253993610067, 26.521253993610067, 26.631521709299133, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 27.105293342799055, 27.265352194112502, 27.265352194112502, 27.265352194112502, 27.265352194112502, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.42704940102986, 30.42704940102986, 30.42704940102986, 30.42704940102986, 30.42704940102986, 30.42704940102986, 30.42704940102986, 30.42704940102986, 30.42704940102986, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.508748730871208, 31.508748730871208, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.8119337022481, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 32.38405299182462, 32.47133103566082, 32.47133103566082, 32.54380626629841, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.66013503339639, 32.66013503339639, 32.66013503339639, 32.9350400015829, 32.9350400015829, 32.97978808656398, 32.97978808656398, 33.07622993128823, 33.41767751517443, 33.494538194211785, 33.69726180089984, 33.69726180089984, 33.69726180089984, 33.758476683437515, 33.97054407746924, 33.97054407746924, 33.97054407746924, 33.97054407746924, 33.97054407746924, 33.97054407746924, 33.97054407746924, 34.086778693056864, 34.086778693056864, 34.086778693056864, 34.086778693056864, 34.086778693056864, 34.086778693056864, 34.086778693056864, 34.127406234205274, 34.127406234205274, 34.127406234205274, 34.127406234205274, 34.127406234205274, 34.127406234205274, 34.127406234205274, 34.127406234205274, 34.127406234205274, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.26706823241814, 34.26706823241814, 34.26706823241814, 34.26706823241814, 34.289673386156245, 34.39957542475708, 34.79830736364096, 35.21340896779218, 35.21340896779218, 35.23866925956025, 35.23866925956025, 35.23866925956025, 35.23866925956025, 35.23866925956025, 35.2667514217223, 35.2667514217223, 35.2667514217223, 35.285944494797945, 35.285944494797945, 35.285944494797945, 35.285944494797945, 35.285944494797945, 35.285944494797945, 35.285944494797945, 35.285944494797945, 35.285944494797945, 35.285944494797945, 35.285944494797945, 35.285944494797945, 35.285944494797945, 35.285944494797945, 35.285944494797945, 35.285944494797945, 35.285944494797945, 35.285944494797945, 35.285944494797945, 35.285944494797945, 35.285944494797945, 35.285944494797945, 35.285944494797945, 35.285944494797945, 35.285944494797945, 35.285944494797945, 35.285944494797945, 35.285944494797945, 35.286609031631684, 35.46547686409174, 35.46547686409174, 35.62353681878306, 35.668117702981164, 35.668117702981164, 35.668117702981164, 35.668117702981164, 35.668117702981164, 35.668117702981164, 35.668117702981164, 35.668117702981164, 35.668117702981164, 36.09477260927101, 36.12088987434894, 36.12088987434894, 36.43837055715297, 36.43837055715297, 36.43837055715297, 36.46938183571634, 36.46938183571634, 36.46938183571634, 36.929520204765055, 0.02757474092105606, 0.03310494808514384, 0.03414133983740975, 0.04530134568201274, 0.058350517171959645, 0.06714955797713087, 0.06720355765922446, 0.07202330311883688, 0.0736494480899095, 0.07491435077488168, 0.08276835319077344, 12.916838750144066, 13.438067388502104, 14.084168344655206, 14.200305058814356, 14.214978059721485, 14.214978059721485, 14.412550899512416, 14.41982095603069, 14.496219102231322, 14.742018571863467, 15.111734887426728, 15.231155062207163, 15.249448126616091, 15.278107715598939, 15.297484864861826, 15.470942528209108, 15.561438774622655, 15.634540977404763, 15.75308847291484, 15.817031984694713, 15.861820563225082, 15.867846335909178, 16.138116449288102, 16.18928064199171, 16.27705829979135, 16.30626694455191, 16.37776221315795, 16.39820250594398, 16.39820250594398, 16.42061026444118, 16.521181869164597, 16.521181869164597, 16.59889299406555, 16.601759446901237, 16.710987824167724, 16.757634934186655, 16.80137529294613, 16.826704829509932, 16.878517035866434, 16.89072478409039, 16.922470675310745, 17.033906010169204, 17.06189905709023, 17.20330007279382, 17.298140030565847, 17.37734047705361, 17.408083706580864, 17.47189106673605, 17.49104387904273, 17.492769563035306, 17.687578262434513, 17.725373974817217, 17.7662640856728, 17.780471015558305, 17.792604576859663, 17.792604576859663, 17.812672034411424, 17.86165582227575, 17.878944000117, 17.983376075158336, 18.00090871764149, 18.022200278800533, 18.029854012168684, 18.08608237795379, 18.155942364844684, 18.217602123743788, 18.23672967787299, 18.326851887947413, 18.326851887947413, 18.32719421974621, 18.357043721864894, 18.372325320881032, 18.54165067329867, 18.572884551717863, 18.572884551717863, 18.57658225252324, 18.60582453181507, 18.60582453181507, 18.60582453181507, 18.617451449021875, 18.619021266440104, 18.619021266440104, 18.619021266440104, 18.665584181457476, 18.696555921529555, 18.709904127527988, 18.806097142163793, 18.806097142163793, 18.89714897704844, 19.00693834316145, 19.00693834316145, 19.03253889306623, 19.09017778863825, 19.135236301750464, 19.18496021769032, 19.347853719076546, 19.371743925761905, 19.371743925761905, 19.457923770551016, 19.520431195865413, 19.641584820389653, 19.708326707718, 19.708326707718, 19.819810182083764, 19.819810182083764, 19.829446031174133, 19.862553812821663, 19.864190011427677, 19.865177820848036, 20.012064650322888, 20.09445109906146, 20.09445109906146, 20.12569273729174, 20.54329218814013, 20.557700982177757, 20.58497991318832, 20.58497991318832, 20.58497991318832, 20.58497991318832, 20.58497991318832, 20.58497991318832, 20.58497991318832, 20.58497991318832, 20.58497991318832, 20.59208628230891, 20.68124107521056, 20.68124107521056, 20.68124107521056, 20.793551954619346, 20.832506038401736, 20.854027456992714, 21.070454338302827, 21.070454338302827, 21.070454338302827, 21.070454338302827, 21.070454338302827, 21.070454338302827, 21.070454338302827, 21.070454338302827, 21.070454338302827, 21.070454338302827, 21.070454338302827, 21.207630022020105, 21.207630022020105, 21.248753923747635, 21.248753923747635, 21.248753923747635, 21.248753923747635, 21.248753923747635, 21.311887648963307, 21.311887648963307, 21.311887648963307, 21.353664090798986, 21.353664090798986, 21.353664090798986, 21.353664090798986, 21.353664090798986, 21.353664090798986, 21.353664090798986, 21.353664090798986, 21.353664090798986, 21.353664090798986, 21.353664090798986, 21.353664090798986, 21.353664090798986, 21.353664090798986, 21.353664090798986, 21.353664090798986, 21.353664090798986, 21.353664090798986, 21.472446116187978, 21.472446116187978, 21.472446116187978, 21.472446116187978, 21.472446116187978, 21.472446116187978, 21.479493387437103, 21.479493387437103, 21.851260957577136, 21.851260957577136, 21.851260957577136, 21.851260957577136, 21.851260957577136, 21.936137089385873, 22.069240506953985, 22.069240506953985, 22.069240506953985, 22.069240506953985, 22.069240506953985, 22.069240506953985, 22.069240506953985, 22.069240506953985, 22.069240506953985, 22.069240506953985, 22.069240506953985, 22.069240506953985, 22.069240506953985, 22.069240506953985, 22.069240506953985, 22.069240506953985, 22.069240506953985, 22.069240506953985, 22.069240506953985, 22.80593437568197, 22.808302651752914, 22.808302651752914, 22.8829367379148, 22.8829367379148, 22.8829367379148, 22.89494155023064, 22.89494155023064, 22.89494155023064, 22.89494155023064, 23.08717988106203, 23.154720250668472, 23.154720250668472, 23.154720250668472, 23.265676707826746, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.867412816452628, 24.02515301280635, 24.321683761819358, 24.948697365795436, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.60649809765015, 25.60649809765015, 25.60649809765015, 25.60649809765015, 25.60649809765015, 25.60649809765015, 25.60649809765015, 25.60649809765015, 25.676611529808213, 25.676611529808213, 25.676611529808213, 25.676611529808213, 25.676611529808213, 26.095292868363927, 26.095292868363927, 26.095292868363927, 26.095292868363927, 26.095292868363927, 26.095292868363927, 26.095292868363927, 26.095292868363927, 26.095292868363927, 26.095292868363927, 26.150186834813237, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.687265608337764, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.156871602748815, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.524800821593416, 28.53560815563195, 28.53560815563195, 28.53560815563195, 28.53560815563195, 28.53560815563195, 28.53560815563195, 28.53560815563195, 28.53560815563195, 28.53560815563195, 28.53560815563195, 28.53560815563195, 28.53560815563195, 28.542184502899982, 28.92640173756293, 29.01317387881941, 29.01317387881941, 29.01317387881941, 29.01317387881941, 29.013173878819</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.072693149642284, 23.50412328350776, 23.50412328350776, 23.50412328350776, 24.26570926046998, 24.26570926046998, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 26.86377903983596, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 30.14490820717462, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.25963096078036, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 31.966848972273986, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.60708353954357, 32.97978808656398, 32.97978808656398, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.24876366401735, 34.289673386156245, 34.289673386156245, 34.289673386156245, 34.289673386156245, 35.285944494797945, 35.285944494797945, 35.285944494797945, 35.285944494797945, 35.285944494797945, 35.285944494797945, 35.285944494797945, 35.285944494797945, 35.285944494797945, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 36.95613980628464, 37.197344212210375, 37.197344212210375, 37.197344212210375, 37.197344212210375, 37.197344212210375, 37.197344212210375, 37.197344212210375, 37.197344212210375, 37.197344212210375, 37.197344212210375, 37.197344212210375, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 38.12073206698765, 21.207630022020105, 21.207630022020105, 21.207630022020105, 21.207630022020105, 21.207630022020105, 21.207630022020105, 21.207630022020105, 21.207630022020105, 21.207630022020105, 21.207630022020105, 21.207630022020105, 21.207630022020105, 21.207630022020105, 21.207630022020105, 21.207630022020105, 21.207630022020105, 21.207630022020105, 21.207630022020105, 21.207630022020105, 21.207630022020105, 21.207630022020105, 21.207630022020105, 21.207630022020105, 21.207630022020105, 21.207630022020105, 21.207630022020105, 21.207630022020105, 21.207630022020105, 21.207630022020105, 21.207630022020105, 21.207630022020105, 21.207630022020105, 21.207630022020105, 21.248753923747635, 21.248753923747635, 21.248753923747635, 21.248753923747635, 21.248753923747635, 21.248753923747635, 21.248753923747635, 21.248753923747635, 21.248753923747635, 21.248753923747635, 21.248753923747635, 21.248753923747635, 21.248753923747635, 21.248753923747635, 21.248753923747635, 21.248753923747635, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 23.854598406670494, 24.948697365795436, 24.948697365795436, 24.948697365795436, 24.948697365795436, 24.948697365795436, 24.948697365795436, 24.948697365795436, 24.948697365795436, 24.948697365795436, 24.948697365795436, 24.948697365795436, 24.948697365795436, 24.948697365795436, 24.948697365795436, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.475076527163584, 25.60649809765015, 25.60649809765015, 25.60649809765015, 25.60649809765015, 25.60649809765015, 25.60649809765015, 25.60649809765015, 25.60649809765015, 25.60649809765015, 25.60649809765015, 25.60649809765015, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 26.425906183195092, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 27.10150757671608, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.088032936342035, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.522210954349465, 28.53560815563195, 28.53560815563195, 28.53560815563195, 28.53560815563195, 28.53560815563195, 28.53560815563195, 28.53560815563195, 28.53560815563195, 28.53560815563195, 28.53560815563195, 28.53560815563195, 28.53560815563195, 28.53560815563195, 29.15478485200937, 29.15478485200937, 29.15478485200937, 29.15478485200937, 29.15478485200937, 29.15478485200937, 29.15478485200937, 29.15478485200937, 29.15478485200937, 29.15478485200937, 29.15478485200937, 29.15478485200937, 29.15478485200937, 29.15478485200937, 29.15478485200937, 29.15478485200937, 29.15478485200937, 29.15478485200937, 29.29269486268136, 29.29269486268136, 29.29269486268136, 29.29269486268136, 29.29269486268136, 29.29269486268136, 29.29269486268136, 29.29269486268136, 29.29269486268136, 29.29269486268136, 29.29269486268136, 29.29269486268136, 29.29269486268136, 29.29269486268136, 29.29269486268136, 29.29269486268136, 29.29269486268136, 29.29269486268136, 29.29269486268136, 29.29269486268136, 29.29269486268136, 29.29269486268136, 29.29269486268136, 29.29269486268136, 29.29269486268136, 29.29269486268136, 29.29269486268136, 29.29269486268136, 29.29269486268136, 29.29269486268136, 29.29269486268136, 29.685025060840474, 29.685025060840474, 29.685025060840474, 29.685025060840474, 29.685025060840474, 29.685025060840474, 29.685025060840474, 29.685025060840474, 29.685025060840474, 29.685025060840474, 29.685025060840474, 29.685025060840474, 29.685025060840474, 29.685025060840474, 29.685025060840474, 29.685025060840474, 29.685025060840474, 29.685025060840474, 29.685025060840474, 29.685025060840474, 29.685025060840474, 29.685025060840474, 29.685025060840474, 29.685025060840474, 29.685025060840474, 29.685025060840474, 29.685025060840474, 29.685025060840474, 30.351875054038274, 30.351875054038274, 30.351875054038274, 30.351875054038274, 30.351875054038274, 30.351875054038274, 30.351875054038274, 30.351875054038274, 30.351875054038274, 30.351875054038274, 30.351875054038274, 30.351875054038274, 30.351875054038274, 30.351875054038274, 30.351875054038274, 30.351875054038274, 30.351875054038274, 30.351875054038274, 30.351875054038274, 30.351875054038274, 30.351875054038274, 30.351875054038274, 30.3518750540382</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>[13.063131057047237, 13.713140634704576, 14.029816982802675, 14.393963851796888, 14.74216148756047, 15.382341737743257, 15.670503051176272, 16.04765920555404, 16.401502646222117, 16.76051582515403, 17.09132929201705, 17.38986991136453, 17.472629529073064, 17.531796433436043, 17.60095946212009, 17.61352574835425, 17.674195905876694, 17.730606664047308, 17.813992314155946, 17.926680313596982, 17.927314282317344, 17.93774630765799, 18.038459681269746, 18.079043204100664, 18.08737412577258, 18.148385841445975, 18.190275632714975, 18.216504704876115, 18.278617394447576, 18.306489832389797, 18.33113639929544, 18.358066014654913, 18.378148321645632, 18.435662318988282, 18.479067130643656, 18.481322331234548, 18.523388931137724, 18.55560792955565, 18.55560792955565, 18.557115680754674, 18.653166102771774, 18.696218851053942, 18.892168194061956, 18.951534549780874, 18.982607176323302, 19.01757121162743, 19.021357091096515, 19.04494600446934, 19.120251384236024, 19.24283452160965, 19.26665860724795, 19.333052262026204, 19.336091950062695, 19.339955440695164, 19.401484048497416, 19.420328122251977, 19.421354171177477, 19.469755169489986, 19.49867789620889, 19.522645406091918, 19.53285982170736, 19.551882656771102, 19.580617284474776, 19.636222458367705, 19.727802874737897, 19.83313342187478, 19.85376982385035, 19.86582685652571, 19.98194866219731, 20.127313773762694, 20.289779035955238, 20.321135382794477, 20.422701946114874, 20.438598445945928, 20.495472522579707, 20.522568463856665, 20.554789029577368, 20.55483628639955, 20.55483628639955, 20.55483628639955, 20.59299622425684, 20.674618544284236, 20.71210705202218, 20.817015291239397, 20.8945361582158, 20.894954172347074, 20.94608891169688, 20.997143511084445, 21.04296167326727, 21.117689037530013, 21.148995402435627, 21.171704711452293, 21.28455670510987, 21.360413901418486, 21.385953181250244, 21.394747117567082, 21.442206069086545, 21.451580659396235, 21.456039140533317, 21.562033099274895, 21.5873692843967, 21.674264672521563, 21.697876947262653, 21.729059850870364, 21.750519670007, 21.840564845919673, 21.8669148984032, 21.961902998441843, 22.055905075007253, 22.187013990360562, 22.197466400130295, 22.234429751339654, 22.308697313696676, 22.308697313696676, 22.35514638035961, 22.410451708992568, 22.49077763456919, 22.613276078328713, 22.682459257874953, 22.743265570148623, 22.788499103814708, 22.797529606319518, 22.866337951691108, 22.920074126174033, 22.920074126174033, 22.98027283353005, 23.025085764105324, 23.168512526434235, 23.178815252607542, 23.25641618088481, 23.298331539793807, 23.360592760816953, 23.41272720609918, 23.510880473466656, 23.570248136592888, 23.62652318394049, 23.710809400110833, 23.874905712379242, 23.93177267537733, 23.984752476094073, 24.025114689183045, 24.062384286493394, 24.07893080320701, 24.117945006317395, 24.16423883347966, 24.186431577972648, 24.19554182370714, 24.271845184568193, 24.310015026212263, 24.318643628889575, 24.363277297471928, 24.40439612846853, 24.419235528614195, 24.43446724815344, 24.449306648299107, 24.596961746918108, 24.611801147063776, 24.636821744007435, 24.654753759931726, 24.65928749346868, 24.667664360741245, 24.676041228013815, 24.709986992779385, 24.71836386005195, 24.738704772573573, 24.75017425562477, 24.758551122897337, 24.84660750403098, 24.848364405418153, 24.851457021196776, 24.863421066445834, 24.90892428050221, 24.90892428050221, 24.930437416073442, 25.09109792409895, 25.116666821591952, 25.116666821591952, 25.153095896744585, 25.153095896744585, 25.16327709354258, 25.28125339187025, 25.333607106851147, 25.333758543640275, 25.338793729649577, 25.341886345428208, 25.3520675422262, 25.3520675422262, 25.3520675422262, 25.49233829562598, 25.49273061501956, 25.495823230798187, 25.52139212829119, 25.52139212829119, 25.531573325089184, 25.531573325089184, 25.557142222582186, 25.567171982591052, 25.567171982591052, 25.684996844129596, 25.684996844129596, 25.711541637223203, 25.71702771045688, 25.83461168939097, 25.83731198577602, 25.84892120881849, 26.08433139779368, 26.093202827264108, 26.116806441368222, 26.123895022387593, 26.123895022387593, 26.123895022387593, 26.123895022387593, 26.247650134407063, 26.36623407060253, 26.40585889203166, 26.426676729287152, 26.538276711539005, 26.538276711539005, 26.64607181306868, 26.64607181306868, 26.64785466151974, 26.66324236221475, 26.679757395299497, 26.684278037322596, 26.699665738017607, 26.710997676790843, 26.753170194973748, 26.860965296503426, 26.87635299719844, 26.91852551538134, 27.024537768459954, 27.130550021538564, 27.23656227461718, 27.270101443424505, 27.376113696503115, 27.482125949581732, 27.494120340643377, 27.53177221680318, 27.562573592038465, 27.660160135740416, 27.692124096095593, 27.72296467550526, 27.72814776981677, 27.84284962572355, 27.843976958113284, 27.936384358947954, 28.028791759782617, 28.05205876304951, 28.144466163884175, 28.236873564718845, 28.351575420625625, 28.442855489070563, 28.4616624732442, 28.487319958342358, 28.506126942515998, 28.506126942515998, 28.536614713673416, 28.65018923719046, 28.74146930563539, 28.832749374080322, 28.914296597255362, 28.993620182451167, 29.06609326672246, 29.07294376764698, 29.079794268571494, 29.152267352842788, 29.244829537872416, 29.252861000957946, 29.260892464043476, 29.326515047390252, 29.392137630737025, 29.4577602140838, 29.52338279743057, 29.611299835849458, 29.67692241919623, 29.742545002543, 29.750576465628534, 29.81619904897531, 29.9041160873942, 29.969738670740977, 29.977770133826507, 30.065687172245397, 30.14877392460502, 30.22865949993838, 30.28625062019962, 30.34384174046086, 30.401432860722107, 30.407075684599214, 30.429370139671327, 30.429370139671327, 30.45166459474344, 30.457307418620548, 30.479601873692662, 30.50189632876478, 30.524190783836893, 30.524190783836893, 30.546485238909007, 30.568779693981124, 30.591074149053238, 30.591074149053238, 30.591074149053238, 30.613368604125352, 30.619011428002455, 30.64130588307457, 30.663600338146683, 30.6858947932188, 30.708189248290914, 30.730483703363028, 30.752778158435145, 30.752778158435145, 30.77507261350726, 30.797367068579373, 30.81966152365149, 30.841955978723604, 30.864250433795725, 30.88654488886784, 30.908839343939952, 30.93113379901207, 30.93677662288917, 30.959071077961283, 31.003659988105515, 31.02595444317763, 31.048248898249746, 31.07054335332186, 31.07618617719896, 31.081829001076063, 31.087471824953163, 31.10976628002528, 31.126417911220287, 31.143069542415297, 31.15972117361031, 31.176372804805318, 31.19302443600033, 31.209676067195343, 31.226327698390357, 31.242979329585367, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.25963096078038, 31.273775321010252, 31.273775321010252, 31.28482137583961, 31.28482137583961, 31.28482137583961, 31.28482137583961, 31.28482137583961, 31.28482137583961, 31.28482137583961, 31.28482137583961, 31.28482137583961, 31.28482137583961, 31.28482137583961, 31.28482137583961, 31.28482137583961, 31.28482137583961, 31.28482137583961, 31.28482137583961, 31.28482137583961, 31.28482137583961, 31.28482137583961, 31.28482137583961, 31.28482137583961, 31.28482137583961, 31.28482137583961, 31.28482137583961, 31.28482137583961, 31.295867430668963, 31.295867430668963, 31.295867430668963, 31.295867430668963, 31.295867430668963, 31.306913485498317, 31.306913485498317, 31.306913485498317, 31.306913485498317, 31.306913485498317, 31.306913485498317, 31.333862537073582, 31.333862537073582, 31.333862537073582, 31.344908591902936, 31.344908591902936, 31.344908591902936, 31.344908591902936, 31.344908591902936, 31.355954646732293, 31.367000701561647, 31.367000701561647, 31.38114506179152, 31.38114506179152, 31.392191116620875, 31.40323717145023, 31.40323717145023, 31.40323717145023, 31.40323717145023, 31.40323717145023, 31.40323717145023, 31.40323717145023, 31.41428322627958, 31.42532928110894, 31.42532928110894, 31.42532928110894, 31.42532928110894, 31.43637533593829, 31.447421390767644, 31.447421390767644, 31.447421390767644, 31.458467445596998, 31.469513500426356, 31.469513500426356, 31.469513500426356, 31.469513500426356, 31.491605610085067, 31.49658796548688, 31.49658796548688, 31.507634020316235, 31.52177838054611, 31.52177838054611, 31.532824435375463, 31.570819541780082, 31.570819541780082, 31.58186559660944, 31.592911651438794, 31.60395770626815, 31.615003761097505, 31.626049815926862, 31.652998867502124, 31.652998867502124, 31.66404492233148, 31.675090977160835, 31.675090977160835, 31.68613703199019, 31.68613703199019, 31.691119387392003, 31.702165442221357, 31.71321149705071, 31.727355857280582, 31.738401912109936, 31.749447966939286, 31.76049402176864, 31.771540076597994, 31.81698927394302, 31.85808268574815, 31.917865339812888, 31.928911394642242, 31.939957449471596, 31.951003504300946, 31.95706720372849, 31.963130903156024, 32.00944035379516, 32.00944035379516, 32.00944035379516, 32.02534335054108, 32.02534335054108, 32.02534335054108, 32.02534335054108, 32.0284416559416, 32.03153996134211, 32.03153996134211, 32.03153996134211, 32.03463826674263, 32.037736572143146, 32.037736572143146, 32.040834877543666, 32.040834877543666, 32.04393318294419, 32.0470314883447, 32.0470314883447, 32.0470314883447, 32.07535720164901, 32.081553812450046, 32.081553812450046, 32.08465211785057, 32.09919280904261, 32.10229111444313, 32.10229111444313, 32.1192551410661, 32.12235344646661, 32.20555690825583, 32.25186635889497, 32.25496466429549, 32.258062969696006, 32.30679956893139, 32.30989787433191, 32.35863447356729, 32.39634103554033, 32.41224403228624, 32.49488514329985, 32.49798344870037, 32.51494747532333, 32.518045780723845, 32.522693872263304, 32.53588181893156, 32.54906976559981, 32.566521281607294, 32.698581865919415, 32.740980460335074, 32.75484618155752, 32.79067873578079, 32.83256630521482, 32.94279081264563, 32.985189407061284, 33.030827700896154, 33.030827700896154, 33.04363239224155, 33.102893571864584, 33.14889795706747, 33.16276367828991, 33.19737193486244, 33.30382774741682, 33.34946604125169, 33.36227073259708, 33.42534181747973, 33.45707163919262, 33.45978668927028, 33.5284568458083, 33.56255599376268, 33.56361702363974, 33.74390065608004, 33.76164974917341, 33.76164974917341, 33.762710779050465, 33.82393146231921, 33.904777892182814, 33.932047102941326, 34.04163207605637, 34.06784025693783, 34.12618710179971, 34.12708206349933, 34.16355469533442, 34.183369815152524, 34.22910908185569, 34.298118023801415, 34.314739746778265, 34.35032963511408, 34.35579528064546, 34.39521239868708, 34.42698605256504, 34.43679179217665, 34.43992903531137, 34.44225372762312, 34.47163824215937, 34.47952732620209, 34.505835334548664, 34.511399726279635, 34.51372441859139, 34.5169641180106, 34.540947434045414, 34.544187133464625, 34.571423439655334, 34.59864645510936, 34.645062268067655, 34.64593555583566, 34.6483627044319, 34.650789853028144, 34.653217001624384, 34.65564415022063, 34.658437390184886, 34.68160815539674, 34.684035303992985, 34.68682854395724, 34.68925569255348, 34.68925569255348, 34.68925569255348, 34.72981071181662, 34.75055432843224, 34.75055432843224, 34.770352440343096, 34.79109605695871, 34.81183967357432, 34.82283054756679, 34.84262865947765, 34.941854062940095, 34.96259767955571, 34.98334129617132, 34.98370738753933, 35.00445100415494, 35.02519462077055, 35.04593823738616, 35.04593823738616, 35.06573634929702, 35.08647996591264, 35.1062780778235, 35.126076189734356, 35.1802237125797, 35.278163373287754, 35.29852312844186, 35.318900653689454, 35.391608899874264, 35.41198642512186, 35.45141210945079, 35.46988682108351, 35.52101810871406, 35.54411424134622, 35.553208416050005, 35.55522076983336, 35.55616627453811, 35.55711177924287, 35.55805728394762, 35.63734978675838, 35.63829529146313, 35.67729100873441, 35.677674870195915, 35.75451472035392, 35.7581053677398, 35.765748831903466, 35.77339229606712, 35.781035760230786, 35.78867922439446, 35.822083130624186, 35.878778882067984, 35.878778882067984, 35.931402187059604, 35.934992834445474, 35.93858348183136, 35.97198738806109, 35.97198738806109, 35.97198738806109, 35.99503590930819, 36.03922744947294, 36.08341898963768, 36.116822895867415, 36.15022680209715, 36.15697864857685, 36.2011701887416, 36.208813652905256, 36.242217559134986, 36.27562146536472, 36.30902537159445, 36.342423186776486, 36.38661472694123, 36.45614164153484, 36.46377181496183, 36.56882331354693, 36.635258064743326, 36.66212202619331, 36.69270655637789, 36.735010391364014, 36.76077083343009, 36.78653127549615, 36.81711580568074, 36.84287624774681, 36.89439713187895, 36.92015757394502, 37.01191116449877, 37.02860611640865, 37.09013204701865, 37.111661133775875, 37.111661133775875, 37.126840606877025, 37.154134009229075, 37.168693256758964, 37.17842841617033, 37.19298766370021, 12.344968462989755, 12.667179297157094, 12.66801548521089, 13.368170510965854, 13.684875558207574, 13.995059373591124, 14.225520282795424, 14.590713249401187, 14.916405832013343, 15.281109746537942, 15.603397072362277, 16.35217005298543, 16.449568586367334, 16.516866292092473, 16.525107307244, 16.558458132785894, 16.638510614066337, 16.725044066337883, 16.794026164793152, 16.846453803763094, 16.95292562536014, 17.014338694611098, 17.067956088399757, 17.101371424657103, 17.17818601789755, 17.18531468313366, 17.258938279486845, 17.321635919558965, 17.39665581380586, 17.443188019838736, 17.45854988776373, 17.50875313246476, 17.51907196546342, 17.664404324778282, 17.679212336509853, 17.735565490533247, 17.78240474986622, 17.84815086287608, 17.917879418841473, 17.9620318593589, 17.978133810695894, 18.01625864316602, 18.041444426093893, 18.04524054519396, 18.051077180994454, 18.095163934899702, 18.141082945279578, 18.161539666907014, 18.237211759311855, 18.377769630855067, 18.407645796555357, 18.458249104488594, 18.50723456949762, 18.605279191081948, 18.661344766357107, 18.738687851667287, 18.747232530552314, 18.82675900282722, 18.85005501972996, 18.86106120397125, 18.898197400771927, 18.911460856808116, 18.969408889823193, 19.02852623183106, 19.05333971698083, 19.092173937632367, 19.13048838024953, 19.1488343712629, 19.233965740713753, 19.278621646249466, 19.280710287750296, 19.337692887015166, 19.368083336579645, 19.43261440947858, 19.51340213937429, 19.545847025969575, 19.593594022435482, 19.60162240528941, 19.71830351739728, 19.725078163267483, 19.74597600402377, 19.750963764679312, 19.81089617205799, 19.864858752406427, 19.89426703194691, 19.98070817191717, 20.038699403206568, 20.063563961797783, 20.116422549636432, 20.116422549636432, 20.181331278151674, 20.23395732764619, 20.29860212146893, 20.29860212146893, 20.322171721117204, 20.360559635751823, 20.38321743794471, 20.430428442160206, 20.434957277178256, 20.470534932598746, 20.546127344437185, 20.582234680890306, 20.597118505382692, 20.643541009337344, 20.68881073538056, 20.70799503132678, 20.753744749296732, 20.78819676168126, 20.81326435406772, 20.828343330298317, 20.85088445315106, 20.872175427497524, 20.905581484068993, 20.93282403668069, 20.97158482545377, 20.9888134433163, 21.004116837938394, 21.084619885448323, 21.108777895957942, 21.169392926734005, 21.183788968580807, 21.194701695217905, 21.219885955052654, 21.25938174321051, 21.287479105951657, 21.303686544004837, 21.30615734586549, 21.315866834367785, 21.345552046243096, 21.360925729795312, 21.37629941334752, 21.391673096899737, 21.45706546676938, 21.472439150321584, 21.48214863882388, 21.495424119035057, 21.54605930263165, 21.559507762943426, 21.56729202820527, 21.63075917483447, 21.63629722250814, 21.64672038355608, 21.656713116232208, 21.712395997599558, 21.71722466381277, 21.71996817748711, 21.728008013044814, 21.7436241454303, 21.74928834048022, 21.804971221847577, 21.824946945220596, 21.84492266859362, 21.94094006081615, 21.946604255866074, 21.999543623559088, 22.004980890867422, 22.05709778052588, 22.059195983866907, 22.061294187207935, 22.062556861712252, 22.165527966524856, 22.216382181678995, 22.21959335102349, 22.24952165107928, 22.33012579033903, 22.33012579033903, 22.33012579033903, 22.380144476656454, 22.394456004979556, 22.394456004979556, 22.408767533302658, 22.420416993274394, 22.434728521597496, 22.487280302261148, 22.489796888193908, 22.50410841651701, 22.514060353852575, 22.530747522683455, 22.545059051006557, 22.595077737323987, 22.645096423641416, 22.69511510995885, 22.7427581557685, 22.79040120157815, 22.79040120157815, 22.817118332289446, 22.829054220104766, 22.84099010792009, 22.852785050310427, 22.864579992700765, 22.864579992700765, 22.868939583688302, 22.90900633267017, 22.949073081652035, 22.989139830633903, 23.051880720205244, 23.087587878199574, 23.087587878199574, 23.104101899065107, 23.139809057059438, 23.175516215053772, 23.2112233730481, 23.24693053104243, 23.26166440841699, 23.29737156641132, 23.33307872440565, 23.385059807019193, 23.406769401893484, 23.442476559887815, 23.442476559887815, 23.478183717882143, 23.513890875876474, 23.513890875876474, 23.5495980338708, 23.621012349859463, 23.627988067359187, 23.64891398245754, 23.66983989755589, 23.677494696954128, 23.677494696954128, 23.69692793032924, 23.71612106745804, 23.73531420458684, 23.754507341715634, 23.77370047884443, 23.7890488493566, 23.803046412476643, 23.81704397559668, 23.864701951876096, 23.876480385852968, 23.876480385852968, 23.876480385852968, 23.876480385852968, 23.876480385852968, 23.876480385852968, 23.876480385852968, 23.876480385852968, 23.876480385852968, 23.876480385852968, 23.876480385852968, 23.876480385852968, 23.876480385852968, 23.908889948262832, 23.908889948262832, 23.908889948262832, 23.908889948262832, 23.908889948262832, 23.908889948262832, 23.908889948262832, 23.908889948262832, 23.908889948262832, 23.908889948262832, 23.908889948262832, 23.908889948262832, 23.908889948262832, 23.908889948262832, 23.941299510672692, 23.941299510672692, 23.941299510672692, 23.941299510672692, 23.973709073082556, 23.973965361278196, 23.973965361278196, 23.973965361278196, 23.973965361278196, 23.973965361278196, 23.973965361278196, 23.973965361278196, 24.006374923688057, 24.006374923688057, 24.006374923688057, 24.006374923688057, 24.006374923688057, 24.006374923688057, 24.006374923688057, 24.006374923688057, 24.006374923688057, 24.006374923688057, 24.006374923688057, 24.006374923688057, 24.006374923688057, 24.006374923688057, 24.006374923688057, 24.006374923688057, 24.006374923688057, 24.006374923688057, 24.03878448609792, 24.03878448609792, 24.03878448609792, 24.03878448609792, 24.03878448609792, 24.03878448609792, 24.03878448609792, 24.03878448609792, 24.07119404850778, 24.103603610917645, 24.103603610917645, 24.103603610917645, 24.103603610917645, 24.136013173327505, 24.136013173327505, 24.168422735737366, 24.177764442840342, 24.210174005250206, 24.242583567660066, 24.242583567660066, 24.242583567660066, 24.27499313006993, 24.27840422219265, 24.27840422219265, 24.31081378460251, 24.343223347012373, 24.375632909422233, 24.375632909422233, 24.408042471832097, 24.440452034241957, 24.440452034241957, 24.472861596651818, 24.50527115906168, 24.537680721471542, 24.570090283881406, 24.602499846291266, 24.634909408701127, 24.66731897111099, 24.69972853352085, 24.732138095930715, 24.764547658340575, 24.764547658340575, 24.764547658340575, 24.796957220750436, 24.8293667831603, 24.86177634557016, 24.894185907980024, 24.894185907980024, 24.926595470389884, 24.959005032799745, 24.959005032799745, 24.99141459520961, 25.02382415761947, 25.056233720029333, 25.088643282439193, 25.121052844849054, 25.153462407258917, 25.185871969668778, 25.21828153207864, 25.250691094488502, 25.283100656898363, 25.315510219308226, 25.347919781718087, 25.38032934412795, 25.412482618342167, 25.441481088629313, 25.464548943936197, 25.47507652716356, 25.47507652716356, 25.47507652716356, 25.47507652716356, 25.47507652716356, 25.47507652716356, 25.47507652716356, 25.47507652716356, 25.47507652716356, 25.47507652716356, 25.47507652716356, 25.47507652716356, 25.47507652716356, 25.47507652716356, 25.47770495857329, 25.47770495857329, 25.47770495857329, 25.47770495857329, 25.47770495857329, 25.47770495857329, 25.47770495857329, 25.47770495857329, 25.47770495857329, 25.47770495857329, 25.47770495857329, 25.515738144814556, 25.515738144814556, 25.515738144814556, 25.515738144814556, 25.515738144814556, 25.515738144814556, 25.515738144814556, 25.515738144814556, 25.515738144814556, 25.515738144814556, 25.515738144814556, 25.515738144814556, 25.515738144814556, 25.515738144814556, 25.53475473793518, 25.53475473793518, 25.53475473793518, 25.53475473793518, 25.53475473793518, 25.53475473793518, 25.53475473793518, 25.53475473793518, 25.55377133105581, 25.55377133105581, 25.572787924176442, 25.572787924176442, 25.572787924176442, 25.572787924176442, 25.572787924176442, 25.572787924176442, 25.572787924176442, 25.572787924176442, 25.572787924176442, 25.572787924176442, 25.591804517297067, 25.591804517297067, 25.591804517297067, 25.591804517297067, 25.591804517297067, 25.591804517297067, 25.591804517297067, 25.591804517297067, 25.594432948706803, 25.597061380116532, 25.597061380116532, 25.597061380116532, 25.616077973237164, 25.635094566357793, 25.635094566357793, 25.635094566357793, 25.654111159478425, 25.654111159478425, 25.654111159478425, 25.654111159478425, 25.654111159478425, 25.673127752599054, 25.673127752599054, 25.673127752599054, 25.673127752599054, 25.68553207942306, 25.68553207942306, 25.704548672543687, 25.704548672543687, 25.716952999367695, 25.719581430777424, 25.719581430777424, 25.738598023898057, 25.738598023898057, 25.738598023898057, 25.738598023898057, 25.757614617018685, 25.770018943842693, 25.789035536963326, 25.808052130083958, 25.808052130083958, 25.808052130083958, 25.82448715696086, 25.843503750081492, 25.86252034320212, 25.865148774611857, 25.865148774611857, 25.865148774611857, 25.88416536773249, 25.90318196085312, 25.907212660906012, 25.926229254026644, 25.945245847147277, 25.95874805330027, 25.961376484710005, 25.965407184762896, 25.984423777883524, 26.003440371004157, 26.035968991995208, 26.05498558511584, 26.074002178236473, 26.093018771357105, 26.105423098181113, 26.11782742500512, 26.12045585641485, 26.15187677635949, 26.18440539735054, 26.26919314652516, 26.288209739645794, 26.304597901356694, 26.31437379677097, 26.31437379677097, 26.32414969218524, 26.33392558759952, 26.335327856242685, 26.336730124885847, 26.35311828659675, 26.36810417966449, 26.383090072732227, 26.39807596579996, 26.446304393930635, 26.461290286998373, 26.467902553294998, 26.48802684746204, 26.494639113758662, 26.514763407925706, 26.52137567422233, 26.527987940518955, 26.53460020681558, 26.541212473112203, 26.547824739408828, 26.567949033575875, 26.57346342054351, 26.58697544841393, 26.58697544841393, 26.58697544841393, 26.58697544841393, 26.62021798347687, 26.63373001134729, 26.64724203921771, 26.64724203921771, 26.64724203921771, 26.660754067088128, 26.660754067088128, 26.69399660215107, 26.69399660215107, 26.69399660215107, 26.727239137214006, 26.727239137214006, 26.727239137214006, 26.727239137214006, 26.727239137214006, 26.727239137214006, 26.727239137214006, 26.727239137214006, 26.727239137214006, 26.727239137214006, 26.727239137214006, 26.727239137214006, 26.727239137214006, 26.727239137214006, 26.740751165084426, 26.75426319295485, 26.75426319295485, 26.75426319295485, 26.787505728017788, 26.787505728017788, 26.787505728017788, 26.787505728017788, 26.787505728017788, 26.801017755888207, 26.801017755888207, 26.834260290951146, 26.847772318821566, 26.847772318821566, 26.847772318821566, 26.847772318821566, 26.847772318821566, 26.847772318821566, 26.847772318821566, 26.86128434669199, 26.874796374562408, 26.874796374562408, 26.888308402432827, 26.901820430303246, 26.943746525726333, 26.957258553596752, 26.97077058146717, 26.997794637208013, 27.011306665078433, 27.024818692948852, 27.06674478837194, 27.099987323434874, 27.113499351305293, 27.127011379175716, 27.160253914238655, 27.19349644930159, 27.20700847717201, 27.220520505042433, 27.234032532912853, 27.267275067975792, 27.300517603038728, 27.31402963090915, 27.347272165972086, 27.360784193842505, 27.374296221712925, 27.412765945278714, 27.426277973149137, 27.434562812516702, 27.434562812516702, 27.45429331970922, 27.47402382690174, 27.47402382690174, 27.502437894454406, 27.522168401646923, 27.541898908839443, 27.561629416031966, 27.581359923224483, 27.60977399077715, 27.63818805832982, 27.63818805832982, 27.666602125882488, 27.666602125882488, 27.686332633075004, 27.706063140267524, 27.763159219398506, 27.78288972659103, 27.802620233783546, 27.822350740976066, 27.842081248168583, 27.861811755361103, 27.881542262553623, 27.901272769746143, 27.92100327693866, 27.94073378413118, 27.969147851683847, 27.988878358876363, 28.00860886606888, 28.078356423153064, 28.09808693034558, 28.126500997898248, 28.146231505090764, 28.16596201228328, 28.185692519475797, 28.205423026668313, 28.22675806498166, 28.22675806498166, 28.23544162534181, 28.24439312972761, 28.24439312972761, 28.24439312972761, 28.253076690087756, 28.261760250447907, 28.27044381080805, 28.2791273711682, 28.2791273711682, 28.30322060969499, 28.311904170055136, 28.320587730415287, 28.341922768728633, 28.341922768728633, 28.341922768728633, 28.350606329088784, 28.35928988944893, 28.35928988944893, 28.367973449809078, 28.367973449809078, 28.385340570529376, 28.40270769124967, 28.411391251609817, 28.420074811969968, 28.428758372330112, 28.438818706018395, 28.45645377076434, 28.465137331124488, 28.47382089148464, 28.504107434183787, 28.512790994543938, 28.52147455490409, 28.53015811526424, 28.584930344654644, 28.593613905014795, 28.614948943328145, 28.622255730360155, 28.622255730360155, 28.634907208313358, 28.647558686266557, 28.670814968396375, 28.68346644634957, 28.69160205935872, 28.70425353731192, 28.714072795801318, 28.742133951921154, 28.75195321041055, 28.75195321041055, 28.762040412925604, 28.76230835695125, 28.7723955594663, 28.7822148179557, 28.794866295908896, 28.81333384369144, 28.825985321644634, 28.826253265670285, 28.836072524159686, 28.84872400211288, 28.864669568330818, 28.87448882682022, 28.887140304773414, 28.887408248799066, 28.905875796581608, 28.91852727453481, 28.93117875248801, 28.940998010977406, 28.953649488930605, 28.972117036713144, 29.00871031870692, 29.018477779851438, 29.03086131377899, 29.049060917535876, 29.06726052129277, 29.085460125049657, 29.100601859190647, 29.1101531736544, 29.128352777411287, 29.14655238116818, 29.16475198492507, 29.17713551885262, 29.195335122609507, 29.210476856750496, 29.225487063946126, 29.227222506771255, 29.25088486005485, 29.277658883559226, 29.277658883559226, 29.280491103023024, 29.301574842395535, 29.328348865899912, 29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>[26, 27, 32, 50, 48, 62, 70, 71, 68, 70, 79, 95, 164, 147, 279, 83, 165, 209, 303, 331, 211, 191, 243, 198, 323, 161, 350, 270, 308, 224, 106, 105, 214, 332, 191, 189, 267, 286, 286, 112, 204, 173, 113, 95, 349, 169, 175, 220, 275, 128, 231, 282, 282, 155, 157, 158, 116, 210, 272, 155, 155, 237, 213, 213, 339, 96, 237, 277, 207, 183, 183, 279, 128, 212, 143, 168, 168, 133, 133, 133, 280, 232, 232, 232, 232, 205, 236, 236, 210, 202, 215, 252, 275, 275, 172, 95, 95, 264, 111, 115, 225, 173, 130, 187, 276, 143, 187, 132, 192, 125, 180, 180, 158, 158, 138, 138, 138, 155, 155, 155, 165, 165, 100, 100, 100, 195, 195, 170, 170, 198, 107, 280, 189, 125, 125, 125, 161, 234, 140, 180, 180, 170, 256, 145, 145, 145, 145, 154, 154, 202, 103, 286, 286, 286, 286, 286, 286, 286, 129, 261, 261, 261, 261, 261, 261, 261, 261, 219, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 147, 147, 147, 147, 147, 128, 128, 128, 271, 271, 271, 271, 271, 271, 271, 271, 271, 174, 155, 155, 160, 112, 112, 112, 112, 112, 112, 112, 112, 112, 112, 112, 112, 112, 231, 231, 231, 231, 231, 231, 139, 139, 139, 232, 232, 134, 134, 189, 189, 189, 189, 189, 189, 189, 189, 216, 216, 216, 216, 216, 216, 216, 216, 216, 135, 176, 176, 176, 176, 176, 161, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 177, 190, 190, 190, 190, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 162, 162, 162, 162, 162, 162, 162, 162, 162, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 159, 159, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 163, 187, 187, 231, 192, 192, 192, 192, 192, 192, 192, 192, 216, 216, 216, 165, 165, 142, 142, 150, 160, 189, 174, 174, 174, 222, 189, 189, 189, 189, 189, 189, 189, 165, 165, 165, 165, 165, 165, 165, 214, 214, 214, 214, 214, 214, 214, 214, 214, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 161, 161, 161, 161, 204, 160, 259, 190, 190, 215, 215, 215, 215, 215, 195, 195, 195, 220, 220, 220, 220, 220, 220, 220, 220, 220, 220, 220, 220, 220, 220, 220, 220, 220, 220, 220, 220, 220, 220, 220, 220, 220, 220, 220, 220, 148, 191, 191, 203, 172, 172, 172, 172, 172, 172, 172, 172, 172, 245, 204, 204, 173, 173, 173, 175, 175, 175, 229, 30, 35, 36, 50, 60, 69, 74, 74, 80, 76, 87, 183, 157, 124, 173, 133, 133, 118, 257, 129, 127, 118, 122, 222, 263, 174, 166, 313, 92, 103, 128, 195, 154, 193, 348, 109, 149, 143, 140, 140, 149, 196, 196, 174, 243, 174, 175, 151, 246, 260, 142, 115, 247, 166, 288, 190, 264, 266, 204, 150, 240, 242, 205, 176, 285, 184, 184, 137, 100, 250, 142, 98, 133, 333, 198, 223, 152, 239, 161, 161, 235, 129, 341, 174, 192, 192, 120, 253, 253, 253, 94, 142, 142, 142, 281, 223, 107, 175, 175, 294, 253, 253, 219, 107, 321, 345, 194, 149, 149, 102, 121, 106, 283, 283, 121, 121, 149, 337, 175, 137, 274, 181, 181, 223, 316, 214, 223, 223, 223, 223, 223, 223, 223, 223, 223, 157, 195, 195, 195, 189, 246, 181, 214, 214, 214, 214, 214, 214, 214, 214, 214, 214, 214, 121, 121, 186, 186, 186, 186, 186, 218, 218, 218, 246, 246, 246, 246, 246, 246, 246, 246, 246, 246, 246, 246, 246, 246, 246, 246, 246, 246, 204, 204, 204, 204, 204, 204, 163, 163, 207, 207, 207, 207, 207, 161, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 204, 109, 109, 117, 117, 117, 123, 123, 123, 123, 177, 107, 107, 107, 165, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 165, 181, 208, 207, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 264, 264, 264, 264, 264, 264, 264, 264, 210, 210, 210, 210, 210, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 231, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 129, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 151, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 156, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 156, 125, 125, 125, 125, 125, 125, 125, 125, 125, 125, 125, 125, 240, 126, 146, 146, 146, 146, 146, 146, 146, 146, 146, 146, 146, 146, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 126, 126, 126, 126, 126, 126, 126, 130, 184, 202, 202, 202, 202, 202, 202, 202, 202, 202, 202, 202, 202, 202, 202, 202, 202, 202, 202, 202, 202, 202, 202, 205, 151, 151, 151, 172, 172, 154, 326, 245, 245, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 231, 231, 152, 152, 152, 152, 152, 152, 152, 152, 152, 296, 173, 134, 134, 155, 155, 155, 180, 180, 191, 274, 274, 201, 201, 201, 201, 201, 201, 201, 201, 201, 201, 201, 218, 218, 218, 218, 218, 218, 218, 218, 218, 155, 155, 174, 174, 174, 195, 195, 195, 195, 195, 195, 195, 160, 160, 160, 223, 223, 223, 223, 223, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 244, 244, 244, 244, 244, 244, 244, 244, 173, 198, 198, 198, 224, 224, 224, 224, 224, 224, 224, 224, 224, 224, 224, 224, 224, 224, 224, 224, 203, 203, 203, 203, 203, 191, 191, 148, 177, 177, 177, 161, 164, 164, 164, 164, 164, 164, 164, 229, 164, 164, 164, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 165, 165, 165, 169, 169, 157, 157, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>[154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 286, 286, 286, 128, 128, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 142, 142, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 190, 204, 204, 204, 204, 220, 220, 220, 220, 220, 220, 220, 220, 220, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 153, 153, 153, 153, 153, 153, 153, 153, 153, 153, 153, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 173, 121, 121, 121, 121, 121, 121, 121, 121, 121, 121, 121, 121, 121, 121, 121, 121, 121, 121, 121, 121, 121, 121, 121, 121, 121, 121, 121, 121, 121, 121, 121, 121, 121, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 207, 207, 207, 207, 207, 207, 207, 207, 207, 207, 207, 207, 207, 207, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 163, 264, 264, 264, 264, 264, 264, 264, 264, 264, 264, 264, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 130, 151, 151, 151, 151, 151, 151, 151, 151, 151, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 155, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 125, 125, 125, 125, 125, 125, 125, 125, 125, 125, 125, 125, 125, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 205, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 231, 152, 152, 152, 152, 152, 152, 152, 152, 152, 152, 152, 152, 274, 274, 274, 274, 274, 201, 201, 201, 201, 201, 201, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 148, 148, 148, 148, 148, 148, 148, 148, 148, 148, 148, 148, 148, 148, 148, 148, 148, 148, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 164, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 157, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170]</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>[152.88, 157.28, 160.96, 167.1, 169.02, 175.54, 177.58, 179.54, 183.62, 185.36, 188.24, 190.84, 193.34, 194.14, 195.94, 196.98, 199.94, 202.28, 202.4, 200.48, 198.08, 198.72, 196.9, 195.14, 194.02, 193.14, 194.18, 189.42, 190.48, 187.7, 185.38, 186.76, 190.38, 190.6, 188.6, 188.56, 189.5, 189.74, 189.74, 187.38, 187.94, 188.28, 190.8, 192.14, 194.96, 193.26, 192.98, 192.04, 190.14, 186.66, 188.74, 186.26, 186.06, 183.52, 184.62, 185.8, 186.96, 191.62, 192.86, 191.46, 192.9, 195.4, 192.96, 192.1, 191.24, 190.18, 190.16, 188.78, 185.8, 186.14, 186.58, 186.76, 186.4, 188.0, 186.98, 190.22, 190.46, 189.76, 189.76, 189.76, 191.0, 188.3, 187.06, 187.3, 182.9, 182.36, 181.48, 179.98, 177.76, 178.68, 177.4, 175.6, 175.18, 172.58, 170.68, 170.98, 171.56, 175.18, 173.36, 173.38, 173.84, 174.56, 174.2, 177.2, 176.56, 175.92, 175.2, 173.7, 173.14, 173.4, 174.8, 173.16, 174.44, 174.44, 174.18, 177.14, 176.62, 177.96, 179.74, 181.86, 181.66, 182.14, 183.72, 187.44, 187.44, 190.66, 189.84, 190.7, 190.36, 189.2, 190.72, 193.46, 193.08, 195.8, 198.72, 201.1, 203.9, 206.48, 206.22, 206.62, 208.44, 209.72, 212.04, 210.46, 211.98, 213.46, 216.28, 217.48, 217.18, 219.82, 221.86, 221.2, 220.36, 217.2, 216.36, 212.8, 211.96, 208.48, 208.18, 210.82, 210.48, 210.14, 208.7, 208.36, 207.76, 207.96, 207.62, 205.9, 206.4, 206.94, 206.68, 205.32, 205.32, 203.12, 200.7, 199.6, 199.6, 197.42, 197.42, 194.78, 192.9, 192.12, 190.18, 188.78, 189.32, 186.68, 186.68, 186.68, 184.5, 182.18, 182.72, 181.62, 181.62, 178.98, 178.98, 177.88, 177.18, 177.18, 177.24, 177.24, 178.62, 179.16, 179.6, 182.46, 179.82, 175.22, 174.42, 173.32, 170.14, 170.14, 170.14, 170.14, 166.92, 166.68, 167.1, 168.32, 168.12, 168.12, 168.88, 168.88, 171.26, 172.8, 174.88, 175.42, 176.96, 177.4, 179.26, 180.02, 181.56, 183.42, 181.8, 180.18, 178.56, 177.46, 175.84, 174.22, 175.76, 177.08, 177.82, 176.18, 175.64, 177.06, 178.7, 177.62, 178.16, 177.38, 176.6, 176.58, 175.8, 175.02, 173.94, 172.62, 171.82, 171.6, 170.8, 170.8, 170.02, 168.4, 167.08, 165.76, 166.06, 166.12, 165.6, 166.18, 166.76, 166.24, 165.72, 165.42, 165.12, 164.02, 162.92, 161.82, 160.72, 159.32, 158.22, 157.12, 156.82, 155.72, 154.32, 153.22, 152.92, 151.52, 150.68, 149.58, 148.78, 147.98, 147.18, 147.42, 147.12, 147.12, 146.82, 147.06, 146.76, 146.46, 146.16, 146.16, 145.86, 145.56, 145.26, 145.26, 145.26, 144.96, 145.2, 144.9, 144.6, 144.3, 144.0, 143.7, 143.4, 143.4, 143.1, 142.8, 142.5, 142.2, 141.9, 141.6, 141.3, 141.0, 141.24, 140.94, 140.34, 140.04, 139.74, 139.44, 139.68, 139.92, 140.16, 139.86, 139.32, 138.78, 138.24, 137.7, 137.16, 136.62, 136.08, 135.54, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.0, 135.98, 135.98, 136.48, 136.48, 136.48, 136.48, 136.48, 136.48, 136.48, 136.48, 136.48, 136.48, 136.48, 136.48, 136.48, 136.48, 136.48, 136.48, 136.48, 136.48, 136.48, 136.48, 136.48, 136.48, 136.48, 136.48, 136.48, 136.98, 136.98, 136.98, 136.98, 136.98, 137.48, 137.48, 137.48, 137.48, 137.48, 137.48, 138.62, 138.62, 138.62, 139.12, 139.12, 139.12, 139.12, 139.12, 139.62, 140.12, 140.12, 141.1, 141.1, 141.6, 142.1, 142.1, 142.1, 142.1, 142.1, 142.1, 142.1, 142.6, 143.1, 143.1, 143.1, 143.1, 143.6, 144.1, 144.1, 144.1, 144.6, 145.1, 145.1, 145.1, 145.1, 146.1, 146.58, 146.58, 147.08, 148.06, 148.06, 148.56, 150.2, 150.2, 150.7, 151.2, 151.7, 152.2, 152.7, 153.84, 153.84, 154.34, 154.84, 154.84, 155.34, 155.34, 155.82, 156.32, 156.82, 157.8, 158.3, 158.8, 159.3, 159.8, 160.44, 162.56, 163.66, 164.16, 164.66, 165.16, 165.18, 165.2, 166.28, 166.28, 166.28, 166.92, 166.92, 166.92, 166.92, 167.4, 167.88, 167.88, 167.88, 168.36, 168.84, 168.84, 169.32, 169.32, 169.8, 170.28, 170.28, 170.28, 170.88, 171.84, 171.84, 172.32, 172.86, 173.34, 173.34, 174.46, 174.94, 175.32, 176.4, 176.88, 177.36, 177.96, 178.44, 179.04, 179.32, 179.96, 180.72, 181.2, 182.32, 182.8, 184.64, 185.18, 185.72, 185.48, 186.8, 186.42, 187.06, 187.82, 187.98, 187.04, 186.66, 186.78, 186.78, 186.94, 187.5, 187.04, 187.68, 187.48, 188.3, 188.42, 188.58, 188.14, 188.66, 188.76, 189.36, 188.54, 189.02, 188.02, 187.96, 187.96, 188.44, 188.04, 188.54, 188.48, 187.52, 186.98, 185.34, 184.88, 184.94, 185.88, 186.94, 186.88, 187.48, 190.26, 190.56, 190.52, 191.44, 190.8, 191.3, 190.82, 191.36, 190.9, 191.52, 191.54, 191.06, 191.56, 192.66, 193.16, 193.32, 194.92, 196.42, 197.98, 197.5, 197.02, 196.54, 196.06, 195.0, 195.12, 194.64, 193.58, 193.1, 193.1, 193.1, 192.76, 193.36, 193.36, 193.86, 194.46, 195.06, 196.44, 196.94, 197.32, 197.92, 198.52, 197.94, 198.54, 199.14, 199.74, 199.74, 200.24, 200.84, 201.34, 201.84, 201.6, 201.02, 201.12, 202.3, 203.22, 204.4, 206.16, 205.88, 206.24, 204.1, 203.74, 203.94, 204.04, 204.14, 204.24, 201.86, 201.96, 201.62, 202.12, 199.94, 199.36, 198.4, 197.44, 196.48, 195.52, 194.68, 193.74, 193.74, 191.1, 190.52, 189.94, 189.1, 189.1, 189.1, 188.16, 187.8, 187.44, 186.6, 185.76, 185.42, 185.06, 184.1, 183.26, 182.42, 181.58, 180.94, 180.58, 178.82, 179.3, 178.5, 177.9, 177.36, 176.98, 177.08, 177.2, 177.32, 176.94, 177.06, 177.3, 177.42, 176.28, 175.96, 174.32, 173.3, 173.3, 172.9, 173.5, 173.06, 173.12, 172.68, 158.64, 161.9, 162.72, 169.04, 170.28, 171.76, 172.62, 174.36, 177.54, 179.44, 184.88, 189.2, 187.96, 183.9, 184.0, 183.62, 184.0, 184.82, 184.46, 182.16, 182.0, 182.2, 183.52, 185.74, 183.44, 180.02, 178.4, 180.14, 180.6, 181.3, 183.16, 185.3, 184.26, 186.18, 187.52, 185.62, 186.28, 187.76, 188.4, 190.66, 193.62, 193.86, 195.64, 195.2, 194.56, 193.2, 194.78, 196.98, 198.42, 196.24, 197.86, 199.1, 199.78, 198.06, 197.48, 196.0, 196.3, 195.94, 194.46, 193.04, 193.92, 193.58, 193.2, 193.0, 194.54, 191.1, 193.08, 191.54, 191.82, 193.44, 191.28, 193.36, 193.82, 194.88, 191.24, 192.94, 194.8, 194.6, 196.64, 199.04, 198.8, 196.5, 198.84, 196.3, 198.3, 196.92, 197.16, 197.18, 195.84, 195.84, 194.92, 196.76, 198.06, 198.06, 201.08, 199.92, 198.44, 200.58, 201.46, 202.42, 203.42, 202.52, 200.56, 201.1, 203.88, 201.08, 198.26, 198.66, 199.12, 200.6, 203.02, 205.06, 207.3, 205.92, 203.5, 204.98, 207.02, 206.78, 204.32, 203.28, 205.0, 203.8, 205.1, 204.5, 202.72, 201.32, 200.94, 200.76, 199.32, 199.78, 200.24, 200.7, 198.98, 199.44, 199.26, 198.52, 198.02, 199.04, 199.42, 198.26, 198.76, 198.76, 200.06, 198.52, 198.6, 196.74, 196.54, 196.4, 197.04, 195.5, 194.24, 192.98, 190.7, 191.34, 191.66, 192.5, 191.52, 192.72, 193.92, 194.56, 191.96, 190.34, 190.06, 187.88, 183.12, 183.12, 183.12, 180.94, 179.04, 179.04, 177.14, 175.44, 173.54, 170.02, 168.36, 166.46, 165.68, 162.94, 161.04, 158.86, 156.68, 154.5, 153.16, 151.82, 151.82, 149.92, 148.86, 147.8, 147.56, 147.32, 147.32, 146.2, 144.8, 143.4, 142.0, 140.44, 140.16, 140.16, 139.6, 139.32, 139.04, 138.76, 138.48, 139.54, 139.26, 138.98, 138.02, 137.14, 136.86, 136.86, 136.58, 136.3, 136.3, 136.02, 135.46, 133.52, 134.08, 134.64, 135.6, 135.6, 136.0, 136.28, 136.56, 136.84, 137.12, 136.32, 136.92, 137.52, 138.96, 138.4, 138.4, 138.4, 138.4, 138.4, 138.4, 138.4, 138.4, 138.4, 138.4, 138.4, 138.4, 138.4, 138.92, 138.92, 138.92, 138.92, 138.92, 138.92, 138.92, 138.92, 138.92, 138.92, 138.92, 138.92, 138.92, 138.92, 139.44, 139.44, 139.44, 139.44, 139.96, 140.52, 140.52, 140.52, 140.52, 140.52, 140.52, 140.52, 141.04, 141.04, 141.04, 141.04, 141.04, 141.04, 141.04, 141.04, 141.04, 141.04, 141.04, 141.04, 141.04, 141.04, 141.04, 141.04, 141.04, 141.04, 141.56, 141.56, 141.56, 141.56, 141.56, 141.56, 141.56, 141.56, 142.08, 142.6, 142.6, 142.6, 142.6, 143.12, 143.12, 143.64, 145.06, 145.58, 146.1, 146.1, 146.1, 146.62, 147.5, 147.5, 148.02, 148.54, 149.06, 149.06, 149.58, 150.1, 150.1, 150.62, 151.14, 151.66, 152.18, 152.7, 153.22, 153.74, 154.26, 154.78, 155.3, 155.3, 155.3, 155.82, 156.34, 156.86, 157.38, 157.38, 157.9, 158.42, 158.42, 158.94, 159.46, 159.98, 160.5, 161.02, 161.54, 162.06, 162.58, 163.1, 163.62, 164.14, 164.66, 165.18, 165.14, 164.78, 163.88, 163.0, 163.0, 163.0, 163.0, 163.0, 163.0, 163.0, 163.0, 163.0, 163.0, 163.0, 163.0, 163.0, 163.0, 165.02, 165.02, 165.02, 165.02, 165.02, 165.02, 165.02, 165.02, 165.02, 165.02, 165.02, 163.7, 163.7, 163.7, 163.7, 163.7, 163.7, 163.7, 163.7, 163.7, 163.7, 163.7, 163.7, 163.7, 163.7, 163.04, 163.04, 163.04, 163.04, 163.04, 163.04, 163.04, 163.04, 162.38, 162.38, 161.72, 161.72, 161.72, 161.72, 161.72, 161.72, 161.72, 161.72, 161.72, 161.72, 161.06, 161.06, 161.06, 161.06, 161.06, 161.06, 161.06, 161.06, 163.08, 165.1, 165.1, 165.1, 164.44, 163.78, 163.78, 163.78, 163.12, 163.12, 163.12, 163.12, 163.12, 162.46, 162.46, 162.46, 162.46, 162.88, 162.88, 162.22, 162.22, 162.64, 164.66, 164.66, 164.0, 164.0, 164.0, 164.0, 163.34, 163.76, 163.1, 162.44, 162.44, 162.44, 163.8, 163.14, 162.48, 164.5, 164.5, 164.5, 163.84, 163.18, 164.12, 163.46, 162.8, 164.16, 166.18, 167.12, 166.46, 165.8, 165.56, 164.9, 164.24, 163.58, 164.0, 164.42, 166.44, 166.2, 165.96, 165.56, 164.9, 162.22, 160.62, 160.62, 159.02, 157.42, 156.34, 155.26, 152.58, 150.98, 149.38, 147.78, 146.68, 145.08, 144.0, 143.34, 142.26, 141.6, 140.52, 139.44, 138.36, 137.28, 136.2, 135.54, 133.52, 133.94, 133.94, 133.94, 133.94, 134.44, 134.86, 135.28, 135.28, 135.28, 135.7, 135.7, 136.2, 136.2, 136.2, 136.7, 136.7, 136.7, 136.7, 136.7, 136.7, 136.7, 136.7, 136.7, 136.7, 136.7, 136.7, 136.7, 136.7, 137.12, 137.54, 137.54, 137.54, 138.04, 138.04, 138.04, 138.04, 138.04, 138.46, 138.46, 138.96, 139.38, 139.38, 139.38, 139.38, 139.38, 139.38, 139.38, 139.8, 140.22, 140.22, 140.64, 141.06, 141.98, 142.4, 142.82, 143.66, 144.08, 144.5, 145.42, 145.92, 146.34, 146.76, 147.26, 147.76, 148.18, 148.6, 149.02, 149.52, 150.02, 150.44, 150.94, 151.36, 151.78, 152.26, 152.68, 153.12, 153.12, 153.2, 153.28, 153.28, 153.78, 153.86, 153.94, 154.02, 154.1, 154.6, 155.1, 155.1, 155.6, 155.6, 155.68, 155.76, 155.74, 155.82, 155.9, 155.98, 156.06, 156.14, 156.22, 156.3, 156.38, 156.46, 156.96, 157.04, 157.12, 157.2, 157.28, 157.78, 157.86, 157.94, 158.02, 158.1, 158.62, 158.62, 159.04, 158.44, 158.44, 158.44, 158.86, 159.28, 159.7, 160.12, 160.12, 159.54, 159.96, 160.38, 160.9, 160.9, 160.9, 161.32, 161.74, 161.74, 162.16, 162.16, 163.0, 163.84, 164.26, 164.68, 165.1, 165.54, 165.36, 165.78, 166.2, 166.12, 166.54, 166.96, 167.38, 169.14, 169.56, 170.08, 170.48, 170.48, 170.58, 170.68, 171.26, 171.36, 169.96, 170.06, 169.46, 168.56, 167.96, 167.96, 166.34, 165.32, 163.7, 163.1, 163.2, 163.72, 163.82, 162.8, 162.2, 162.3, 159.26, 158.66, 158.76, 157.74, 158.26, 158.36, 158.46, 157.86, 157.96, 158.48, 158.46, 158.26, 159.38, 160.92, 162.46, 164.0, 164.02, 164.44, 165.98, 167.52, 169.06, 170.18, 171.72, 171.74, 169.46, 169.86, 170.72, 171.3, 171.3, 172.0, 172.52, 173.1, 174.68, 175.38, 176.08, 176.78, 177.48, 178.6, 179.02, 178.48, 178.9, 178.9, 179.32, 179.74, 180.16, 180.16, 180.16, 181.16, 181.0, 179.9, 179.78, 179.66, 180.08, 179.9, 179.78, 180.2, 179.0, 179.0, 179.42, 179.84, 181.7, 182.12, 182.54, 184.06, 185.16, 186.66, 187.64, 189.16, 190.14, 190.64, 192.08, 192.02, 192.0, 191.0, 189.98, 189.44, 188.44, 187.44, 186.44, 186.44, 185.68, 186.26, 186.58, 186.04, 186.9, 185.88, 184.78, 183.78, 182.4, 181.86, 182.18, 185.1, 185.44, 184.5, 184.3, 184.88, 186.24, 186.9, 187.82, 188.4, 188.42, 187.82, 185.96, 185.42, 185.46, 185.0, 185.0, 185.0, 186.38, 185.56, 186.42, 185.96, 185.56, 185.48, 185.88, 185.48, 187.46, 187.44, 186.72, 186.12, 186.62, 187.62, 188.2, 189.52, 190.5, 191.06, 190.7, 192.54, 193.92, 189.58, 191.5, 193.24, 195.72, 196.16, 197.94, 198.12, 197.4, 198.68, 198.88, 197.36, 195.9, 195.94, 195.4, 195.0, 195.34, 195.78, 195.78, 196.64, 195.72, 196.18, 196.62, 196.66, 195.92, 195.62, 195.74, 195.74, 196.26, 196.38, 195.92, 196.04, 195.22, 196.14, 196.66, 197.38, 197.18, 197.6, 198.16, 198.74, 198.2, 198.26, 198.82, 198.54, 199.12, 199.12, 200.4, 201.26, 201.26, 201.28, 199.56, 199.56, 199.58, 199.58, 199.1, 199.28, 199.28, 200.14, 201.0, 201.94, 203.2, 202.98, 203.84, 202.76, 202.76, 201.68, 201.28, 199.28, 196.2, 195.8, 193.4, 193.76, 193.76, 192.64, 193.16, 192.74, 191.66, 190.58, 189.5, 187.24, 187.24, 186.04, 184.94, 183.86, 182.78, 181.7, 181.28, 180.2, 179.12, 178.04, 174.24, 173.46, 173.46, 172.8, 171.46, 170.8, 170.78, 170.86, 171.7, 171.44, 171.3, 171.22, 171.4, 171.52, 171.64, 171.76, 172.0, 172.52, 173.04, 174.86, 174.08, 174.2, 174.32, 174.44, 174.04, 173.54, 173.14, 173.14, 173.14, 172.74, 172.34, 172.34, 171.84, 171.44, 171.04, 170.64, 170.24, 169.84, 169.44, 169.04, 169.14, 169.24, 169.44, 169.46, 169.48, 169.74, 170.0, 170.0, 170.0, 170.0, 170.0, 170.0, 170.0, 170.0, 170.0, 170.0, 170.0, 170.0, 170.0]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[1031.1958901299581, 1046.1764757675617, 1057.7646270015057, 1151.5635671775296, 1028.7787879486968, 1038.6081625650504, 1095.8189058096025, 1092.0134307449764, 1035.0974821706545, 1058.884400621321, 1017.4222778834268, 7.021905584888193, 11.335548092303284, 10.084265510818478, 19.09016938788721, 5.615757063449067, 10.998063752696629, 13.928989182356043, 20.08692486415169, 21.71464861865751, 13.813542946018636, 12.102666696944075, 15.383187605480876, 12.515156215175084, 20.388256128130198, 10.06043316834529, 21.792235343514644, 16.6601308960766, 18.962333960376935, 13.75754856629437, 6.498468579033385, 6.418198614315776, 12.886302556853302, 19.72616195782006, 11.284852683618587, 11.092784332068302, 15.57943976620263, 16.471005416523315, 16.471005416523315, 6.447074714626526, 11.706573922448525, 9.912732338761446, 6.433468653110302, 5.40147101781995, 19.789971410076724, 9.58248263063329, 9.910513092250067, 12.452544530777903, 15.486684942169909, 7.1871846464051545, 12.967802601675086, 15.822093498520436, 15.822093498520436, 8.69533892573464, 8.770238333205954, 8.820715029373492, 6.475325136156926, 11.705176461745378, 15.131990641684023, 8.603294901918039, 8.603294901918039, 13.140884098327883, 11.771306381733607, 11.769401532725022, 18.587976253184618, 5.262210211963307, 12.93750376184077, 15.005726843375399, 11.1804444472005, 9.764939272830475, 9.764939272830475, 14.880855739567169, 6.794970649195098, 11.24641052720726, 7.567244004312447, 8.878700984966947, 8.878700984966947, 7.028093981549538, 7.028093981549538, 7.028093981549538, 14.762096948896419, 12.210088468488173, 12.210088468488173, 12.210088468488173, 12.136096841342981, 10.71199449546227, 12.329275571474861, 12.329275571474861, 10.95623349530975, 10.53535313146034, 11.213124068142433, 13.12384081600435, 14.281447522354501, 14.281447522354501, 8.923824837243757, 4.928637229223076, 4.928637229223076, 13.619904010809071, 5.705340681848764, 5.905901751441155, 11.548837416180222, 8.823685164467971, 6.6119460375999966, 9.48567197424485, 13.979047487847033, 7.216562099276438, 9.347313521916407, 6.567284458958112, 9.454247053504153, 6.154777549358499, 8.766497683522173, 8.766497683522173, 7.6232171232204315, 7.6232171232204315, 6.654175829735983, 6.654175829735983, 6.654175829735983, 7.456607004309009, 7.456607004309009, 7.456607004309009, 7.930528180091336, 7.930528180091336, 4.803693565509841, 4.803693565509841, 4.803693565509841, 9.360578129878217, 9.360578129878217, 8.143670942911312, 8.143670942911312, 9.380738654681819, 5.063163619242844, 13.19477085800888, 8.891104651500807, 5.832307373547849, 5.832307373547849, 5.832307373547849, 7.421351153562567, 10.582494324616286, 6.313489733926942, 8.041956342629296, 8.041956342629296, 7.49664940083028, 11.177311879915381, 6.291051552748076, 6.291051552748076, 6.291051552748076, 6.291051552748076, 6.674556758554543, 6.674556758554543, 8.678284211519335, 4.393976456037267, 12.168077768749574, 12.168077768749574, 12.168077768749574, 12.168077768749574, 12.168077768749574, 12.168077768749574, 12.168077768749574, 5.465971241100652, 10.953844895984574, 10.953844895984574, 10.953844895984574, 10.953844895984574, 10.953844895984574, 10.953844895984574, 10.953844895984574, 10.953844895984574, 9.065226832370628, 10.063476910429676, 10.063476910429676, 10.063476910429676, 10.063476910429676, 10.063476910429676, 10.063476910429676, 10.063476910429676, 10.063476910429676, 10.063476910429676, 10.063476910429676, 10.063476910429676, 10.063476910429676, 10.063476910429676, 10.063476910429676, 10.063476910429676, 10.063476910429676, 10.063476910429676, 10.063476910429676, 10.063476910429676, 10.063476910429676, 10.063476910429676, 10.063476910429676, 10.063476910429676, 10.063476910429676, 10.063476910429676, 10.063476910429676, 10.063476910429676, 6.060939623375572, 6.060939623375572, 6.060939623375572, 6.060939623375572, 6.060939623375572, 5.274933389584381, 5.274933389584381, 5.274933389584381, 11.106227795313972, 11.106227795313972, 11.106227795313972, 11.106227795313972, 11.106227795313972, 11.106227795313972, 11.106227795313972, 11.106227795313972, 11.106227795313972, 7.102663360057256, 6.316215092946139, 6.316215092946139, 6.513356079762164, 4.524310530769656, 4.524310530769656, 4.524310530769656, 4.524310530769656, 4.524310530769656, 4.524310530769656, 4.524310530769656, 4.524310530769656, 4.524310530769656, 4.524310530769656, 4.524310530769656, 4.524310530769656, 4.524310530769656, 9.297909031268077, 9.297909031268077, 9.297909031268077, 9.297909031268077, 9.297909031268077, 9.297909031268077, 5.564187555953252, 5.564187555953252, 5.564187555953252, 9.182452594194373, 9.182452594194373, 5.291893318313037, 5.291893318313037, 7.4046393621293705, 7.4046393621293705, 7.4046393621293705, 7.4046393621293705, 7.4046393621293705, 7.4046393621293705, 7.4046393621293705, 7.4046393621293705, 8.443798286887182, 8.443798286887182, 8.443798286887182, 8.443798286887182, 8.443798286887182, 8.443798286887182, 8.443798286887182, 8.443798286887182, 8.443798286887182, 5.17885322118058, 6.636186963195812, 6.636186963195812, 6.636186963195812, 6.636186963195812, 6.636186963195812, 6.045467538709303, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 6.530089815354196, 6.968551099113523, 6.968551099113523, 6.968551099113523, 6.968551099113523, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 5.3242099772749185, 5.3242099772749185, 5.3242099772749185, 5.3242099772749185, 5.3242099772749185, 5.3242099772749185, 5.3242099772749185, 5.3242099772749185, 5.3242099772749185, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 5.046217523840202, 5.046217523840202, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.0295590798585454, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.033341566021693, 5.758926229252259, 5.758926229252259, 7.0981248508481345, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 6.613567267224424, 6.613567267224424, 6.613567267224424, 5.009861836878592, 5.009861836878592, 4.305667447810286, 4.305667447810286, 4.534978753975481, 4.7878850924737835, 5.642711026619296, 5.163624303603018, 5.163624303603018, 5.163624303603018, 6.576126111428392, 5.56364359572778, 5.56364359572778, 5.56364359572778, 5.56364359572778, 5.56364359572778, 5.56364359572778, 5.56364359572778, 4.840586477407701, 4.840586477407701, 4.840586477407701, 4.840586477407701, 4.840586477407701, 4.840586477407701, 4.840586477407701, 6.270620114853959, 6.270620114853959, 6.270620114853959, 6.270620114853959, 6.270620114853959, 6.270620114853959, 6.270620114853959, 6.270620114853959, 6.270620114853959, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 4.6983885200802495, 4.6983885200802495, 4.6983885200802495, 4.6983885200802495, 5.949313010440071, 4.651220197469337, 7.442890750215523, 5.395671863913625, 5.395671863913625, 6.101251963187303, 6.101251963187303, 6.101251963187303, 6.101251963187303, 6.101251963187303, 5.529287278779274, 5.529287278779274, 5.529287278779274, 6.234777137180886, 6.234777137180886, 6.234777137180886, 6.234777137180886, 6.234777137180886, 6.234777137180886, 6.234777137180886, 6.234777137180886, 6.234777137180886, 6.234777137180886, 6.234777137180886, 6.234777137180886, 6.234777137180886, 6.234777137180886, 6.234777137180886, 6.234777137180886, 6.234777137180886, 6.234777137180886, 6.234777137180886, 6.234777137180886, 6.234777137180886, 6.234777137180886, 6.234777137180886, 6.234777137180886, 6.234777137180886, 6.234777137180886, 6.234777137180886, 6.234777137180886, 4.194225630106015, 5.385519014221535, 5.385519014221535, 5.698479660586793, 4.822233722348184, 4.822233722348184, 4.822233722348184, 4.822233722348184, 4.822233722348184, 4.822233722348184, 4.822233722348184, 4.822233722348184, 4.822233722348184, 6.787686478929952, 5.647701391345553, 5.647701391345553, 4.747742485593652, 4.747742485593652, 4.747742485593652, 4.798545826422907, 4.798545826422907, 4.798545826422907, 6.201001224230687, 1087.9521982051338, 1057.2437663995788, 1054.440164663768, 1103.719972271219, 1028.2685211371702, 1027.5570246270174, 1101.1321807580323, 1027.44524057584, 1086.2267413373945, 1014.4918725703264, 1051.1263864278294, 14.167553186955976, 11.683227614584858, 8.804211719540877, 12.182836867480965, 9.356328194192505, 9.356328194192505, 8.187308466261305, 17.822690086350683, 8.89887211901645, 8.614831095274258, 7.808501199831027, 8.0098981004216, 14.557903876700003, 17.214173698453322, 11.374418836633486, 10.729792299164846, 20.11382138459044, 5.884406848461977, 6.538400401743037, 8.092542274926085, 12.293670781530508, 9.70516078489465, 11.959264304881986, 21.49570494796159, 6.696541721018302, 9.137591117983163, 8.73135158142138, 8.537521106307421, 8.537521106307421, 9.073962392412382, 11.863558040349256, 11.863558040349256, 10.482626766869851, 14.637002829561935, 10.4123108598259, 10.443001096950066, 8.987359508801381, 14.619618189806008, 15.404196911820298, 8.406980861694684, 6.795697992715728, 14.500490953310505, 9.72928039513967, 16.740974044593802, 10.983839861642329, 15.192198158780746, 15.280257407048353, 11.67589697193033, 8.575817489070833, 13.719954358008232, 13.681918259774879, 11.565341317551184, 9.906415842480424, 16.02882171966191, 10.341375216043575, 10.341375216043575, 7.691153788456693, 5.598585091718502, 13.982928745588332, 7.896181418135067, 5.444169599280104, 7.379787037238042, 18.46936751541372, 10.947644484985542, 12.282480056325497, 8.343578862219843, 13.105419898282737, 8.784923945714924, 8.784923945714924, 12.822475561851398, 7.027275303939565, 18.560524813505076, 9.384277757458385, 10.337651077588879, 10.337651077588879, 6.459745843921343, 13.597892400166524, 13.597892400166524, 13.597892400166524, 5.049026192300804, 7.62660925985128, 7.62660925985128, 7.62660925985128, 15.054444440005655, 11.927330409725883, 5.718896220455256, 9.30549271744668, 9.30549271744668, 15.557902430524209, 13.310928642593689, 13.310928642593689, 11.506609876404045, 5.604976610730275, 16.77533503835724, 17.98283635125174, 10.026951971872744, 7.6916151984566214, 7.6916151984566214, 5.242080357739603, 6.198633564284624, 5.396713196481115, 14.359412861223477, 14.359412861223477, 6.105002968665092, 6.105002968665092, 7.514077789452874, 16.966599722058902, 8.809823098718054, 6.896489990450613, 13.691740696809067, 9.007461766818496, 9.007461766818496, 11.080363936332683, 15.382149905964456, 10.409724325960605, 10.833141491536217, 10.833141491536217, 10.833141491536217, 10.833141491536217, 10.833141491536217, 10.833141491536217, 10.833141491536217, 10.833141491536217, 10.833141491536217, 7.6242881778754965, 9.428834531295877, 9.428834531295877, 9.428834531295877, 9.089356181785629, 11.808468916151245, 8.679378617548888, 10.15640178251786, 10.15640178251786, 10.15640178251786, 10.15640178251786, 10.15640178251786, 10.15640178251786, 10.15640178251786, 10.15640178251786, 10.15640178251786, 10.15640178251786, 10.15640178251786, 5.7054937243984565, 5.7054937243984565, 8.753454469258367, 8.753454469258367, 8.753454469258367, 8.753454469258367, 8.753454469258367, 10.229032903643539, 10.229032903643539, 10.229032903643539, 11.520271132578047, 11.520271132578047, 11.520271132578047, 11.520271132578047, 11.520271132578047, 11.520271132578047, 11.520271132578047, 11.520271132578047, 11.520271132578047, 11.520271132578047, 11.520271132578047, 11.520271132578047, 11.520271132578047, 11.520271132578047, 11.520271132578047, 11.520271132578047, 11.520271132578047, 11.520271132578047, 9.50054776694516, 9.50054776694516, 9.50054776694516, 9.50054776694516, 9.50054776694516, 9.50054776694516, 7.588633356470838, 7.588633356470838, 9.47313751832801, 9.47313751832801, 9.47313751832801, 9.47313751832801, 9.47313751832801, 7.3394873192100105, 6.842102244180996, 6.842102244180996, 6.842102244180996, 6.842102244180996, 6.842102244180996, 6.842102244180996, 6.842102244180996, 6.842102244180996, 6.842102244180996, 6.842102244180996, 6.842102244180996, 6.842102244180996, 6.842102244180996, 6.842102244180996, 6.842102244180996, 6.842102244180996, 6.842102244180996, 6.842102244180996, 6.842102244180996, 8.94504020925035, 4.778961488904256, 4.778961488904256, 5.112980092548278, 5.112980092548278, 5.112980092548278, 5.37236575730681, 5.37236575730681, 5.37236575730681, 5.37236575730681, 7.666592494702642, 4.6210880045899465, 4.6210880045899465, 4.6210880045899465, 7.091992297154752, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 6.913191692325355, 7.533770956776837, 8.552039490231444, 8.297026372358669, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 10.30988302239683, 10.30988302239683, 10.30988302239683, 10.30988302239683, 10.30988302239683, 10.30988302239683, 10.30988302239683, 10.30988302239683, 8.17864926437856, 8.17864926437856, 8.17864926437856, 8.17864926437856, 8.17864926437856, 7.0510800905043105, 7.0510800905043105, 7.0510800905043105, 7.0510800905043105, 7.0510800905043105, 7.0510800905043105, 7.0510800905043105, 7.0510800905043105, 7.0510800905043105, 7.0510800905043105, 8.833588893998806, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.833766107521229, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.540388229236749, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 5.468925128546637, 4.380491886426793, 4.380491886426793, 4.380491886426793, 4.380491886426793, 4.380491886426793, 4.380491886426793, 4.380491886426793, 4.380491886426793, 4.380491886426793, 4.380491886426793, 4.380491886426793, 4.380491886426793, 8.408606565331928, 4.355882253974932, 5.032196774120769, 5.032196774120769, 5.032196774120769, 5.032196774120769, 5.032196774120769, 5.032196774120769, 5.032196774120769, 5.032196774120769, 5.032196774120769, 5.032196774120769, 5.032196774120769, 5.032196774120769, 6.208243378188584, 6.208243378188584, 6.208243378188584, 6.208243378188584, 6.208243378188584, 6.208243378188584, 6.208243378188584, 6.208243378188584, 6.208243378188584, 6.208243378188584, 6.208243378188584, 6.208243378188584, 6.208243378188584, 6.208243378188584, 6.208243378188584, 6.208243378188584, 6.208243378188584, 6.208243378188584, 6.208243378188584, 6.208243378188584, 6.20824337818858</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 6.674556758554543, 12.168077768749574, 12.168077768749574, 12.168077768749574, 5.274933389584381, 5.274933389584381, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 7.631093142033668, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.975964729071537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 4.318669026175537, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.755963002784226, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 5.888291106046205, 4.305667447810286, 4.305667447810286, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.547645511058811, 5.949313010440071, 5.949313010440071, 5.949313010440071, 5.949313010440071, 6.234777137180886, 6.234777137180886, 6.234777137180886, 6.234777137180886, 6.234777137180886, 6.234777137180886, 6.234777137180886, 6.234777137180886, 6.234777137180886, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.816520365304222, 4.113196875753736, 4.113196875753736, 4.113196875753736, 4.113196875753736, 4.113196875753736, 4.113196875753736, 4.113196875753736, 4.113196875753736, 4.113196875753736, 4.113196875753736, 4.113196875753736, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 4.538212951839324, 5.7054937243984565, 5.7054937243984565, 5.7054937243984565, 5.7054937243984565, 5.7054937243984565, 5.7054937243984565, 5.7054937243984565, 5.7054937243984565, 5.7054937243984565, 5.7054937243984565, 5.7054937243984565, 5.7054937243984565, 5.7054937243984565, 5.7054937243984565, 5.7054937243984565, 5.7054937243984565, 5.7054937243984565, 5.7054937243984565, 5.7054937243984565, 5.7054937243984565, 5.7054937243984565, 5.7054937243984565, 5.7054937243984565, 5.7054937243984565, 5.7054937243984565, 5.7054937243984565, 5.7054937243984565, 5.7054937243984565, 5.7054937243984565, 5.7054937243984565, 5.7054937243984565, 5.7054937243984565, 5.7054937243984565, 8.753454469258367, 8.753454469258367, 8.753454469258367, 8.753454469258367, 8.753454469258367, 8.753454469258367, 8.753454469258367, 8.753454469258367, 8.753454469258367, 8.753454469258367, 8.753454469258367, 8.753454469258367, 8.753454469258367, 8.753454469258367, 8.753454469258367, 8.753454469258367, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 5.743127495354963, 8.297026372358669, 8.297026372358669, 8.297026372358669, 8.297026372358669, 8.297026372358669, 8.297026372358669, 8.297026372358669, 8.297026372358669, 8.297026372358669, 8.297026372358669, 8.297026372358669, 8.297026372358669, 8.297026372358669, 8.297026372358669, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 6.398410612278092, 10.30988302239683, 10.30988302239683, 10.30988302239683, 10.30988302239683, 10.30988302239683, 10.30988302239683, 10.30988302239683, 10.30988302239683, 10.30988302239683, 10.30988302239683, 10.30988302239683, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 4.919415027768104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.571645768139104, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 5.5183643636166275, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 6.170629629017629, 4.380491886426793, 4.380491886426793, 4.380491886426793, 4.380491886426793, 4.380491886426793, 4.380491886426793, 4.380491886426793, 4.380491886426793, 4.380491886426793, 4.380491886426793, 4.380491886426793, 4.380491886426793, 4.380491886426793, 6.208243378188584, 6.208243378188584, 6.208243378188584, 6.208243378188584, 6.208243378188584, 6.208243378188584, 6.208243378188584, 6.208243378188584, 6.208243378188584, 6.208243378188584, 6.208243378188584, 6.208243378188584, 6.208243378188584, 6.208243378188584, 6.208243378188584, 6.208243378188584, 6.208243378188584, 6.208243378188584, 4.301413734402529, 4.301413734402529, 4.301413734402529, 4.301413734402529, 4.301413734402529, 4.301413734402529, 4.301413734402529, 4.301413734402529, 4.301413734402529, 4.301413734402529, 4.301413734402529, 4.301413734402529, 4.301413734402529, 4.301413734402529, 4.301413734402529, 4.301413734402529, 4.301413734402529, 4.301413734402529, 4.301413734402529, 4.301413734402529, 4.301413734402529, 4.301413734402529, 4.301413734402529, 4.301413734402529, 4.301413734402529, 4.301413734402529, 4.301413734402529, 4.301413734402529, 4.301413734402529, 4.301413734402529, 4.301413734402529, 6.905838872625019, 6.905838872625019, 6.905838872625019, 6.905838872625019, 6.905838872625019, 6.905838872625019, 6.905838872625019, 6.905838872625019, 6.905838872625019, 6.905838872625019, 6.905838872625019, 6.905838872625019, 6.905838872625019, 6.905838872625019, 6.905838872625019, 6.905838872625019, 6.905838872625019, 6.905838872625019, 6.905838872625019, 6.905838872625019, 6.905838872625019, 6.905838872625019, 6.905838872625019, 6.905838872625019, 6.905838872625019, 6.905838872625019, 6.905838872625019, 6.905838872625019, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 5.765706391728062, 7.594337089901065, 4.990904481238726, 4.990904481238726, 4.990904481238726, 4.990904481238726, 4.990904481238726, 4.990904481238726, 4.990904481238726, 4.990904481238726, 4.990904481238726, 4.990904481238726, 4.990904481238726, 4.990904481238726, 8.814694505244717, 8.814694505244717, 8.814694505244717, 8.814694505244717, 8.814694505244717, 6.453251144756058, 6.45325114</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[11.703166670560579, 11.469290966211133, 11.472708460652045, 11.609032905771807, 11.465075873888654, 11.411786514226375, 11.332118657586449, 11.187924525332754, 11.195315695193, 11.05932549652281, 11.013771766010171, 10.974205153500504, 11.065306437036146, 11.073594239877371, 11.132347666710574, 11.183450878277744, 11.312537275515865, 11.408521086318329, 11.36185513222447, 11.183331017954307, 11.049061609600763, 11.078314777769066, 10.915566155820462, 10.7937127975743, 10.726819639537515, 10.642268777365356, 10.674934449633616, 10.398262623306483, 10.420919475991733, 10.25319445281646, 10.11284821420701, 10.173184901444023, 10.359041437040313, 10.338657581273154, 10.206142911145468, 10.202733149744498, 10.230309405286603, 10.22548012009778, 10.22548012009778, 10.097474371748902, 10.07550133658398, 10.07048545483764, 10.099423106976722, 10.13849298035982, 10.270454326377804, 10.162180956201176, 10.145438050281372, 10.083515067721027, 9.944429922964494, 9.700234120414086, 9.796197869463345, 9.63427799581601, 9.622420108495437, 9.48916353829011, 9.515766914454064, 9.567294580728984, 9.626517201228971, 9.841931669499239, 9.89092701703112, 9.807072556891093, 9.875666019249541, 9.993922499955785, 9.854643354527722, 9.782940705998126, 9.693933035233698, 9.589004216058097, 9.578029849603707, 9.502750696630974, 9.29839242113079, 9.24812928800494, 9.195763032675918, 9.190431365273328, 9.127097897810723, 9.19828238209213, 9.122990445524275, 9.268820339666844, 9.265967153734202, 9.231890605013374, 9.231890605013374, 9.231890605013374, 9.274998058564098, 9.107785935526147, 9.031432655797172, 8.997447394815676, 8.753484576784114, 8.727465898984358, 8.664147314807611, 8.57164213336867, 8.447480100951008, 8.461153096934652, 8.388105279911768, 8.294088850814816, 8.230380478534647, 8.079431456547734, 7.9809395706355835, 7.991681278607377, 8.001042404276669, 8.166297989014042, 8.07977646128077, 8.040985708617178, 8.052857099435972, 8.053791103755671, 8.028435243844287, 8.154977767844024, 8.117507198849523, 8.054736736026584, 8.012104168054988, 7.909150678441831, 7.8500519208433825, 7.815382460899691, 7.874772591117605, 7.787921792308025, 7.819371859642409, 7.819371859642409, 7.791494496901528, 7.904347591928261, 7.852996586855594, 7.86971332166005, 7.92418484947118, 7.996213184033606, 7.971564918445673, 7.989462154246328, 8.034517830889172, 8.177984022571252, 8.177984022571252, 8.296681304923927, 8.244920429175936, 8.230998851670767, 8.212671697212183, 8.135389327763644, 8.185993905797423, 8.28146793965319, 8.246796637586984, 8.328059011697638, 8.430967669427567, 8.511620539102108, 8.599453378383908, 8.648411117826498, 8.616996442230686, 8.614639663508763, 8.675921122401428, 8.715678276226319, 8.806038845037044, 8.72628244010311, 8.772467507079128, 8.825609487362527, 8.938836814478185, 8.960175806422484, 8.933766588207607, 9.039155446106486, 9.106328237006991, 9.063940727546335, 9.02403352233466, 8.889082695936995, 8.849330703414928, 8.651475015066156, 8.612128739927153, 8.462130471464318, 8.443807714613188, 8.549314332615584, 8.532627853287169, 8.515952703200854, 8.445977736086432, 8.429360502162384, 8.39817613371303, 8.402365084469603, 8.385789579099713, 8.286845597194542, 8.3063817252694, 8.327077153806025, 8.31261311336286, 8.242828862774976, 8.242828862774976, 8.147470363638389, 7.998852844427985, 7.946914350450777, 7.946914350450777, 7.848735631209154, 7.848735631209154, 7.740645197997069, 7.630159668508813, 7.583602255678925, 7.506979261383318, 7.450236266736867, 7.470635666952006, 7.363501997975797, 7.363501997975797, 7.363501997975797, 7.237468680213491, 7.146350963778865, 7.166664058891016, 7.116382957756802, 7.116382957756802, 7.010143782409258, 7.010143782409258, 6.960089608251503, 6.929980371729954, 6.929980371729954, 6.900526446453852, 6.900526446453852, 6.947074684211375, 6.96659046360755, 6.951914050783007, 7.061880125163487, 6.956576583886739, 6.71744264124864, 6.684499452008746, 6.636339722052173, 6.512811349693214, 6.512811349693214, 6.512811349693214, 6.512811349693214, 6.359426430375602, 6.321721924855496, 6.328141064573543, 6.369321489957181, 6.335000641805065, 6.335000641805065, 6.337894800582654, 6.337894800582654, 6.4267837758551085, 6.480832212847448, 6.5547822421657695, 6.573908417332658, 6.627798330374862, 6.641459152764731, 6.700514320118909, 6.70191849074887, 6.755380836787105, 6.813894761627755, 6.727219594193275, 6.641221790820961, 6.555893442044522, 6.507493210766548, 6.423117683882972, 6.339393113895963, 6.3926395106440825, 6.4318416775192055, 6.451502048827685, 6.3694497477747145, 6.342597606110109, 6.38676281820761, 6.4447146446082595, 6.379375760299327, 6.398511256779612, 6.34942581405262, 6.300664028386561, 6.294725156949736, 6.246343383325275, 6.1982782760582396, 6.135108805045787, 6.069010900341243, 6.036892615163358, 6.02373267302556, 5.991694359055742, 5.991694359055742, 5.957959684634013, 5.877797127475934, 5.813203153369766, 5.7490181685209905, 5.74317965652199, 5.729536324013332, 5.697360098599632, 5.715967441347608, 5.734566017209717, 5.702472400788719, 5.666642706376201, 5.6548315050135765, 5.643026787474224, 5.592890929418361, 5.542978943784793, 5.493289334422432, 5.443820618482361, 5.380378466436531, 5.331415359217198, 5.282668311893491, 5.2711583649875635, 5.222664355849597, 5.16049361061209, 5.11249035846904, 5.1011132354853554, 5.039632027432022, 4.997881518393259, 4.9482842598529695, 4.912460174280212, 4.8767720734148705, 4.8412191844468255, 4.848213670039513, 4.834802670075545, 4.834802670075545, 4.821411307194813, 4.828397926932063, 4.815023523213092, 4.801668670740352, 4.788333326673949, 4.788333326673949, 4.775017448299054, 4.76172099302545, 4.7484439183870775, 4.7484439183870775, 4.7484439183870775, 4.735186182041583, 4.742151794855404, 4.728910724396993, 4.715688908197519, 4.702486304290156, 4.68930287082995, 4.676138566093381, 4.662993348477916, 4.662993348477916, 4.649867176501576, 4.636760008802503, 4.623671804138513, 4.610602521386679, 4.597552119542887, 4.584520557721418, 4.571507795154513, 4.558513791191951, 4.565440081934744, 4.552462173205527, 4.5265623495368335, 4.513640354125954, 4.500736916209063, 4.487851995838753, 4.494760045635369, 4.501665587155631, 4.508568621765407, 4.495694334090843, 4.475940675132382, 4.456208140016147, 4.436496694876647, 4.41680630592074, 4.397136939427445, 4.377488561747747, 4.357861139304402, 4.338254638591754, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.3186690261755345, 4.348051957406189, 4.348051957406189, 4.362498937117143, 4.362498937117143, 4.362498937117143, 4.362498937117143, 4.362498937117143, 4.362498937117143, 4.362498937117143, 4.362498937117143, 4.362498937117143, 4.362498937117143, 4.362498937117143, 4.362498937117143, 4.362498937117143, 4.362498937117143, 4.362498937117143, 4.362498937117143, 4.362498937117143, 4.362498937117143, 4.362498937117143, 4.362498937117143, 4.362498937117143, 4.362498937117143, 4.362498937117143, 4.362498937117143, 4.362498937117143, 4.376935718540395, 4.376935718540395, 4.376935718540395, 4.376935718540395, 4.376935718540395, 4.391362312470762, 4.391362312470762, 4.391362312470762, 4.391362312470762, 4.391362312470762, 4.391362312470762, 4.423967834670484, 4.423967834670484, 4.423967834670484, 4.438360366950877, 4.438360366950877, 4.438360366950877, 4.438360366950877, 4.438360366950877, 4.452742758847888, 4.467115021074487, 4.467115021074487, 4.496330510635125, 4.496330510635125, 4.510675902614158, 4.525011202640854, 4.525011202640854, 4.525011202640854, 4.525011202640854, 4.525011202640854, 4.525011202640854, 4.525011202640854, 4.539336421360973, 4.553651569405298, 4.553651569405298, 4.553651569405298, 4.553651569405298, 4.567956657389678, 4.5822516959150414, 4.5822516959150414, 4.5822516959150414, 4.59653669556743, 4.61081166691802, 4.61081166691802, 4.61081166691802, 4.61081166691802, 4.639331566924362, 4.65383743028351, 4.65383743028351, 4.668075041914042, 4.697070013390371, 4.697070013390371, 4.711281106596219, 4.757557839169453, 4.757557839169453, 4.771725708825093, 4.785883671254279, 4.800031736845182, 4.814169915971454, 4.828298218992255, 4.8602029982677655, 4.8602029982677655, 4.874298289387206, 4.88838374960459, 4.88838374960459, 4.902459389201322, 4.902459389201322, 4.916834842444582, 4.930893452212289, 4.94494226844809, 4.973625936867636, 4.9876487303413946, 5.00166176638279, 5.015665055172499, 5.029658606877043, 5.042588996042898, 5.102629734611177, 5.127535888055082, 5.141421765715022, 5.15529803884332, 5.169164717401371, 5.168809732976002, 5.168454883238244, 5.1947175009039235, 5.1947175009039235, 5.1947175009039235, 5.2121221050758795, 5.2121221050758795, 5.2121221050758795, 5.2121221050758795, 5.226604584708093, 5.24108426265516, 5.24108426265516, 5.24108426265516, 5.255561139729995, 5.2700352167452, 5.2700352167452, 5.2845064945130575, 5.2845064945130575, 5.298974973845543, 5.313440655554314, 5.313440655554314, 5.313440655554314, 5.327454310975373, 5.356349041090186, 5.356349041090186, 5.370792220749319, 5.385182145493201, 5.399614606385918, 5.399614606385918, 5.431632808226118, 5.446051774865923, 5.443781037522039, 5.469450916019605, 5.483806968661684, 5.498160263578636, 5.508437925591971, 5.522765831511924, 5.532989970459103, 5.535192996125007, 5.552222790274552, 5.561490653160928, 5.575730576822803, 5.607267246498512, 5.62149402312364, 5.677266487370181, 5.6915623504708535, 5.705846629026621, 5.695419489116701, 5.712785978485969, 5.693781840951385, 5.710910653133317, 5.727847279814099, 5.725412940691846, 5.677721752954871, 5.658903385288455, 5.654717516961663, 5.654717516961663, 5.657368348035866, 5.664157412491681, 5.642419854869485, 5.659359449672923, 5.647434994789953, 5.654004741680342, 5.6498655710689185, 5.652492946643024, 5.628663456228664, 5.638867681982006, 5.6413987857409325, 5.6477397952084285, 5.617569771355869, 5.631693385932399, 5.571969936620894, 5.567263489681865, 5.567263489681865, 5.581305400303513, 5.5593773955426125, 5.560868164350085, 5.554630978443444, 5.508549049030309, 5.488460630019597, 5.431019863048976, 5.417398406813651, 5.41337110992307, 5.437731885567485, 5.461433411922893, 5.448695461083705, 5.4635413639586785, 5.538811476368184, 5.546662460972141, 5.539143000241292, 5.560753988388607, 5.54058581157801, 5.554599134157899, 5.540287854245728, 5.551230221659835, 5.536618822930587, 5.550365558263773, 5.55005017238251, 5.5357688345301375, 5.5497348881863555, 5.577727720638721, 5.591678833075697, 5.591901656506606, 5.633746402562379, 5.669494789190789, 5.714378810205135, 5.700125044429232, 5.685873275491363, 5.671623502971949, 5.657375726451526, 5.6263355962846475, 5.626036691428271, 5.611803767758019, 5.580792713715057, 5.566565097603162, 5.566565097603162, 5.566565097603162, 5.550274995723329, 5.564227786772212, 5.564227786772212, 5.575439602822936, 5.589361130837535, 5.6032660677818225, 5.641126723793166, 5.652271587334148, 5.647095876611791, 5.660906601220115, 5.674700947497163, 5.658062417664265, 5.671850130614356, 5.685621512061678, 5.699376591005978, 5.699376591005978, 5.710417656865042, 5.724142182262823, 5.735156531081707, 5.746158463864746, 5.730492268811585, 5.698142442194431, 5.697688803244778, 5.727811349045132, 5.742039040240467, 5.772056883400226, 5.815283164560911, 5.804360217964487, 5.806139885089751, 5.742160252303695, 5.7305657935508405, 5.735866508049693, 5.738526432364947, 5.741186215219273, 5.743845856623961, 5.664282030169491, 5.6669377238247955, 5.651213819755541, 5.665167383675138, 5.59202107940177, 5.575239458292394, 5.5472066566386244, 5.519185834151554, 5.491176983154293, 5.463180095976515, 5.43463648638481, 5.3998493270023245, 5.3998493270023245, 5.318467645797109, 5.301795964666984, 5.285127614893993, 5.2568682947654235, 5.2568682947654235, 5.2568682947654235, 5.227387478486789, 5.210988505880042, 5.194629701077617, 5.166567406496635, 5.138556972738651, 5.12819397334512, 5.111989447721025, 5.084397455403196, 5.056533853122589, 5.028721566470506, 5.000960453817497, 4.978754417945269, 4.962813973081582, 4.9050720111386825, 4.917209358095795, 4.881207100089399, 4.855977803830612, 4.837690515384922, 4.823301865946367, 4.820469576936054, 4.820355938751292, 4.820242459720971, 4.805916925537628, 4.805813715774387, 4.805607728627236, 4.805504950639954, 4.762791070596887, 4.752001721232117, 4.699902383173425, 4.669691269687659, 4.669691269687659, 4.657008169124244, 4.669736077199448, 4.6560689880731765, 4.656463636981047, 4.642810670693526, 12.850579608656197, 12.781061687216772, 12.844947986522858, 12.644961392535889, 12.442933753816542, 12.272902559035481, 12.134529814615599, 11.950066937759596, 11.902331030640545, 11.742602662784591, 11.848701865536135, 11.570329771947154, 11.426439484605867, 11.134073301062138, 11.134572174266074, 11.089196743290413, 11.0586821301448, 11.05049405352438, 10.983667536894774, 10.812958152611905, 10.735610125472586, 10.708614849527338, 10.752312640687506, 10.861117239532984, 10.678659540004874, 10.475222788714987, 10.336672923388212, 10.399710560628538, 10.381305575792167, 10.393742233002436, 10.491134783672518, 10.583277895238378, 10.517680409284504, 10.53984026729058, 10.606807386590805, 10.465975843796963, 10.475523565022971, 10.519857291801491, 10.514637117263373, 10.61461206019735, 10.76974963245673, 10.760280690882265, 10.843921106285697, 10.817256744853323, 10.778304144909843, 10.676885862712735, 10.736955483172132, 10.845996738862752, 10.879952627554893, 10.678118397486383, 10.748794397001369, 10.786505202792162, 10.794697568120954, 10.645365649494575, 10.582302747871593, 10.459643788909199, 10.470878817985025, 10.407526859539427, 10.31615026038188, 10.234842987485502, 10.261296137804075, 10.236120914493569, 10.18481920665693, 10.142666733545985, 10.210283493062422, 10.009336842638174, 10.092789904900565, 10.002697620459264, 9.972982305669936, 10.033912358959155, 9.920796337131149, 9.999124566190467, 10.007185359118148, 10.028501358260062, 9.800443748049167, 9.871150620571747, 9.942024917784144, 9.927749651349679, 9.972460350176997, 10.090707796061213, 10.067874080242435, 9.94888160097794, 10.036900818270462, 9.88177174812382, 9.967695702564107, 9.855506536888944, 9.838961902310421, 9.827765414731024, 9.735329406447542, 9.735329406447542, 9.658431216131937, 9.724247057255656, 9.757322145376737, 9.757322145376737, 9.894611794420253, 9.818983543505034, 9.735460096235386, 9.817708941731413, 9.858596583658649, 9.888359081308222, 9.90064923622093, 9.839553534390067, 9.7372843656547, 9.741545789505775, 9.854602210234281, 9.710259235421336, 9.55297477129848, 9.556384436681329, 9.566975973237193, 9.631106844114369, 9.736757232344592, 9.824562883361398, 9.916012150055337, 9.83718200846505, 9.70360617443688, 9.766154744935047, 9.856163036861089, 9.807148581450617, 9.679385562113694, 9.6025427230502, 9.677211206363987, 9.615610680945926, 9.665461936715252, 9.6192825581727, 9.522968830222952, 9.450007611788408, 9.431076507045175, 9.418336188717065, 9.337776768115075, 9.352590918910252, 9.367383761240202, 9.382155341046566, 9.27340228831202, 9.288185594742416, 9.275608476141203, 9.235453969210248, 9.190543719324754, 9.232121725066042, 9.246408855557876, 9.165651487195996, 9.186414752762357, 9.181991381520682, 9.23778224914705, 9.143164117951223, 9.144814914169281, 9.05802432086076, 9.045467945428019, 9.032532878898019, 9.059606774961235, 8.965845357508108, 8.899907087404685, 8.834089409592956, 8.691514560060577, 8.71843305548543, 8.711998906866107, 8.74801941227279, 8.6829192990699, 8.73649248780176, 8.790055486066768, 8.81856084131585, 8.660294502793013, 8.567551568183147, 8.553711897308208, 8.444226484792148, 8.200580763375081, 8.200580763375081, 8.200580763375081, 8.08484503702507, 7.994835862955959, 7.994835862955959, 7.90494165896203, 7.82501057195448, 7.735328726306461, 7.560718669162678, 7.486061383167988, 7.396871580916567, 7.358956909416345, 7.231894984219038, 7.143028529473296, 7.030734828479256, 6.918937198095855, 6.80763235839257, 6.734451421898109, 6.6615764530502, 6.6615764530502, 6.57050543441509, 6.520638067822543, 6.470822819048922, 6.456981049580895, 6.443153560967667, 6.443153560967667, 6.3929505548337655, 6.320658255417348, 6.248618386014441, 6.176829626777928, 6.092344555509637, 6.070794434629782, 6.070794434629782, 6.042217118409126, 6.020792983056037, 5.999434865217193, 5.978142460216995, 5.956915465251761, 5.998710906924996, 5.977498345812378, 5.956350708860009, 5.90205888456066, 5.858988809831487, 5.838120373091458, 5.838120373091458, 5.817315412519494, 5.796573638939263, 5.796573638939263, 5.775894764928294, 5.734724574614007, 5.650925488000005, 5.66960495942684, 5.6882514027440765, 5.726957253524106, 5.726957253524106, 5.739140550194957, 5.746302256273937, 5.75345237998197, 5.760590949393983, 5.7677179924942426, 5.7303678202202235, 5.75220489122904, 5.774016294419458, 5.822825706359841, 5.796499222808537, 5.796499222808537, 5.796499222808537, 5.796499222808537, 5.796499222808537, 5.796499222808537, 5.796499222808537, 5.796499222808537, 5.796499222808537, 5.796499222808537, 5.796499222808537, 5.796499222808537, 5.796499222808537, 5.810391042855321, 5.810391042855321, 5.810391042855321, 5.810391042855321, 5.810391042855321, 5.810391042855321, 5.810391042855321, 5.810391042855321, 5.810391042855321, 5.810391042855321, 5.810391042855321, 5.810391042855321, 5.810391042855321, 5.810391042855321, 5.824245251927098, 5.824245251927098, 5.824245251927098, 5.824245251927098, 5.838062002560368, 5.861358264367995, 5.861358264367995, 5.861358264367995, 5.861358264367995, 5.861358264367995, 5.861358264367995, 5.861358264367995, 5.875106110286986, 5.875106110286986, 5.875106110286986, 5.875106110286986, 5.875106110286986, 5.875106110286986, 5.875106110286986, 5.875106110286986, 5.875106110286986, 5.875106110286986, 5.875106110286986, 5.875106110286986, 5.875106110286986, 5.875106110286986, 5.875106110286986, 5.875106110286986, 5.875106110286986, 5.875106110286986, 5.888816885973032, 5.888816885973032, 5.888816885973032, 5.888816885973032, 5.888816885973032, 5.888816885973032, 5.888816885973032, 5.888816885973032, 5.902490741160712, 5.916127824779271, 5.916127824779271, 5.916127824779271, 5.916127824779271, 5.929728284958041, 5.929728284958041, 5.943292269031788, 5.9997275737772355, 6.013174459978256, 6.026585392280523, 6.026585392280523, 6.026585392280523, 6.039960514690272, 6.075358110446638, 6.075358110446638, 6.088648504796245, 6.101903510581322, 6.115123268958563, 6.115123268958563, 6.12830792033493, 6.141457604372639, 6.141457604372639, 6.154572459994079, 6.167652625386709, 6.180698238007917, 6.193709434589823, 6.206686351144066, 6.219629122966542, 6.232537884642099, 6.245412770049211, 6.2582539123646015, 6.271061444067836, 6.271061444067836, 6.271061444067836, 6.283835496945878, 6.296576202097609, 6.309283689938315, 6.321958090204132, 6.321958090204132, 6.334599531956469, 6.34720814358638, 6.34720814358638, 6.359784052818917, 6.37232738671744, 6.384838271687893, 6.397316833483062, 6.409763197206774, 6.422177487318085, 6.434559827635432, 6.4469103413407405, 6.459229150983516, 6.471516378484897, 6.48377214514167, 6.495996571630278, 6.508189778010758, 6.498381227846098, 6.476824184329659, 6.4356136981183125, 6.398410612278099, 6.398410612278099, 6.398410612278099, 6.398410612278099, 6.398410612278099, 6.398410612278099, 6.398410612278099, 6.398410612278099, 6.398410612278099, 6.398410612278099, 6.398410612278099, 6.398410612278099, 6.398410612278099, 6.398410612278099, 6.477035520598196, 6.477035520598196, 6.477035520598196, 6.477035520598196, 6.477035520598196, 6.477035520598196, 6.477035520598196, 6.477035520598196, 6.477035520598196, 6.477035520598196, 6.477035520598196, 6.415648219578079, 6.415648219578079, 6.415648219578079, 6.415648219578079, 6.415648219578079, 6.415648219578079, 6.415648219578079, 6.415648219578079, 6.415648219578079, 6.415648219578079, 6.415648219578079, 6.415648219578079, 6.415648219578079, 6.415648219578079, 6.385023144858446, 6.385023144858446, 6.385023144858446, 6.385023144858446, 6.385023144858446, 6.385023144858446, 6.385023144858446, 6.385023144858446, 6.354443651245232, 6.354443651245232, 6.323909637052531, 6.323909637052531, 6.323909637052531, 6.323909637052531, 6.323909637052531, 6.323909637052531, 6.323909637052531, 6.323909637052531, 6.323909637052531, 6.323909637052531, 6.293421000896685, 6.293421000896685, 6.293421000896685, 6.293421000896685, 6.293421000896685, 6.293421000896685, 6.293421000896685, 6.293421000896685, 6.371698108210671, 6.449959139772488, 6.449959139772488, 6.449959139772488, 6.41940581894705, 6.388897828172501, 6.388897828172501, 6.388897828172501, 6.35843506664358, 6.35843506664358, 6.35843506664358, 6.35843506664358, 6.35843506664358, 6.328017433853697, 6.328017433853697, 6.328017433853697, 6.328017433853697, 6.3413130588984306, 6.3413130588984306, 6.310945275350245, 6.310945275350245, 6.324232890420526, 6.402125961620785, 6.402125961620785, 6.3717534205914195, 6.3717534205914195, 6.3717534205914195, 6.3717534205914195, 6.341425727057709, 6.354671308424772, 6.324393161823729, 6.2941596359628695, 6.2941596359628695, 6.2941596359628695, 6.342817148872153, 6.312611539736966, 6.282450350694739, 6.359909290816308, 6.359909290816308, 6.359909290816308, 6.329738574620795, 6.299612157556942, 6.334915382373693, 6.304811949258405, 6.274752644824144, 6.3238797057136775, 6.401047344229687, 6.436255700163636, 6.406145520982512, 6.376079381591361, 6.35889526719369, 6.328923094634169, 6.29899464137839, 6.2691098118384625, 6.282219574959758, 6.295316885453682, 6.372017430129362, 6.355184426007995, 6.338123683984537, 6.302439480212964, 6.2727740547242705, 6.166982692848283, 6.103888363085792, 6.103888363085792, 6.040840895506977, 5.977840237922146, 5.936512385697914, 5.89518893438078, 5.789827159755987, 5.725857231572918, 5.661959974672907, 5.598135265291926, 5.546332592075236, 5.482725839385253, 5.440551993496492, 5.411501612613858, 5.369388101086623, 5.340421025883014, 5.298367691257417, 5.256335320743221, 5.214323898668026, 5.172333409375049, 5.130363837223106, 5.101635802925853, 5.024561453919397, 5.037805080908152, 5.037805080908152, 5.037805080908152, 5.037805080908152, 5.050296736241856, 5.063504058295363, 5.076697986264527, 5.076697986264527, 5.076697986264527, 5.089878540514254, 5.089878540514254, 5.102270822534856, 5.102270822534856, 5.102270822534856, 5.11463227826117, 5.11463227826117, 5.11463227826117, 5.11463227826117, 5.11463227826117, 5.11463227826117, 5.11463227826117, 5.11463227826117, 5.11463227826117, 5.11463227826117, 5.11463227826117, 5.11463227826117, 5.11463227826117, 5.11463227826117, 5.127754233734409, 5.14086293492912, 5.14086293492912, 5.14086293492912, 5.153148688107239, 5.153148688107239, 5.153148688107239, 5.153148688107239, 5.153148688107239, 5.166221718187558, 5.166221718187558, 5.178454650634029, 5.191492178376676, 5.191492178376676, 5.191492178376676, 5.191492178376676, 5.191492178376676, 5.191492178376676, 5.191492178376676, 5.2045165895880405, 5.21752790405219, 5.21752790405219, 5.230526141513425, 5.24351132167638, 5.269497315988894, 5.282436258007415, 5.295362235520924, 5.321175374895608, 5.334062575590756, 5.346936889449032, 5.372644591619803, 5.384504363727683, 5.397311431619206, 5.410105741049733, 5.421893346983753, 5.433652133534116, 5.446390775536023, 5.459116770837382, 5.471830138261988, 5.483496228620389, 5.49513390849783, 5.50779222373541, 5.519380473633235, 5.532005184049633, 5.544617431282494, 5.5543464787150985, 5.566923814798228, 5.5812808480454725, 5.5812808480454725, 5.580183697171289, 5.5790881221378585, 5.5790881221378585, 5.591504309187377, 5.590402534954079, 5.589302339302163, 5.58820371884146, 5.587106670191499, 5.599466335785401, 5.611800588108912, 5.611800588108912, 5.624109505461607, 5.624109505461607, 5.622991028216556, 5.621874143989119, 5.609592149411523, 5.608487869095364, 5.607385156114266, 5.606284007133751, 5.605184418828799, 5.604086387883799, 5.602989910992537, 5.601894984858144, 5.60080160619307, 5.599709771719052, 5.611897825144159, 5.610800046590524, 5.609703814684761, 5.598618296275163, 5.597534109346768, 5.609656174857658, 5.608566104895717, 5.607477562141203, 5.6063905433869, 5.60530504543456, 5.619490542797589, 5.619490542797589, 5.632637240469395, 5.609608932727952, 5.609608932727952, 5.609608932727952, 5.622750461571291, 5.635883914820049, 5.649009299915738, 5.662126624290724, 5.662126624290724, 5.636814347034102, 5.649920225753876, 5.663018067515515, 5.677102478648018, 5.677102478648018, 5.677102478648018, 5.690178126260377, 5.703245766396123, 5.703245766396123, 5.716305406408626, 5.716305406408626, 5.742400715432392, 5.768464111978872, 5.781483861361166, 5.794495654551905, 5.8074994988417385, 5.820916885164693, 5.8109840857924455, 5.823966280982317, 5.836940557903968, 5.827932005363523, 5.840887341820316, 5.8538347895933835, 5.866774355885822, 5.917103801221227, 5.9299954375568555, 5.94374640810449, 5.956204207174653, 5.956204207174653, 5.957064877461059, 5.957924787560444, 5.973321657887249, 5.9741733210843595, 5.923684555793632, 5.924557479919949, 5.901635800852992, 5.864561075456726, 5.841690085221229, 5.841690085221229, 5.783317094751287, 5.747800139971922, 5.689481074374485, 5.666693860482569, 5.667676950567645, 5.682091523603605, 5.683066794493651, 5.647629558361007, 5.624899155878603, 5.62589873951143, 5.517471787542436, 5.49481588926443, 5.495871115139975, 5.460510636379355, 5.475011416838501, 5.476074161613662, 5.477135976921536, 5.454545829418987, 5.455616227598195, 5.470086973595195, 5.462497238211018, 5.453766431190458, 5.490019682066859, 5.539593877296679, 5.58910599370011, 5.638556147810641, 5.636309544168369, 5.648888173794405, 5.698228158260828, 5.7475065252738435, 5.796723390186387, 5.832649332215607, 5.881761564950021, 5.879397342337845, 5.798363586865708, 5.8117051649587115, 5.836404635852095, 5.850877649790263, 5.850877649790263, 5.874218413715134, 5.88773814813483, 5.902139284808613, 5.949575493672709, 5.972841222225285, 5.996102462987398, 6.019359217257412, 6.042611486333196, 6.078953887500692, 6.092043320100241, 6.0697150864401115, 6.082795242128811, 6.082795242128811, 6.095870225567564, 6.108940039823642, 6.122004687961879, 6.122004687961879, 6.122004687961879, 6.150707711265519, 6.138641813742624, 6.100764456185348, 6.091749043477717, 6.0827482465140665, 6.095767839</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>[0.031203735075218578, 0.04256736282332197, 0.04935864730997929, 0.05841224004899959, 0.061758400000000005, 0.06335909488391316, 0.06624021960037539, 0.07481634491510407, 0.07950866413320139, 13.345791095999408, 14.0503800912368, 14.180633007898109, 14.941309850448363, 14.95199664286709, 15.020180238186175, 15.26606730910711, 15.44041406002756, 15.44041406002756, 15.44041406002756, 15.48045766534072, 15.481931613407934, 15.521314047018377, 15.65237643048553, 15.65237643048553, 15.65237643048553, 15.749912978468855, 15.780124323456672, 15.788176850471933, 15.861004482124045, 16.210178160215055, 16.224844930596984, 16.293799090441887, 16.42214581069419, 16.510172774344316, 16.514735502839926, 16.547734468734127, 16.67337551323053, 16.744878999157784, 16.760554794769995, 16.923531646872863, 16.99555832747223, 17.015875642549823, 17.024326181278774, 17.09751587413127, 17.18580956472828, 17.18895637018852, 17.199043896410178, 17.24933698492561, 17.271721071675444, 17.342657863320362, 17.40772576535456, 17.70550730674892, 17.706856707401048, 17.79441657871652, 17.822872758289467, 17.898452915793072, 17.898452915793072, 17.91205331164612, 17.96228185838647, 18.07441938373952, 18.07441938373952, 18.078204519322025, 18.078204519322025, 18.15408944230897, 18.17530620677174, 18.190192401803657, 18.1932400916146, 18.1932400916146, 18.1935750779373, 18.333409900468244, 18.436441403402874, 18.500187785179207, 18.61060250983008, 18.638545567489427, 18.638545567489427, 18.638545567489427, 18.837784318252208, 18.837784318252208, 18.87630810455225, 18.94776016095758, 18.950225574589396, 19.048050164160518, 19.127175409737667, 19.137376298301863, 19.148523733621055, 19.335816199266052, 19.423737326218625, 19.466791397602478, 19.47683078798139, 19.64346615302916, 19.739014281405645, 19.759073286563225, 19.815484695695115, 19.815484695695115, 19.860851233144743, 19.880392170406914, 20.198920536962262, 20.320563283028843, 20.376590100075493, 20.387660614932194, 20.387660614932194, 20.402737047719246, 20.40394043285196, 20.609154491098526, 20.609154491098526, 20.609154491098526, 20.773812005272564, 20.883226851667665, 20.883226851667665, 20.93045272593508, 20.941878247948257, 20.941878247948257, 20.941878247948257, 20.941878247948257, 21.01155263789681, 21.01155263789681, 21.29949944154791, 21.449631586365335, 21.598496286097564, 21.66313072908481, 21.747676161061868, 21.7982346240486, 21.897576210693877, 21.897576210693877, 21.897576210693877, 21.897576210693877, 21.897576210693877, 21.9924248793474, 21.9924248793474, 22.148272402429086, 22.148272402429086, 22.30790794686429, 22.313341344729718, 22.313341344729718, 22.313341344729718, 22.313341344729718, 22.313341344729718, 22.67197670799194, 22.67197670799194, 22.67197670799194, 22.67197670799194, 22.67197670799194, 22.67197670799194, 22.67197670799194, 22.67197670799194, 22.67197670799194, 22.67197670799194, 22.67197670799194, 22.718314463912996, 22.718314463912996, 22.718314463912996, 22.718314463912996, 22.83114492066398, 22.83114492066398, 22.986309535534847, 23.15504264308977, 23.344980029129346, 23.441860002713415, 23.441860002713415, 23.441860002713415, 23.441860002713415, 23.495987353372595, 23.495987353372595, 23.495987353372595, 23.495987353372595, 23.495987353372595, 23.495987353372595, 23.506377239865543, 23.608985656251797, 23.608985656251797, 23.608985656251797, 23.608985656251797, 23.608985656251797, 23.608985656251797, 23.608985656251797, 23.608985656251797, 23.608985656251797, 23.608985656251797, 23.608985656251797, 23.608985656251797, 23.608985656251797, 23.608985656251797, 23.608985656251797, 23.608985656251797, 23.923184582073414, 23.923184582073414, 24.04638969157576, 24.134259808721104, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.425399916482814, 24.425399916482814, 24.425399916482814, 24.425399916482814, 24.425399916482814, 24.491344001304828, 24.491344001304828, 24.635607819885664, 24.635607819885664, 24.778240813892495, 24.878522481175143, 24.878522481175143, 24.878522481175143, 24.878522481175143, 24.878522481175143, 24.878522481175143, 25.1644187220921, 25.391700506016846, 25.391700506016846, 25.391700506016846, 25.391700506016846, 25.391700506016846, 25.391700506016846, 25.391700506016846, 25.391700506016846, 25.391700506016846, 25.391700506016846, 25.391700506016846, 25.391700506016846, 25.391700506016846, 25.391700506016846, 25.391700506016846, 25.391700506016846, 25.391700506016846, 25.391700506016846, 25.391700506016846, 25.391700506016846, 25.391700506016846, 25.391700506016846, 25.391700506016846, 25.391700506016846, 25.391700506016846, 25.486992841375603, 25.486992841375603, 25.486992841375603, 25.486992841375603, 25.605424812685385, 25.94273176924372, 26.046685540078137, 26.119981851092152, 26.168551190445676, 26.168551190445676, 26.322170891140406, 26.32623755677071, 26.32623755677071, 26.355726953984085, 26.355726953984085, 26.355726953984085, 26.448752174494985, 26.52722228008822, 26.52722228008822, 26.60848387227875, 26.60848387227875, 26.60848387227875, 26.60848387227875, 26.60848387227875, 26.60848387227875, 26.60848387227875, 26.993359163979065, 26.993359163979065, 26.993359163979065, 27.222560613168934, 27.295274374593276, 27.295274374593276, 27.295274374593276, 27.295274374593276, 27.295274374593276, 27.295274374593276, 27.37240471408609, 27.37240471408609, 27.37240471408609, 27.37240471408609, 27.37240471408609, 28.170837070154597, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.3870595721002, 28.3870595721002, 28.3870595721002, 28.3870595721002, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.56445322732855, 28.56445322732855, 28.56445322732855, 28.56445322732855, 28.56445322732855, 28.56445322732855, 28.56445322732855, 28.56445322732855, 28.56445322732855, 28.56445322732855, 28.56445322732855, 28.56445322732855, 28.56445322732855, 28.56445322732855, 28.56445322732855, 28.56445322732855, 28.56445322732855, 28.56445322732855, 28.56445322732855, 28.61298530956469, 29.019331451506915, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.826126369882967, 29.826126369882967, 29.826126369882967, 29.826126369882967, 29.826126369882967, 29.826126369882967, 29.826126369882967, 29.826126369882967, 29.826126369882967, 29.826126369882967, 29.826126369882967, 29.826126369882967, 29.826126369882967, 29.826126369882967, 29.826126369882967, 29.826126369882967, 29.826126369882967, 29.826126369882967, 29.826126369882967, 29.826126369882967, 29.826126369882967, 29.826126369882967, 29.826126369882967, 29.826126369882967, 29.826126369882967, 29.826126369882967, 29.826126369882967, 29.826126369882967, 29.826126369882967, 29.826126369882967, 29.826126369882967, 29.826126369882967, 30.02907167265281, 30.02907167265281, 30.02907167265281, 30.02907167265281, 30.02907167265281, 30.02907167265281, 30.02907167265281, 30.02907167265281, 30.02907167265281, 30.02907167265281, 30.05028018670162, 30.05028018670162, 30.05028018670162, 30.05028018670162, 30.05028018670162, 30.05028018670162, 30.05028018670162, 30.05028018670162, 30.05028018670162, 30.05028018670162, 30.05028018670162, 30.05028018670162, 30.05028018670162, 30.05028018670162, 30.05028018670162, 30.05028018670162, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.58335241596118, 30.58335241596118, 30.58335241596118, 30.58335241596118, 30.58335241596118, 30.58335241596118, 30.58335241596118, 30.58335241596118, 30.58335241596118, 30.58335241596118, 30.58335241596118, 30.58335241596118, 30.58335241596118, 30.58335241596118, 30.58335241596118, 30.58335241596118, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 31.148064223155103, 31.148064223155103, 31.148064223155103, 31.148064223155103, 31.256200047816108, 31.256200047816108, 31.256200047816108, 31.256200047816108, 31.256200047816108, 31.256200047816108, 31.449959923632047, 31.449959923632047, 31.665882771650587, 31.665882771650587, 31.665882771650587, 31.665882771650587, 31.665882771650587, 31.665882771650587, 31.665882771650587, 31.665882771650587, 31.665882771650587, 31.665882771650587, 31.665882771650587, 31.665882771650587, 31.665882771650587, 31.665882771650587, 31.665882771650587, 31.665882771650587, 31.665882771650587, 31.665882771650587, 31.665882771650587, 31.665882771650587, 31.665882771650587, 31.665882771650587, 31.665882771650587, 31.665882771650587, 31.665882771650587, 31.665882771650587, 31.665882771650587, 31.665882771650587, 31.665882771650587, 31.665882771650587, 31.665882771650587, 31.665882771650587, 32.13825460865774, 32.56260513879532, 32.56260513879532, 32.56260513879532, 32.56260513879532, 32.56260513879532, 32.56260513879532, 32.56260513879532, 32.56260513879532, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.35376893643735, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.75290152750132, 34.75290152750132, 34.75290152750132, 34.75290152750132, 35.01173213512333, 35.01173213512333, 35.01173213512333, 35.01173213512333, 35.01173213512333, 35.01173213512333, 35.01173213512333, 35.01173213512333, 35.01173213512333, 35.01173213512333, 35.01173213512333, 35.01173213512333, 35.01173213512333, 36.090368704290626, 36.89565905056544, 36.89565905056544, 36.89565905056544, 36.89565905056544, 36.89565905056544, 36.89565905056544, 36.89565905056544, 36.89565905056544, 36.89565905056544, 36.89565905056544, 36.89565905056544, 36.89565905056544, 36.89565905056544, 36.89565905056544, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 0.0286241212152132, 0.033084505285833454, 0.03656460737078665, 0.040654321048689546, 0.04252482424304264, 0.05262901217358863, 0.05365424829958497, 0.0539406532982454, 0.05440660928649274, 0.05752007351533936, 0.06246511127240481, 0.06302330311883687, 0.07018280215716616, 0.07858985973131136, 11.168437888359685, 12.35847056355819, 12.476305095850861, 13.472773342441194, 14.130770478567797, 14.25289819768176, 14.684194901882497, 14.919099560887748, 15.049137746105464, 15.049137746105464, 15.105728134689947, 15.302018874841446, 15.548346546608114, 15.642600931880613, 15.642600931880613, 15.683697669727772, 15.802635026290703, 15.97039853794033, 16.016408785112237, 16.14553189354417, 16.203030141194027, 16.248263923852893, 16.358964113008852, 16.49151735630766, 16.49151735630766, 16.49557224693255, 16.55622962482028, 16.63500932856328, 16.719332020653518, 16.826859516296118, 16.867140496319553, 16.873324128224784, 16.924526797242383, 17.004471567559484, 17.01146559640953, 17.24664357235254, 17.279769505195027, 17.451991521901107, 17.473919509993216, 17.476597767996388, 17.49161216916584, 17.57066540022066, 17.57066540022066, 17.59213487936169, 17.59213487936169, 17.59213487936169, 17.648632304434685, 17.673155375574808, 17.673155375574808, 17.728063677222867, 17.728063677222867, 17.78441149291653, 17.811475774136255, 17.848960372218112, 17.92442382757042, 17.968127053815582, 18.13159827870566, 18.20826653125653, 18.280836690947652, 18.298286683391698, 18.298286683391698, 18.298286683391698, 18.468868170133206, 18.579031034015323, 18.580823672778838, 18.593248393475374, 18.596046771817292, 18.596046771817292, 18.596046771817292, 18.61106506524385, 18.672613820970565, 18.672613820970565, 18.7355983041253, 18.77633088146916, 18.966747277174083, 19.050080637347467, 19.08510572822227, 19.08510572822227, 19.08510572822227, 19.08510572822227, 19.1243388741915, 19.155173727374013, 19.21573466357687, 19.281509044099945, 19.281509044099945, 19.309493345467153, 19.35323126225012, 19.37396490200652, 19.5940133821182, 19.724192174354446, 19.724192174354446, 19.7638740049041, 19.774685286953854, 19.797574618276634, 19.82865470358879, 19.881445898218697, 19.961743299015517, 19.982822167372635, 20.00539507799165, 20.00539507799165, 20.067634869757768, 20.103380636980024, 20.159663812372884, 20.159663812372884, 20.175229091467312, 20.23495820028386, 20.311365524074503, 20.311365524074503, 20.32456125054258, 20.67852899935935, 20.800495284912348, 20.924726793308736, 20.949050050438085, 20.996648940683375, 21.11327449653789, 21.11327449653789, 21.237410762059042, 21.237410762059042, 21.237410762059042, 21.237410762059042, 21.237410762059042, 21.263090619277914, 21.300063900545876, 21.300063900545876, 21.499744634165786, 21.558909022080734, 22.051291280746504, 22.051291280746504, 22.13903922481038, 22.13903922481038, 22.13903922481038, 22.172660141056603, 22.294937254686705, 22.294937254686705, 22.294937254686705, 22.554910483224933, 22.554910483224933, 22.554910483224933, 22.554910483224933, 22.554910483224933, 22.554910483224933, 22.554910483224933, 22.554910483224933, 22.554910483224933, 22.554910483224933, 22.554910483224933, 22.554910483224933, 22.599323818568667, 22.599323818568667, 22.952008916997897, 22.952008916997897, 22.952008916997897, 22.99654152702203, 22.99654152702203, 22.99654152702203, 22.99654152702203, 22.99654152702203, 22.99654152702203, 23.04260114912347, 23.04260114912347, 23.04260114912347, 23.04260114912347, 23.04260114912347, 23.04260114912347, 23.412645996598986, 23.412645996598986, 23.412645996598986, 23.412645996598986, 23.75275152691157, 23.75275152691157, 23.75275152691157, 23.75275152691157, 23.75275152691157, 23.75275152691157, 23.75275152691157, 23.75275152691157, 23.75275152691157, 23.75275152691157, 23.75275152691157, 23.75275152691157, 23.75275152691157, 23.75275152691157, 23.75275152691157, 23.75275152691157, 23.75275152691157, 23.81341069082346, 23.81341069082346, 23.81341069082346, 23.81341069082346, 23.81341069082346, 24.146444988971517, 24.146444988971517, 24.146444988971517, 24.146444988971517, 24.20316722659014, 24.21542150832698, 24.21542150832698, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.30742458241185, 24.30742458241185, 24.30742458241185, 24.30742458241185, 24.516698437008614, 24.658733819165338, 24.658733819165338, 24.658733819165338, 24.658733819165338, 24.658733819165338, 24.658733819165338, 24.658733819165338, 24.658733819165338, 24.658733819165338, 24.658733819165338, 24.658733819165338, 24.690746961079782, 25.22633568706206, 25.22633568706206, 25.22633568706206, 25.22633568706206, 25.22633568706206, 25.22633568706206, 25.22633568706206, 25.22633568706206, 25.22633568706206, 25.22633568706206, 25.22633568706206, 25.22633568706206, 25.22633568706206, 25.22633568</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[20.320563283028843, 20.320563283028843, 20.320563283028843, 20.320563283028843, 20.320563283028843, 20.320563283028843, 20.320563283028843, 20.93045272593508, 20.93045272593508, 20.93045272593508, 20.93045272593508, 20.93045272593508, 21.747676161061868, 21.747676161061868, 21.747676161061868, 21.747676161061868, 21.747676161061868, 21.747676161061868, 21.747676161061868, 21.747676161061868, 21.747676161061868, 21.747676161061868, 21.747676161061868, 21.747676161061868, 21.747676161061868, 21.747676161061868, 21.747676161061868, 21.747676161061868, 21.747676161061868, 21.747676161061868, 21.747676161061868, 21.747676161061868, 21.747676161061868, 21.747676161061868, 23.15504264308977, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.635607819885664, 24.635607819885664, 24.635607819885664, 24.635607819885664, 24.635607819885664, 24.635607819885664, 24.635607819885664, 24.635607819885664, 24.635607819885664, 24.635607819885664, 24.635607819885664, 24.635607819885664, 24.635607819885664, 24.635607819885664, 24.635607819885664, 24.635607819885664, 24.635607819885664, 24.635607819885664, 24.635607819885664, 24.635607819885664, 24.635607819885664, 24.635607819885664, 24.635607819885664, 24.635607819885664, 24.635607819885664, 24.878522481175143, 24.878522481175143, 24.878522481175143, 24.878522481175143, 24.878522481175143, 24.878522481175143, 24.878522481175143, 24.878522481175143, 24.878522481175143, 24.878522481175143, 25.391700506016846, 25.391700506016846, 25.391700506016846, 25.391700506016846, 25.391700506016846, 25.391700506016846, 25.391700506016846, 25.391700506016846, 26.32623755677071, 26.32623755677071, 26.32623755677071, 26.32623755677071, 26.32623755677071, 26.32623755677071, 26.32623755677071, 26.32623755677071, 26.32623755677071, 26.32623755677071, 26.32623755677071, 26.32623755677071, 26.32623755677071, 26.60848387227875, 26.60848387227875, 26.60848387227875, 26.60848387227875, 26.60848387227875, 26.60848387227875, 26.60848387227875, 26.60848387227875, 26.60848387227875, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.30742458241185, 24.30742458241185, 24.30742458241185, 24.30742458241185, 24.30742458241185, 24.30742458241185, 24.30742458241185, 24.30742458241185, 24.658733819165338, 24.658733819165338, 24.658733819165338, 24.658733819165338, 24.658733819165338, 24.658733819165338, 24.658733819165338, 24.658733819165338, 24.658733819165338, 24.658733819165338, 24.658733819165338, 24.658733819165338, 24.658733819165338, 24.658733819165338, 24.658733819165338, 24.658733819165338, 24.658733819165338, 25.22633568706206, 25.22633568706206, 25.22633568706206, 25.22633568706206, 25.22633568706206, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.612752546598646, 25.612752546598646, 25.612752546598646, 25.612752546598646, 25.612752546598646, 25.612752546598646, 25.612752546598646, 25.612752546598646, 25.612752546598646, 25.612752546598646, 25.612752546598646, 25.612752546598646, 25.612752546598646, 25.612752546598646, 25.612752546598646, 25.612752546598646, 25.612752546598646, 25.612752546598646, 25.612752546598646, 25.729325395629992, 25.729325395629992, 25.729325395629992, 25.729325395629992, 25.729325395629992, 25.729325395629992, 25.729325395629992, 25.729325395629992, 25.729325395629992, 25.729325395629992, 25.729325395629992, 25.729325395629992, 25.729325395629992, 25.729325395629992, 25.729325395629992, 25.729325395629992, 25.729325395629992, 25.729325395629992, 25.729325395629992, 25.729325395629992, 25.729325395629992, 28.195585194277097, 28.195585194277097, 28.195585194277097, 28.195585194277097, 28.195585194277097, 28.195585194277097, 28.195585194277097, 28.195585194277097, 28.195585194277097, 28.195585194277097, 28.195585194277097, 28.195585194277097, 28.195585194277097, 28.195585194277097, 28.195585194277097, 28.195585194277097, 28.195585194277097, 28.195585194277097, 28.195585194277097, 28.195585194277097, 28.195585194277097, 28.195585194277097, 28.195585194277097, 28.1955</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>[13.96671940371008, 14.329177117854757, 14.672306648526492, 14.995816374192232, 15.348758275526233, 15.631135767684196, 15.909908355336716, 16.32719260546341, 16.63874380717482, 17.00101843572445, 17.092932041408513, 17.181928195287366, 17.35714359403589, 17.398228563576364, 17.44462305215253, 17.47943054328421, 17.504403907158864, 17.504403907158864, 17.504403907158864, 17.5257990814452, 17.529237456748096, 17.563315015774503, 17.625659646183923, 17.695582592246634, 17.716002573901534, 17.74142567822928, 17.74202990512904, 17.815964034419533, 17.861688885084885, 18.019144350590818, 18.077484295581268, 18.11095645528519, 18.12703079095898, 18.194218510491705, 18.327115907866613, 18.481559887330647, 18.508846264188886, 18.66751071797742, 18.689070593160057, 18.702208018864614, 18.84220107756862, 18.863854001405617, 18.90428506553986, 18.910301853582848, 18.92759717326795, 18.945445072359828, 18.99014069148043, 19.0841113377661, 19.10061298574238, 19.188977965991604, 19.205989610557488, 19.283672550873497, 19.383928694016774, 19.44862912482772, 19.539007620147984, 19.570348165288056, 19.570348165288056, 19.617454114710462, 19.731392761602578, 19.825586658594688, 19.902049795133774, 19.96079246021692, 20.011411459652447, 20.044627654894118, 20.097022106153393, 20.11626350798399, 20.224639373072957, 20.24948002144458, 20.33905475377213, 20.413134776427256, 20.416470334121474, 20.437077334005465, 20.49472398714082, 20.576878226222476, 20.65847360415095, 20.711692681632115, 20.792361304442167, 20.834443183036086, 20.903954323565635, 20.923645186137488, 20.937056436584662, 21.14073473644822, 21.170632205162857, 21.195841909266747, 21.266533917460553, 21.362027134429596, 21.38143034746045, 21.565799507184146, 21.633086577645376, 21.715006204190058, 21.775576415289315, 21.827062956555796, 21.90180123789198, 21.90180123789198, 21.913244756276725, 21.936258784371766, 21.978499438550575, 22.015476352943985, 22.08124480040844, 22.119979825301524, 22.182146360070334, 22.18657623759366, 22.24542109722186, 22.27661843060282, 22.31787487494069, 22.39840394151643, 22.40505841665343, 22.40841974150694, 22.445121493751845, 22.473723783613085, 22.54362272742404, 22.558047777046774, 22.65779159433929, 22.69239356354017, 22.74239319863547, 22.762010643464478, 22.784745038755123, 22.81848124063486, 22.87422729842838, 22.9110945727607, 22.920797406227585, 22.932110709900943, 23.00398002754031, 23.03594825039388, 23.06683392623427, 23.07184785006898, 23.080163152749698, 23.09565116269566, 23.127982378233746, 23.2262469379775, 23.32028032717558, 23.372879695404855, 23.41657943990724, 23.423752147172483, 23.449665033402923, 23.51687800670728, 23.542790892937724, 23.55089035532139, 23.60528483128189, 23.60846819553533, 23.65259911099899, 23.67133928996419, 23.690079468929383, 23.768809612215122, 23.787549791180318, 23.831680706643983, 23.850420885609182, 23.904815361569682, 23.991588888278464, 24.007142346067656, 24.02495576991443, 24.055328170157004, 24.16507586209489, 24.178372710749063, 24.20648850185661, 24.244332760769417, 24.26597059742845, 24.3069050069662, 24.3069050069662, 24.322806496432758, 24.32723155651671, 24.343133045983272, 24.35795198843665, 24.395866251489533, 24.39812621754712, 24.49323527261223, 24.53114953566512, 24.545968478118493, 24.564348931650837, 24.580677216855456, 24.672611484946568, 24.672611484946568, 24.708265781941872, 24.72459406714649, 24.72459406714649, 24.72459406714649, 24.737153043542286, 24.768261704859093, 24.79365244135756, 24.854965415429874, 24.86752439182567, 24.880083368221463, 24.88883144892794, 24.909363892200616, 24.945018189195917, 25.026345931069812, 25.036390237758, 25.04020113344731, 25.120478441151977, 25.143573761751487, 25.166669082350996, 25.189764402950505, 25.21285972355001, 25.255235573108866, 25.268067333211537, 25.291162653811046, 25.333538503369905, 25.356633823969414, 25.379729144568923, 25.43944166731147, 25.506773341880052, 25.526099353670734, 25.601705336557224, 25.677311319443724, 25.696637331234406, 25.715963343025088, 25.715963343025088, 25.79025044421514, 25.829707965263, 25.920506129937426, 25.93277532377991, 25.943038884276742, 25.977638112098816, 26.04418164369146, 26.09251668155982, 26.127115909381892, 26.137379469878724, 26.19820507665303, 26.236276554024563, 26.29255652512037, 26.294462371827546, 26.357315791444265, 26.420169211060987, 26.438778618763465, 26.463114286088697, 26.465020132795875, 26.480557146484454, 26.512590319643696, 26.568870290739504, 26.62515026183532, 26.647860697316744, 26.704140668412556, 26.706046515119734, 26.768899934736456, 26.83175335435318, 26.89166053567484, 26.954513955291564, 27.01079392638737, 27.073647346004094, 27.089184359692673, 27.144767090975428, 27.167477526456857, 27.1995106996161, 27.213141866597503, 27.213141866597503, 27.25085010405171, 27.33225864050044, 27.387891335688735, 27.4778641729642, 27.502835949654504, 27.544550293848808, 27.585293251256044, 27.63576338451069, 27.673433947904027, 27.694357291050338, 27.7000022173605, 27.74062886972282, 27.74568400808871, 27.78925689874609, 27.830969284993248, 27.8478729336732, 27.864776582353162, 27.896720886123735, 27.910456696170026, 27.942400999940595, 27.980918752232082, 28.012863056002658, 28.04480735977323, 28.076751663543806, 28.100998461480373, 28.12524525941694, 28.1765264694136, 28.17798074464208, 28.202762686887272, 28.227544629132467, 28.24575312285675, 28.24729572964661, 28.24729572964661, 28.272077671891804, 28.288743558826226, 28.311982894281563, 28.32864878121599, 28.351888116671326, 28.36855400360575, 28.369251243418802, 28.375824691939716, 28.382398140460626, 28.388971588981534, 28.388971588981534, 28.388971588981534, 28.388971588981534, 28.395545037502448, 28.395545037502448, 28.395545037502448, 28.395545037502448, 28.395545037502448, 28.402118486023355, 28.40869193454427, 28.435726346604362, 28.435726346604362, 28.442299795125273, 28.489612723211682, 28.49618617173259, 28.510536338393436, 28.510536338393436, 28.517109786914343, 28.523683235435257, 28.530256683956164, 28.530256683956164, 28.537431767286584, 28.5440052158075, 28.550578664328405, 28.557152112849316, 28.563725561370223, 28.570900644700647, 28.601562266986594, 28.608135715507505, 28.647719345019446, 28.65489442834987, 28.6938764230523, 28.730988692391932, 28.7345365654965, 28.763317901452155, 28.766264139747207, 28.766865774556724, 28.767467409366237, 28.793302507026837, 28.793302507026837, 28.81913760468744, 28.819739239496947, 28.820340874306464, 28.820340874306464, 28.846175971967064, 28.87606997568306, 28.90190507334366, 28.932223247340634, 28.958058345001238, 28.983893442661838, 28.984495077471347, 29.014389081187346, 29.040224178847946, 29.070118182563945, 29.070719817373455, 29.07132145218297, 29.071923086992477, 29.09775818465308, 29.12359328231368, 29.16986370761301, 29.16986370761301, 29.195698805273615, 29.196300440083128, 29.19690207489264, 29.197503709702154, 29.223338807362758, 29.22394044217227, 29.24440140571145, 29.270236503372054, 29.30055467736903, 29.32638977502963, 29.32699140983914, 29.32699140983914, 29.360555806074213, 29.380415134803883, 29.405648597654974, 29.45071575333528, 29.47594921618637, 29.509513612421436, 29.539776622972646, 29.565010085823737, 29.590243548674824, 29.649041407760986, 29.67427487061208, 29.694134199341747, 29.713993528071413, 29.739226990922504, 29.78188895164114, 29.865556259884766, 29.89484862879125, 29.92008209164234, 29.944344912848706, 29.9649638875526, 29.974821098010395, 29.98019523213181, 29.98556936625323, 29.98556936625323, 30.009131644216428, 30.034339471167062, 30.044196681624857, 30.054053892082653, 30.054053892082653, 30.062384825466633, 30.066443731522032, 30.066443731522032, 30.124877576914567, 30.124877576914567, 30.140022097836138, 30.144081003891532, 30.144081003891532, 30.148564080227906, 30.156895013611887, 30.16522594699587, 30.18505963982509, 30.18954271616146, 30.218144189720125, 30.22262726605649, 30.22668617211189, 30.241830693033453, 30.241830693033453, 30.250161626417434, 30.258492559801415, 30.258492559801415, 30.2668234931854, 30.281968014106962, 30.290298947490943, 30.305443468412506, 30.3095023744679, 30.313985450804275, 30.34042420786972, 30.355568728791283, 30.368382738511638, 30.38821643134085, 30.38821643134085, 30.399302046207016, 30.432038268186975, 30.436310295515558, 30.436734465796533, 30.46947068777649, 30.473742715105075, 30.47801474243366, 30.478438912714637, 30.48271094004322, 30.48271094004322, 30.515022991742203, 30.54733504344118, 30.551182900488794, 30.55887861458401, 30.569540059169203, 30.569540059169203, 30.569540059169203, 30.573387916216813, 30.627482272306292, 30.65160066952858, 30.655448526576187, 30.659296383623797, 30.659296383623797, 30.663144240671404, 30.713390739713276, 30.72020432725086, 30.78658015329374, 30.793393740831323, 30.83336069492793, 30.83336069492793, 30.83336069492793, 30.840174282465508, 30.921126771487806, 31.002079260510104, 31.002079260510104, 31.05218217251866, 31.05218217251866, 31.05218217251866, 31.05218217251866, 31.102285084527217, 31.102285084527217, 31.130749279178584, 31.137562866716166, 31.14437645425375, 31.22532894327604, 31.232142530813622, 31.252413070988304, 31.259226658525886, 31.26604024606347, 31.26604024606347, 31.26604024606347, 31.294504440714835, 31.322968635366205, 31.343239175540884, 31.393342087549442, 31.474294576571737, 31.485797336016972, 31.514261530668342, 31.52107511820592, 31.606508255834516, 31.680647157319232, 31.70229776443302, 31.70229776443302, 31.713592000576895, 31.718281172484552, 31.761570496955528, 31.775027449592628, 31.796678056706416, 31.818328663820203, 31.89246756530492, 31.914118172418707, 31.957407496889683, 31.962096668797336, 31.966785840704986, 32.00637089516167, 32.07582062473873, 32.07582062473873, 32.09278205994487, 32.09278205994487, 32.131382212508186, 32.14402519075395, 32.258996812825075, 32.297596965388394, 32.297596965388394, 32.31455840059453, 32.31455840059453, 32.35315855315785, 32.39175870572117, 32.39175870572117, 32.45460337106201, 32.51744803640284, 32.54944312472994, 32.54944312472994, 32.57927549656382, 32.609107868397686, 32.61730152287437, 32.62549517735106, 32.633688831827754, 32.633688831827754, 32.638007288788124, 32.638007288788124, 32.65964600614531, 32.65964600614531, 32.65964600614531, 32.677580453488204, 32.69921917084539, 32.75170746521632, 32.75170746521632, 32.859079429726535, 32.859079429726535, 32.88071814708372, 32.90235686444091, 32.954845158811835, 32.954845158811835, 32.954845158811835, 32.97648387616902, 32.97648387616902, 32.99812259352621, 32.99812259352621, 33.019761310883396, 33.04140002824058, 33.059334475583476, 33.059334475583476, 33.07726892292637, 33.09520337026927, 33.11684208762645, 33.11684208762645, 33.13477653496935, 33.13477653496935, 33.15641525232654, 33.178053969683724, 33.19969268704091, 33.242733544671694, 33.24643781468599, 33.25014208470028, 33.28469593172831, 33.288400201742604, 33.32295404877063, 33.32665831878492, 33.33036258879922, 33.36491643582725, 33.36491643582725, 33.395766012840994, 33.426615589854734, 33.45746516686847, 33.45746516686847, 33.45746516686847, 33.48831474388221, 33.51916432089595, 33.51916432089595, 33.55001389790969, 33.58086347492343, 33.58086347492343, 33.61171305193718, 33.61171305193718, 33.64256262895092, 33.67341220596466, 33.7042617829784, 33.735111359992146, 33.765960937005886, 33.765960937005886, 33.796810514019626, 33.827660091033366, 33.858509668047105, 33.88935924506085, 33.92020882207459, 33.95105839908833, 33.98190797610207, 34.01275755311582, 34.04360713012956, 34.0744567071433, 34.10530628415704, 34.10530628415704, 34.136155861170785, 34.167005438184525, 34.197855015198265, 34.228704592212004, 34.25955416922575, 34.29040374623949, 34.32125332325323, 34.35210290026697, 34.35210290026697, 34.35210290026697, 34.35210290026697, 34.35210290026697, 34.35210290026697, 34.35210290026697, 34.35210290026697, 34.35902464019771, 34.35902464019771, 34.35902464019771, 34.35902464019771, 34.35902464019771, 34.35902464019771, 34.35902464019771, 34.35902464019771, 34.35902464019771, 34.35902464019771, 34.35902464019771, 34.35902464019771, 34.35902464019771, 34.35902464019771, 34.35902464019771, 34.35902464019771, 34.36594638012845, 34.36594638012845, 34.36594638012845, 34.36594638012845, 34.36594638012845, 34.36594638012845, 34.37286812005919, 34.37286812005919, 34.37286812005919, 34.37286812005919, 34.37978985998993, 34.37978985998993, 34.37978985998993, 34.37978985998993, 34.37978985998993, 34.386711599920666, 34.386711599920666, 34.386711599920666, 34.393633339851405, 34.448517009990695, 34.455438749921434, 34.455438749921434, 34.46236048985217, 34.46236048985217, 34.46928222978292, 34.46928222978292, 34.47620396971366, 34.47620396971366, 34.48312570964439, 34.48312570964439, 34.48312570964439, 34.49004744957513, 34.49004744957513, 34.49004744957513, 34.49696918950587, 34.50389092943661, 34.50389092943661, 34.51081266936735, 34.51081266936735, 34.51081266936735, 34.51081266936735, 34.520064750113434, 34.526986490044166, 34.53390822997491, 34.588791900114195, 34.595713640044934, 34.595713640044934, 34.60263537997567, 34.60955711990641, 34.616478859837144, 34.62340059976789, 34.63032233969862, 34.685540756185944, 34.69479283693203, 34.70171457686277, 34.708636316793516, 34.715558056724255, 34.722479796654994, 34.72940153658573, 34.7815087677931, 34.83672718428042, 34.84364892421116, 34.8505706641419, 34.857492404072644, 34.86441414400338, 34.87260531285893, 34.87952705278967, 34.88644879272041, 34.94166720920773, 34.99688562569504, 35.00380736562578, 35.01072910555652, 35.01765084548727, 35.0233031564932, 35.0233031564932, 35.0233031564932, 35.0233031564932, 35.0233031564932, 35.0233031564932, 35.0233031564932, 35.07159983304978, 35.07159983304978, 35.07159983304978, 35.07159983304978, 35.07159983304978, 35.07159983304978, 35.07159983304978, 35.11989650960636, 35.168193186162945, 35.168193186162945, 35.168193186162945, 35.17570013913073, 35.18320709209852, 35.228392583375154, 35.228392583375154, 35.228392583375154, 35.27668925993173, 35.32498593648832, 35.370171427764944, 35.370171427764944, 35.370171427764944, 35.418468104321526, 35.420798445136874, 35.420798445136874, 35.42830539810466, 35.43581235107246, 35.443319304040244, 35.443319304040244, 35.45082625700803, 35.499122933564614, 35.547084863773165, 35.55459181674096, 35.602888493297534, 35.60521883411289, 35.650404325389516, 35.6987010019461, 35.79495960871123, 35.80246656167902, 35.80479690249437, 35.849982393771, 35.898279070327575, 35.90578602329536, 35.91329297626315, 35.95847846753978, 36.00677514409636, 36.01428209706415, 36.0622440272727, 36.069750980240485, 36.11493647151711, 36.16289840172566, 36.21086033193421, 36.28823669284192, 36.3310918433032, 36.373946993764484, 36.41957858315769, 36.508400069360206, 36.508400069360206, 36.546078607669045, 36.58686833125784, 36.627323308498596, 36.66811303208739, 36.708568009328154, 36.74935773291694, 36.790147456505736, 36.82782599481458, 36.86828097205534, 36.9087359492961, 36.94641448760494, 36.984093025913786, 37.00331001811923, 37.00608645705115, 37.009197642331095, 37.012308827611044, 37.01542001289099, 37.01853119817095, 37.021307637102865, 37.02441882238282, 37.02753000766277, 37.030306446594686, 37.033417631874634, 37.03619407080655, 37.038970509738476, 37.042081695018425, 37.04485813395034, 37.04519288029837, 37.045527626646404, 37.04586237299443, 37.04619711934246, 37.04653186569049, 37.046866612038514, 37.047201358386545, 37.047536104734576, 37.0478708510826, 37.04820559743063, 37.04854034377866, 37.04887509012669, 37.049209836474716, 37.04987932917078, 37.05021407551881, 37.05054882186684, 37.05088356821487, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.07811930840185, 37.07811930840185, 37.07811930840185, 37.07811930840185, 37.07811930840185, 37.07811930840185, 37.07811930840185, 37.07811930840185, 37.07811930840185, 37.07811930840185, 37.07811930840185, 37.07811930840185, 37.07811930840185, 37.1050203022408, 37.1050203022408, 37.1050203022408, 37.1050203022408, 37.13192129607975, 37.13192129607975, 37.13192129607975, 37.13192129607975, 37.13192129607975, 37.13192129607975, 37.13192129607975, 37.13192129607975, 37.13192129607975, 37.158822289918696, 37.158822289918696, 37.158822289918696, 37.158822289918696, 37.158822289918696, 37.158822289918696, 37.158822289918696, 37.158822289918696, 37.158822289918696, 37.158822289918696, 37.158822289918696, 37.158822289918696, 37.158822289918696, 37.158822289918696, 37.158822289918696, 37.158822289918696, 37.158822289918696, 37.158822289918696, 37.158822289918696, 37.18572328375765, 37.18572328375765, 37.20459379853416, 37.20459379853416, 37.20459379853416, 37.20459379853416, 37.20459379853416, 37.20459379853416, 37.20459379853416, 37.23149479237311, 37.23149479237311, 37.258395786212056, 37.28529678005101, 37.28529678005101, 37.28529678005101, 37.28529678005101, 37.28529678005101, 37.28529678005101, 37.33892181639603, 37.33892181639603, 37.33892181639603, 37.33892181639603, 37.36582281023499, 37.36582281023499, 37.39272380407394, 37.41159431885044, 37.41159431885044, 11.675600970420344, 12.048480764415453, 12.360671092947348, 12.583308558567126, 12.88347822706826, 13.236090838094894, 13.533420249069179, 13.862177511229339, 14.174772651557928, 14.884746350736737, 15.130819858029286, 15.460695148300243, 16.125559200531217, 16.3936110113369, 16.787316694240356, 16.89455733826696, 16.981774567408863, 17.05257664119409, 17.1349638719325, 17.227875079990525, 17.308433849855845, 17.37544010706196, 17.42890081343144, 17.455803084856274, 17.492286812498662, 17.52000259693102, 17.728489071084365, 17.75601267609705, 17.796623764970935, 17.80668238420421, 17.89620170705711, 17.98664023154215, 18.017064504166655, 18.023915610724586, 18.101112874413538, 18.1587543861541, 18.20540558113262, 18.272040964030243, 18.327840797786088, 18.335353260586327, 18.453462944565203, 18.474220773235487, 18.494983694175716, 18.55406194111575, 18.583490484457663, 18.63234384285316, 18.660843093956498, 18.718662436534565, 18.733134278727835, 18.772918279518077, 18.824558502142803, 18.88519042252039, 18.928030859724736, 19.009730649966485, 19.018687171157968, 19.021827573863344, 19.05211638042337, 19.056391302277294, 19.076413572559563, 19.079132148516788, 19.217417868080883, 19.31274617923021, 19.33086369239902, 19.352112550970034, 19.39203512091266, 19.48025463186441, 19.483928943082393, 19.6027544581379, 19.69167399578727, 19.706637795655272, 19.71594500617001, 19.812353218935854, 19.86812086712439, 19.92725234854662, 19.943773392362615, 20.03865968167725, 20.07739311201509, 20.193464766785834, 20.272982355770026, 20.30060074829476, 20.308070725968733, 20.308070725968733, 20.330633634019478, 20.44348167650387, 20.48727028089724, 20.532799005486584, 20.60524547416091, 20.681631717742903, 20.765145278453478, 20.78591823446983, 20.847697406219087, 20.891257104040196, 20.909211432823202, 20.928862015653912, 21.031928879010206, 21.134891119699777, 21.138852270397297, 21.168108157112947, 21.168108157112947, 21.20474346616171, 21.278949346334052, 21.31663293633023, 21.35390185353128, 21.456830258285894, 21.488347692809725, 21.52504202976425, 21.614533527586904, 21.622233098095286, 21.733944679949587, 21.78327033097154, 21.807906902937926, 21.859608461776457, 21.866179328910494, 21.926923450333128, 21.977913758437793, 22.02245980613637, 22.095447223935004, 22.118255225698462, 22.17410212779096, 22.221695755626115, 22.26044979444157, 22.30532069362458, 22.32384159838427, 22.377281203913856, 22.439978837743137, 22.483899762585335, 22.599766534369838, 22.66555451128181, 22.696719742132647, 22.725552461866386, 22.728035187176808, 22.78805594985636, 22.846236634394614, 22.882340442135902, 22.903490971988454, 22.953797787285502, 23.013304952820683, 23.032323115097093, 23.067173860068646, 23.12194794530607, 23.15171561970227, 23.195458772008074, 23.205531156057642, 23.237805402099667, 23.237805402099667, 23.254955448143896, 23.262600454987265, 23.27663254043397, 23.370245249950017, 23.442487488124716, 23.46644430899845, 23.47438627767391, 23.47438627767391, 23.50621696778884, 23.530173788662577, 23.539006409538516, 23.581082876257323, 23.614753644513566, 23.6484244127698, 23.680255102884736, 23.713925871140976, 23.74759663939722, 23.75554099356629, 23.778609547733144, 23.80433834731393, 23.813551088905946, 23.86568872832018, 23.88081292831797, 23.89715031159399, 23.921988458974287, 23.93711265897208, 23.95223685896987, 23.953158051411897, 23.996832742170668, 24.02915539557151, 24.036556292521023, 24.050759300076784, 24.094433990835554, 24.142078585618957, 24.148880696225206, 24.165396754213965, 24.165396754213965, 24.18191281220272, 24.18191281220272, 24.19162675958523, 24.201340706967734, 24.211054654350242, 24.212267837628477, 24.212267837628477, 24.230387483473557, 24.240781471108725, 24.250495418491234, 24.250495418491234, 24.260209365873738, 24.269923313256246, 24.299795335996745, 24.301008519274987, 24.301008519274987, 24.301008519274987, 24.310016833268556, 24.319197637625486, 24.319197637625486, 24.347456137550257, 24.355956901654523, 24.364457665758792, 24.364457665758792, 24.3662977439001, 24.368137822041408, 24.390135975540712, 24.399247307392216, 24.419465590966915, 24.421305652448613, 24.429711350911184, 24.449869426269178, 24.469627162089683, 24.469627162089683, 24.478032860552254, 24.48643855901482, 24.506596634372812, 24.506596634372812, 24.526354370193317, 24.526354370193317, 24.526354370193317, 24.526354370193317, 24.526354370193317, 24.54611210601382, 24.54611210601382, 24.55451780447639, 24.574675879834384, 24.574675879834384, 24.58308157829695, 24.602839314117453, 24.62259704993796, 24.642755125295952, 24.666482765141087, 24.68624050096159, 24.69464619942416, 24.714403935244665, 24.7418900082559, 24.761647744076402, 24.781405479896907, 24.80116321571741, 24.821321291075407, 24.84107902689591, 24.861237102253902, 24.880994838074407, 24.88940053653698, 24.89780623499955, 24.917964310357544, 24.938122385715538, 24.95788012153604, 24.95925963526354, 24.978737670368872, 24.979437143843708, 24.980136617318543, 24.999214312886384, 25.018292008454225, 25.046730024718585, 25.065508586349083, 25.088472625071514, 25.10685084716452, 25.12144393170308, 25.133196308598507, 25.144948685493933, 25.156701062389356, 25.169093702123075, 25.190505533652363, 25.201857571010297, 25.21360994790572, 25.235021779435016, 25.24677415633044, 25.258126193688373, 25.2698785705838, 25.280990684640937, 25.281391024178426, 25.28536092820306, 25.28536092820306, 25.295420722374416, 25.355206052056204, 25.362934389246938, 25.392389580804103, 25.392789920341592, 25.392789920341592, 25.40284971451295, 25.403250054050442, 25.410978391241173, 25.411378730778665, 25.411779070316157, 25.412179409853646, 25.422239204025008, 25.</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>[33, 44, 52, 59, 67, 65, 79, 76, 84, 253, 122, 220, 138, 95, 87, 181, 167, 167, 167, 122, 161, 293, 77, 77, 77, 125, 228, 64, 137, 220, 106, 156, 92, 93, 149, 157, 183, 240, 150, 156, 169, 176, 246, 326, 251, 110, 234, 263, 107, 166, 239, 185, 121, 215, 146, 267, 267, 223, 282, 212, 212, 221, 221, 83, 146, 330, 302, 302, 271, 330, 236, 275, 174, 127, 127, 127, 163, 163, 91, 106, 150, 137, 184, 176, 179, 283, 226, 240, 237, 241, 177, 205, 244, 244, 232, 271, 167, 102, 235, 166, 166, 189, 166, 198, 198, 198, 157, 236, 236, 196, 209, 209, 209, 209, 275, 275, 117, 225, 142, 232, 212, 193, 149, 149, 149, 149, 149, 192, 192, 137, 137, 183, 146, 146, 146, 146, 146, 237, 237, 237, 237, 237, 237, 237, 237, 237, 237, 237, 140, 140, 140, 140, 101, 101, 144, 189, 113, 147, 147, 147, 147, 137, 137, 137, 137, 137, 137, 186, 228, 228, 228, 228, 228, 228, 228, 228, 228, 228, 228, 228, 228, 228, 228, 228, 201, 201, 248, 146, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 188, 188, 188, 188, 188, 204, 204, 180, 180, 244, 138, 138, 138, 138, 138, 138, 177, 171, 171, 171, 171, 171, 171, 171, 171, 171, 171, 171, 171, 171, 171, 171, 171, 171, 171, 171, 171, 171, 171, 171, 171, 171, 191, 191, 191, 191, 259, 166, 126, 139, 215, 215, 164, 126, 126, 157, 157, 157, 120, 164, 164, 144, 144, 144, 144, 144, 144, 144, 207, 207, 207, 154, 187, 187, 187, 187, 187, 187, 151, 151, 151, 151, 151, 251, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 173, 173, 173, 173, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 137, 180, 217, 217, 217, 217, 217, 217, 217, 217, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 242, 242, 242, 242, 242, 242, 242, 242, 242, 242, 242, 242, 242, 242, 242, 242, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 206, 206, 206, 206, 206, 206, 206, 206, 206, 206, 206, 206, 206, 206, 206, 206, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 154, 154, 154, 154, 166, 166, 166, 166, 166, 166, 232, 232, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 161, 205, 205, 205, 205, 205, 205, 205, 205, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 164, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 194, 194, 194, 194, 219, 219, 219, 219, 219, 219, 219, 219, 219, 219, 219, 219, 219, 237, 166, 166, 166, 166, 166, 166, 166, 166, 166, 166, 166, 166, 166, 166, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 31, 35, 38, 42, 43, 56, 56, 60, 61, 59, 67, 65, 72, 79, 76, 106, 98, 147, 253, 93, 88, 97, 284, 284, 250, 120, 156, 281, 281, 262, 172, 143, 258, 225, 78, 224, 235, 227, 227, 184, 114, 281, 307, 306, 302, 166, 260, 127, 327, 163, 322, 294, 321, 120, 256, 108, 108, 161, 161, 161, 303, 286, 286, 318, 318, 127, 94, 99, 220, 294, 181, 279, 266, 319, 319, 319, 341, 162, 336, 205, 197, 197, 197, 298, 118, 118, 269, 162, 237, 152, 80, 80, 80, 80, 167, 175, 200, 82, 82, 103, 177, 264, 141, 199, 199, 136, 212, 202, 243, 194, 145, 111, 158, 158, 229, 231, 226, 226, 130, 206, 162, 162, 259, 109, 196, 174, 164, 159, 141, 141, 227, 227, 227, 227, 227, 176, 225, 225, 218, 195, 98, 98, 133, 133, 133, 115, 147, 147, 147, 196, 196, 196, 196, 196, 196, 196, 196, 196, 196, 196, 196, 142, 142, 137, 137, 137, 246, 246, 246, 246, 246, 246, 192, 192, 192, 192, 192, 192, 171, 171, 171, 171, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 116, 116, 116, 116, 116, 116, 116, 116, 116, 111, 125, 125, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 124, 124, 124, 124, 124, 170, 170, 170, 170, 112, 198, 198, 198, 198, 198, 198, 198, 198, 198, 198, 198, 241, 138, 138, 138, 138, 138, 138, 138, 138, 138, 138, 138, 138, 138, 138, 138, 138, 138, 138, 138, 138, 138, 138, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 139, 139, 139, 139, 139, 139, 212, 189, 189, 189, 189, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 153, 153, 153, 142, 142, 146, 146, 270, 270, 270, 270, 270, 224, 224, 173, 173, 173, 173, 250, 147, 168, 168, 168, 173, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 175, 175, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 217, 147, 147, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 259, 171, 171, 144, 144, 144, 144, 144, 158, 158, 158, 158, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 177, 177, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 205, 153, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 203, 203, 203, 203, 203, 203, 203, 203, 203, 203, 203, 203, 203, 203, 203, 203, 203, 203, 203, 203]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>[102, 102, 102, 102, 102, 102, 102, 196, 196, 196, 196, 196, 212, 212, 212, 212, 212, 212, 212, 212, 212, 212, 212, 212, 212, 212, 212, 212, 212, 212, 212, 212, 212, 212, 189, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 138, 138, 138, 138, 138, 138, 138, 138, 138, 138, 171, 171, 171, 171, 171, 171, 171, 171, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 144, 144, 144, 144, 144, 144, 144, 144, 144, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 170, 170, 170, 170, 170, 170, 170, 170, 198, 198, 198, 198, 198, 198, 198, 198, 198, 198, 198, 198, 198, 198, 198, 198, 198, 138, 138, 138, 138, 138, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 189, 189, 189, 189, 189, 189, 189, 189, 189, 189, 189, 189, 189, 189, 189, 189, 189, 189, 189, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 175, 175, 175, 175, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 140, 140, 140, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 203, 203, 203, 203, 203, 203, 203, 203, 203, 203, 203, 203, 203, 203, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164]</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>[149.78, 150.78, 154.58, 155.66, 158.18, 161.24, 161.68, 164.02, 164.04, 168.4, 169.3, 172.36, 171.7, 172.32, 172.56, 173.82, 173.18, 173.18, 173.18, 171.7, 170.8, 172.6, 169.28, 171.32, 173.44, 175.02, 177.08, 177.26, 180.22, 181.66, 180.94, 184.16, 187.56, 190.84, 192.76, 192.34, 193.66, 195.5, 193.62, 194.38, 195.28, 196.32, 197.52, 198.92, 198.04, 197.44, 199.76, 198.06, 197.04, 195.82, 198.54, 197.1, 196.2, 197.96, 196.58, 196.38, 196.38, 195.94, 196.04, 195.14, 193.88, 195.14, 194.68, 193.8, 195.28, 195.88, 193.84, 190.08, 188.78, 186.34, 185.24, 185.32, 183.16, 182.48, 182.74, 182.54, 184.74, 185.66, 185.32, 188.14, 190.34, 190.88, 191.88, 191.52, 192.74, 193.18, 195.1, 194.84, 192.06, 191.38, 191.3, 190.68, 189.32, 189.32, 187.76, 188.62, 187.04, 185.1, 187.62, 185.84, 185.26, 185.9, 184.38, 184.26, 185.04, 184.68, 184.9, 185.94, 184.02, 182.22, 182.06, 182.52, 180.76, 181.32, 180.08, 178.42, 175.66, 176.2, 174.26, 174.36, 172.46, 171.14, 170.7, 170.46, 170.42, 170.18, 170.12, 171.88, 172.6, 172.06, 173.84, 175.98, 177.06, 178.88, 180.52, 181.5, 183.14, 183.02, 181.7, 178.98, 177.0, 176.82, 176.64, 174.78, 174.6, 172.62, 172.44, 171.12, 170.92, 170.86, 172.62, 172.38, 172.2, 172.92, 173.46, 173.34, 172.12, 173.28, 173.28, 172.9, 174.32, 173.94, 173.76, 174.44, 176.26, 177.34, 178.02, 177.84, 177.88, 177.08, 175.14, 175.14, 174.0, 173.2, 173.2, 173.2, 171.2, 170.18, 168.38, 164.34, 162.34, 160.34, 160.74, 159.78, 158.64, 159.68, 159.42, 157.02, 159.1, 159.96, 160.82, 161.68, 162.54, 163.12, 163.32, 164.18, 164.76, 165.62, 166.48, 167.0, 167.7, 167.36, 166.22, 165.08, 164.74, 164.4, 164.4, 162.94, 162.22, 162.82, 161.36, 162.02, 162.14, 162.0, 162.98, 163.1, 163.76, 162.84, 163.16, 162.36, 162.76, 163.96, 165.16, 165.02, 164.48, 164.88, 165.76, 166.48, 165.68, 164.88, 164.74, 163.94, 164.34, 165.54, 166.74, 166.78, 167.98, 167.18, 168.38, 169.26, 170.86, 170.72, 171.44, 171.92, 171.92, 171.12, 171.64, 169.92, 166.08, 167.3, 167.14, 165.46, 164.0, 163.34, 163.84, 164.2, 164.52, 164.26, 165.74, 167.96, 167.7, 167.44, 167.18, 168.04, 167.78, 169.52, 169.26, 169.0, 168.74, 167.22, 165.7, 165.9, 166.56, 167.44, 168.32, 167.2, 166.48, 166.48, 167.36, 166.96, 168.56, 168.16, 169.76, 169.36, 166.96, 168.96, 170.96, 172.96, 172.96, 172.96, 172.96, 174.96, 174.96, 174.96, 174.96, 174.96, 176.96, 178.96, 180.68, 180.68, 182.68, 185.06, 187.06, 189.98, 189.98, 191.98, 193.98, 195.98, 195.98, 197.44, 199.44, 201.44, 203.44, 205.44, 206.9, 209.46, 211.46, 213.84, 215.3, 218.22, 217.76, 218.38, 218.46, 219.62, 219.08, 218.54, 217.46, 217.46, 216.38, 215.84, 215.3, 215.3, 214.22, 213.22, 212.14, 212.36, 211.28, 210.2, 209.66, 208.66, 207.58, 206.58, 206.04, 205.5, 204.96, 203.88, 202.8, 201.5, 201.5, 200.42, 199.88, 199.34, 198.8, 197.72, 197.18, 196.9, 195.82, 196.04, 194.96, 194.42, 194.42, 193.34, 193.6, 193.06, 192.84, 192.3, 191.22, 189.42, 188.88, 188.34, 186.72, 186.18, 186.44, 186.7, 186.16, 184.6, 184.6, 184.14, 183.6, 184.4, 185.64, 186.14, 185.34, 184.54, 184.54, 183.7, 183.22, 183.72, 184.22, 184.22, 183.68, 183.76, 183.76, 184.3, 184.3, 184.88, 184.96, 184.96, 186.26, 185.72, 185.18, 185.5, 186.8, 186.58, 187.88, 187.96, 188.54, 188.54, 188.0, 187.46, 187.46, 186.92, 187.5, 186.96, 187.54, 187.62, 188.92, 188.46, 189.04, 189.8, 190.12, 190.12, 190.62, 190.58, 189.96, 191.18, 191.14, 190.52, 189.9, 191.12, 190.5, 190.5, 189.24, 187.98, 186.14, 182.46, 181.74, 181.74, 181.74, 179.9, 177.32, 175.8, 173.96, 172.12, 172.12, 170.28, 169.54, 170.66, 171.46, 172.58, 174.02, 174.02, 174.02, 175.14, 175.5, 175.86, 175.86, 176.94, 176.94, 176.94, 176.94, 178.02, 178.02, 178.6, 179.72, 180.84, 181.2, 182.32, 182.64, 183.76, 184.88, 184.88, 184.88, 185.46, 186.04, 186.36, 187.44, 187.8, 188.66, 189.24, 190.36, 188.56, 187.8, 187.26, 187.26, 186.22, 185.96, 185.92, 185.12, 184.58, 184.04, 183.28, 182.74, 182.7, 182.44, 182.18, 182.16, 181.66, 181.66, 181.38, 181.38, 181.6, 182.38, 182.6, 182.82, 182.82, 182.54, 182.54, 182.76, 182.98, 182.98, 183.26, 183.54, 184.54, 184.54, 185.3, 186.06, 186.32, 186.58, 186.84, 186.84, 185.78, 185.78, 186.28, 186.28, 186.28, 186.8, 187.3, 187.08, 187.08, 186.84, 186.84, 187.34, 187.84, 187.62, 187.62, 187.62, 188.12, 188.12, 188.62, 188.62, 189.12, 189.62, 190.14, 190.14, 190.66, 191.18, 191.68, 191.68, 192.2, 192.2, 192.7, 193.2, 193.7, 193.84, 193.82, 193.8, 193.06, 193.04, 192.3, 192.28, 192.26, 191.52, 191.52, 190.8, 190.08, 189.36, 189.36, 189.36, 188.64, 187.92, 187.92, 187.2, 186.48, 186.48, 185.76, 185.76, 185.04, 184.32, 183.6, 182.88, 182.16, 182.16, 181.44, 180.72, 180.0, 179.28, 178.56, 177.84, 177.12, 176.4, 175.68, 174.96, 174.24, 174.24, 173.52, 172.8, 172.08, 171.36, 170.64, 169.92, 169.2, 168.48, 168.48, 168.48, 168.48, 168.48, 168.48, 168.48, 168.48, 168.98, 168.98, 168.98, 168.98, 168.98, 168.98, 168.98, 168.98, 168.98, 168.98, 168.98, 168.98, 168.98, 168.98, 168.98, 168.98, 169.48, 169.48, 169.48, 169.48, 169.48, 169.48, 169.98, 169.98, 169.98, 169.98, 170.48, 170.48, 170.48, 170.48, 170.48, 170.98, 170.98, 170.98, 171.48, 171.46, 171.96, 171.96, 172.46, 172.46, 172.96, 172.96, 173.46, 173.46, 173.96, 173.96, 173.96, 174.46, 174.46, 174.46, 174.96, 175.46, 175.46, 175.96, 175.96, 175.96, 175.96, 176.48, 176.98, 177.48, 177.46, 177.96, 177.96, 178.46, 178.96, 179.46, 179.96, 180.46, 180.94, 181.46, 181.96, 182.46, 182.96, 183.46, 183.96, 183.92, 184.4, 184.9, 185.4, 185.9, 186.4, 186.82, 187.32, 187.82, 188.3, 188.78, 189.28, 189.78, 190.28, 190.86, 190.86, 190.86, 190.86, 190.86, 190.86, 190.86, 190.84, 190.84, 190.84, 190.84, 190.84, 190.84, 190.84, 190.82, 190.8, 190.8, 190.8, 191.32, 191.84, 191.3, 191.3, 191.3, 191.28, 191.26, 190.72, 190.72, 190.72, 190.7, 190.72, 190.72, 191.24, 191.76, 192.28, 192.28, 192.8, 192.78, 192.26, 192.78, 192.76, 192.78, 192.24, 192.22, 191.68, 192.2, 192.22, 191.68, 191.66, 192.18, 192.7, 192.16, 192.14, 192.66, 192.14, 192.66, 192.12, 191.6, 191.08, 191.94, 191.38, 190.82, 190.28, 189.68, 189.68, 188.62, 188.08, 187.04, 186.5, 185.46, 184.92, 184.38, 183.32, 182.28, 181.24, 180.18, 179.12, 178.22, 178.24, 178.76, 179.28, 179.8, 180.32, 180.34, 180.86, 181.38, 181.4, 181.92, 181.94, 181.96, 182.48, 182.5, 183.0, 183.5, 184.0, 184.5, 185.0, 185.5, 186.0, 186.5, 187.0, 187.5, 188.0, 188.5, 189.0, 190.0, 190.5, 191.0, 191.5, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.58, 192.58, 192.58, 192.58, 192.58, 192.58, 192.58, 192.58, 192.58, 192.58, 192.58, 192.58, 192.58, 193.16, 193.16, 193.16, 193.16, 193.74, 193.74, 193.74, 193.74, 193.74, 193.74, 193.74, 193.74, 193.74, 194.32, 194.32, 194.32, 194.32, 194.32, 194.32, 194.32, 194.32, 194.32, 194.32, 194.32, 194.32, 194.32, 194.32, 194.32, 194.32, 194.32, 194.32, 194.32, 194.9, 194.9, 195.5, 195.5, 195.5, 195.5, 195.5, 195.5, 195.5, 196.08, 196.08, 196.66, 197.24, 197.24, 197.24, 197.24, 197.24, 197.24, 197.38, 197.38, 197.38, 197.38, 197.96, 197.96, 198.54, 199.14, 199.14, 139.18, 140.92, 145.84, 146.6, 151.44, 156.3, 157.12, 160.54, 164.58, 172.72, 173.66, 174.6, 177.52, 179.02, 180.16, 184.12, 188.14, 191.34, 191.62, 189.8, 193.26, 197.88, 199.16, 200.06, 197.7, 197.24, 200.64, 202.72, 202.82, 201.7, 200.98, 202.72, 204.98, 204.52, 203.18, 203.22, 205.46, 206.56, 203.66, 205.16, 202.92, 205.42, 205.52, 203.38, 203.64, 200.76, 203.82, 201.78, 205.6, 207.46, 209.06, 205.86, 202.8, 200.28, 202.28, 203.22, 202.66, 203.04, 203.92, 207.06, 202.44, 195.92, 193.44, 193.1, 190.72, 187.02, 190.36, 191.98, 192.94, 190.9, 189.44, 188.56, 186.16, 185.38, 182.34, 179.8, 177.54, 173.2, 173.88, 170.06, 170.7, 170.7, 170.74, 169.66, 167.62, 168.54, 169.12, 167.66, 167.16, 165.58, 165.2, 167.12, 167.74, 170.72, 171.98, 171.12, 171.16, 169.34, 169.34, 170.52, 173.46, 174.46, 173.72, 172.36, 172.88, 172.8, 172.94, 173.22, 171.7, 169.78, 168.72, 169.56, 170.58, 171.26, 172.02, 170.38, 169.26, 169.24, 167.46, 168.78, 166.96, 167.64, 168.94, 168.68, 168.82, 169.82, 170.86, 170.44, 171.18, 172.28, 174.0, 172.32, 170.1, 169.4, 167.8, 166.76, 166.1, 163.42, 162.76, 161.26, 159.34, 160.24, 162.2, 163.04, 163.04, 165.3, 166.92, 168.9, 169.82, 168.5, 168.08, 166.9, 166.9, 165.3, 164.88, 165.88, 165.92, 164.86, 163.8, 162.2, 161.14, 160.08, 162.16, 162.82, 162.94, 163.62, 163.48, 162.06, 159.46, 157.4, 155.98, 154.56, 153.48, 152.4, 152.52, 152.1, 151.76, 150.68, 149.62, 149.7, 149.14, 149.14, 148.58, 148.58, 147.94, 147.3, 146.66, 145.48, 145.48, 145.94, 144.92, 144.28, 144.28, 143.64, 143.0, 143.36, 142.18, 142.18, 142.18, 140.9, 141.06, 141.06, 141.5, 142.04, 142.58, 142.58, 143.12, 143.66, 145.2, 146.94, 147.2, 148.1, 149.2, 150.2, 150.1, 150.1, 151.2, 152.3, 153.3, 153.3, 153.2, 153.2, 153.2, 153.2, 153.2, 153.1, 153.1, 154.2, 155.2, 155.2, 156.3, 156.2, 156.1, 157.1, 157.02, 156.92, 158.02, 157.92, 158.84, 158.74, 158.64, 158.54, 159.54, 159.44, 160.44, 160.34, 161.44, 162.54, 163.54, 164.54, 164.44, 164.98, 166.36, 167.28, 168.2, 168.48, 168.76, 170.24, 170.7, 170.0, 169.36, 170.98, 170.88, 170.78, 170.68, 171.44, 172.36, 171.16, 171.06, 171.98, 171.88, 170.68, 170.58, 169.62, 170.72, 170.74, 170.74, 172.86, 173.76, 174.78, 177.06, 178.16, 178.16, 180.28, 181.38, 182.4, 183.5, 184.6, 185.7, 187.82, 189.94, 191.04, 192.14, 193.24, 194.34, 195.44, 195.44, 194.14, 194.14, 194.14, 194.14, 192.84, 191.54, 192.56, 193.58, 194.6, 194.6, 194.6, 193.3, 194.32, 195.34, 196.36, 195.06, 194.66, 193.36, 194.38, 195.4, 196.42, 195.34, 194.26, 195.28, 193.98, 195.0, 193.7, 194.72, 195.1, 193.8, 194.82, 194.74, 193.44, 192.36, 191.06, 192.08, 193.1, 194.12, 195.14, 197.24, 197.02, 199.12, 201.22, 201.28, 203.38, 204.02, 205.12, 206.74, 207.84, 208.94, 206.62, 204.58, 204.58, 204.58, 203.16, 200.84, 199.42, 199.94, 198.42, 196.1, 196.1, 193.78, 191.46, 189.94, 187.62, 187.74, 185.42, 185.42, 185.42, 183.1, 180.78, 175.26, 175.78, 173.46, 172.04, 165.98, 166.5, 164.68, 162.36, 160.04, 157.72, 155.4, 153.08, 151.26, 151.12, 152.54, 153.96, 153.68, 156.24, 156.78, 156.42, 153.58, 151.64, 148.8, 145.96, 143.12, 141.2, 139.28, 138.38, 137.48, 137.38, 136.48, 134.04, 133.66, 132.86, 132.06, 131.26, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.98, 129.98, 129.98, 130.5, 130.5, 130.5, 130.5, 130.5, 130.5, 130.5, 130.5, 130.5, 130.5, 130.5, 130.5, 130.5, 130.5, 130.5, 131.02, 131.02, 131.54, 131.54, 131.54, 131.54, 131.54, 131.54, 131.54, 131.54, 131.54, 131.54, 131.54, 131.54, 131.54, 132.06, 132.58, 133.1, 133.1, 133.1, 133.62, 134.14, 134.14, 134.14, 134.14, 134.14, 134.14, 134.14, 134.14, 134.14, 134.14, 134.14, 134.14, 134.66, 135.18, 135.18, 135.18, 135.18, 135.7, 136.22, 136.22, 136.22, 136.74, 137.26, 137.26, 137.26, 137.26, 137.26, 137.78, 138.3, 138.82, 138.82, 138.82, 139.34, 139.34, 139.86, 140.38, 140.38, 140.38, 140.38, 140.38, 139.44, 138.92, 138.4, 137.88, 137.36, 136.84, 136.32, 135.8, 135.28, 134.76, 134.24, 133.72, 133.2, 132.68, 132.16, 132.16, 131.64, 131.12, 130.6, 130.08, 129.56, 129.04, 128.52, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 129.66, 129.66, 129.66, 131.32, 131.32, 131.32, 131.32, 131.32, 131.32, 131.32, 131.32, 131.32, 131.32, 131.32, 131.32, 131.32, 131.32, 131.32, 131.32, 131.32, 131.32, 131.32, 132.98, 132.98, 132.98, 132.98, 132.98, 132.98, 132.98, 132.98, 132.98, 132.98, 132.98, 132.98, 132.98, 132.98, 134.64, 134.64, 134.64, 134.64, 134.64, 134.64, 134.64, 134.64, 134.64, 134.64, 134.64, 136.3, 136.3, 137.96, 137.96, 137.96, 137.96, 137.96, 137.96, 137.96, 137.96, 137.96, 137.96, 137.96, 139.62, 139.62, 140.4, 140.4, 140.4, 140.4, 140.4, 140.4, 140.4, 142.06, 143.72, 144.5, 144.5, 144.5, 146.16, 147.82, 147.82, 148.6, 150.26, 150.26, 150.26, 150.26, 151.92, 151.92, 153.58, 154.36, 154.36, 155.14, 155.92, 156.7, 156.7, 156.7, 160.02, 160.02, 160.02, 160.02, 161.68, 163.34, 164.12, 165.78, 167.44, 169.1, 170.76, 170.76, 171.54, 173.2, 173.98, 175.64, 177.3, 178.96, 180.62, 182.28, 185.6, 187.26, 188.92, 189.7, 191.36, 193.02, 194.68, 195.46, 197.12, 198.78, 197.26, 194.96, 194.96, 190.96, 190.08, 189.2, 186.16, 185.28, 184.4, 184.4, 183.52, 182.64, 181.76, 181.0, 179.24, 178.36, 177.48, 176.6, 175.72, 174.84, 173.96, 173.08, 172.2, 171.32, 169.16, 167.74, 166.56, 165.68, 164.1, 164.5, 164.9, 164.9, 164.36, 163.82, 163.28, 163.28, 162.74, 162.74, 162.2, 162.2, 162.2, 162.2, 162.2, 161.66, 161.12, 160.58, 158.96, 158.96, 159.56, 160.16, 160.76, 160.22, 160.22, 160.22, 159.68, 159.14, 158.6, 157.52, 156.98, 156.44, 155.9, 155.36, 154.82, 154.28, 153.74, 153.2, 152.12, 151.04, 150.5, 149.96, 149.42, 149.48, 148.94, 147.86, 148.46, 149.06, 149.48, 148.94, 148.94, 148.94, 149.54, 149.54, 149.54, 149.54, 149.54, 150.68, 150.68, 150.68, 150.68, 150.68, 151.28, 152.42, 152.42, 152.42, 152.42, 153.56, 153.64, 154.24, 154.24, 154.84, 154.84, 155.44, 156.04, 156.04, 156.04, 156.04, 156.04, 156.66, 158.02, 158.62, 159.22, 159.82, 159.98, 161.2, 161.56, 162.18, 163.32, 165.6, 165.6, 166.22, 166.58, 167.18, 167.18, 167.78, 167.86, 168.46, 168.54, 169.14, 169.74, 173.26, 174.54, 175.14, 176.28, 174.5, 174.48, 174.42, 176.14, 176.66, 177.18, 177.7, 179.04, 179.28, 179.12, 179.36, 179.6, 179.06, 178.52, 177.58, 175.7, 174.76, 174.76, 174.22, 173.68, 173.14, 172.6, 172.06, 171.52, 170.98, 170.44, 169.9, 169.36, 167.88, 167.74, 167.6, 167.6, 167.6, 167.6, 167.6, 167.2, 166.8, 166.8, 166.8, 166.4, 166.0, 166.0, 166.0, 165.6, 165.6, 165.6, 165.6, 165.6, 165.6, 165.6, 165.2, 164.8, 164.8, 164.4, 164.4, 164.4, 164.4, 164.0, 163.6, 163.2, 162.8, 162.0, 161.6, 161.6, 161.28, 161.28, 160.88, 160.48, 160.48, 159.68, 159.28, 158.88, 158.48, 158.48, 158.08, 157.68, 157.28, 156.88, 156.88, 156.08, 155.68, 154.88, 154.48, 154.08, 153.68, 153.28, 152.88, 152.08, 151.68, 151.28, 150.88, 150.48, 150.48, 150.48, 150.48, 150.48, 150.48, 150.48, 150.48, 150.48, 150.48, 150.48, 150.96, 150.96, 150.96, 150.96, 150.96, 150.96, 150.96, 150.96, 150.96, 150.96, 150.96, 150.96, 150.96, 150.96, 150.96, 150.96, 150.96, 150.96, 151.54, 151.54, 151.54, 151.54, 151.54, 151.54, 151.54, 151.54, 151.54, 151.54, 151.54, 151.54, 151.54, 151.54, 152.02, 152.02, 152.02, 152.02, 152.02, 152.02, 152.02, 152.6, 152.6, 153.08, 153.08, 153.08, 153.08, 153.08, 153.66, 153.66, 153.66, 153.66, 153.66, 154.24, 154.82, 154.82, 154.82, 155.4, 155.4, 155.98, 155.98, 156.46, 156.46, 156.94, 156.94, 156.94, 157.52, 158.0, 158.58, 159.16, 159.64, 160.22, 160.22, 160.22, 160.22, 160.22, 160.8, 160.8, 161.86, 163.02, 163.5, 163.98, 163.98, 164.46, 165.52, 166.1, 166.68, 167.16, 167.74, 167.74, 168.22, 168.7, 169.56, 171.1, 171.68, 172.16, 172.8, 173.38, 173.96, 174.54, 176.6, 177.18, 176.56, 176.98, 176.98, 176.98, 176.98, 177.08, 177.18, 177.28, 177.86, 177.96, 178.06, 178.16, 178.26, 178.36, 178.46, 178.56, 178.66, 178.76, 178.86, 178.96, 179.06, 179.16, 179.26, 179.36, 179.46, 179.56, 179.66, 179.66, 179.66, 179.66, 179.66, 180.14, 180.14, 180.14, 180.14, 180.62, 180.62, 181.1, 181.58, 181.58, 182.06, 182.06, 182.54, 183.02, 183.5, 183.98, 183.98, 184.46, 184.94, 185.42, 185.9, 186.38, 186.38, 186.38, 186.86, 187.34, 187.34, 187.34, 187.82, 188.0, 188.48, 188.96, 189.44, 189.92, 190.1, 190.1, 190.58, 191.06, 191.54, 192.02, 192.02, 192.5, 192.98, 193.46, 193.94, 194.42, 194.9, 195.38, 195.86, 196.34, 196.82, 197.3, 197.78, 198.26, 198.74, 199.22, 199.1, 197.54, 196.76, 196.76, 195.98, 194.42, 194.42, 193.64, 193.64, 193.64, 192.86, 192.86, 192.86, 192.08, 192.08, 191.3, 191.3, 190.52, 190.52, 189.74]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[1057.565702325424, 1033.6557653952927, 1053.5134740105952, 1010.062273771856, 1084.8726650949507, 1025.8984936431514, 1192.6288964107284, 1015.8208087582874, 1056.4886344873591, 18.957287595775448, 8.68303912120436, 15.514117026896317, 9.236138021450566, 6.353666488102117, 5.7922074582579075, 11.856360668082658, 10.815772125718622, 10.815772125718622, 10.815772125718622, 7.8809039524165, 10.399219168528555, 18.877267679297095, 4.919380794473487, 4.919380794473487, 4.919380794473487, 7.936551787358003, 14.448555367912087, 4.053666272308505, 8.637536175871094, 13.57172005301892, 6.533190329610121, 9.574194399605139, 5.602191154586455, 5.632890780193146, 9.022245616611752, 9.487703606595895, 10.975581990268692, 14.332740177583323, 8.94958441631099, 9.217934131900048, 9.94377452883218, 10.343281985435718, 14.449911108406749, 19.067097372504367, 14.60507281048581, 6.39945774664815, 13.605407452261982, 15.246962838620329, 6.195097729749318, 9.57177390618362, 13.729536139388514, 10.448726308422826, 6.833510995174251, 12.082441649542837, 8.19172094083963, 14.917490425354417, 14.917490425354417, 12.44971730041743, 15.699564355089779, 11.729284105840975, 11.729284105840975, 12.224665329114664, 12.224665329114664, 4.5719726270910925, 8.03287704421747, 18.141644283392996, 16.599572065186674, 16.599572065186674, 14.895368218675836, 17.999924825308774, 12.800734959428814, 14.864713979838996, 9.34950923314243, 6.813836387616088, 6.813836387616088, 6.813836387616088, 8.652822287707524, 8.652822287707524, 4.820857950398375, 5.594328780792578, 7.915473059124793, 7.192337211383958, 9.619820807745894, 9.196662972845301, 9.347979117873775, 14.636051412752987, 11.635247954827921, 12.32868812831468, 12.168304103470783, 12.268710528097717, 8.967013118113798, 10.374980497663637, 12.313602404739997, 12.313602404739997, 11.681271727811307, 13.631521837049009, 8.267768552007746, 5.019545894438246, 11.532842288422406, 8.142179877097787, 8.142179877097787, 9.263463012729838, 8.13568342577235, 9.60738103474938, 9.60738103474938, 9.60738103474938, 7.557592220443321, 11.300935515200507, 11.300935515200507, 9.36434593969078, 9.980002630398083, 9.980002630398083, 9.980002630398083, 9.980002630398083, 13.088038030278883, 13.088038030278883, 5.493086836199246, 10.489690654781382, 6.5745317692047855, 10.70944005745753, 9.748167961944157, 8.85392800511815, 6.804406047790555, 6.804406047790555, 6.804406047790555, 6.804406047790555, 6.804406047790555, 8.730278768863862, 8.730278768863862, 6.185584027085322, 6.185584027085322, 8.20336897731028, 6.543170641472948, 6.543170641472948, 6.543170641472948, 6.543170641472948, 6.543170641472948, 10.453433463366993, 10.453433463366993, 10.453433463366993, 10.453433463366993, 10.453433463366993, 10.453433463366993, 10.453433463366993, 10.453433463366993, 10.453433463366993, 10.453433463366993, 10.453433463366993, 6.162429005126397, 6.162429005126397, 6.162429005126397, 6.162429005126397, 4.423781652254639, 4.423781652254639, 6.264598489696158, 8.162368902240127, 4.840441065231203, 6.270833457028778, 6.270833457028778, 6.270833457028778, 6.270833457028778, 5.830782845579593, 5.830782845579593, 5.830782845579593, 5.830782845579593, 5.830782845579593, 5.830782845579593, 7.912746319945639, 9.65733993487451, 9.65733993487451, 9.65733993487451, 9.65733993487451, 9.65733993487451, 9.65733993487451, 9.65733993487451, 9.65733993487451, 9.65733993487451, 9.65733993487451, 9.65733993487451, 9.65733993487451, 9.65733993487451, 9.65733993487451, 9.65733993487451, 9.65733993487451, 8.401891450129813, 8.401891450129813, 10.313398525970097, 6.04949151774863, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 7.696905706470473, 7.696905706470473, 7.696905706470473, 7.696905706470473, 7.696905706470473, 8.32947346577352, 8.32947346577352, 7.306497218010811, 7.306497218010811, 9.847349609387756, 5.546953204492775, 5.546953204492775, 5.546953204492775, 5.546953204492775, 5.546953204492775, 5.546953204492775, 7.03374085269889, 6.734483968865325, 6.734483968865325, 6.734483968865325, 6.734483968865325, 6.734483968865325, 6.734483968865325, 6.734483968865325, 6.734483968865325, 6.734483968865325, 6.734483968865325, 6.734483968865325, 6.734483968865325, 6.734483968865325, 6.734483968865325, 6.734483968865325, 6.734483968865325, 6.734483968865325, 6.734483968865325, 6.734483968865325, 6.734483968865325, 6.734483968865325, 6.734483968865325, 6.734483968865325, 6.734483968865325, 6.734483968865325, 7.494018662332359, 7.494018662332359, 7.494018662332359, 7.494018662332359, 10.11504405393371, 6.398709337032906, 4.837467700300037, 5.321596346905118, 8.215968795341563, 8.215968795341563, 6.230489144616852, 4.786099788406517, 4.786099788406517, 5.956959573686392, 5.956959573686392, 5.956959573686392, 4.537076048363378, 6.1823284122401745, 6.1823284122401745, 5.411807778722112, 5.411807778722112, 5.411807778722112, 5.411807778722112, 5.411807778722112, 5.411807778722112, 5.411807778722112, 7.668552800061596, 7.668552800061596, 7.668552800061596, 5.657072535840085, 6.851002757241434, 6.851002757241434, 6.851002757241434, 6.851002757241434, 6.851002757241434, 6.851002757241434, 5.5165047271968035, 5.5165047271968035, 5.5165047271968035, 5.5165047271968035, 5.5165047271968035, 8.909923385482934, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 6.094326168605025, 6.094326168605025, 6.094326168605025, 6.094326168605025, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 7.141743564159195, 7.141743564159195, 7.141743564159195, 7.141743564159195, 7.141743564159195, 7.141743564159195, 7.141743564159195, 7.141743564159195, 7.141743564159195, 7.141743564159195, 7.141743564159195, 7.141743564159195, 7.141743564159195, 7.141743564159195, 7.141743564159195, 7.141743564159195, 7.141743564159195, 7.141743564159195, 7.141743564159195, 4.7880358696512495, 6.2027617797050585, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 5.9343944904198604, 5.9343944904198604, 5.9343944904198604, 5.9343944904198604, 5.9343944904198604, 5.9343944904198604, 5.9343944904198604, 5.9343944904198604, 5.9343944904198604, 5.9343944904198604, 5.9343944904198604, 5.9343944904198604, 5.9343944904198604, 5.9343944904198604, 5.9343944904198604, 5.9343944904198604, 5.9343944904198604, 5.9343944904198604, 5.9343944904198604, 5.9343944904198604, 5.9343944904198604, 5.9343944904198604, 5.9343944904198604, 5.9343944904198604, 5.9343944904198604, 5.9343944904198604, 5.9343944904198604, 5.9343944904198604, 5.9343944904198604, 5.9343944904198604, 5.9343944904198604, 5.9343944904198604, 6.027492357175829, 6.027492357175829, 6.027492357175829, 6.027492357175829, 6.027492357175829, 6.027492357175829, 6.027492357175829, 6.027492357175829, 6.027492357175829, 6.027492357175829, 8.0531695044592, 8.0531695044592, 8.0531695044592, 8.0531695044592, 8.0531695044592, 8.0531695044592, 8.0531695044592, 8.0531695044592, 8.0531695044592, 8.0531695044592, 8.0531695044592, 8.0531695044592, 8.0531695044592, 8.0531695044592, 8.0531695044592, 8.0531695044592, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 6.735690620119541, 6.735690620119541, 6.735690620119541, 6.735690620119541, 6.735690620119541, 6.735690620119541, 6.735690620119541, 6.735690620119541, 6.735690620119541, 6.735690620119541, 6.735690620119541, 6.735690620119541, 6.735690620119541, 6.735690620119541, 6.735690620119541, 6.735690620119541, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 4.944127471187061, 4.944127471187061, 4.944127471187061, 4.944127471187061, 5.310946300127694, 5.310946300127694, 5.310946300127694, 5.310946300127694, 5.310946300127694, 5.310946300127694, 7.3767979534266805, 7.3767979534266805, 5.652771510928877, 5.652771510928877, 5.652771510928877, 5.652771510928877, 5.652771510928877, 5.652771510928877, 5.652771510928877, 5.652771510928877, 5.652771510928877, 5.652771510928877, 5.652771510928877, 5.652771510928877, 5.652771510928877, 5.652771510928877, 5.652771510928877, 5.652771510928877, 5.652771510928877, 5.652771510928877, 5.652771510928877, 5.652771510928877, 5.652771510928877, 5.652771510928877, 5.652771510928877, 5.652771510928877, 5.652771510928877, 5.652771510928877, 5.652771510928877, 5.652771510928877, 5.652771510928877, 5.652771510928877, 5.652771510928877, 5.652771510928877, 5.0096062141665945, 6.295565085354966, 6.295565085354966, 6.295565085354966, 6.295565085354966, 6.295565085354966, 6.295565085354966, 6.295565085354966, 6.295565085354966, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.773857573049381, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.582267709258183, 5.582267709258183, 5.582267709258183, 5.582267709258183, 6.255046141527569, 6.255046141527569, 6.255046141527569, 6.255046141527569, 6.255046141527569, 6.255046141527569, 6.255046141527569, 6.255046141527569, 6.255046141527569, 6.255046141527569, 6.255046141527569, 6.255046141527569, 6.255046141527569, 6.566848954685911, 4.4991742733880224, 4.4991742733880224, 4.4991742733880224, 4.4991742733880224, 4.4991742733880224, 4.4991742733880224, 4.4991742733880224, 4.4991742733880224, 4.4991742733880224, 4.4991742733880224, 4.4991742733880224, 4.4991742733880224, 4.4991742733880224, 4.4991742733880224, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 1083.002680394047, 1057.8970335997965, 1039.2563391877184, 1033.1005146955672, 1011.1740792681843, 1064.0518924294586, 1043.7197756889118, 1112.3335801710007, 1121.1873116148072, 1025.728869839952, 1072.5987456873156, 1031.3645395170079, 1025.8923523566991, 1005.2187428516969, 6.804890778791103, 8.57711311888103, 7.854889668624009, 10.910893864511818, 17.904190035761054, 6.524988722302562, 5.992837917775015, 6.501732869609465, 18.871513092070394, 18.871513092070394, 16.550013198362873, 7.842102469060207, 10.03322118737002, 17.963764544251983, 17.963764544251983, 16.70524422985435, 10.884260739670639, 8.954065840015188, 16.108479963362274, 13.935744048789546, 4.8139143925737375, 13.786088227626701, 14.365212758986681, 13.764652159989224, 13.764652159989224, 11.154508449030368, 6.885625687934217, 16.892085507731373, 18.36197759699733, 18.1852115484563, 17.904635350959285, 9.838014059264362, 15.36232020633885, 7.468623737904681, 19.222329677991837, 9.451114317762055, 18.63450782159989, 16.84621492229407, 18.370234555356756, 6.866324990310597, 14.635586332703856, 6.146608426032841, 6.146608426032841, 9.151817053703814, 9.151817053703814, 9.151817053703814, 17.16846919202137, 16.182735562618685, 16.182735562618685, 17.937661201463783, 17.937661201463783, 7.141085329170643, 5.27749644060914, 5.54654153157813, 12.273755748935562, 16.362306383934897, 9.982572811166476, 15.322710677651012, 14.550756319141481, 17.43332616433089, 17.43332616433089, 17.43332616433089, 18.46350284482758, 8.719507476111275, 18.08315960138218, 11.025507520887922, 10.593649414700211, 10.593649414700211, 10.593649414700211, 16.011979913847853, 6.3194152212090575, 6.3194152212090575, 14.357694674782294, 8.62788374484186, 12.495553219355775, 7.978968850242331, 4.191750422513997, 4.191750422513997, 4.191750422513997, 4.191750422513997, 8.732328008753719, 9.135912964856768, 10.4081370554672, 4.252779168500384, 4.252779168500384, 5.334163779298692, 9.145759568597278, 13.626534441210746, 7.196075518080374, 10.089133093052165, 10.089133093052165, 6.881242005805831, 10.720777444678971, 10.203270041650383, 12.254991759779822, 9.757841607354205, 7.263894632246433, 5.554770946279927, 7.897869518898883, 7.897869518898883, 11.41140954010014, 11.490604698349946, 11.210504406392618, 11.210504406392618, 6.443545171686837, 10.180401558581435, 7.975830074447031, 7.975830074447031, 12.743202512825993, 5.27116798314701, 9.422852548235653, 8.315520757749695, 7.8285172647516035, 7.5726369693174975, 6.678263005727552, 6.678263005727552, 10.68868528952404, 10.68868528952404, 10.68868528952404, 10.68868528952404, 10.68868528952404, 8.277253911547167, 10.56334859137365, 10.56334859137365, 10.139655317280871, 9.04498459547652, 4.44418418641842, 4.44418418641842, 6.007487436534823, 6.007487436534823, 6.007487436534823, 5.186567568726549, 6.59342514942932, 6.59342514942932, 6.59342514942932, 8.689903697280187, 8.689903697280187, 8.689903697280187, 8.689903697280187, 8.689903697280187, 8.689903697280187, 8.689903697280187, 8.689903697280187, 8.689903697280187, 8.689903697280187, 8.689903697280187, 8.689903697280187, 6.283373836314789, 6.283373836314789, 5.968976419251038, 5.968976419251038, 5.968976419251038, 10.69726070378619, 10.69726070378619, 10.69726070378619, 10.69726070378619, 10.69726070378619, 10.69726070378619, 8.332392630391192, 8.332392630391192, 8.332392630391192, 8.332392630391192, 8.332392630391192, 8.332392630391192, 7.303745165106077, 7.303745165106077, 7.303745165106077, 7.303745165106077, 7.367567492200943, 7.367567492200943, 7.367567492200943, 7.367567492200943, 7.367567492200943, 7.367567492200943, 7.367567492200943, 7.367567492200943, 7.367567492200943, 7.367567492200943, 7.367567492200943, 7.367567492200943, 7.367567492200943, 7.367567492200943, 7.367567492200943, 7.367567492200943, 7.367567492200943, 4.8712047806197205, 4.8712047806197205, 4.8712047806197205, 4.8712047806197205, 4.8712047806197205, 4.804019807179941, 4.804019807179941, 4.804019807179941, 4.804019807179941, 4.586176633860255, 5.161999759410182, 5.161999759410182, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 6.993747915318313, 6.993747915318313, 6.993747915318313, 6.993747915318313, 4.56831495022727, 8.029609364861622, 8.029609364861622, 8.029609364861622, 8.029609364861622, 8.029609364861622, 8.029609364861622, 8.029609364861622, 8.029609364861622, 8.029609364861622, 8.029609364861622, 8.029609364861622, 9.760741559576557, 5.470473465188075, 5.470473465188075, 5.470473465188075, 5.470473465188075, 5.470473465188075, 5.470473465188075, 5.470473465188075, 5.470473465188075, 5.470473465188075, 5.470473465188075, 5.470473465188075, 5.4704</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>[5.019545894438246, 5.019545894438246, 5.019545894438246, 5.019545894438246, 5.019545894438246, 5.019545894438246, 5.019545894438246, 9.36434593969078, 9.36434593969078, 9.36434593969078, 9.36434593969078, 9.36434593969078, 9.748167961944157, 9.748167961944157, 9.748167961944157, 9.748167961944157, 9.748167961944157, 9.748167961944157, 9.748167961944157, 9.748167961944157, 9.748167961944157, 9.748167961944157, 9.748167961944157, 9.748167961944157, 9.748167961944157, 9.748167961944157, 9.748167961944157, 9.748167961944157, 9.748167961944157, 9.748167961944157, 9.748167961944157, 9.748167961944157, 9.748167961944157, 9.748167961944157, 8.162368902240127, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 7.306497218010811, 7.306497218010811, 7.306497218010811, 7.306497218010811, 7.306497218010811, 7.306497218010811, 7.306497218010811, 7.306497218010811, 7.306497218010811, 7.306497218010811, 7.306497218010811, 7.306497218010811, 7.306497218010811, 7.306497218010811, 7.306497218010811, 7.306497218010811, 7.306497218010811, 7.306497218010811, 7.306497218010811, 7.306497218010811, 7.306497218010811, 7.306497218010811, 7.306497218010811, 7.306497218010811, 7.306497218010811, 5.546953204492775, 5.546953204492775, 5.546953204492775, 5.546953204492775, 5.546953204492775, 5.546953204492775, 5.546953204492775, 5.546953204492775, 5.546953204492775, 5.546953204492775, 6.734483968865325, 6.734483968865325, 6.734483968865325, 6.734483968865325, 6.734483968865325, 6.734483968865325, 6.734483968865325, 6.734483968865325, 4.786099788406517, 4.786099788406517, 4.786099788406517, 4.786099788406517, 4.786099788406517, 4.786099788406517, 4.786099788406517, 4.786099788406517, 4.786099788406517, 4.786099788406517, 4.786099788406517, 4.786099788406517, 4.786099788406517, 5.411807778722112, 5.411807778722112, 5.411807778722112, 5.411807778722112, 5.411807778722112, 5.411807778722112, 5.411807778722112, 5.411807778722112, 5.411807778722112, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 6.993747915318313, 6.993747915318313, 6.993747915318313, 6.993747915318313, 6.993747915318313, 6.993747915318313, 6.993747915318313, 6.993747915318313, 8.029609364861622, 8.029609364861622, 8.029609364861622, 8.029609364861622, 8.029609364861622, 8.029609364861622, 8.029609364861622, 8.029609364861622, 8.029609364861622, 8.029609364861622, 8.029609364861622, 8.029609364861622, 8.029609364861622, 8.029609364861622, 8.029609364861622, 8.029609364861622, 8.029609364861622, 5.470473465188075, 5.470473465188075, 5.470473465188075, 5.470473465188075, 5.470473465188075, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 7.379136610020427, 7.379136610020427, 7.379136610020427, 7.379136610020427, 7.379136610020427, 7.379136610020427, 7.379136610020427, 7.379136610020427, 7.379136610020427, 7.379136610020427, 7.379136610020427, 7.379136610020427, 7.379136610020427, 7.379136610020427, 7.379136610020427, 7.379136610020427, 7.379136610020427, 7.379136610020427, 7.379136610020427, 9.483342304864404, 9.483342304864404, 9.483342304864404, 9.483342304864404, 9.483342304864404, 9.483342304864404, 9.483342304864404, 9.483342304864404, 9.483342304864404, 9.483342304864404, 9.483342304864404, 9.483342304864404, 9.483342304864404, 9.483342304864404, 9.483342304864404, 9.483342304864404, 9.483342304864404, 9.483342304864404, 9.483342304864404, 9.483342304864404, 9.483342304864404, 4.539717800429989, 4.539717800429989, 4.539717800429989, 4.539717800429989, 4.539717800429989, 4.539717800429989, 4.539717800429989, 4.539717800429989, 4.539717800429989, 4.539717800429989, 4.539717800429989, 4.539717800429989, 4.539717800429989, 4.539717800429989, 4.539717800429989, 4.539717800429989, 4.539</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[10.724064518702429, 10.522586102458165, 10.535494091211905, 10.380228466113424, 10.305719665428557, 10.31530929015072, 10.162220698510003, 10.045817671380663, 9.85891734983407, 9.90528894705149, 9.904678705201775, 10.031470161030859, 9.892180649988864, 9.904456615816413, 9.891873242781674, 9.944259887046696, 9.893510279957246, 9.893510279957246, 9.893510279957246, 9.796985529851309, 9.743721050127508, 9.827301955523726, 9.604179554020282, 9.681512270472762, 9.790018898253294, 9.865047103557703, 9.980819610094784, 9.949503695536357, 10.089751375665815, 10.081499790751367, 10.009136063485764, 10.168430389343568, 10.346978617896276, 10.489046280825528, 10.517748726479159, 10.407130197481415, 10.46310489782907, 10.472740739434911, 10.36006574189207, 10.393425193641951, 10.36396964431497, 10.407205228866353, 10.448424752124279, 10.519134043453226, 10.46302909910288, 10.421502331874596, 10.519142709122663, 10.378266846937397, 10.315899293236305, 10.204816553911805, 10.337400156192057, 10.221082082783651, 10.121787130828691, 10.178609439741352, 10.060899909639891, 10.034568539169854, 10.034568539169854, 9.98804426172055, 9.935436508136169, 9.842836096625867, 9.74171012512517, 9.776164968847102, 9.728449209718121, 9.668426040963729, 9.716862476864586, 9.737394816003317, 9.584348893660778, 9.38690770324481, 9.281650611859847, 9.12843627599923, 9.073066841059868, 9.06783279092672, 8.936934213650384, 8.868206245564192, 8.845764866349162, 8.81337912868334, 8.884993738567413, 8.911205275270754, 8.865308311120991, 8.991741081742683, 9.09105826678705, 9.029014477482114, 9.063498819520678, 9.035734500183649, 9.063065977185586, 9.0431492659537, 9.124740339140722, 9.034675479343743, 8.878067367347656, 8.813260203585479, 8.785071694620322, 8.735944014983883, 8.644037900976851, 8.644037900976851, 8.568333995640646, 8.598549180791947, 8.510135121960573, 8.407721778649945, 8.496803585843564, 8.401454317215535, 8.35176168224564, 8.378940401133411, 8.288447280641789, 8.271452894613045, 8.291111991481301, 8.245230351332644, 8.25260066550712, 8.297773878966789, 8.198663573784911, 8.108135605585192, 8.07589810215047, 8.091125695093059, 7.977829580053167, 7.990342644652812, 7.918251981097781, 7.838499102504755, 7.709544245556212, 7.7218110242247535, 7.618180834111624, 7.610286773784213, 7.524171037485048, 7.462897862520359, 7.420455060195598, 7.399738797255086, 7.388096716913484, 7.3760888640521785, 7.370831777665854, 7.442093699337752, 7.462821320827262, 7.407998393346225, 7.454455845345085, 7.529239113595315, 7.561309304562605, 7.63669282684042, 7.698190986645563, 7.717861186686181, 7.7790267446557335, 7.771256085808498, 7.697428829971578, 7.58117801280506, 7.483321353791136, 7.469792808680048, 7.456285667241909, 7.353334174134582, 7.339974126496047, 7.2432994602800145, 7.2300610889448285, 7.158390366616227, 7.124163422269466, 7.117048648982027, 7.185028836397097, 7.165979976687838, 7.1259863193771835, 7.151846076188757, 7.165847288700953, 7.14971212903361, 7.093060601426764, 7.128838490558098, 7.128838490558098, 7.108554682016565, 7.165632455753217, 7.145341549562819, 7.133604667686691, 7.150391718078437, 7.224325279259925, 7.2403664941028625, 7.256895961649981, 7.245181633738978, 7.241388749807408, 7.2040325999876345, 7.098559473805911, 7.098559473805911, 7.042177768994558, 7.005170621997974, 7.005170621997974, 7.005170621997974, 6.920764070895875, 6.87088993276479, 6.79125435021144, 6.611958506205698, 6.528193053803282, 6.444512167704276, 6.458318476294864, 6.414455250301627, 6.359586463188449, 6.380476016746808, 6.367531360793968, 6.2707164037217495, 6.333478097270825, 6.361864129407564, 6.390198062117828, 6.418480038704223, 6.446710201944284, 6.458858779115331, 6.46349393668654, 6.491595591998624, 6.503631538803131, 6.5316240771454765, 6.55956566958184, 6.564609482549589, 6.574724201773111, 6.556426725493142, 6.492536251585198, 6.429022024396919, 6.410955561090385, 6.3929162523320375, 6.3929162523320375, 6.317891342406414, 6.280365237507177, 6.2815131457617515, 6.22224185361432, 6.24522056659273, 6.241522008287773, 6.220199283521753, 6.246235347438972, 6.242556605393747, 6.265356486434324, 6.215693003530139, 6.218870260192152, 6.175131727676554, 6.189896477000593, 6.220663792070297, 6.251284716634389, 6.2415893857852485, 6.2154438144290864, 6.230110507102093, 6.259687025580813, 6.2792808244259595, 6.235869202829721, 6.192641107319502, 6.182109771257855, 6.1391228437438246, 6.153662613706535, 6.184041944330641, 6.214278947706119, 6.201922703090328, 6.231980301281711, 6.189377493146494, 6.219331952140976, 6.248250141183662, 6.294399190361971, 6.283984217296049, 6.303054562022682, 6.317535874496779, 6.317535874496779, 6.27943713119458, 6.279759102881712, 6.204201627548445, 6.044137890579142, 6.083009050639436, 6.067987976457374, 5.99812365570796, 5.93433941802812, 5.902411688679182, 5.91600658134595, 5.927797359420082, 5.930651420075174, 5.920200055335209, 5.964175314363247, 6.035003606236805, 6.022003921068594, 6.009020007935043, 5.992819037134861, 6.0206825645765605, 6.004494746187226, 6.058414360910759, 6.042224233260962, 6.02607098818619, 6.009954499797072, 5.950678237615574, 5.891504179666488, 5.887879763323171, 5.910998432053037, 5.937007018034101, 5.96296993633247, 5.919473956766267, 5.893661524040084, 5.893661524040084, 5.9196215411642665, 5.901994185524994, 5.953662822890644, 5.936040271412544, 5.987608278553364, 5.969990574016346, 5.885245210295494, 5.9543643870901795, 6.023451547467633, 6.092506713667997, 6.092506713667997, 6.092506713667997, 6.092506713667997, 6.16152990791082, 6.16152990791082, 6.16152990791082, 6.16152990791082, 6.16152990791082, 6.230521152395086, 6.299480469299224, 6.353978716691927, 6.353978716691927, 6.422828017279726, 6.495700794459163, 6.56438720861384, 6.663501441892038, 6.663501441892038, 6.732098779803201, 6.800664500404236, 6.869198625549285, 6.869198625549285, 6.918632398670581, 6.987106346573652, 7.055548763769285, 7.123959672031232, 7.192339093113206, 7.241633806821416, 7.323376186403971, 7.391603636911394, 7.464468547203119, 7.5135506270437284, 7.60510698459288, 7.579272761249028, 7.599913765869592, 7.595090411630529, 7.634637536980149, 7.615706268347403, 7.596775791561227, 7.552450780765081, 7.552450780765081, 7.508205240839883, 7.489311343393249, 7.470418234780196, 7.470418234780196, 7.426287637161357, 7.383968808066871, 7.34000057994992, 7.339912947046665, 7.296069283473604, 7.252303780920039, 7.233522593359286, 7.191604118085435, 7.148016445107033, 7.106266259485153, 7.087543799891218, 7.068822115224795, 7.050101205437778, 7.006725353416802, 6.963426457516058, 6.907814243486189, 6.907814243486189, 6.86470981005593, 6.846072858107323, 6.827436674229178, 6.808801258374015, 6.765825127079075, 6.7472078377033275, 6.732912644317121, 6.69007235310315, 6.690658322295041, 6.647937284322718, 6.629387831946938, 6.629387831946938, 6.585025204461598, 6.589423570488031, 6.565405260790475, 6.547888398201696, 6.523962929560238, 6.479944146538213, 6.412370764262681, 6.388633031130503, 6.364935783316142, 6.29767409448603, 6.274121299064443, 6.27868112767312, 6.28323486116468, 6.25974575791169, 6.198397969307704, 6.181033374822943, 6.159589643235647, 6.136346800040549, 6.158090969653388, 6.195235231940812, 6.209878597485781, 6.182081156074613, 6.154293678601531, 6.154293678601531, 6.121470030453345, 6.100350572913083, 6.114991255944075, 6.1296223351928685, 6.1296223351928685, 6.1099610382340614, 6.111796980077951, 6.111796980077951, 6.117867185665632, 6.117867185665632, 6.1340366440299725, 6.135864615548309, 6.135864615548309, 6.178072013789652, 6.158458949973854, 6.138856719501613, 6.145424332879499, 6.187573020110696, 6.174436088086192, 6.216534331911342, 6.2183462298761, 6.2344109360890085, 6.2344109360890085, 6.214842827015502, 6.195285493139262, 6.195285493139262, 6.175738925562677, 6.191803647393474, 6.172273186345907, 6.188327195920222, 6.190137920510606, 6.232106969457811, 6.211514997575978, 6.227522919730429, 6.249921230059621, 6.256372447180545, 6.256372447180545, 6.270538702179975, 6.262478980884708, 6.241229575977495, 6.281225741047868, 6.273164439206359, 6.251939638040063, 6.230720786928675, 6.270662370449387, 6.249444164421483, 6.249444164421483, 6.201535553527553, 6.153728295207251, 6.092726445528952, 5.970768832889118, 5.945133608429541, 5.945133608429541, 5.945133608429541, 5.884202316504708, 5.7895715496123135, 5.735426410365792, 5.6746845458545, 5.613957928008267, 5.613957928008267, 5.5532465510872715, 5.520067824383194, 5.5553015918130875, 5.569309716969527, 5.604448845505552, 5.6438868834893565, 5.6438868834893565, 5.6438868834893565, 5.678956234030674, 5.675731072058718, 5.6725227531434435, 5.6725227531434435, 5.698150262579382, 5.698150262579382, 5.698150262579382, 5.698150262579382, 5.723695204908321, 5.723695204908321, 5.737092878758764, 5.771806893471032, 5.806505719118373, 5.802981301787663, 5.837575818569704, 5.844028734201814, 5.878584329912712, 5.913124864709314, 5.913124864709314, 5.913124864709314, 5.926280134946393, 5.939411495944403, 5.945779852435562, 5.970692749987216, 5.966773919050474, 5.991907970016361, 6.004900346969567, 6.039134112213451, 5.965859894225807, 5.92790920802299, 5.90682736599894, 5.90682736599894, 5.871930243556533, 5.862864982775907, 5.853614827321626, 5.825958775131549, 5.80500892800244, 5.784087591290334, 5.746811519826898, 5.7259924592850036, 5.7169843961147855, 5.708011019755945, 5.699040275986103, 5.691366903066686, 5.663456038281161, 5.663456038281161, 5.651738127944387, 5.651738127944387, 5.651795456508755, 5.673838261315841, 5.660436406609039, 5.66048304447908, 5.66048304447908, 5.648847115195038, 5.648847115195038, 5.648907500011667, 5.648967740911248, 5.648967740911248, 5.646656589967847, 5.644354372290515, 5.669528639640316, 5.669528639640316, 5.687664847536093, 5.7057678716907025, 5.712305779475184, 5.7188404033642275, 5.7253717458313895, 5.7253717458313895, 5.692136727471702, 5.692136727471702, 5.70367480299539, 5.70367480299539, 5.70367480299539, 5.716457504125274, 5.727965521788258, 5.71206860584862, 5.71206860584862, 5.686099648639942, 5.686099648639942, 5.6975641213790125, 5.7090135145609375, 5.693244774655907, 5.693244774655907, 5.693244774655907, 5.704671265330016, 5.704671265330016, 5.7160827700241565, 5.7160827700241565, 5.727479318200449, 5.738860939243835, 5.751476943385871, 5.751476943385871, 5.76407926676953, 5.7766679316358145, 5.787991484599251, 5.787991484599251, 5.800552172040709, 5.800552172040709, 5.811846622547004, 5.823126340578489, 5.834391354941921, 5.8310487535424, 5.829797498316756, 5.828546521886147, 5.800263292054517, 5.799017039872484, 5.770796902296075, 5.769555355978171, 5.768314085626228, 5.740161236979627, 5.740161236979627, 5.713299102845419, 5.686486551085086, 5.6597234445458025, 5.6597234445458025, 5.6597234445458025, 5.633009646580127, 5.60634502104368, 5.60634502104368, 5.579729432292823, 5.553162745182364, 5.553162745182364, 5.526644825063264, 5.526644825063264, 5.500175537780373, 5.473754749670154, 5.4473823275584445, 5.421058138758211, 5.394782051067331, 5.394782051067331, 5.368553932766374, 5.342373652616402, 5.3162410798567805, 5.290156084203004, 5.2641185358445295, 5.23812830544262, 5.212185264128207, 5.186289283499757, 5.160440235621161, 5.134637993019615, 5.108882428683534, 5.108882428683534, 5.0831734160604665, 5.057510829055021, 5.031894542026801, 5.006324429788361, 4.98080036760316, 4.955322231183542, 4.929889896688712, 4.904503240722728, 4.904503240722728, 4.904503240722728, 4.904503240722728, 4.904503240722728, 4.904503240722728, 4.904503240722728, 4.904503240722728, 4.918067429722814, 4.918067429722814, 4.918067429722814, 4.918067429722814, 4.918067429722814, 4.918067429722814, 4.918067429722814, 4.918067429722814, 4.918067429722814, 4.918067429722814, 4.918067429722814, 4.918067429722814, 4.918067429722814, 4.918067429722814, 4.918067429722814, 4.918067429722814, 4.931626154721554, 4.931626154721554, 4.931626154721554, 4.931626154721554, 4.931626154721554, 4.931626154721554, 4.945179419019843, 4.945179419019843, 4.945179419019843, 4.945179419019843, 4.958727225915916, 4.958727225915916, 4.958727225915916, 4.958727225915916, 4.958727225915916, 4.972269578705353, 4.972269578705353, 4.972269578705353, 4.98580648068108, 4.977282474896481, 4.990794087635646, 4.990794087635646, 5.004300272779712, 5.004300272779712, 5.017801033598409, 5.017801033598409, 5.031296373358841, 5.031296373358841, 5.044786295325488, 5.044786295325488, 5.044786295325488, 5.058270802760207, 5.058270802760207, 5.058270802760207, 5.071749898922239, 5.085223587068213, 5.085223587068213, 5.09869187045214, 5.09869187045214, 5.09869187045214, 5.09869187045214, 5.112389020053042, 5.125845548409852, 5.139296682497987, 5.13056369567548, 5.143989855263725, 5.143989855263725, 5.1574106434469345, 5.1708260634478735, 5.184236118486728, 5.197640811781106, 5.211040146546049, 5.216582935000964, 5.230179665659766, 5.243544943491671, 5.256904890605514, 5.270259510189883, 5.283608805430818, 5.296952779511824, 5.287867217833454, 5.293264175608549, 5.306562478636443, 5.319855499260445, 5.333143240627373, 5.3464257058815505, 5.357213730489817, 5.370485663882249, 5.383752330767226, 5.388981552385106, 5.394194272572527, 5.407411771608467, 5.420624044355597, 5.43383109391307, 5.44951454599208, 5.44951454599208, 5.44951454599208, 5.44951454599208, 5.44951454599208, 5.44951454599208, 5.44951454599208, 5.441439823345658, 5.441439823345658, 5.441439823345658, 5.441439823345658, 5.441439823345658, 5.441439823345658, 5.441439823345658, 5.433387309322079, 5.425356912423666, 5.425356912423666, 5.425356912423666, 5.438982003009761, 5.452601279292803, 5.43027898724728, 5.43027898724728, 5.43027898724728, 5.422277543977498, 5.414297980015368, 5.3921140978776325, 5.3921140978776325, 5.3921140978776325, 5.3841967257960555, 5.384407138517936, 5.384407138517936, 5.3979437585584025, 5.411474643227599, 5.424999796169815, 5.424999796169815, 5.438519221026243, 5.430556703070697, 5.408601035409699, 5.422084466435334, 5.41416744982049, 5.414374811124599, 5.392365209813075, 5.384509648951126, 5.354943883030723, 5.368345213559119, 5.368554401340812, 5.346725080492781, 5.338974596094784, 5.352340702841467, 5.365701221755544, 5.343941350951919, 5.336217954289725, 5.349544369113094, 5.3280100887424195, 5.341317718149533, 5.319682623601454, 5.298247885762857, 5.276869929309229, 5.289317351643635, 5.267664424329062, 5.246062519217722, 5.224662321820368, 5.19551663835276, 5.19551663835276, 5.161155647501367, 5.140642218872683, 5.106570262441244, 5.086163005901021, 5.052226497990117, 5.031924675907041, 5.011667871621847, 4.977757851517267, 4.944087307410966, 4.91049057461575, 4.876792579167544, 4.843163245195584, 4.816325888487595, 4.816504987817703, 4.830150648700755, 4.8437940155264725, 4.857435088873308, 4.871073869319522, 4.871248789150352, 4.8848842399833305, 4.898517399417779, 4.898690219094354, 4.912320051266929, 4.912491808746962, 4.912663540477134, 4.92628901103419, 4.926459681397592, 4.939912192961595, 4.953364461409659, 4.966816486748375, 4.980268268984331, 4.99371980812412, 5.00717110417433, 5.02062215714155, 5.034072967032369, 5.047523533853378, 5.060973857611163, 5.074423938312315, 5.087873775963421, 5.101323370571069, 5.1282218306823415, 5.1416706961991405, 5.155119318698832, 5.168567698188002, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.193898816663056, 5.193898816663056, 5.193898816663056, 5.193898816663056, 5.193898816663056, 5.193898816663056, 5.193898816663056, 5.193898816663056, 5.193898816663056, 5.193898816663056, 5.193898816663056, 5.193898816663056, 5.193898816663056, 5.205764568422428, 5.205764568422428, 5.205764568422428, 5.205764568422428, 5.217613127399749, 5.217613127399749, 5.217613127399749, 5.217613127399749, 5.217613127399749, 5.217613127399749, 5.217613127399749, 5.217613127399749, 5.217613127399749, 5.229444530934976, 5.229444530934976, 5.229444530934976, 5.229444530934976, 5.229444530934976, 5.229444530934976, 5.229444530934976, 5.229444530934976, 5.229444530934976, 5.229444530934976, 5.229444530934976, 5.229444530934976, 5.229444530934976, 5.229444530934976, 5.229444530934976, 5.229444530934976, 5.229444530934976, 5.229444530934976, 5.229444530934976, 5.241258816260012, 5.241258816260012, 5.254727441956444, 5.254727441956444, 5.254727441956444, 5.254727441956444, 5.254727441956444, 5.254727441956444, 5.254727441956444, 5.266508935337377, 5.266508935337377, 5.278273415968611, 5.290020920673765, 5.290020920673765, 5.290020920673765, 5.290020920673765, 5.290020920673765, 5.290020920673765, 5.286172990494004, 5.286172990494004, 5.286172990494004, 5.286172990494004, 5.297889491296742, 5.297889491296742, 5.309589133979297, 5.3229487709819425, 5.3229487709819425, 11.920585531537677, 11.696080423367542, 11.798712133292845, 11.65035406369257, 11.75458966366891, 11.808622493746551, 11.609777654751143, 11.581153095893578, 11.610768232103622, 11.603825549331651, 11.4772366355182, 11.293153271908063, 11.008610479328496, 10.920107832020646, 10.73191167363942, 10.898184327266131, 11.078936376948208, 11.22059170446875, 11.182982434756013, 11.017029036880176, 11.165654944662112, 11.388488509109761, 11.426997154434373, 11.460945052339724, 11.302124308797552, 11.257989198845813, 11.317377312613129, 11.416977656976977, 11.396543674717126, 11.327208272042984, 11.230315979325738, 11.27058735763789, 11.376992070633703, 11.347145893110294, 11.224724215006747, 11.19129625735527, 11.285659035958574, 11.304703202375007, 11.112056365341253, 11.18931264013396, 10.99631004812366, 11.119278183445878, 11.11220228135268, 10.961481137955591, 10.958113610051603, 10.774811891258965, 10.92233609027071, 10.779616368644557, 10.975205587111303, 11.051025573703491, 11.105705346353949, 10.900604939334587, 10.71426824601813, 10.53565690581487, 10.63585505032964, 10.683516040237446, 10.63713846553233, 10.654693051760336, 10.689640336448168, 10.852694891370982, 10.534193583636549, 10.144595604466707, 10.006795509921341, 9.978238783564782, 9.83496568621231, 9.600490524086172, 9.77010337884576, 9.79352164054176, 9.798049675272734, 9.687091323213327, 9.608466646702233, 9.517294483715437, 9.369783949122102, 9.302837980747533, 9.14270315916377, 8.972655998764417, 8.842781481115352, 8.577032322104474, 8.57693243887774, 8.377091993904907, 8.405525187664388, 8.405525187664388, 8.398164222205985, 8.29897777123717, 8.181665868697618, 8.208330484069137, 8.207618793577462, 8.10671045148548, 8.050027955906002, 7.965969948126438, 7.924136502034949, 7.999518610475594, 8.022301584108638, 8.157156364847195, 8.177091173583962, 8.096564067013315, 8.096939124726807, 7.999770160995614, 7.999770160995614, 8.041596931937136, 8.15171826281375, 8.184219361523342, 8.135281373472832, 8.032873351991983, 8.045290520771303, 8.027858889244296, 8.00109795472914, 8.011198437004133, 7.900084523468947, 7.794054676840976, 7.73664344546841, 7.756772052733301, 7.801088495348919, 7.810489254816006, 7.826948539824797, 7.736647109353563, 7.660401633176641, 7.651598115359737, 7.5520532481953895, 7.5952799397529365, 7.500297682290763, 7.515695573384681, 7.567693904987543, 7.538002425893336, 7.52318000033278, 7.552960197883086, 7.5602550911380115, 7.519780727851297, 7.542059026363757, 7.580893810572345, 7.655743163323289, 7.561856104758518, 7.445427565252361, 7.403088876698302, 7.3263940508118885, 7.265028713129606, 7.2175639414034505, 7.095246067162127, 7.055914217638607, 6.974325882120888, 6.882427316289276, 6.908248790206089, 6.989712879623478, 7.0161530823934175, 7.0161530823934175, 7.108162403002733, 7.17546605862003, 7.25620425147851, 7.266504830554279, 7.187803772332488, 7.162567868688483, 7.109877038989333, 7.109877038989333, 7.032182176592463, 7.007173065565851, 7.047026417087079, 7.036148461488042, 6.981228874191625, 6.926465676569575, 6.849588372054351, 6.795163351509915, 6.740892665088794, 6.826196887872087, 6.847330567128216, 6.844970762163027, 6.8708778203275145, 6.850001349678491, 6.786201143422072, 6.672762146147446, 6.579720589278677, 6.516241211804456, 6.452842000104005, 6.407505835789083, 6.350838114239173, 6.347289261282522, 6.3278615351120795, 6.309987892960846, 6.253726485432774, 6.197477962362619, 6.199045077207248, 6.171634652511671, 6.171634652511671, 6.144261670028985, 6.144261670028985, 6.115339058022754, 6.086439663964208, 6.057563459906862, 6.008524314021852, 6.008524314021852, 6.0230155254239754, 5.978355119150027, 5.9495691741614944, 5.9495691741614944, 5.9208062813363425, 5.89206641299494, 5.899638166401848, 5.850785982286546, 5.850785982286546, 5.850785982286546, 5.79596472377496, 5.800355838292905, 5.800355838292905, 5.811695447795441, 5.831838205886753, 5.851966908353492, 5.851966908353492, 5.873686741590808, 5.895403294627504, 5.95322634304342, 6.022316924320929, 6.027977944548108, 6.0643768235688364, 6.107317350453881, 6.143182091542118, 6.134135146633824, 6.134135146633824, 6.176966950790699, 6.219769348365685, 6.2554585725290925, 6.2554585725290925, 6.246342105624255, 6.246342105624255, 6.246342105624255, 6.246342105624255, 6.246342105624255, 6.23724031483138, 6.23724031483138, 6.279903406284308, 6.315444433891997, 6.315444433891997, 6.3580312135476404, 6.348860715046423, 6.339704933781277, 6.375098855676888, 6.3657231351160535, 6.356577462408161, 6.398957843894309, 6.3897960239613045, 6.419881421629395, 6.410720386650139, 6.401573959503282, 6.392442105277037, 6.4275385717424784, 6.418400739652705, 6.453419809324558, 6.444276084758396, 6.486295230895994, 6.528286005034167, 6.563136457018763, 6.597930568110769, 6.588700610758423, 6.60997170632854, 6.660064339333898, 6.696708137846368, 6.733349884219135, 6.739411802760271, 6.745464476270895, 6.796895236703169, 6.810155054781728, 6.776020307833124, 6.7455692086180905, 6.80613743640048, 6.7989760594651845, 6.791821376773086, 6.784673378942199, 6.811528536903123, 6.842260460781217, 6.791562864670952, 6.784431120868057, 6.815131823668687, 6.807998476783712, 6.75742922064624, 6.750329231837665, 6.709388968014213, 6.752792986617235, 6.752523742287506, 6.752523742287506, 6.833647951429451, 6.853030483887895, 6.891158464459895, 6.972955398173795, 7.0161648467496684, 7.0161648467496684, 7.096841575888389, 7.14003128001646, 7.177999886177971, 7.221174496043455, 7.264347745555279, 7.3075</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>[0.031203735075218578, 0.04256736282332197, 0.04935864730997929, 0.05841224004899959, 0.061758400000000005, 0.06335909488391316, 0.06624021960037539, 0.07481634491510407, 0.07950866413320139, 13.345791095999408, 14.0503800912368, 14.180633007898109, 14.941309850448363, 14.95199664286709, 15.020180238186175, 15.26606730910711, 15.44041406002756, 15.44041406002756, 15.44041406002756, 15.48045766534072, 15.481931613407934, 15.521314047018377, 15.65237643048553, 15.65237643048553, 15.65237643048553, 15.749912978468855, 15.780124323456672, 15.788176850471933, 15.861004482124045, 16.210178160215055, 16.224844930596984, 16.293799090441887, 16.42214581069419, 16.510172774344316, 16.514735502839926, 16.547734468734127, 16.67337551323053, 16.744878999157784, 16.760554794769995, 16.923531646872863, 16.99555832747223, 17.015875642549823, 17.024326181278774, 17.09751587413127, 17.18580956472828, 17.18895637018852, 17.199043896410178, 17.24933698492561, 17.271721071675444, 17.342657863320362, 17.40772576535456, 17.70550730674892, 17.706856707401048, 17.79441657871652, 17.822872758289467, 17.898452915793072, 17.898452915793072, 17.91205331164612, 17.96228185838647, 18.07441938373952, 18.07441938373952, 18.078204519322025, 18.078204519322025, 18.15408944230897, 18.17530620677174, 18.190192401803657, 18.1932400916146, 18.1932400916146, 18.1935750779373, 18.333409900468244, 18.436441403402874, 18.500187785179207, 18.61060250983008, 18.638545567489427, 18.638545567489427, 18.638545567489427, 18.837784318252208, 18.837784318252208, 18.87630810455225, 18.94776016095758, 18.950225574589396, 19.048050164160518, 19.127175409737667, 19.137376298301863, 19.148523733621055, 19.335816199266052, 19.423737326218625, 19.466791397602478, 19.47683078798139, 19.64346615302916, 19.739014281405645, 19.759073286563225, 19.815484695695115, 19.815484695695115, 19.860851233144743, 19.880392170406914, 20.198920536962262, 20.320563283028843, 20.376590100075493, 20.387660614932194, 20.387660614932194, 20.402737047719246, 20.40394043285196, 20.609154491098526, 20.609154491098526, 20.609154491098526, 20.773812005272564, 20.883226851667665, 20.883226851667665, 20.93045272593508, 20.941878247948257, 20.941878247948257, 20.941878247948257, 20.941878247948257, 21.01155263789681, 21.01155263789681, 21.29949944154791, 21.449631586365335, 21.598496286097564, 21.66313072908481, 21.747676161061868, 21.7982346240486, 21.897576210693877, 21.897576210693877, 21.897576210693877, 21.897576210693877, 21.897576210693877, 21.9924248793474, 21.9924248793474, 22.148272402429086, 22.148272402429086, 22.30790794686429, 22.313341344729718, 22.313341344729718, 22.313341344729718, 22.313341344729718, 22.313341344729718, 22.67197670799194, 22.67197670799194, 22.67197670799194, 22.67197670799194, 22.67197670799194, 22.67197670799194, 22.67197670799194, 22.67197670799194, 22.67197670799194, 22.67197670799194, 22.67197670799194, 22.718314463912996, 22.718314463912996, 22.718314463912996, 22.718314463912996, 22.83114492066398, 22.83114492066398, 22.986309535534847, 23.15504264308977, 23.344980029129346, 23.441860002713415, 23.441860002713415, 23.441860002713415, 23.441860002713415, 23.495987353372595, 23.495987353372595, 23.495987353372595, 23.495987353372595, 23.495987353372595, 23.495987353372595, 23.506377239865543, 23.608985656251797, 23.608985656251797, 23.608985656251797, 23.608985656251797, 23.608985656251797, 23.608985656251797, 23.608985656251797, 23.608985656251797, 23.608985656251797, 23.608985656251797, 23.608985656251797, 23.608985656251797, 23.608985656251797, 23.608985656251797, 23.608985656251797, 23.608985656251797, 23.923184582073414, 23.923184582073414, 24.04638969157576, 24.134259808721104, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.425399916482814, 24.425399916482814, 24.425399916482814, 24.425399916482814, 24.425399916482814, 24.491344001304828, 24.491344001304828, 24.635607819885664, 24.635607819885664, 24.778240813892495, 24.878522481175143, 24.878522481175143, 24.878522481175143, 24.878522481175143, 24.878522481175143, 24.878522481175143, 25.1644187220921, 25.391700506016846, 25.391700506016846, 25.391700506016846, 25.391700506016846, 25.391700506016846, 25.391700506016846, 25.391700506016846, 25.391700506016846, 25.391700506016846, 25.391700506016846, 25.391700506016846, 25.391700506016846, 25.391700506016846, 25.391700506016846, 25.391700506016846, 25.391700506016846, 25.391700506016846, 25.391700506016846, 25.391700506016846, 25.391700506016846, 25.391700506016846, 25.391700506016846, 25.391700506016846, 25.391700506016846, 25.391700506016846, 25.486992841375603, 25.486992841375603, 25.486992841375603, 25.486992841375603, 25.605424812685385, 25.94273176924372, 26.046685540078137, 26.119981851092152, 26.168551190445676, 26.168551190445676, 26.322170891140406, 26.32623755677071, 26.32623755677071, 26.355726953984085, 26.355726953984085, 26.355726953984085, 26.448752174494985, 26.52722228008822, 26.52722228008822, 26.60848387227875, 26.60848387227875, 26.60848387227875, 26.60848387227875, 26.60848387227875, 26.60848387227875, 26.60848387227875, 26.993359163979065, 26.993359163979065, 26.993359163979065, 27.222560613168934, 27.295274374593276, 27.295274374593276, 27.295274374593276, 27.295274374593276, 27.295274374593276, 27.295274374593276, 27.37240471408609, 27.37240471408609, 27.37240471408609, 27.37240471408609, 27.37240471408609, 28.170837070154597, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.3870595721002, 28.3870595721002, 28.3870595721002, 28.3870595721002, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.56445322732855, 28.56445322732855, 28.56445322732855, 28.56445322732855, 28.56445322732855, 28.56445322732855, 28.56445322732855, 28.56445322732855, 28.56445322732855, 28.56445322732855, 28.56445322732855, 28.56445322732855, 28.56445322732855, 28.56445322732855, 28.56445322732855, 28.56445322732855, 28.56445322732855, 28.56445322732855, 28.56445322732855, 28.61298530956469, 29.019331451506915, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.826126369882967, 29.826126369882967, 29.826126369882967, 29.826126369882967, 29.826126369882967, 29.826126369882967, 29.826126369882967, 29.826126369882967, 29.826126369882967, 29.826126369882967, 29.826126369882967, 29.826126369882967, 29.826126369882967, 29.826126369882967, 29.826126369882967, 29.826126369882967, 29.826126369882967, 29.826126369882967, 29.826126369882967, 29.826126369882967, 29.826126369882967, 29.826126369882967, 29.826126369882967, 29.826126369882967, 29.826126369882967, 29.826126369882967, 29.826126369882967, 29.826126369882967, 29.826126369882967, 29.826126369882967, 29.826126369882967, 29.826126369882967, 30.02907167265281, 30.02907167265281, 30.02907167265281, 30.02907167265281, 30.02907167265281, 30.02907167265281, 30.02907167265281, 30.02907167265281, 30.02907167265281, 30.02907167265281, 30.05028018670162, 30.05028018670162, 30.05028018670162, 30.05028018670162, 30.05028018670162, 30.05028018670162, 30.05028018670162, 30.05028018670162, 30.05028018670162, 30.05028018670162, 30.05028018670162, 30.05028018670162, 30.05028018670162, 30.05028018670162, 30.05028018670162, 30.05028018670162, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.58335241596118, 30.58335241596118, 30.58335241596118, 30.58335241596118, 30.58335241596118, 30.58335241596118, 30.58335241596118, 30.58335241596118, 30.58335241596118, 30.58335241596118, 30.58335241596118, 30.58335241596118, 30.58335241596118, 30.58335241596118, 30.58335241596118, 30.58335241596118, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 31.148064223155103, 31.148064223155103, 31.148064223155103, 31.148064223155103, 31.256200047816108, 31.256200047816108, 31.256200047816108, 31.256200047816108, 31.256200047816108, 31.256200047816108, 31.449959923632047, 31.449959923632047, 31.665882771650587, 31.665882771650587, 31.665882771650587, 31.665882771650587, 31.665882771650587, 31.665882771650587, 31.665882771650587, 31.665882771650587, 31.665882771650587, 31.665882771650587, 31.665882771650587, 31.665882771650587, 31.665882771650587, 31.665882771650587, 31.665882771650587, 31.665882771650587, 31.665882771650587, 31.665882771650587, 31.665882771650587, 31.665882771650587, 31.665882771650587, 31.665882771650587, 31.665882771650587, 31.665882771650587, 31.665882771650587, 31.665882771650587, 31.665882771650587, 31.665882771650587, 31.665882771650587, 31.665882771650587, 31.665882771650587, 31.665882771650587, 32.13825460865774, 32.56260513879532, 32.56260513879532, 32.56260513879532, 32.56260513879532, 32.56260513879532, 32.56260513879532, 32.56260513879532, 32.56260513879532, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.35376893643735, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.75290152750132, 34.75290152750132, 34.75290152750132, 34.75290152750132, 35.01173213512333, 35.01173213512333, 35.01173213512333, 35.01173213512333, 35.01173213512333, 35.01173213512333, 35.01173213512333, 35.01173213512333, 35.01173213512333, 35.01173213512333, 35.01173213512333, 35.01173213512333, 35.01173213512333, 36.090368704290626, 36.89565905056544, 36.89565905056544, 36.89565905056544, 36.89565905056544, 36.89565905056544, 36.89565905056544, 36.89565905056544, 36.89565905056544, 36.89565905056544, 36.89565905056544, 36.89565905056544, 36.89565905056544, 36.89565905056544, 36.89565905056544, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 0.0286241212152132, 0.033084505285833454, 0.03656460737078665, 0.040654321048689546, 0.04252482424304264, 0.05262901217358863, 0.05365424829958497, 0.0539406532982454, 0.05440660928649274, 0.05752007351533936, 0.06246511127240481, 0.06302330311883687, 0.07018280215716616, 0.07858985973131136, 11.168437888359685, 12.35847056355819, 12.476305095850861, 13.472773342441194, 14.130770478567797, 14.25289819768176, 14.684194901882497, 14.919099560887748, 15.049137746105464, 15.049137746105464, 15.105728134689947, 15.302018874841446, 15.548346546608114, 15.642600931880613, 15.642600931880613, 15.683697669727772, 15.802635026290703, 15.97039853794033, 16.016408785112237, 16.14553189354417, 16.203030141194027, 16.248263923852893, 16.358964113008852, 16.49151735630766, 16.49151735630766, 16.49557224693255, 16.55622962482028, 16.63500932856328, 16.719332020653518, 16.826859516296118, 16.867140496319553, 16.873324128224784, 16.924526797242383, 17.004471567559484, 17.01146559640953, 17.24664357235254, 17.279769505195027, 17.451991521901107, 17.473919509993216, 17.476597767996388, 17.49161216916584, 17.57066540022066, 17.57066540022066, 17.59213487936169, 17.59213487936169, 17.59213487936169, 17.648632304434685, 17.673155375574808, 17.673155375574808, 17.728063677222867, 17.728063677222867, 17.78441149291653, 17.811475774136255, 17.848960372218112, 17.92442382757042, 17.968127053815582, 18.13159827870566, 18.20826653125653, 18.280836690947652, 18.298286683391698, 18.298286683391698, 18.298286683391698, 18.468868170133206, 18.579031034015323, 18.580823672778838, 18.593248393475374, 18.596046771817292, 18.596046771817292, 18.596046771817292, 18.61106506524385, 18.672613820970565, 18.672613820970565, 18.7355983041253, 18.77633088146916, 18.966747277174083, 19.050080637347467, 19.08510572822227, 19.08510572822227, 19.08510572822227, 19.08510572822227, 19.1243388741915, 19.155173727374013, 19.21573466357687, 19.281509044099945, 19.281509044099945, 19.309493345467153, 19.35323126225012, 19.37396490200652, 19.5940133821182, 19.724192174354446, 19.724192174354446, 19.7638740049041, 19.774685286953854, 19.797574618276634, 19.82865470358879, 19.881445898218697, 19.961743299015517, 19.982822167372635, 20.00539507799165, 20.00539507799165, 20.067634869757768, 20.103380636980024, 20.159663812372884, 20.159663812372884, 20.175229091467312, 20.23495820028386, 20.311365524074503, 20.311365524074503, 20.32456125054258, 20.67852899935935, 20.800495284912348, 20.924726793308736, 20.949050050438085, 20.996648940683375, 21.11327449653789, 21.11327449653789, 21.237410762059042, 21.237410762059042, 21.237410762059042, 21.237410762059042, 21.237410762059042, 21.263090619277914, 21.300063900545876, 21.300063900545876, 21.499744634165786, 21.558909022080734, 22.051291280746504, 22.051291280746504, 22.13903922481038, 22.13903922481038, 22.13903922481038, 22.172660141056603, 22.294937254686705, 22.294937254686705, 22.294937254686705, 22.554910483224933, 22.554910483224933, 22.554910483224933, 22.554910483224933, 22.554910483224933, 22.554910483224933, 22.554910483224933, 22.554910483224933, 22.554910483224933, 22.554910483224933, 22.554910483224933, 22.554910483224933, 22.599323818568667, 22.599323818568667, 22.952008916997897, 22.952008916997897, 22.952008916997897, 22.99654152702203, 22.99654152702203, 22.99654152702203, 22.99654152702203, 22.99654152702203, 22.99654152702203, 23.04260114912347, 23.04260114912347, 23.04260114912347, 23.04260114912347, 23.04260114912347, 23.04260114912347, 23.412645996598986, 23.412645996598986, 23.412645996598986, 23.412645996598986, 23.75275152691157, 23.75275152691157, 23.75275152691157, 23.75275152691157, 23.75275152691157, 23.75275152691157, 23.75275152691157, 23.75275152691157, 23.75275152691157, 23.75275152691157, 23.75275152691157, 23.75275152691157, 23.75275152691157, 23.75275152691157, 23.75275152691157, 23.75275152691157, 23.75275152691157, 23.81341069082346, 23.81341069082346, 23.81341069082346, 23.81341069082346, 23.81341069082346, 24.146444988971517, 24.146444988971517, 24.146444988971517, 24.146444988971517, 24.20316722659014, 24.21542150832698, 24.21542150832698, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.30742458241185, 24.30742458241185, 24.30742458241185, 24.30742458241185, 24.516698437008614, 24.658733819165338, 24.658733819165338, 24.658733819165338, 24.658733819165338, 24.658733819165338, 24.658733819165338, 24.658733819165338, 24.658733819165338, 24.658733819165338, 24.658733819165338, 24.658733819165338, 24.690746961079782, 25.22633568706206, 25.22633568706206, 25.22633568706206, 25.22633568706206, 25.22633568706206, 25.22633568706206, 25.22633568706206, 25.22633568706206, 25.22633568706206, 25.22633568706206, 25.22633568706206, 25.22633568706206, 25.22633568706206, 25.22633568</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[20.320563283028843, 20.320563283028843, 20.320563283028843, 20.320563283028843, 20.320563283028843, 20.320563283028843, 20.320563283028843, 20.93045272593508, 20.93045272593508, 20.93045272593508, 20.93045272593508, 20.93045272593508, 21.747676161061868, 21.747676161061868, 21.747676161061868, 21.747676161061868, 21.747676161061868, 21.747676161061868, 21.747676161061868, 21.747676161061868, 21.747676161061868, 21.747676161061868, 21.747676161061868, 21.747676161061868, 21.747676161061868, 21.747676161061868, 21.747676161061868, 21.747676161061868, 21.747676161061868, 21.747676161061868, 21.747676161061868, 21.747676161061868, 21.747676161061868, 21.747676161061868, 23.15504264308977, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.236934476041426, 24.635607819885664, 24.635607819885664, 24.635607819885664, 24.635607819885664, 24.635607819885664, 24.635607819885664, 24.635607819885664, 24.635607819885664, 24.635607819885664, 24.635607819885664, 24.635607819885664, 24.635607819885664, 24.635607819885664, 24.635607819885664, 24.635607819885664, 24.635607819885664, 24.635607819885664, 24.635607819885664, 24.635607819885664, 24.635607819885664, 24.635607819885664, 24.635607819885664, 24.635607819885664, 24.635607819885664, 24.635607819885664, 24.878522481175143, 24.878522481175143, 24.878522481175143, 24.878522481175143, 24.878522481175143, 24.878522481175143, 24.878522481175143, 24.878522481175143, 24.878522481175143, 24.878522481175143, 25.391700506016846, 25.391700506016846, 25.391700506016846, 25.391700506016846, 25.391700506016846, 25.391700506016846, 25.391700506016846, 25.391700506016846, 26.32623755677071, 26.32623755677071, 26.32623755677071, 26.32623755677071, 26.32623755677071, 26.32623755677071, 26.32623755677071, 26.32623755677071, 26.32623755677071, 26.32623755677071, 26.32623755677071, 26.32623755677071, 26.32623755677071, 26.60848387227875, 26.60848387227875, 26.60848387227875, 26.60848387227875, 26.60848387227875, 26.60848387227875, 26.60848387227875, 26.60848387227875, 26.60848387227875, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.205699060807397, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 28.53437148685292, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 29.557419663812023, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.242673039082085, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 30.817811011343867, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 32.74781863950987, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.290297490196906, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 34.636384486733874, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.03448099716145, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 38.39626800651039, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.238448896036893, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.27245090867003, 24.30742458241185, 24.30742458241185, 24.30742458241185, 24.30742458241185, 24.30742458241185, 24.30742458241185, 24.30742458241185, 24.30742458241185, 24.658733819165338, 24.658733819165338, 24.658733819165338, 24.658733819165338, 24.658733819165338, 24.658733819165338, 24.658733819165338, 24.658733819165338, 24.658733819165338, 24.658733819165338, 24.658733819165338, 24.658733819165338, 24.658733819165338, 24.658733819165338, 24.658733819165338, 24.658733819165338, 24.658733819165338, 25.22633568706206, 25.22633568706206, 25.22633568706206, 25.22633568706206, 25.22633568706206, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.4248308882936, 25.612752546598646, 25.612752546598646, 25.612752546598646, 25.612752546598646, 25.612752546598646, 25.612752546598646, 25.612752546598646, 25.612752546598646, 25.612752546598646, 25.612752546598646, 25.612752546598646, 25.612752546598646, 25.612752546598646, 25.612752546598646, 25.612752546598646, 25.612752546598646, 25.612752546598646, 25.612752546598646, 25.612752546598646, 25.729325395629992, 25.729325395629992, 25.729325395629992, 25.729325395629992, 25.729325395629992, 25.729325395629992, 25.729325395629992, 25.729325395629992, 25.729325395629992, 25.729325395629992, 25.729325395629992, 25.729325395629992, 25.729325395629992, 25.729325395629992, 25.729325395629992, 25.729325395629992, 25.729325395629992, 25.729325395629992, 25.729325395629992, 25.729325395629992, 25.729325395629992, 28.195585194277097, 28.195585194277097, 28.195585194277097, 28.195585194277097, 28.195585194277097, 28.195585194277097, 28.195585194277097, 28.195585194277097, 28.195585194277097, 28.195585194277097, 28.195585194277097, 28.195585194277097, 28.195585194277097, 28.195585194277097, 28.195585194277097, 28.195585194277097, 28.195585194277097, 28.195585194277097, 28.195585194277097, 28.195585194277097, 28.195585194277097, 28.195585194277097, 28.195585194277097, 28.1955</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>[13.96671940371008, 14.329177117854757, 14.672306648526492, 14.995816374192232, 15.348758275526233, 15.631135767684196, 15.909908355336716, 16.32719260546341, 16.63874380717482, 17.00101843572445, 17.092932041408513, 17.181928195287366, 17.35714359403589, 17.398228563576364, 17.44462305215253, 17.47943054328421, 17.504403907158864, 17.504403907158864, 17.504403907158864, 17.5257990814452, 17.529237456748096, 17.563315015774503, 17.625659646183923, 17.695582592246634, 17.716002573901534, 17.74142567822928, 17.74202990512904, 17.815964034419533, 17.861688885084885, 18.019144350590818, 18.077484295581268, 18.11095645528519, 18.12703079095898, 18.194218510491705, 18.327115907866613, 18.481559887330647, 18.508846264188886, 18.66751071797742, 18.689070593160057, 18.702208018864614, 18.84220107756862, 18.863854001405617, 18.90428506553986, 18.910301853582848, 18.92759717326795, 18.945445072359828, 18.99014069148043, 19.0841113377661, 19.10061298574238, 19.188977965991604, 19.205989610557488, 19.283672550873497, 19.383928694016774, 19.44862912482772, 19.539007620147984, 19.570348165288056, 19.570348165288056, 19.617454114710462, 19.731392761602578, 19.825586658594688, 19.902049795133774, 19.96079246021692, 20.011411459652447, 20.044627654894118, 20.097022106153393, 20.11626350798399, 20.224639373072957, 20.24948002144458, 20.33905475377213, 20.413134776427256, 20.416470334121474, 20.437077334005465, 20.49472398714082, 20.576878226222476, 20.65847360415095, 20.711692681632115, 20.792361304442167, 20.834443183036086, 20.903954323565635, 20.923645186137488, 20.937056436584662, 21.14073473644822, 21.170632205162857, 21.195841909266747, 21.266533917460553, 21.362027134429596, 21.38143034746045, 21.565799507184146, 21.633086577645376, 21.715006204190058, 21.775576415289315, 21.827062956555796, 21.90180123789198, 21.90180123789198, 21.913244756276725, 21.936258784371766, 21.978499438550575, 22.015476352943985, 22.08124480040844, 22.119979825301524, 22.182146360070334, 22.18657623759366, 22.24542109722186, 22.27661843060282, 22.31787487494069, 22.39840394151643, 22.40505841665343, 22.40841974150694, 22.445121493751845, 22.473723783613085, 22.54362272742404, 22.558047777046774, 22.65779159433929, 22.69239356354017, 22.74239319863547, 22.762010643464478, 22.784745038755123, 22.81848124063486, 22.87422729842838, 22.9110945727607, 22.920797406227585, 22.932110709900943, 23.00398002754031, 23.03594825039388, 23.06683392623427, 23.07184785006898, 23.080163152749698, 23.09565116269566, 23.127982378233746, 23.2262469379775, 23.32028032717558, 23.372879695404855, 23.41657943990724, 23.423752147172483, 23.449665033402923, 23.51687800670728, 23.542790892937724, 23.55089035532139, 23.60528483128189, 23.60846819553533, 23.65259911099899, 23.67133928996419, 23.690079468929383, 23.768809612215122, 23.787549791180318, 23.831680706643983, 23.850420885609182, 23.904815361569682, 23.991588888278464, 24.007142346067656, 24.02495576991443, 24.055328170157004, 24.16507586209489, 24.178372710749063, 24.20648850185661, 24.244332760769417, 24.26597059742845, 24.3069050069662, 24.3069050069662, 24.322806496432758, 24.32723155651671, 24.343133045983272, 24.35795198843665, 24.395866251489533, 24.39812621754712, 24.49323527261223, 24.53114953566512, 24.545968478118493, 24.564348931650837, 24.580677216855456, 24.672611484946568, 24.672611484946568, 24.708265781941872, 24.72459406714649, 24.72459406714649, 24.72459406714649, 24.737153043542286, 24.768261704859093, 24.79365244135756, 24.854965415429874, 24.86752439182567, 24.880083368221463, 24.88883144892794, 24.909363892200616, 24.945018189195917, 25.026345931069812, 25.036390237758, 25.04020113344731, 25.120478441151977, 25.143573761751487, 25.166669082350996, 25.189764402950505, 25.21285972355001, 25.255235573108866, 25.268067333211537, 25.291162653811046, 25.333538503369905, 25.356633823969414, 25.379729144568923, 25.43944166731147, 25.506773341880052, 25.526099353670734, 25.601705336557224, 25.677311319443724, 25.696637331234406, 25.715963343025088, 25.715963343025088, 25.79025044421514, 25.829707965263, 25.920506129937426, 25.93277532377991, 25.943038884276742, 25.977638112098816, 26.04418164369146, 26.09251668155982, 26.127115909381892, 26.137379469878724, 26.19820507665303, 26.236276554024563, 26.29255652512037, 26.294462371827546, 26.357315791444265, 26.420169211060987, 26.438778618763465, 26.463114286088697, 26.465020132795875, 26.480557146484454, 26.512590319643696, 26.568870290739504, 26.62515026183532, 26.647860697316744, 26.704140668412556, 26.706046515119734, 26.768899934736456, 26.83175335435318, 26.89166053567484, 26.954513955291564, 27.01079392638737, 27.073647346004094, 27.089184359692673, 27.144767090975428, 27.167477526456857, 27.1995106996161, 27.213141866597503, 27.213141866597503, 27.25085010405171, 27.33225864050044, 27.387891335688735, 27.4778641729642, 27.502835949654504, 27.544550293848808, 27.585293251256044, 27.63576338451069, 27.673433947904027, 27.694357291050338, 27.7000022173605, 27.74062886972282, 27.74568400808871, 27.78925689874609, 27.830969284993248, 27.8478729336732, 27.864776582353162, 27.896720886123735, 27.910456696170026, 27.942400999940595, 27.980918752232082, 28.012863056002658, 28.04480735977323, 28.076751663543806, 28.100998461480373, 28.12524525941694, 28.1765264694136, 28.17798074464208, 28.202762686887272, 28.227544629132467, 28.24575312285675, 28.24729572964661, 28.24729572964661, 28.272077671891804, 28.288743558826226, 28.311982894281563, 28.32864878121599, 28.351888116671326, 28.36855400360575, 28.369251243418802, 28.375824691939716, 28.382398140460626, 28.388971588981534, 28.388971588981534, 28.388971588981534, 28.388971588981534, 28.395545037502448, 28.395545037502448, 28.395545037502448, 28.395545037502448, 28.395545037502448, 28.402118486023355, 28.40869193454427, 28.435726346604362, 28.435726346604362, 28.442299795125273, 28.489612723211682, 28.49618617173259, 28.510536338393436, 28.510536338393436, 28.517109786914343, 28.523683235435257, 28.530256683956164, 28.530256683956164, 28.537431767286584, 28.5440052158075, 28.550578664328405, 28.557152112849316, 28.563725561370223, 28.570900644700647, 28.601562266986594, 28.608135715507505, 28.647719345019446, 28.65489442834987, 28.6938764230523, 28.730988692391932, 28.7345365654965, 28.763317901452155, 28.766264139747207, 28.766865774556724, 28.767467409366237, 28.793302507026837, 28.793302507026837, 28.81913760468744, 28.819739239496947, 28.820340874306464, 28.820340874306464, 28.846175971967064, 28.87606997568306, 28.90190507334366, 28.932223247340634, 28.958058345001238, 28.983893442661838, 28.984495077471347, 29.014389081187346, 29.040224178847946, 29.070118182563945, 29.070719817373455, 29.07132145218297, 29.071923086992477, 29.09775818465308, 29.12359328231368, 29.16986370761301, 29.16986370761301, 29.195698805273615, 29.196300440083128, 29.19690207489264, 29.197503709702154, 29.223338807362758, 29.22394044217227, 29.24440140571145, 29.270236503372054, 29.30055467736903, 29.32638977502963, 29.32699140983914, 29.32699140983914, 29.360555806074213, 29.380415134803883, 29.405648597654974, 29.45071575333528, 29.47594921618637, 29.509513612421436, 29.539776622972646, 29.565010085823737, 29.590243548674824, 29.649041407760986, 29.67427487061208, 29.694134199341747, 29.713993528071413, 29.739226990922504, 29.78188895164114, 29.865556259884766, 29.89484862879125, 29.92008209164234, 29.944344912848706, 29.9649638875526, 29.974821098010395, 29.98019523213181, 29.98556936625323, 29.98556936625323, 30.009131644216428, 30.034339471167062, 30.044196681624857, 30.054053892082653, 30.054053892082653, 30.062384825466633, 30.066443731522032, 30.066443731522032, 30.124877576914567, 30.124877576914567, 30.140022097836138, 30.144081003891532, 30.144081003891532, 30.148564080227906, 30.156895013611887, 30.16522594699587, 30.18505963982509, 30.18954271616146, 30.218144189720125, 30.22262726605649, 30.22668617211189, 30.241830693033453, 30.241830693033453, 30.250161626417434, 30.258492559801415, 30.258492559801415, 30.2668234931854, 30.281968014106962, 30.290298947490943, 30.305443468412506, 30.3095023744679, 30.313985450804275, 30.34042420786972, 30.355568728791283, 30.368382738511638, 30.38821643134085, 30.38821643134085, 30.399302046207016, 30.432038268186975, 30.436310295515558, 30.436734465796533, 30.46947068777649, 30.473742715105075, 30.47801474243366, 30.478438912714637, 30.48271094004322, 30.48271094004322, 30.515022991742203, 30.54733504344118, 30.551182900488794, 30.55887861458401, 30.569540059169203, 30.569540059169203, 30.569540059169203, 30.573387916216813, 30.627482272306292, 30.65160066952858, 30.655448526576187, 30.659296383623797, 30.659296383623797, 30.663144240671404, 30.713390739713276, 30.72020432725086, 30.78658015329374, 30.793393740831323, 30.83336069492793, 30.83336069492793, 30.83336069492793, 30.840174282465508, 30.921126771487806, 31.002079260510104, 31.002079260510104, 31.05218217251866, 31.05218217251866, 31.05218217251866, 31.05218217251866, 31.102285084527217, 31.102285084527217, 31.130749279178584, 31.137562866716166, 31.14437645425375, 31.22532894327604, 31.232142530813622, 31.252413070988304, 31.259226658525886, 31.26604024606347, 31.26604024606347, 31.26604024606347, 31.294504440714835, 31.322968635366205, 31.343239175540884, 31.393342087549442, 31.474294576571737, 31.485797336016972, 31.514261530668342, 31.52107511820592, 31.606508255834516, 31.680647157319232, 31.70229776443302, 31.70229776443302, 31.713592000576895, 31.718281172484552, 31.761570496955528, 31.775027449592628, 31.796678056706416, 31.818328663820203, 31.89246756530492, 31.914118172418707, 31.957407496889683, 31.962096668797336, 31.966785840704986, 32.00637089516167, 32.07582062473873, 32.07582062473873, 32.09278205994487, 32.09278205994487, 32.131382212508186, 32.14402519075395, 32.258996812825075, 32.297596965388394, 32.297596965388394, 32.31455840059453, 32.31455840059453, 32.35315855315785, 32.39175870572117, 32.39175870572117, 32.45460337106201, 32.51744803640284, 32.54944312472994, 32.54944312472994, 32.57927549656382, 32.609107868397686, 32.61730152287437, 32.62549517735106, 32.633688831827754, 32.633688831827754, 32.638007288788124, 32.638007288788124, 32.65964600614531, 32.65964600614531, 32.65964600614531, 32.677580453488204, 32.69921917084539, 32.75170746521632, 32.75170746521632, 32.859079429726535, 32.859079429726535, 32.88071814708372, 32.90235686444091, 32.954845158811835, 32.954845158811835, 32.954845158811835, 32.97648387616902, 32.97648387616902, 32.99812259352621, 32.99812259352621, 33.019761310883396, 33.04140002824058, 33.059334475583476, 33.059334475583476, 33.07726892292637, 33.09520337026927, 33.11684208762645, 33.11684208762645, 33.13477653496935, 33.13477653496935, 33.15641525232654, 33.178053969683724, 33.19969268704091, 33.242733544671694, 33.24643781468599, 33.25014208470028, 33.28469593172831, 33.288400201742604, 33.32295404877063, 33.32665831878492, 33.33036258879922, 33.36491643582725, 33.36491643582725, 33.395766012840994, 33.426615589854734, 33.45746516686847, 33.45746516686847, 33.45746516686847, 33.48831474388221, 33.51916432089595, 33.51916432089595, 33.55001389790969, 33.58086347492343, 33.58086347492343, 33.61171305193718, 33.61171305193718, 33.64256262895092, 33.67341220596466, 33.7042617829784, 33.735111359992146, 33.765960937005886, 33.765960937005886, 33.796810514019626, 33.827660091033366, 33.858509668047105, 33.88935924506085, 33.92020882207459, 33.95105839908833, 33.98190797610207, 34.01275755311582, 34.04360713012956, 34.0744567071433, 34.10530628415704, 34.10530628415704, 34.136155861170785, 34.167005438184525, 34.197855015198265, 34.228704592212004, 34.25955416922575, 34.29040374623949, 34.32125332325323, 34.35210290026697, 34.35210290026697, 34.35210290026697, 34.35210290026697, 34.35210290026697, 34.35210290026697, 34.35210290026697, 34.35210290026697, 34.35902464019771, 34.35902464019771, 34.35902464019771, 34.35902464019771, 34.35902464019771, 34.35902464019771, 34.35902464019771, 34.35902464019771, 34.35902464019771, 34.35902464019771, 34.35902464019771, 34.35902464019771, 34.35902464019771, 34.35902464019771, 34.35902464019771, 34.35902464019771, 34.36594638012845, 34.36594638012845, 34.36594638012845, 34.36594638012845, 34.36594638012845, 34.36594638012845, 34.37286812005919, 34.37286812005919, 34.37286812005919, 34.37286812005919, 34.37978985998993, 34.37978985998993, 34.37978985998993, 34.37978985998993, 34.37978985998993, 34.386711599920666, 34.386711599920666, 34.386711599920666, 34.393633339851405, 34.448517009990695, 34.455438749921434, 34.455438749921434, 34.46236048985217, 34.46236048985217, 34.46928222978292, 34.46928222978292, 34.47620396971366, 34.47620396971366, 34.48312570964439, 34.48312570964439, 34.48312570964439, 34.49004744957513, 34.49004744957513, 34.49004744957513, 34.49696918950587, 34.50389092943661, 34.50389092943661, 34.51081266936735, 34.51081266936735, 34.51081266936735, 34.51081266936735, 34.520064750113434, 34.526986490044166, 34.53390822997491, 34.588791900114195, 34.595713640044934, 34.595713640044934, 34.60263537997567, 34.60955711990641, 34.616478859837144, 34.62340059976789, 34.63032233969862, 34.685540756185944, 34.69479283693203, 34.70171457686277, 34.708636316793516, 34.715558056724255, 34.722479796654994, 34.72940153658573, 34.7815087677931, 34.83672718428042, 34.84364892421116, 34.8505706641419, 34.857492404072644, 34.86441414400338, 34.87260531285893, 34.87952705278967, 34.88644879272041, 34.94166720920773, 34.99688562569504, 35.00380736562578, 35.01072910555652, 35.01765084548727, 35.0233031564932, 35.0233031564932, 35.0233031564932, 35.0233031564932, 35.0233031564932, 35.0233031564932, 35.0233031564932, 35.07159983304978, 35.07159983304978, 35.07159983304978, 35.07159983304978, 35.07159983304978, 35.07159983304978, 35.07159983304978, 35.11989650960636, 35.168193186162945, 35.168193186162945, 35.168193186162945, 35.17570013913073, 35.18320709209852, 35.228392583375154, 35.228392583375154, 35.228392583375154, 35.27668925993173, 35.32498593648832, 35.370171427764944, 35.370171427764944, 35.370171427764944, 35.418468104321526, 35.420798445136874, 35.420798445136874, 35.42830539810466, 35.43581235107246, 35.443319304040244, 35.443319304040244, 35.45082625700803, 35.499122933564614, 35.547084863773165, 35.55459181674096, 35.602888493297534, 35.60521883411289, 35.650404325389516, 35.6987010019461, 35.79495960871123, 35.80246656167902, 35.80479690249437, 35.849982393771, 35.898279070327575, 35.90578602329536, 35.91329297626315, 35.95847846753978, 36.00677514409636, 36.01428209706415, 36.0622440272727, 36.069750980240485, 36.11493647151711, 36.16289840172566, 36.21086033193421, 36.28823669284192, 36.3310918433032, 36.373946993764484, 36.41957858315769, 36.508400069360206, 36.508400069360206, 36.546078607669045, 36.58686833125784, 36.627323308498596, 36.66811303208739, 36.708568009328154, 36.74935773291694, 36.790147456505736, 36.82782599481458, 36.86828097205534, 36.9087359492961, 36.94641448760494, 36.984093025913786, 37.00331001811923, 37.00608645705115, 37.009197642331095, 37.012308827611044, 37.01542001289099, 37.01853119817095, 37.021307637102865, 37.02441882238282, 37.02753000766277, 37.030306446594686, 37.033417631874634, 37.03619407080655, 37.038970509738476, 37.042081695018425, 37.04485813395034, 37.04519288029837, 37.045527626646404, 37.04586237299443, 37.04619711934246, 37.04653186569049, 37.046866612038514, 37.047201358386545, 37.047536104734576, 37.0478708510826, 37.04820559743063, 37.04854034377866, 37.04887509012669, 37.049209836474716, 37.04987932917078, 37.05021407551881, 37.05054882186684, 37.05088356821487, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.0512183145629, 37.07811930840185, 37.07811930840185, 37.07811930840185, 37.07811930840185, 37.07811930840185, 37.07811930840185, 37.07811930840185, 37.07811930840185, 37.07811930840185, 37.07811930840185, 37.07811930840185, 37.07811930840185, 37.07811930840185, 37.1050203022408, 37.1050203022408, 37.1050203022408, 37.1050203022408, 37.13192129607975, 37.13192129607975, 37.13192129607975, 37.13192129607975, 37.13192129607975, 37.13192129607975, 37.13192129607975, 37.13192129607975, 37.13192129607975, 37.158822289918696, 37.158822289918696, 37.158822289918696, 37.158822289918696, 37.158822289918696, 37.158822289918696, 37.158822289918696, 37.158822289918696, 37.158822289918696, 37.158822289918696, 37.158822289918696, 37.158822289918696, 37.158822289918696, 37.158822289918696, 37.158822289918696, 37.158822289918696, 37.158822289918696, 37.158822289918696, 37.158822289918696, 37.18572328375765, 37.18572328375765, 37.20459379853416, 37.20459379853416, 37.20459379853416, 37.20459379853416, 37.20459379853416, 37.20459379853416, 37.20459379853416, 37.23149479237311, 37.23149479237311, 37.258395786212056, 37.28529678005101, 37.28529678005101, 37.28529678005101, 37.28529678005101, 37.28529678005101, 37.28529678005101, 37.33892181639603, 37.33892181639603, 37.33892181639603, 37.33892181639603, 37.36582281023499, 37.36582281023499, 37.39272380407394, 37.41159431885044, 37.41159431885044, 11.675600970420344, 12.048480764415453, 12.360671092947348, 12.583308558567126, 12.88347822706826, 13.236090838094894, 13.533420249069179, 13.862177511229339, 14.174772651557928, 14.884746350736737, 15.130819858029286, 15.460695148300243, 16.125559200531217, 16.3936110113369, 16.787316694240356, 16.89455733826696, 16.981774567408863, 17.05257664119409, 17.1349638719325, 17.227875079990525, 17.308433849855845, 17.37544010706196, 17.42890081343144, 17.455803084856274, 17.492286812498662, 17.52000259693102, 17.728489071084365, 17.75601267609705, 17.796623764970935, 17.80668238420421, 17.89620170705711, 17.98664023154215, 18.017064504166655, 18.023915610724586, 18.101112874413538, 18.1587543861541, 18.20540558113262, 18.272040964030243, 18.327840797786088, 18.335353260586327, 18.453462944565203, 18.474220773235487, 18.494983694175716, 18.55406194111575, 18.583490484457663, 18.63234384285316, 18.660843093956498, 18.718662436534565, 18.733134278727835, 18.772918279518077, 18.824558502142803, 18.88519042252039, 18.928030859724736, 19.009730649966485, 19.018687171157968, 19.021827573863344, 19.05211638042337, 19.056391302277294, 19.076413572559563, 19.079132148516788, 19.217417868080883, 19.31274617923021, 19.33086369239902, 19.352112550970034, 19.39203512091266, 19.48025463186441, 19.483928943082393, 19.6027544581379, 19.69167399578727, 19.706637795655272, 19.71594500617001, 19.812353218935854, 19.86812086712439, 19.92725234854662, 19.943773392362615, 20.03865968167725, 20.07739311201509, 20.193464766785834, 20.272982355770026, 20.30060074829476, 20.308070725968733, 20.308070725968733, 20.330633634019478, 20.44348167650387, 20.48727028089724, 20.532799005486584, 20.60524547416091, 20.681631717742903, 20.765145278453478, 20.78591823446983, 20.847697406219087, 20.891257104040196, 20.909211432823202, 20.928862015653912, 21.031928879010206, 21.134891119699777, 21.138852270397297, 21.168108157112947, 21.168108157112947, 21.20474346616171, 21.278949346334052, 21.31663293633023, 21.35390185353128, 21.456830258285894, 21.488347692809725, 21.52504202976425, 21.614533527586904, 21.622233098095286, 21.733944679949587, 21.78327033097154, 21.807906902937926, 21.859608461776457, 21.866179328910494, 21.926923450333128, 21.977913758437793, 22.02245980613637, 22.095447223935004, 22.118255225698462, 22.17410212779096, 22.221695755626115, 22.26044979444157, 22.30532069362458, 22.32384159838427, 22.377281203913856, 22.439978837743137, 22.483899762585335, 22.599766534369838, 22.66555451128181, 22.696719742132647, 22.725552461866386, 22.728035187176808, 22.78805594985636, 22.846236634394614, 22.882340442135902, 22.903490971988454, 22.953797787285502, 23.013304952820683, 23.032323115097093, 23.067173860068646, 23.12194794530607, 23.15171561970227, 23.195458772008074, 23.205531156057642, 23.237805402099667, 23.237805402099667, 23.254955448143896, 23.262600454987265, 23.27663254043397, 23.370245249950017, 23.442487488124716, 23.46644430899845, 23.47438627767391, 23.47438627767391, 23.50621696778884, 23.530173788662577, 23.539006409538516, 23.581082876257323, 23.614753644513566, 23.6484244127698, 23.680255102884736, 23.713925871140976, 23.74759663939722, 23.75554099356629, 23.778609547733144, 23.80433834731393, 23.813551088905946, 23.86568872832018, 23.88081292831797, 23.89715031159399, 23.921988458974287, 23.93711265897208, 23.95223685896987, 23.953158051411897, 23.996832742170668, 24.02915539557151, 24.036556292521023, 24.050759300076784, 24.094433990835554, 24.142078585618957, 24.148880696225206, 24.165396754213965, 24.165396754213965, 24.18191281220272, 24.18191281220272, 24.19162675958523, 24.201340706967734, 24.211054654350242, 24.212267837628477, 24.212267837628477, 24.230387483473557, 24.240781471108725, 24.250495418491234, 24.250495418491234, 24.260209365873738, 24.269923313256246, 24.299795335996745, 24.301008519274987, 24.301008519274987, 24.301008519274987, 24.310016833268556, 24.319197637625486, 24.319197637625486, 24.347456137550257, 24.355956901654523, 24.364457665758792, 24.364457665758792, 24.3662977439001, 24.368137822041408, 24.390135975540712, 24.399247307392216, 24.419465590966915, 24.421305652448613, 24.429711350911184, 24.449869426269178, 24.469627162089683, 24.469627162089683, 24.478032860552254, 24.48643855901482, 24.506596634372812, 24.506596634372812, 24.526354370193317, 24.526354370193317, 24.526354370193317, 24.526354370193317, 24.526354370193317, 24.54611210601382, 24.54611210601382, 24.55451780447639, 24.574675879834384, 24.574675879834384, 24.58308157829695, 24.602839314117453, 24.62259704993796, 24.642755125295952, 24.666482765141087, 24.68624050096159, 24.69464619942416, 24.714403935244665, 24.7418900082559, 24.761647744076402, 24.781405479896907, 24.80116321571741, 24.821321291075407, 24.84107902689591, 24.861237102253902, 24.880994838074407, 24.88940053653698, 24.89780623499955, 24.917964310357544, 24.938122385715538, 24.95788012153604, 24.95925963526354, 24.978737670368872, 24.979437143843708, 24.980136617318543, 24.999214312886384, 25.018292008454225, 25.046730024718585, 25.065508586349083, 25.088472625071514, 25.10685084716452, 25.12144393170308, 25.133196308598507, 25.144948685493933, 25.156701062389356, 25.169093702123075, 25.190505533652363, 25.201857571010297, 25.21360994790572, 25.235021779435016, 25.24677415633044, 25.258126193688373, 25.2698785705838, 25.280990684640937, 25.281391024178426, 25.28536092820306, 25.28536092820306, 25.295420722374416, 25.355206052056204, 25.362934389246938, 25.392389580804103, 25.392789920341592, 25.392789920341592, 25.40284971451295, 25.403250054050442, 25.410978391241173, 25.411378730778665, 25.411779070316157, 25.412179409853646, 25.422239204025008, 25.</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>[33, 44, 52, 59, 67, 65, 79, 76, 84, 253, 122, 220, 138, 95, 87, 181, 167, 167, 167, 122, 161, 293, 77, 77, 77, 125, 228, 64, 137, 220, 106, 156, 92, 93, 149, 157, 183, 240, 150, 156, 169, 176, 246, 326, 251, 110, 234, 263, 107, 166, 239, 185, 121, 215, 146, 267, 267, 223, 282, 212, 212, 221, 221, 83, 146, 330, 302, 302, 271, 330, 236, 275, 174, 127, 127, 127, 163, 163, 91, 106, 150, 137, 184, 176, 179, 283, 226, 240, 237, 241, 177, 205, 244, 244, 232, 271, 167, 102, 235, 166, 166, 189, 166, 198, 198, 198, 157, 236, 236, 196, 209, 209, 209, 209, 275, 275, 117, 225, 142, 232, 212, 193, 149, 149, 149, 149, 149, 192, 192, 137, 137, 183, 146, 146, 146, 146, 146, 237, 237, 237, 237, 237, 237, 237, 237, 237, 237, 237, 140, 140, 140, 140, 101, 101, 144, 189, 113, 147, 147, 147, 147, 137, 137, 137, 137, 137, 137, 186, 228, 228, 228, 228, 228, 228, 228, 228, 228, 228, 228, 228, 228, 228, 228, 228, 201, 201, 248, 146, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 188, 188, 188, 188, 188, 204, 204, 180, 180, 244, 138, 138, 138, 138, 138, 138, 177, 171, 171, 171, 171, 171, 171, 171, 171, 171, 171, 171, 171, 171, 171, 171, 171, 171, 171, 171, 171, 171, 171, 171, 171, 171, 191, 191, 191, 191, 259, 166, 126, 139, 215, 215, 164, 126, 126, 157, 157, 157, 120, 164, 164, 144, 144, 144, 144, 144, 144, 144, 207, 207, 207, 154, 187, 187, 187, 187, 187, 187, 151, 151, 151, 151, 151, 251, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 173, 173, 173, 173, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 137, 180, 217, 217, 217, 217, 217, 217, 217, 217, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 242, 242, 242, 242, 242, 242, 242, 242, 242, 242, 242, 242, 242, 242, 242, 242, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 206, 206, 206, 206, 206, 206, 206, 206, 206, 206, 206, 206, 206, 206, 206, 206, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 154, 154, 154, 154, 166, 166, 166, 166, 166, 166, 232, 232, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 161, 205, 205, 205, 205, 205, 205, 205, 205, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 164, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 194, 194, 194, 194, 219, 219, 219, 219, 219, 219, 219, 219, 219, 219, 219, 219, 219, 237, 166, 166, 166, 166, 166, 166, 166, 166, 166, 166, 166, 166, 166, 166, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 31, 35, 38, 42, 43, 56, 56, 60, 61, 59, 67, 65, 72, 79, 76, 106, 98, 147, 253, 93, 88, 97, 284, 284, 250, 120, 156, 281, 281, 262, 172, 143, 258, 225, 78, 224, 235, 227, 227, 184, 114, 281, 307, 306, 302, 166, 260, 127, 327, 163, 322, 294, 321, 120, 256, 108, 108, 161, 161, 161, 303, 286, 286, 318, 318, 127, 94, 99, 220, 294, 181, 279, 266, 319, 319, 319, 341, 162, 336, 205, 197, 197, 197, 298, 118, 118, 269, 162, 237, 152, 80, 80, 80, 80, 167, 175, 200, 82, 82, 103, 177, 264, 141, 199, 199, 136, 212, 202, 243, 194, 145, 111, 158, 158, 229, 231, 226, 226, 130, 206, 162, 162, 259, 109, 196, 174, 164, 159, 141, 141, 227, 227, 227, 227, 227, 176, 225, 225, 218, 195, 98, 98, 133, 133, 133, 115, 147, 147, 147, 196, 196, 196, 196, 196, 196, 196, 196, 196, 196, 196, 196, 142, 142, 137, 137, 137, 246, 246, 246, 246, 246, 246, 192, 192, 192, 192, 192, 192, 171, 171, 171, 171, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 175, 116, 116, 116, 116, 116, 116, 116, 116, 116, 111, 125, 125, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 124, 124, 124, 124, 124, 170, 170, 170, 170, 112, 198, 198, 198, 198, 198, 198, 198, 198, 198, 198, 198, 241, 138, 138, 138, 138, 138, 138, 138, 138, 138, 138, 138, 138, 138, 138, 138, 138, 138, 138, 138, 138, 138, 138, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 139, 139, 139, 139, 139, 139, 212, 189, 189, 189, 189, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 153, 153, 153, 142, 142, 146, 146, 270, 270, 270, 270, 270, 224, 224, 173, 173, 173, 173, 250, 147, 168, 168, 168, 173, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 175, 175, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 217, 147, 147, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 140, 259, 171, 171, 144, 144, 144, 144, 144, 158, 158, 158, 158, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 177, 177, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 205, 153, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 203, 203, 203, 203, 203, 203, 203, 203, 203, 203, 203, 203, 203, 203, 203, 203, 203, 203, 203, 203]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>[102, 102, 102, 102, 102, 102, 102, 196, 196, 196, 196, 196, 212, 212, 212, 212, 212, 212, 212, 212, 212, 212, 212, 212, 212, 212, 212, 212, 212, 212, 212, 212, 212, 212, 189, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 138, 138, 138, 138, 138, 138, 138, 138, 138, 138, 171, 171, 171, 171, 171, 171, 171, 171, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 144, 144, 144, 144, 144, 144, 144, 144, 144, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 131, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 217, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 204, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 168, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 193, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 192, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 143, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 170, 170, 170, 170, 170, 170, 170, 170, 198, 198, 198, 198, 198, 198, 198, 198, 198, 198, 198, 198, 198, 198, 198, 198, 198, 138, 138, 138, 138, 138, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 189, 189, 189, 189, 189, 189, 189, 189, 189, 189, 189, 189, 189, 189, 189, 189, 189, 189, 189, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 244, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 175, 175, 175, 175, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 154, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 128, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 211, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 167, 140, 140, 140, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 197, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 170, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 174, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 203, 203, 203, 203, 203, 203, 203, 203, 203, 203, 203, 203, 203, 203, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164, 164]</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>[149.78, 150.78, 154.58, 155.66, 158.18, 161.24, 161.68, 164.02, 164.04, 168.4, 169.3, 172.36, 171.7, 172.32, 172.56, 173.82, 173.18, 173.18, 173.18, 171.7, 170.8, 172.6, 169.28, 171.32, 173.44, 175.02, 177.08, 177.26, 180.22, 181.66, 180.94, 184.16, 187.56, 190.84, 192.76, 192.34, 193.66, 195.5, 193.62, 194.38, 195.28, 196.32, 197.52, 198.92, 198.04, 197.44, 199.76, 198.06, 197.04, 195.82, 198.54, 197.1, 196.2, 197.96, 196.58, 196.38, 196.38, 195.94, 196.04, 195.14, 193.88, 195.14, 194.68, 193.8, 195.28, 195.88, 193.84, 190.08, 188.78, 186.34, 185.24, 185.32, 183.16, 182.48, 182.74, 182.54, 184.74, 185.66, 185.32, 188.14, 190.34, 190.88, 191.88, 191.52, 192.74, 193.18, 195.1, 194.84, 192.06, 191.38, 191.3, 190.68, 189.32, 189.32, 187.76, 188.62, 187.04, 185.1, 187.62, 185.84, 185.26, 185.9, 184.38, 184.26, 185.04, 184.68, 184.9, 185.94, 184.02, 182.22, 182.06, 182.52, 180.76, 181.32, 180.08, 178.42, 175.66, 176.2, 174.26, 174.36, 172.46, 171.14, 170.7, 170.46, 170.42, 170.18, 170.12, 171.88, 172.6, 172.06, 173.84, 175.98, 177.06, 178.88, 180.52, 181.5, 183.14, 183.02, 181.7, 178.98, 177.0, 176.82, 176.64, 174.78, 174.6, 172.62, 172.44, 171.12, 170.92, 170.86, 172.62, 172.38, 172.2, 172.92, 173.46, 173.34, 172.12, 173.28, 173.28, 172.9, 174.32, 173.94, 173.76, 174.44, 176.26, 177.34, 178.02, 177.84, 177.88, 177.08, 175.14, 175.14, 174.0, 173.2, 173.2, 173.2, 171.2, 170.18, 168.38, 164.34, 162.34, 160.34, 160.74, 159.78, 158.64, 159.68, 159.42, 157.02, 159.1, 159.96, 160.82, 161.68, 162.54, 163.12, 163.32, 164.18, 164.76, 165.62, 166.48, 167.0, 167.7, 167.36, 166.22, 165.08, 164.74, 164.4, 164.4, 162.94, 162.22, 162.82, 161.36, 162.02, 162.14, 162.0, 162.98, 163.1, 163.76, 162.84, 163.16, 162.36, 162.76, 163.96, 165.16, 165.02, 164.48, 164.88, 165.76, 166.48, 165.68, 164.88, 164.74, 163.94, 164.34, 165.54, 166.74, 166.78, 167.98, 167.18, 168.38, 169.26, 170.86, 170.72, 171.44, 171.92, 171.92, 171.12, 171.64, 169.92, 166.08, 167.3, 167.14, 165.46, 164.0, 163.34, 163.84, 164.2, 164.52, 164.26, 165.74, 167.96, 167.7, 167.44, 167.18, 168.04, 167.78, 169.52, 169.26, 169.0, 168.74, 167.22, 165.7, 165.9, 166.56, 167.44, 168.32, 167.2, 166.48, 166.48, 167.36, 166.96, 168.56, 168.16, 169.76, 169.36, 166.96, 168.96, 170.96, 172.96, 172.96, 172.96, 172.96, 174.96, 174.96, 174.96, 174.96, 174.96, 176.96, 178.96, 180.68, 180.68, 182.68, 185.06, 187.06, 189.98, 189.98, 191.98, 193.98, 195.98, 195.98, 197.44, 199.44, 201.44, 203.44, 205.44, 206.9, 209.46, 211.46, 213.84, 215.3, 218.22, 217.76, 218.38, 218.46, 219.62, 219.08, 218.54, 217.46, 217.46, 216.38, 215.84, 215.3, 215.3, 214.22, 213.22, 212.14, 212.36, 211.28, 210.2, 209.66, 208.66, 207.58, 206.58, 206.04, 205.5, 204.96, 203.88, 202.8, 201.5, 201.5, 200.42, 199.88, 199.34, 198.8, 197.72, 197.18, 196.9, 195.82, 196.04, 194.96, 194.42, 194.42, 193.34, 193.6, 193.06, 192.84, 192.3, 191.22, 189.42, 188.88, 188.34, 186.72, 186.18, 186.44, 186.7, 186.16, 184.6, 184.6, 184.14, 183.6, 184.4, 185.64, 186.14, 185.34, 184.54, 184.54, 183.7, 183.22, 183.72, 184.22, 184.22, 183.68, 183.76, 183.76, 184.3, 184.3, 184.88, 184.96, 184.96, 186.26, 185.72, 185.18, 185.5, 186.8, 186.58, 187.88, 187.96, 188.54, 188.54, 188.0, 187.46, 187.46, 186.92, 187.5, 186.96, 187.54, 187.62, 188.92, 188.46, 189.04, 189.8, 190.12, 190.12, 190.62, 190.58, 189.96, 191.18, 191.14, 190.52, 189.9, 191.12, 190.5, 190.5, 189.24, 187.98, 186.14, 182.46, 181.74, 181.74, 181.74, 179.9, 177.32, 175.8, 173.96, 172.12, 172.12, 170.28, 169.54, 170.66, 171.46, 172.58, 174.02, 174.02, 174.02, 175.14, 175.5, 175.86, 175.86, 176.94, 176.94, 176.94, 176.94, 178.02, 178.02, 178.6, 179.72, 180.84, 181.2, 182.32, 182.64, 183.76, 184.88, 184.88, 184.88, 185.46, 186.04, 186.36, 187.44, 187.8, 188.66, 189.24, 190.36, 188.56, 187.8, 187.26, 187.26, 186.22, 185.96, 185.92, 185.12, 184.58, 184.04, 183.28, 182.74, 182.7, 182.44, 182.18, 182.16, 181.66, 181.66, 181.38, 181.38, 181.6, 182.38, 182.6, 182.82, 182.82, 182.54, 182.54, 182.76, 182.98, 182.98, 183.26, 183.54, 184.54, 184.54, 185.3, 186.06, 186.32, 186.58, 186.84, 186.84, 185.78, 185.78, 186.28, 186.28, 186.28, 186.8, 187.3, 187.08, 187.08, 186.84, 186.84, 187.34, 187.84, 187.62, 187.62, 187.62, 188.12, 188.12, 188.62, 188.62, 189.12, 189.62, 190.14, 190.14, 190.66, 191.18, 191.68, 191.68, 192.2, 192.2, 192.7, 193.2, 193.7, 193.84, 193.82, 193.8, 193.06, 193.04, 192.3, 192.28, 192.26, 191.52, 191.52, 190.8, 190.08, 189.36, 189.36, 189.36, 188.64, 187.92, 187.92, 187.2, 186.48, 186.48, 185.76, 185.76, 185.04, 184.32, 183.6, 182.88, 182.16, 182.16, 181.44, 180.72, 180.0, 179.28, 178.56, 177.84, 177.12, 176.4, 175.68, 174.96, 174.24, 174.24, 173.52, 172.8, 172.08, 171.36, 170.64, 169.92, 169.2, 168.48, 168.48, 168.48, 168.48, 168.48, 168.48, 168.48, 168.48, 168.98, 168.98, 168.98, 168.98, 168.98, 168.98, 168.98, 168.98, 168.98, 168.98, 168.98, 168.98, 168.98, 168.98, 168.98, 168.98, 169.48, 169.48, 169.48, 169.48, 169.48, 169.48, 169.98, 169.98, 169.98, 169.98, 170.48, 170.48, 170.48, 170.48, 170.48, 170.98, 170.98, 170.98, 171.48, 171.46, 171.96, 171.96, 172.46, 172.46, 172.96, 172.96, 173.46, 173.46, 173.96, 173.96, 173.96, 174.46, 174.46, 174.46, 174.96, 175.46, 175.46, 175.96, 175.96, 175.96, 175.96, 176.48, 176.98, 177.48, 177.46, 177.96, 177.96, 178.46, 178.96, 179.46, 179.96, 180.46, 180.94, 181.46, 181.96, 182.46, 182.96, 183.46, 183.96, 183.92, 184.4, 184.9, 185.4, 185.9, 186.4, 186.82, 187.32, 187.82, 188.3, 188.78, 189.28, 189.78, 190.28, 190.86, 190.86, 190.86, 190.86, 190.86, 190.86, 190.86, 190.84, 190.84, 190.84, 190.84, 190.84, 190.84, 190.84, 190.82, 190.8, 190.8, 190.8, 191.32, 191.84, 191.3, 191.3, 191.3, 191.28, 191.26, 190.72, 190.72, 190.72, 190.7, 190.72, 190.72, 191.24, 191.76, 192.28, 192.28, 192.8, 192.78, 192.26, 192.78, 192.76, 192.78, 192.24, 192.22, 191.68, 192.2, 192.22, 191.68, 191.66, 192.18, 192.7, 192.16, 192.14, 192.66, 192.14, 192.66, 192.12, 191.6, 191.08, 191.94, 191.38, 190.82, 190.28, 189.68, 189.68, 188.62, 188.08, 187.04, 186.5, 185.46, 184.92, 184.38, 183.32, 182.28, 181.24, 180.18, 179.12, 178.22, 178.24, 178.76, 179.28, 179.8, 180.32, 180.34, 180.86, 181.38, 181.4, 181.92, 181.94, 181.96, 182.48, 182.5, 183.0, 183.5, 184.0, 184.5, 185.0, 185.5, 186.0, 186.5, 187.0, 187.5, 188.0, 188.5, 189.0, 190.0, 190.5, 191.0, 191.5, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.0, 192.58, 192.58, 192.58, 192.58, 192.58, 192.58, 192.58, 192.58, 192.58, 192.58, 192.58, 192.58, 192.58, 193.16, 193.16, 193.16, 193.16, 193.74, 193.74, 193.74, 193.74, 193.74, 193.74, 193.74, 193.74, 193.74, 194.32, 194.32, 194.32, 194.32, 194.32, 194.32, 194.32, 194.32, 194.32, 194.32, 194.32, 194.32, 194.32, 194.32, 194.32, 194.32, 194.32, 194.32, 194.32, 194.9, 194.9, 195.5, 195.5, 195.5, 195.5, 195.5, 195.5, 195.5, 196.08, 196.08, 196.66, 197.24, 197.24, 197.24, 197.24, 197.24, 197.24, 197.38, 197.38, 197.38, 197.38, 197.96, 197.96, 198.54, 199.14, 199.14, 139.18, 140.92, 145.84, 146.6, 151.44, 156.3, 157.12, 160.54, 164.58, 172.72, 173.66, 174.6, 177.52, 179.02, 180.16, 184.12, 188.14, 191.34, 191.62, 189.8, 193.26, 197.88, 199.16, 200.06, 197.7, 197.24, 200.64, 202.72, 202.82, 201.7, 200.98, 202.72, 204.98, 204.52, 203.18, 203.22, 205.46, 206.56, 203.66, 205.16, 202.92, 205.42, 205.52, 203.38, 203.64, 200.76, 203.82, 201.78, 205.6, 207.46, 209.06, 205.86, 202.8, 200.28, 202.28, 203.22, 202.66, 203.04, 203.92, 207.06, 202.44, 195.92, 193.44, 193.1, 190.72, 187.02, 190.36, 191.98, 192.94, 190.9, 189.44, 188.56, 186.16, 185.38, 182.34, 179.8, 177.54, 173.2, 173.88, 170.06, 170.7, 170.7, 170.74, 169.66, 167.62, 168.54, 169.12, 167.66, 167.16, 165.58, 165.2, 167.12, 167.74, 170.72, 171.98, 171.12, 171.16, 169.34, 169.34, 170.52, 173.46, 174.46, 173.72, 172.36, 172.88, 172.8, 172.94, 173.22, 171.7, 169.78, 168.72, 169.56, 170.58, 171.26, 172.02, 170.38, 169.26, 169.24, 167.46, 168.78, 166.96, 167.64, 168.94, 168.68, 168.82, 169.82, 170.86, 170.44, 171.18, 172.28, 174.0, 172.32, 170.1, 169.4, 167.8, 166.76, 166.1, 163.42, 162.76, 161.26, 159.34, 160.24, 162.2, 163.04, 163.04, 165.3, 166.92, 168.9, 169.82, 168.5, 168.08, 166.9, 166.9, 165.3, 164.88, 165.88, 165.92, 164.86, 163.8, 162.2, 161.14, 160.08, 162.16, 162.82, 162.94, 163.62, 163.48, 162.06, 159.46, 157.4, 155.98, 154.56, 153.48, 152.4, 152.52, 152.1, 151.76, 150.68, 149.62, 149.7, 149.14, 149.14, 148.58, 148.58, 147.94, 147.3, 146.66, 145.48, 145.48, 145.94, 144.92, 144.28, 144.28, 143.64, 143.0, 143.36, 142.18, 142.18, 142.18, 140.9, 141.06, 141.06, 141.5, 142.04, 142.58, 142.58, 143.12, 143.66, 145.2, 146.94, 147.2, 148.1, 149.2, 150.2, 150.1, 150.1, 151.2, 152.3, 153.3, 153.3, 153.2, 153.2, 153.2, 153.2, 153.2, 153.1, 153.1, 154.2, 155.2, 155.2, 156.3, 156.2, 156.1, 157.1, 157.02, 156.92, 158.02, 157.92, 158.84, 158.74, 158.64, 158.54, 159.54, 159.44, 160.44, 160.34, 161.44, 162.54, 163.54, 164.54, 164.44, 164.98, 166.36, 167.28, 168.2, 168.48, 168.76, 170.24, 170.7, 170.0, 169.36, 170.98, 170.88, 170.78, 170.68, 171.44, 172.36, 171.16, 171.06, 171.98, 171.88, 170.68, 170.58, 169.62, 170.72, 170.74, 170.74, 172.86, 173.76, 174.78, 177.06, 178.16, 178.16, 180.28, 181.38, 182.4, 183.5, 184.6, 185.7, 187.82, 189.94, 191.04, 192.14, 193.24, 194.34, 195.44, 195.44, 194.14, 194.14, 194.14, 194.14, 192.84, 191.54, 192.56, 193.58, 194.6, 194.6, 194.6, 193.3, 194.32, 195.34, 196.36, 195.06, 194.66, 193.36, 194.38, 195.4, 196.42, 195.34, 194.26, 195.28, 193.98, 195.0, 193.7, 194.72, 195.1, 193.8, 194.82, 194.74, 193.44, 192.36, 191.06, 192.08, 193.1, 194.12, 195.14, 197.24, 197.02, 199.12, 201.22, 201.28, 203.38, 204.02, 205.12, 206.74, 207.84, 208.94, 206.62, 204.58, 204.58, 204.58, 203.16, 200.84, 199.42, 199.94, 198.42, 196.1, 196.1, 193.78, 191.46, 189.94, 187.62, 187.74, 185.42, 185.42, 185.42, 183.1, 180.78, 175.26, 175.78, 173.46, 172.04, 165.98, 166.5, 164.68, 162.36, 160.04, 157.72, 155.4, 153.08, 151.26, 151.12, 152.54, 153.96, 153.68, 156.24, 156.78, 156.42, 153.58, 151.64, 148.8, 145.96, 143.12, 141.2, 139.28, 138.38, 137.48, 137.38, 136.48, 134.04, 133.66, 132.86, 132.06, 131.26, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.46, 129.98, 129.98, 129.98, 130.5, 130.5, 130.5, 130.5, 130.5, 130.5, 130.5, 130.5, 130.5, 130.5, 130.5, 130.5, 130.5, 130.5, 130.5, 131.02, 131.02, 131.54, 131.54, 131.54, 131.54, 131.54, 131.54, 131.54, 131.54, 131.54, 131.54, 131.54, 131.54, 131.54, 132.06, 132.58, 133.1, 133.1, 133.1, 133.62, 134.14, 134.14, 134.14, 134.14, 134.14, 134.14, 134.14, 134.14, 134.14, 134.14, 134.14, 134.14, 134.66, 135.18, 135.18, 135.18, 135.18, 135.7, 136.22, 136.22, 136.22, 136.74, 137.26, 137.26, 137.26, 137.26, 137.26, 137.78, 138.3, 138.82, 138.82, 138.82, 139.34, 139.34, 139.86, 140.38, 140.38, 140.38, 140.38, 140.38, 139.44, 138.92, 138.4, 137.88, 137.36, 136.84, 136.32, 135.8, 135.28, 134.76, 134.24, 133.72, 133.2, 132.68, 132.16, 132.16, 131.64, 131.12, 130.6, 130.08, 129.56, 129.04, 128.52, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 128.0, 129.66, 129.66, 129.66, 131.32, 131.32, 131.32, 131.32, 131.32, 131.32, 131.32, 131.32, 131.32, 131.32, 131.32, 131.32, 131.32, 131.32, 131.32, 131.32, 131.32, 131.32, 131.32, 132.98, 132.98, 132.98, 132.98, 132.98, 132.98, 132.98, 132.98, 132.98, 132.98, 132.98, 132.98, 132.98, 132.98, 134.64, 134.64, 134.64, 134.64, 134.64, 134.64, 134.64, 134.64, 134.64, 134.64, 134.64, 136.3, 136.3, 137.96, 137.96, 137.96, 137.96, 137.96, 137.96, 137.96, 137.96, 137.96, 137.96, 137.96, 139.62, 139.62, 140.4, 140.4, 140.4, 140.4, 140.4, 140.4, 140.4, 142.06, 143.72, 144.5, 144.5, 144.5, 146.16, 147.82, 147.82, 148.6, 150.26, 150.26, 150.26, 150.26, 151.92, 151.92, 153.58, 154.36, 154.36, 155.14, 155.92, 156.7, 156.7, 156.7, 160.02, 160.02, 160.02, 160.02, 161.68, 163.34, 164.12, 165.78, 167.44, 169.1, 170.76, 170.76, 171.54, 173.2, 173.98, 175.64, 177.3, 178.96, 180.62, 182.28, 185.6, 187.26, 188.92, 189.7, 191.36, 193.02, 194.68, 195.46, 197.12, 198.78, 197.26, 194.96, 194.96, 190.96, 190.08, 189.2, 186.16, 185.28, 184.4, 184.4, 183.52, 182.64, 181.76, 181.0, 179.24, 178.36, 177.48, 176.6, 175.72, 174.84, 173.96, 173.08, 172.2, 171.32, 169.16, 167.74, 166.56, 165.68, 164.1, 164.5, 164.9, 164.9, 164.36, 163.82, 163.28, 163.28, 162.74, 162.74, 162.2, 162.2, 162.2, 162.2, 162.2, 161.66, 161.12, 160.58, 158.96, 158.96, 159.56, 160.16, 160.76, 160.22, 160.22, 160.22, 159.68, 159.14, 158.6, 157.52, 156.98, 156.44, 155.9, 155.36, 154.82, 154.28, 153.74, 153.2, 152.12, 151.04, 150.5, 149.96, 149.42, 149.48, 148.94, 147.86, 148.46, 149.06, 149.48, 148.94, 148.94, 148.94, 149.54, 149.54, 149.54, 149.54, 149.54, 150.68, 150.68, 150.68, 150.68, 150.68, 151.28, 152.42, 152.42, 152.42, 152.42, 153.56, 153.64, 154.24, 154.24, 154.84, 154.84, 155.44, 156.04, 156.04, 156.04, 156.04, 156.04, 156.66, 158.02, 158.62, 159.22, 159.82, 159.98, 161.2, 161.56, 162.18, 163.32, 165.6, 165.6, 166.22, 166.58, 167.18, 167.18, 167.78, 167.86, 168.46, 168.54, 169.14, 169.74, 173.26, 174.54, 175.14, 176.28, 174.5, 174.48, 174.42, 176.14, 176.66, 177.18, 177.7, 179.04, 179.28, 179.12, 179.36, 179.6, 179.06, 178.52, 177.58, 175.7, 174.76, 174.76, 174.22, 173.68, 173.14, 172.6, 172.06, 171.52, 170.98, 170.44, 169.9, 169.36, 167.88, 167.74, 167.6, 167.6, 167.6, 167.6, 167.6, 167.2, 166.8, 166.8, 166.8, 166.4, 166.0, 166.0, 166.0, 165.6, 165.6, 165.6, 165.6, 165.6, 165.6, 165.6, 165.2, 164.8, 164.8, 164.4, 164.4, 164.4, 164.4, 164.0, 163.6, 163.2, 162.8, 162.0, 161.6, 161.6, 161.28, 161.28, 160.88, 160.48, 160.48, 159.68, 159.28, 158.88, 158.48, 158.48, 158.08, 157.68, 157.28, 156.88, 156.88, 156.08, 155.68, 154.88, 154.48, 154.08, 153.68, 153.28, 152.88, 152.08, 151.68, 151.28, 150.88, 150.48, 150.48, 150.48, 150.48, 150.48, 150.48, 150.48, 150.48, 150.48, 150.48, 150.48, 150.96, 150.96, 150.96, 150.96, 150.96, 150.96, 150.96, 150.96, 150.96, 150.96, 150.96, 150.96, 150.96, 150.96, 150.96, 150.96, 150.96, 150.96, 151.54, 151.54, 151.54, 151.54, 151.54, 151.54, 151.54, 151.54, 151.54, 151.54, 151.54, 151.54, 151.54, 151.54, 152.02, 152.02, 152.02, 152.02, 152.02, 152.02, 152.02, 152.6, 152.6, 153.08, 153.08, 153.08, 153.08, 153.08, 153.66, 153.66, 153.66, 153.66, 153.66, 154.24, 154.82, 154.82, 154.82, 155.4, 155.4, 155.98, 155.98, 156.46, 156.46, 156.94, 156.94, 156.94, 157.52, 158.0, 158.58, 159.16, 159.64, 160.22, 160.22, 160.22, 160.22, 160.22, 160.8, 160.8, 161.86, 163.02, 163.5, 163.98, 163.98, 164.46, 165.52, 166.1, 166.68, 167.16, 167.74, 167.74, 168.22, 168.7, 169.56, 171.1, 171.68, 172.16, 172.8, 173.38, 173.96, 174.54, 176.6, 177.18, 176.56, 176.98, 176.98, 176.98, 176.98, 177.08, 177.18, 177.28, 177.86, 177.96, 178.06, 178.16, 178.26, 178.36, 178.46, 178.56, 178.66, 178.76, 178.86, 178.96, 179.06, 179.16, 179.26, 179.36, 179.46, 179.56, 179.66, 179.66, 179.66, 179.66, 179.66, 180.14, 180.14, 180.14, 180.14, 180.62, 180.62, 181.1, 181.58, 181.58, 182.06, 182.06, 182.54, 183.02, 183.5, 183.98, 183.98, 184.46, 184.94, 185.42, 185.9, 186.38, 186.38, 186.38, 186.86, 187.34, 187.34, 187.34, 187.82, 188.0, 188.48, 188.96, 189.44, 189.92, 190.1, 190.1, 190.58, 191.06, 191.54, 192.02, 192.02, 192.5, 192.98, 193.46, 193.94, 194.42, 194.9, 195.38, 195.86, 196.34, 196.82, 197.3, 197.78, 198.26, 198.74, 199.22, 199.1, 197.54, 196.76, 196.76, 195.98, 194.42, 194.42, 193.64, 193.64, 193.64, 192.86, 192.86, 192.86, 192.08, 192.08, 191.3, 191.3, 190.52, 190.52, 189.74]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[1057.565702325424, 1033.6557653952927, 1053.5134740105952, 1010.062273771856, 1084.8726650949507, 1025.8984936431514, 1192.6288964107284, 1015.8208087582874, 1056.4886344873591, 18.957287595775448, 8.68303912120436, 15.514117026896317, 9.236138021450566, 6.353666488102117, 5.7922074582579075, 11.856360668082658, 10.815772125718622, 10.815772125718622, 10.815772125718622, 7.8809039524165, 10.399219168528555, 18.877267679297095, 4.919380794473487, 4.919380794473487, 4.919380794473487, 7.936551787358003, 14.448555367912087, 4.053666272308505, 8.637536175871094, 13.57172005301892, 6.533190329610121, 9.574194399605139, 5.602191154586455, 5.632890780193146, 9.022245616611752, 9.487703606595895, 10.975581990268692, 14.332740177583323, 8.94958441631099, 9.217934131900048, 9.94377452883218, 10.343281985435718, 14.449911108406749, 19.067097372504367, 14.60507281048581, 6.39945774664815, 13.605407452261982, 15.246962838620329, 6.195097729749318, 9.57177390618362, 13.729536139388514, 10.448726308422826, 6.833510995174251, 12.082441649542837, 8.19172094083963, 14.917490425354417, 14.917490425354417, 12.44971730041743, 15.699564355089779, 11.729284105840975, 11.729284105840975, 12.224665329114664, 12.224665329114664, 4.5719726270910925, 8.03287704421747, 18.141644283392996, 16.599572065186674, 16.599572065186674, 14.895368218675836, 17.999924825308774, 12.800734959428814, 14.864713979838996, 9.34950923314243, 6.813836387616088, 6.813836387616088, 6.813836387616088, 8.652822287707524, 8.652822287707524, 4.820857950398375, 5.594328780792578, 7.915473059124793, 7.192337211383958, 9.619820807745894, 9.196662972845301, 9.347979117873775, 14.636051412752987, 11.635247954827921, 12.32868812831468, 12.168304103470783, 12.268710528097717, 8.967013118113798, 10.374980497663637, 12.313602404739997, 12.313602404739997, 11.681271727811307, 13.631521837049009, 8.267768552007746, 5.019545894438246, 11.532842288422406, 8.142179877097787, 8.142179877097787, 9.263463012729838, 8.13568342577235, 9.60738103474938, 9.60738103474938, 9.60738103474938, 7.557592220443321, 11.300935515200507, 11.300935515200507, 9.36434593969078, 9.980002630398083, 9.980002630398083, 9.980002630398083, 9.980002630398083, 13.088038030278883, 13.088038030278883, 5.493086836199246, 10.489690654781382, 6.5745317692047855, 10.70944005745753, 9.748167961944157, 8.85392800511815, 6.804406047790555, 6.804406047790555, 6.804406047790555, 6.804406047790555, 6.804406047790555, 8.730278768863862, 8.730278768863862, 6.185584027085322, 6.185584027085322, 8.20336897731028, 6.543170641472948, 6.543170641472948, 6.543170641472948, 6.543170641472948, 6.543170641472948, 10.453433463366993, 10.453433463366993, 10.453433463366993, 10.453433463366993, 10.453433463366993, 10.453433463366993, 10.453433463366993, 10.453433463366993, 10.453433463366993, 10.453433463366993, 10.453433463366993, 6.162429005126397, 6.162429005126397, 6.162429005126397, 6.162429005126397, 4.423781652254639, 4.423781652254639, 6.264598489696158, 8.162368902240127, 4.840441065231203, 6.270833457028778, 6.270833457028778, 6.270833457028778, 6.270833457028778, 5.830782845579593, 5.830782845579593, 5.830782845579593, 5.830782845579593, 5.830782845579593, 5.830782845579593, 7.912746319945639, 9.65733993487451, 9.65733993487451, 9.65733993487451, 9.65733993487451, 9.65733993487451, 9.65733993487451, 9.65733993487451, 9.65733993487451, 9.65733993487451, 9.65733993487451, 9.65733993487451, 9.65733993487451, 9.65733993487451, 9.65733993487451, 9.65733993487451, 9.65733993487451, 8.401891450129813, 8.401891450129813, 10.313398525970097, 6.04949151774863, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 7.696905706470473, 7.696905706470473, 7.696905706470473, 7.696905706470473, 7.696905706470473, 8.32947346577352, 8.32947346577352, 7.306497218010811, 7.306497218010811, 9.847349609387756, 5.546953204492775, 5.546953204492775, 5.546953204492775, 5.546953204492775, 5.546953204492775, 5.546953204492775, 7.03374085269889, 6.734483968865325, 6.734483968865325, 6.734483968865325, 6.734483968865325, 6.734483968865325, 6.734483968865325, 6.734483968865325, 6.734483968865325, 6.734483968865325, 6.734483968865325, 6.734483968865325, 6.734483968865325, 6.734483968865325, 6.734483968865325, 6.734483968865325, 6.734483968865325, 6.734483968865325, 6.734483968865325, 6.734483968865325, 6.734483968865325, 6.734483968865325, 6.734483968865325, 6.734483968865325, 6.734483968865325, 6.734483968865325, 7.494018662332359, 7.494018662332359, 7.494018662332359, 7.494018662332359, 10.11504405393371, 6.398709337032906, 4.837467700300037, 5.321596346905118, 8.215968795341563, 8.215968795341563, 6.230489144616852, 4.786099788406517, 4.786099788406517, 5.956959573686392, 5.956959573686392, 5.956959573686392, 4.537076048363378, 6.1823284122401745, 6.1823284122401745, 5.411807778722112, 5.411807778722112, 5.411807778722112, 5.411807778722112, 5.411807778722112, 5.411807778722112, 5.411807778722112, 7.668552800061596, 7.668552800061596, 7.668552800061596, 5.657072535840085, 6.851002757241434, 6.851002757241434, 6.851002757241434, 6.851002757241434, 6.851002757241434, 6.851002757241434, 5.5165047271968035, 5.5165047271968035, 5.5165047271968035, 5.5165047271968035, 5.5165047271968035, 8.909923385482934, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 6.094326168605025, 6.094326168605025, 6.094326168605025, 6.094326168605025, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 7.141743564159195, 7.141743564159195, 7.141743564159195, 7.141743564159195, 7.141743564159195, 7.141743564159195, 7.141743564159195, 7.141743564159195, 7.141743564159195, 7.141743564159195, 7.141743564159195, 7.141743564159195, 7.141743564159195, 7.141743564159195, 7.141743564159195, 7.141743564159195, 7.141743564159195, 7.141743564159195, 7.141743564159195, 4.7880358696512495, 6.2027617797050585, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 5.9343944904198604, 5.9343944904198604, 5.9343944904198604, 5.9343944904198604, 5.9343944904198604, 5.9343944904198604, 5.9343944904198604, 5.9343944904198604, 5.9343944904198604, 5.9343944904198604, 5.9343944904198604, 5.9343944904198604, 5.9343944904198604, 5.9343944904198604, 5.9343944904198604, 5.9343944904198604, 5.9343944904198604, 5.9343944904198604, 5.9343944904198604, 5.9343944904198604, 5.9343944904198604, 5.9343944904198604, 5.9343944904198604, 5.9343944904198604, 5.9343944904198604, 5.9343944904198604, 5.9343944904198604, 5.9343944904198604, 5.9343944904198604, 5.9343944904198604, 5.9343944904198604, 5.9343944904198604, 6.027492357175829, 6.027492357175829, 6.027492357175829, 6.027492357175829, 6.027492357175829, 6.027492357175829, 6.027492357175829, 6.027492357175829, 6.027492357175829, 6.027492357175829, 8.0531695044592, 8.0531695044592, 8.0531695044592, 8.0531695044592, 8.0531695044592, 8.0531695044592, 8.0531695044592, 8.0531695044592, 8.0531695044592, 8.0531695044592, 8.0531695044592, 8.0531695044592, 8.0531695044592, 8.0531695044592, 8.0531695044592, 8.0531695044592, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 6.735690620119541, 6.735690620119541, 6.735690620119541, 6.735690620119541, 6.735690620119541, 6.735690620119541, 6.735690620119541, 6.735690620119541, 6.735690620119541, 6.735690620119541, 6.735690620119541, 6.735690620119541, 6.735690620119541, 6.735690620119541, 6.735690620119541, 6.735690620119541, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 4.944127471187061, 4.944127471187061, 4.944127471187061, 4.944127471187061, 5.310946300127694, 5.310946300127694, 5.310946300127694, 5.310946300127694, 5.310946300127694, 5.310946300127694, 7.3767979534266805, 7.3767979534266805, 5.652771510928877, 5.652771510928877, 5.652771510928877, 5.652771510928877, 5.652771510928877, 5.652771510928877, 5.652771510928877, 5.652771510928877, 5.652771510928877, 5.652771510928877, 5.652771510928877, 5.652771510928877, 5.652771510928877, 5.652771510928877, 5.652771510928877, 5.652771510928877, 5.652771510928877, 5.652771510928877, 5.652771510928877, 5.652771510928877, 5.652771510928877, 5.652771510928877, 5.652771510928877, 5.652771510928877, 5.652771510928877, 5.652771510928877, 5.652771510928877, 5.652771510928877, 5.652771510928877, 5.652771510928877, 5.652771510928877, 5.652771510928877, 5.0096062141665945, 6.295565085354966, 6.295565085354966, 6.295565085354966, 6.295565085354966, 6.295565085354966, 6.295565085354966, 6.295565085354966, 6.295565085354966, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.773857573049381, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.582267709258183, 5.582267709258183, 5.582267709258183, 5.582267709258183, 6.255046141527569, 6.255046141527569, 6.255046141527569, 6.255046141527569, 6.255046141527569, 6.255046141527569, 6.255046141527569, 6.255046141527569, 6.255046141527569, 6.255046141527569, 6.255046141527569, 6.255046141527569, 6.255046141527569, 6.566848954685911, 4.4991742733880224, 4.4991742733880224, 4.4991742733880224, 4.4991742733880224, 4.4991742733880224, 4.4991742733880224, 4.4991742733880224, 4.4991742733880224, 4.4991742733880224, 4.4991742733880224, 4.4991742733880224, 4.4991742733880224, 4.4991742733880224, 4.4991742733880224, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 1083.002680394047, 1057.8970335997965, 1039.2563391877184, 1033.1005146955672, 1011.1740792681843, 1064.0518924294586, 1043.7197756889118, 1112.3335801710007, 1121.1873116148072, 1025.728869839952, 1072.5987456873156, 1031.3645395170079, 1025.8923523566991, 1005.2187428516969, 6.804890778791103, 8.57711311888103, 7.854889668624009, 10.910893864511818, 17.904190035761054, 6.524988722302562, 5.992837917775015, 6.501732869609465, 18.871513092070394, 18.871513092070394, 16.550013198362873, 7.842102469060207, 10.03322118737002, 17.963764544251983, 17.963764544251983, 16.70524422985435, 10.884260739670639, 8.954065840015188, 16.108479963362274, 13.935744048789546, 4.8139143925737375, 13.786088227626701, 14.365212758986681, 13.764652159989224, 13.764652159989224, 11.154508449030368, 6.885625687934217, 16.892085507731373, 18.36197759699733, 18.1852115484563, 17.904635350959285, 9.838014059264362, 15.36232020633885, 7.468623737904681, 19.222329677991837, 9.451114317762055, 18.63450782159989, 16.84621492229407, 18.370234555356756, 6.866324990310597, 14.635586332703856, 6.146608426032841, 6.146608426032841, 9.151817053703814, 9.151817053703814, 9.151817053703814, 17.16846919202137, 16.182735562618685, 16.182735562618685, 17.937661201463783, 17.937661201463783, 7.141085329170643, 5.27749644060914, 5.54654153157813, 12.273755748935562, 16.362306383934897, 9.982572811166476, 15.322710677651012, 14.550756319141481, 17.43332616433089, 17.43332616433089, 17.43332616433089, 18.46350284482758, 8.719507476111275, 18.08315960138218, 11.025507520887922, 10.593649414700211, 10.593649414700211, 10.593649414700211, 16.011979913847853, 6.3194152212090575, 6.3194152212090575, 14.357694674782294, 8.62788374484186, 12.495553219355775, 7.978968850242331, 4.191750422513997, 4.191750422513997, 4.191750422513997, 4.191750422513997, 8.732328008753719, 9.135912964856768, 10.4081370554672, 4.252779168500384, 4.252779168500384, 5.334163779298692, 9.145759568597278, 13.626534441210746, 7.196075518080374, 10.089133093052165, 10.089133093052165, 6.881242005805831, 10.720777444678971, 10.203270041650383, 12.254991759779822, 9.757841607354205, 7.263894632246433, 5.554770946279927, 7.897869518898883, 7.897869518898883, 11.41140954010014, 11.490604698349946, 11.210504406392618, 11.210504406392618, 6.443545171686837, 10.180401558581435, 7.975830074447031, 7.975830074447031, 12.743202512825993, 5.27116798314701, 9.422852548235653, 8.315520757749695, 7.8285172647516035, 7.5726369693174975, 6.678263005727552, 6.678263005727552, 10.68868528952404, 10.68868528952404, 10.68868528952404, 10.68868528952404, 10.68868528952404, 8.277253911547167, 10.56334859137365, 10.56334859137365, 10.139655317280871, 9.04498459547652, 4.44418418641842, 4.44418418641842, 6.007487436534823, 6.007487436534823, 6.007487436534823, 5.186567568726549, 6.59342514942932, 6.59342514942932, 6.59342514942932, 8.689903697280187, 8.689903697280187, 8.689903697280187, 8.689903697280187, 8.689903697280187, 8.689903697280187, 8.689903697280187, 8.689903697280187, 8.689903697280187, 8.689903697280187, 8.689903697280187, 8.689903697280187, 6.283373836314789, 6.283373836314789, 5.968976419251038, 5.968976419251038, 5.968976419251038, 10.69726070378619, 10.69726070378619, 10.69726070378619, 10.69726070378619, 10.69726070378619, 10.69726070378619, 8.332392630391192, 8.332392630391192, 8.332392630391192, 8.332392630391192, 8.332392630391192, 8.332392630391192, 7.303745165106077, 7.303745165106077, 7.303745165106077, 7.303745165106077, 7.367567492200943, 7.367567492200943, 7.367567492200943, 7.367567492200943, 7.367567492200943, 7.367567492200943, 7.367567492200943, 7.367567492200943, 7.367567492200943, 7.367567492200943, 7.367567492200943, 7.367567492200943, 7.367567492200943, 7.367567492200943, 7.367567492200943, 7.367567492200943, 7.367567492200943, 4.8712047806197205, 4.8712047806197205, 4.8712047806197205, 4.8712047806197205, 4.8712047806197205, 4.804019807179941, 4.804019807179941, 4.804019807179941, 4.804019807179941, 4.586176633860255, 5.161999759410182, 5.161999759410182, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 6.993747915318313, 6.993747915318313, 6.993747915318313, 6.993747915318313, 4.56831495022727, 8.029609364861622, 8.029609364861622, 8.029609364861622, 8.029609364861622, 8.029609364861622, 8.029609364861622, 8.029609364861622, 8.029609364861622, 8.029609364861622, 8.029609364861622, 8.029609364861622, 9.760741559576557, 5.470473465188075, 5.470473465188075, 5.470473465188075, 5.470473465188075, 5.470473465188075, 5.470473465188075, 5.470473465188075, 5.470473465188075, 5.470473465188075, 5.470473465188075, 5.470473465188075, 5.4704</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>[5.019545894438246, 5.019545894438246, 5.019545894438246, 5.019545894438246, 5.019545894438246, 5.019545894438246, 5.019545894438246, 9.36434593969078, 9.36434593969078, 9.36434593969078, 9.36434593969078, 9.36434593969078, 9.748167961944157, 9.748167961944157, 9.748167961944157, 9.748167961944157, 9.748167961944157, 9.748167961944157, 9.748167961944157, 9.748167961944157, 9.748167961944157, 9.748167961944157, 9.748167961944157, 9.748167961944157, 9.748167961944157, 9.748167961944157, 9.748167961944157, 9.748167961944157, 9.748167961944157, 9.748167961944157, 9.748167961944157, 9.748167961944157, 9.748167961944157, 9.748167961944157, 8.162368902240127, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 5.281195941942655, 7.306497218010811, 7.306497218010811, 7.306497218010811, 7.306497218010811, 7.306497218010811, 7.306497218010811, 7.306497218010811, 7.306497218010811, 7.306497218010811, 7.306497218010811, 7.306497218010811, 7.306497218010811, 7.306497218010811, 7.306497218010811, 7.306497218010811, 7.306497218010811, 7.306497218010811, 7.306497218010811, 7.306497218010811, 7.306497218010811, 7.306497218010811, 7.306497218010811, 7.306497218010811, 7.306497218010811, 7.306497218010811, 5.546953204492775, 5.546953204492775, 5.546953204492775, 5.546953204492775, 5.546953204492775, 5.546953204492775, 5.546953204492775, 5.546953204492775, 5.546953204492775, 5.546953204492775, 6.734483968865325, 6.734483968865325, 6.734483968865325, 6.734483968865325, 6.734483968865325, 6.734483968865325, 6.734483968865325, 6.734483968865325, 4.786099788406517, 4.786099788406517, 4.786099788406517, 4.786099788406517, 4.786099788406517, 4.786099788406517, 4.786099788406517, 4.786099788406517, 4.786099788406517, 4.786099788406517, 4.786099788406517, 4.786099788406517, 4.786099788406517, 5.411807778722112, 5.411807778722112, 5.411807778722112, 5.411807778722112, 5.411807778722112, 5.411807778722112, 5.411807778722112, 5.411807778722112, 5.411807778722112, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 4.6444514535017545, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 8.09549984678766, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 7.341642216004368, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 4.95987903602825, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.262612225409447, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 6.229422553167444, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 4.899345071241471, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 5.5721751233568035, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 4.509311201439542, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.75576772103288, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.899717453594203, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 5.108672398455965, 6.993747915318313, 6.993747915318313, 6.993747915318313, 6.993747915318313, 6.993747915318313, 6.993747915318313, 6.993747915318313, 6.993747915318313, 8.029609364861622, 8.029609364861622, 8.029609364861622, 8.029609364861622, 8.029609364861622, 8.029609364861622, 8.029609364861622, 8.029609364861622, 8.029609364861622, 8.029609364861622, 8.029609364861622, 8.029609364861622, 8.029609364861622, 8.029609364861622, 8.029609364861622, 8.029609364861622, 8.029609364861622, 5.470473465188075, 5.470473465188075, 5.470473465188075, 5.470473465188075, 5.470473465188075, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 5.467096344149137, 7.379136610020427, 7.379136610020427, 7.379136610020427, 7.379136610020427, 7.379136610020427, 7.379136610020427, 7.379136610020427, 7.379136610020427, 7.379136610020427, 7.379136610020427, 7.379136610020427, 7.379136610020427, 7.379136610020427, 7.379136610020427, 7.379136610020427, 7.379136610020427, 7.379136610020427, 7.379136610020427, 7.379136610020427, 9.483342304864404, 9.483342304864404, 9.483342304864404, 9.483342304864404, 9.483342304864404, 9.483342304864404, 9.483342304864404, 9.483342304864404, 9.483342304864404, 9.483342304864404, 9.483342304864404, 9.483342304864404, 9.483342304864404, 9.483342304864404, 9.483342304864404, 9.483342304864404, 9.483342304864404, 9.483342304864404, 9.483342304864404, 9.483342304864404, 9.483342304864404, 4.539717800429989, 4.539717800429989, 4.539717800429989, 4.539717800429989, 4.539717800429989, 4.539717800429989, 4.539717800429989, 4.539717800429989, 4.539717800429989, 4.539717800429989, 4.539717800429989, 4.539717800429989, 4.539717800429989, 4.539717800429989, 4.539717800429989, 4.539717800429989, 4.539</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>[10.724064518702429, 10.522586102458165, 10.535494091211905, 10.380228466113424, 10.305719665428557, 10.31530929015072, 10.162220698510003, 10.045817671380663, 9.85891734983407, 9.90528894705149, 9.904678705201775, 10.031470161030859, 9.892180649988864, 9.904456615816413, 9.891873242781674, 9.944259887046696, 9.893510279957246, 9.893510279957246, 9.893510279957246, 9.796985529851309, 9.743721050127508, 9.827301955523726, 9.604179554020282, 9.681512270472762, 9.790018898253294, 9.865047103557703, 9.980819610094784, 9.949503695536357, 10.089751375665815, 10.081499790751367, 10.009136063485764, 10.168430389343568, 10.346978617896276, 10.489046280825528, 10.517748726479159, 10.407130197481415, 10.46310489782907, 10.472740739434911, 10.36006574189207, 10.393425193641951, 10.36396964431497, 10.407205228866353, 10.448424752124279, 10.519134043453226, 10.46302909910288, 10.421502331874596, 10.519142709122663, 10.378266846937397, 10.315899293236305, 10.204816553911805, 10.337400156192057, 10.221082082783651, 10.121787130828691, 10.178609439741352, 10.060899909639891, 10.034568539169854, 10.034568539169854, 9.98804426172055, 9.935436508136169, 9.842836096625867, 9.74171012512517, 9.776164968847102, 9.728449209718121, 9.668426040963729, 9.716862476864586, 9.737394816003317, 9.584348893660778, 9.38690770324481, 9.281650611859847, 9.12843627599923, 9.073066841059868, 9.06783279092672, 8.936934213650384, 8.868206245564192, 8.845764866349162, 8.81337912868334, 8.884993738567413, 8.911205275270754, 8.865308311120991, 8.991741081742683, 9.09105826678705, 9.029014477482114, 9.063498819520678, 9.035734500183649, 9.063065977185586, 9.0431492659537, 9.124740339140722, 9.034675479343743, 8.878067367347656, 8.813260203585479, 8.785071694620322, 8.735944014983883, 8.644037900976851, 8.644037900976851, 8.568333995640646, 8.598549180791947, 8.510135121960573, 8.407721778649945, 8.496803585843564, 8.401454317215535, 8.35176168224564, 8.378940401133411, 8.288447280641789, 8.271452894613045, 8.291111991481301, 8.245230351332644, 8.25260066550712, 8.297773878966789, 8.198663573784911, 8.108135605585192, 8.07589810215047, 8.091125695093059, 7.977829580053167, 7.990342644652812, 7.918251981097781, 7.838499102504755, 7.709544245556212, 7.7218110242247535, 7.618180834111624, 7.610286773784213, 7.524171037485048, 7.462897862520359, 7.420455060195598, 7.399738797255086, 7.388096716913484, 7.3760888640521785, 7.370831777665854, 7.442093699337752, 7.462821320827262, 7.407998393346225, 7.454455845345085, 7.529239113595315, 7.561309304562605, 7.63669282684042, 7.698190986645563, 7.717861186686181, 7.7790267446557335, 7.771256085808498, 7.697428829971578, 7.58117801280506, 7.483321353791136, 7.469792808680048, 7.456285667241909, 7.353334174134582, 7.339974126496047, 7.2432994602800145, 7.2300610889448285, 7.158390366616227, 7.124163422269466, 7.117048648982027, 7.185028836397097, 7.165979976687838, 7.1259863193771835, 7.151846076188757, 7.165847288700953, 7.14971212903361, 7.093060601426764, 7.128838490558098, 7.128838490558098, 7.108554682016565, 7.165632455753217, 7.145341549562819, 7.133604667686691, 7.150391718078437, 7.224325279259925, 7.2403664941028625, 7.256895961649981, 7.245181633738978, 7.241388749807408, 7.2040325999876345, 7.098559473805911, 7.098559473805911, 7.042177768994558, 7.005170621997974, 7.005170621997974, 7.005170621997974, 6.920764070895875, 6.87088993276479, 6.79125435021144, 6.611958506205698, 6.528193053803282, 6.444512167704276, 6.458318476294864, 6.414455250301627, 6.359586463188449, 6.380476016746808, 6.367531360793968, 6.2707164037217495, 6.333478097270825, 6.361864129407564, 6.390198062117828, 6.418480038704223, 6.446710201944284, 6.458858779115331, 6.46349393668654, 6.491595591998624, 6.503631538803131, 6.5316240771454765, 6.55956566958184, 6.564609482549589, 6.574724201773111, 6.556426725493142, 6.492536251585198, 6.429022024396919, 6.410955561090385, 6.3929162523320375, 6.3929162523320375, 6.317891342406414, 6.280365237507177, 6.2815131457617515, 6.22224185361432, 6.24522056659273, 6.241522008287773, 6.220199283521753, 6.246235347438972, 6.242556605393747, 6.265356486434324, 6.215693003530139, 6.218870260192152, 6.175131727676554, 6.189896477000593, 6.220663792070297, 6.251284716634389, 6.2415893857852485, 6.2154438144290864, 6.230110507102093, 6.259687025580813, 6.2792808244259595, 6.235869202829721, 6.192641107319502, 6.182109771257855, 6.1391228437438246, 6.153662613706535, 6.184041944330641, 6.214278947706119, 6.201922703090328, 6.231980301281711, 6.189377493146494, 6.219331952140976, 6.248250141183662, 6.294399190361971, 6.283984217296049, 6.303054562022682, 6.317535874496779, 6.317535874496779, 6.27943713119458, 6.279759102881712, 6.204201627548445, 6.044137890579142, 6.083009050639436, 6.067987976457374, 5.99812365570796, 5.93433941802812, 5.902411688679182, 5.91600658134595, 5.927797359420082, 5.930651420075174, 5.920200055335209, 5.964175314363247, 6.035003606236805, 6.022003921068594, 6.009020007935043, 5.992819037134861, 6.0206825645765605, 6.004494746187226, 6.058414360910759, 6.042224233260962, 6.02607098818619, 6.009954499797072, 5.950678237615574, 5.891504179666488, 5.887879763323171, 5.910998432053037, 5.937007018034101, 5.96296993633247, 5.919473956766267, 5.893661524040084, 5.893661524040084, 5.9196215411642665, 5.901994185524994, 5.953662822890644, 5.936040271412544, 5.987608278553364, 5.969990574016346, 5.885245210295494, 5.9543643870901795, 6.023451547467633, 6.092506713667997, 6.092506713667997, 6.092506713667997, 6.092506713667997, 6.16152990791082, 6.16152990791082, 6.16152990791082, 6.16152990791082, 6.16152990791082, 6.230521152395086, 6.299480469299224, 6.353978716691927, 6.353978716691927, 6.422828017279726, 6.495700794459163, 6.56438720861384, 6.663501441892038, 6.663501441892038, 6.732098779803201, 6.800664500404236, 6.869198625549285, 6.869198625549285, 6.918632398670581, 6.987106346573652, 7.055548763769285, 7.123959672031232, 7.192339093113206, 7.241633806821416, 7.323376186403971, 7.391603636911394, 7.464468547203119, 7.5135506270437284, 7.60510698459288, 7.579272761249028, 7.599913765869592, 7.595090411630529, 7.634637536980149, 7.615706268347403, 7.596775791561227, 7.552450780765081, 7.552450780765081, 7.508205240839883, 7.489311343393249, 7.470418234780196, 7.470418234780196, 7.426287637161357, 7.383968808066871, 7.34000057994992, 7.339912947046665, 7.296069283473604, 7.252303780920039, 7.233522593359286, 7.191604118085435, 7.148016445107033, 7.106266259485153, 7.087543799891218, 7.068822115224795, 7.050101205437778, 7.006725353416802, 6.963426457516058, 6.907814243486189, 6.907814243486189, 6.86470981005593, 6.846072858107323, 6.827436674229178, 6.808801258374015, 6.765825127079075, 6.7472078377033275, 6.732912644317121, 6.69007235310315, 6.690658322295041, 6.647937284322718, 6.629387831946938, 6.629387831946938, 6.585025204461598, 6.589423570488031, 6.565405260790475, 6.547888398201696, 6.523962929560238, 6.479944146538213, 6.412370764262681, 6.388633031130503, 6.364935783316142, 6.29767409448603, 6.274121299064443, 6.27868112767312, 6.28323486116468, 6.25974575791169, 6.198397969307704, 6.181033374822943, 6.159589643235647, 6.136346800040549, 6.158090969653388, 6.195235231940812, 6.209878597485781, 6.182081156074613, 6.154293678601531, 6.154293678601531, 6.121470030453345, 6.100350572913083, 6.114991255944075, 6.1296223351928685, 6.1296223351928685, 6.1099610382340614, 6.111796980077951, 6.111796980077951, 6.117867185665632, 6.117867185665632, 6.1340366440299725, 6.135864615548309, 6.135864615548309, 6.178072013789652, 6.158458949973854, 6.138856719501613, 6.145424332879499, 6.187573020110696, 6.174436088086192, 6.216534331911342, 6.2183462298761, 6.2344109360890085, 6.2344109360890085, 6.214842827015502, 6.195285493139262, 6.195285493139262, 6.175738925562677, 6.191803647393474, 6.172273186345907, 6.188327195920222, 6.190137920510606, 6.232106969457811, 6.211514997575978, 6.227522919730429, 6.249921230059621, 6.256372447180545, 6.256372447180545, 6.270538702179975, 6.262478980884708, 6.241229575977495, 6.281225741047868, 6.273164439206359, 6.251939638040063, 6.230720786928675, 6.270662370449387, 6.249444164421483, 6.249444164421483, 6.201535553527553, 6.153728295207251, 6.092726445528952, 5.970768832889118, 5.945133608429541, 5.945133608429541, 5.945133608429541, 5.884202316504708, 5.7895715496123135, 5.735426410365792, 5.6746845458545, 5.613957928008267, 5.613957928008267, 5.5532465510872715, 5.520067824383194, 5.5553015918130875, 5.569309716969527, 5.604448845505552, 5.6438868834893565, 5.6438868834893565, 5.6438868834893565, 5.678956234030674, 5.675731072058718, 5.6725227531434435, 5.6725227531434435, 5.698150262579382, 5.698150262579382, 5.698150262579382, 5.698150262579382, 5.723695204908321, 5.723695204908321, 5.737092878758764, 5.771806893471032, 5.806505719118373, 5.802981301787663, 5.837575818569704, 5.844028734201814, 5.878584329912712, 5.913124864709314, 5.913124864709314, 5.913124864709314, 5.926280134946393, 5.939411495944403, 5.945779852435562, 5.970692749987216, 5.966773919050474, 5.991907970016361, 6.004900346969567, 6.039134112213451, 5.965859894225807, 5.92790920802299, 5.90682736599894, 5.90682736599894, 5.871930243556533, 5.862864982775907, 5.853614827321626, 5.825958775131549, 5.80500892800244, 5.784087591290334, 5.746811519826898, 5.7259924592850036, 5.7169843961147855, 5.708011019755945, 5.699040275986103, 5.691366903066686, 5.663456038281161, 5.663456038281161, 5.651738127944387, 5.651738127944387, 5.651795456508755, 5.673838261315841, 5.660436406609039, 5.66048304447908, 5.66048304447908, 5.648847115195038, 5.648847115195038, 5.648907500011667, 5.648967740911248, 5.648967740911248, 5.646656589967847, 5.644354372290515, 5.669528639640316, 5.669528639640316, 5.687664847536093, 5.7057678716907025, 5.712305779475184, 5.7188404033642275, 5.7253717458313895, 5.7253717458313895, 5.692136727471702, 5.692136727471702, 5.70367480299539, 5.70367480299539, 5.70367480299539, 5.716457504125274, 5.727965521788258, 5.71206860584862, 5.71206860584862, 5.686099648639942, 5.686099648639942, 5.6975641213790125, 5.7090135145609375, 5.693244774655907, 5.693244774655907, 5.693244774655907, 5.704671265330016, 5.704671265330016, 5.7160827700241565, 5.7160827700241565, 5.727479318200449, 5.738860939243835, 5.751476943385871, 5.751476943385871, 5.76407926676953, 5.7766679316358145, 5.787991484599251, 5.787991484599251, 5.800552172040709, 5.800552172040709, 5.811846622547004, 5.823126340578489, 5.834391354941921, 5.8310487535424, 5.829797498316756, 5.828546521886147, 5.800263292054517, 5.799017039872484, 5.770796902296075, 5.769555355978171, 5.768314085626228, 5.740161236979627, 5.740161236979627, 5.713299102845419, 5.686486551085086, 5.6597234445458025, 5.6597234445458025, 5.6597234445458025, 5.633009646580127, 5.60634502104368, 5.60634502104368, 5.579729432292823, 5.553162745182364, 5.553162745182364, 5.526644825063264, 5.526644825063264, 5.500175537780373, 5.473754749670154, 5.4473823275584445, 5.421058138758211, 5.394782051067331, 5.394782051067331, 5.368553932766374, 5.342373652616402, 5.3162410798567805, 5.290156084203004, 5.2641185358445295, 5.23812830544262, 5.212185264128207, 5.186289283499757, 5.160440235621161, 5.134637993019615, 5.108882428683534, 5.108882428683534, 5.0831734160604665, 5.057510829055021, 5.031894542026801, 5.006324429788361, 4.98080036760316, 4.955322231183542, 4.929889896688712, 4.904503240722728, 4.904503240722728, 4.904503240722728, 4.904503240722728, 4.904503240722728, 4.904503240722728, 4.904503240722728, 4.904503240722728, 4.918067429722814, 4.918067429722814, 4.918067429722814, 4.918067429722814, 4.918067429722814, 4.918067429722814, 4.918067429722814, 4.918067429722814, 4.918067429722814, 4.918067429722814, 4.918067429722814, 4.918067429722814, 4.918067429722814, 4.918067429722814, 4.918067429722814, 4.918067429722814, 4.931626154721554, 4.931626154721554, 4.931626154721554, 4.931626154721554, 4.931626154721554, 4.931626154721554, 4.945179419019843, 4.945179419019843, 4.945179419019843, 4.945179419019843, 4.958727225915916, 4.958727225915916, 4.958727225915916, 4.958727225915916, 4.958727225915916, 4.972269578705353, 4.972269578705353, 4.972269578705353, 4.98580648068108, 4.977282474896481, 4.990794087635646, 4.990794087635646, 5.004300272779712, 5.004300272779712, 5.017801033598409, 5.017801033598409, 5.031296373358841, 5.031296373358841, 5.044786295325488, 5.044786295325488, 5.044786295325488, 5.058270802760207, 5.058270802760207, 5.058270802760207, 5.071749898922239, 5.085223587068213, 5.085223587068213, 5.09869187045214, 5.09869187045214, 5.09869187045214, 5.09869187045214, 5.112389020053042, 5.125845548409852, 5.139296682497987, 5.13056369567548, 5.143989855263725, 5.143989855263725, 5.1574106434469345, 5.1708260634478735, 5.184236118486728, 5.197640811781106, 5.211040146546049, 5.216582935000964, 5.230179665659766, 5.243544943491671, 5.256904890605514, 5.270259510189883, 5.283608805430818, 5.296952779511824, 5.287867217833454, 5.293264175608549, 5.306562478636443, 5.319855499260445, 5.333143240627373, 5.3464257058815505, 5.357213730489817, 5.370485663882249, 5.383752330767226, 5.388981552385106, 5.394194272572527, 5.407411771608467, 5.420624044355597, 5.43383109391307, 5.44951454599208, 5.44951454599208, 5.44951454599208, 5.44951454599208, 5.44951454599208, 5.44951454599208, 5.44951454599208, 5.441439823345658, 5.441439823345658, 5.441439823345658, 5.441439823345658, 5.441439823345658, 5.441439823345658, 5.441439823345658, 5.433387309322079, 5.425356912423666, 5.425356912423666, 5.425356912423666, 5.438982003009761, 5.452601279292803, 5.43027898724728, 5.43027898724728, 5.43027898724728, 5.422277543977498, 5.414297980015368, 5.3921140978776325, 5.3921140978776325, 5.3921140978776325, 5.3841967257960555, 5.384407138517936, 5.384407138517936, 5.3979437585584025, 5.411474643227599, 5.424999796169815, 5.424999796169815, 5.438519221026243, 5.430556703070697, 5.408601035409699, 5.422084466435334, 5.41416744982049, 5.414374811124599, 5.392365209813075, 5.384509648951126, 5.354943883030723, 5.368345213559119, 5.368554401340812, 5.346725080492781, 5.338974596094784, 5.352340702841467, 5.365701221755544, 5.343941350951919, 5.336217954289725, 5.349544369113094, 5.3280100887424195, 5.341317718149533, 5.319682623601454, 5.298247885762857, 5.276869929309229, 5.289317351643635, 5.267664424329062, 5.246062519217722, 5.224662321820368, 5.19551663835276, 5.19551663835276, 5.161155647501367, 5.140642218872683, 5.106570262441244, 5.086163005901021, 5.052226497990117, 5.031924675907041, 5.011667871621847, 4.977757851517267, 4.944087307410966, 4.91049057461575, 4.876792579167544, 4.843163245195584, 4.816325888487595, 4.816504987817703, 4.830150648700755, 4.8437940155264725, 4.857435088873308, 4.871073869319522, 4.871248789150352, 4.8848842399833305, 4.898517399417779, 4.898690219094354, 4.912320051266929, 4.912491808746962, 4.912663540477134, 4.92628901103419, 4.926459681397592, 4.939912192961595, 4.953364461409659, 4.966816486748375, 4.980268268984331, 4.99371980812412, 5.00717110417433, 5.02062215714155, 5.034072967032369, 5.047523533853378, 5.060973857611163, 5.074423938312315, 5.087873775963421, 5.101323370571069, 5.1282218306823415, 5.1416706961991405, 5.155119318698832, 5.168567698188002, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.182015834673237, 5.193898816663056, 5.193898816663056, 5.193898816663056, 5.193898816663056, 5.193898816663056, 5.193898816663056, 5.193898816663056, 5.193898816663056, 5.193898816663056, 5.193898816663056, 5.193898816663056, 5.193898816663056, 5.193898816663056, 5.205764568422428, 5.205764568422428, 5.205764568422428, 5.205764568422428, 5.217613127399749, 5.217613127399749, 5.217613127399749, 5.217613127399749, 5.217613127399749, 5.217613127399749, 5.217613127399749, 5.217613127399749, 5.217613127399749, 5.229444530934976, 5.229444530934976, 5.229444530934976, 5.229444530934976, 5.229444530934976, 5.229444530934976, 5.229444530934976, 5.229444530934976, 5.229444530934976, 5.229444530934976, 5.229444530934976, 5.229444530934976, 5.229444530934976, 5.229444530934976, 5.229444530934976, 5.229444530934976, 5.229444530934976, 5.229444530934976, 5.229444530934976, 5.241258816260012, 5.241258816260012, 5.254727441956444, 5.254727441956444, 5.254727441956444, 5.254727441956444, 5.254727441956444, 5.254727441956444, 5.254727441956444, 5.266508935337377, 5.266508935337377, 5.278273415968611, 5.290020920673765, 5.290020920673765, 5.290020920673765, 5.290020920673765, 5.290020920673765, 5.290020920673765, 5.286172990494004, 5.286172990494004, 5.286172990494004, 5.286172990494004, 5.297889491296742, 5.297889491296742, 5.309589133979297, 5.3229487709819425, 5.3229487709819425, 11.920585531537677, 11.696080423367542, 11.798712133292845, 11.65035406369257, 11.75458966366891, 11.808622493746551, 11.609777654751143, 11.581153095893578, 11.610768232103622, 11.603825549331651, 11.4772366355182, 11.293153271908063, 11.008610479328496, 10.920107832020646, 10.73191167363942, 10.898184327266131, 11.078936376948208, 11.22059170446875, 11.182982434756013, 11.017029036880176, 11.165654944662112, 11.388488509109761, 11.426997154434373, 11.460945052339724, 11.302124308797552, 11.257989198845813, 11.317377312613129, 11.416977656976977, 11.396543674717126, 11.327208272042984, 11.230315979325738, 11.27058735763789, 11.376992070633703, 11.347145893110294, 11.224724215006747, 11.19129625735527, 11.285659035958574, 11.304703202375007, 11.112056365341253, 11.18931264013396, 10.99631004812366, 11.119278183445878, 11.11220228135268, 10.961481137955591, 10.958113610051603, 10.774811891258965, 10.92233609027071, 10.779616368644557, 10.975205587111303, 11.051025573703491, 11.105705346353949, 10.900604939334587, 10.71426824601813, 10.53565690581487, 10.63585505032964, 10.683516040237446, 10.63713846553233, 10.654693051760336, 10.689640336448168, 10.852694891370982, 10.534193583636549, 10.144595604466707, 10.006795509921341, 9.978238783564782, 9.83496568621231, 9.600490524086172, 9.77010337884576, 9.79352164054176, 9.798049675272734, 9.687091323213327, 9.608466646702233, 9.517294483715437, 9.369783949122102, 9.302837980747533, 9.14270315916377, 8.972655998764417, 8.842781481115352, 8.577032322104474, 8.57693243887774, 8.377091993904907, 8.405525187664388, 8.405525187664388, 8.398164222205985, 8.29897777123717, 8.181665868697618, 8.208330484069137, 8.207618793577462, 8.10671045148548, 8.050027955906002, 7.965969948126438, 7.924136502034949, 7.999518610475594, 8.022301584108638, 8.157156364847195, 8.177091173583962, 8.096564067013315, 8.096939124726807, 7.999770160995614, 7.999770160995614, 8.041596931937136, 8.15171826281375, 8.184219361523342, 8.135281373472832, 8.032873351991983, 8.045290520771303, 8.027858889244296, 8.00109795472914, 8.011198437004133, 7.900084523468947, 7.794054676840976, 7.73664344546841, 7.756772052733301, 7.801088495348919, 7.810489254816006, 7.826948539824797, 7.736647109353563, 7.660401633176641, 7.651598115359737, 7.5520532481953895, 7.5952799397529365, 7.500297682290763, 7.515695573384681, 7.567693904987543, 7.538002425893336, 7.52318000033278, 7.552960197883086, 7.5602550911380115, 7.519780727851297, 7.542059026363757, 7.580893810572345, 7.655743163323289, 7.561856104758518, 7.445427565252361, 7.403088876698302, 7.3263940508118885, 7.265028713129606, 7.2175639414034505, 7.095246067162127, 7.055914217638607, 6.974325882120888, 6.882427316289276, 6.908248790206089, 6.989712879623478, 7.0161530823934175, 7.0161530823934175, 7.108162403002733, 7.17546605862003, 7.25620425147851, 7.266504830554279, 7.187803772332488, 7.162567868688483, 7.109877038989333, 7.109877038989333, 7.032182176592463, 7.007173065565851, 7.047026417087079, 7.036148461488042, 6.981228874191625, 6.926465676569575, 6.849588372054351, 6.795163351509915, 6.740892665088794, 6.826196887872087, 6.847330567128216, 6.844970762163027, 6.8708778203275145, 6.850001349678491, 6.786201143422072, 6.672762146147446, 6.579720589278677, 6.516241211804456, 6.452842000104005, 6.407505835789083, 6.350838114239173, 6.347289261282522, 6.3278615351120795, 6.309987892960846, 6.253726485432774, 6.197477962362619, 6.199045077207248, 6.171634652511671, 6.171634652511671, 6.144261670028985, 6.144261670028985, 6.115339058022754, 6.086439663964208, 6.057563459906862, 6.008524314021852, 6.008524314021852, 6.0230155254239754, 5.978355119150027, 5.9495691741614944, 5.9495691741614944, 5.9208062813363425, 5.89206641299494, 5.899638166401848, 5.850785982286546, 5.850785982286546, 5.850785982286546, 5.79596472377496, 5.800355838292905, 5.800355838292905, 5.811695447795441, 5.831838205886753, 5.851966908353492, 5.851966908353492, 5.873686741590808, 5.895403294627504, 5.95322634304342, 6.022316924320929, 6.027977944548108, 6.0643768235688364, 6.107317350453881, 6.143182091542118, 6.134135146633824, 6.134135146633824, 6.176966950790699, 6.219769348365685, 6.2554585725290925, 6.2554585725290925, 6.246342105624255, 6.246342105624255, 6.246342105624255, 6.246342105624255, 6.246342105624255, 6.23724031483138, 6.23724031483138, 6.279903406284308, 6.315444433891997, 6.315444433891997, 6.3580312135476404, 6.348860715046423, 6.339704933781277, 6.375098855676888, 6.3657231351160535, 6.356577462408161, 6.398957843894309, 6.3897960239613045, 6.419881421629395, 6.410720386650139, 6.401573959503282, 6.392442105277037, 6.4275385717424784, 6.418400739652705, 6.453419809324558, 6.444276084758396, 6.486295230895994, 6.528286005034167, 6.563136457018763, 6.597930568110769, 6.588700610758423, 6.60997170632854, 6.660064339333898, 6.696708137846368, 6.733349884219135, 6.739411802760271, 6.745464476270895, 6.796895236703169, 6.810155054781728, 6.776020307833124, 6.7455692086180905, 6.80613743640048, 6.7989760594651845, 6.791821376773086, 6.784673378942199, 6.811528536903123, 6.842260460781217, 6.791562864670952, 6.784431120868057, 6.815131823668687, 6.807998476783712, 6.75742922064624, 6.750329231837665, 6.709388968014213, 6.752792986617235, 6.752523742287506, 6.752523742287506, 6.833647951429451, 6.853030483887895, 6.891158464459895, 6.972955398173795, 7.0161648467496684, 7.0161648467496684, 7.096841575888389, 7.14003128001646, 7.177999886177971, 7.221174496043455, 7.264347745555279, 7.3075</t>
+        </is>
       </c>
     </row>
   </sheetData>
